--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -14,12 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>acc-m=2</t>
+  </si>
+  <si>
+    <t>val_acc-m=2</t>
+  </si>
   <si>
     <t>acc-m=4</t>
   </si>
   <si>
     <t>val_acc-m=4</t>
+  </si>
+  <si>
+    <t>acc-m=6</t>
+  </si>
+  <si>
+    <t>val_acc-m=6</t>
+  </si>
+  <si>
+    <t>loss-m=2</t>
+  </si>
+  <si>
+    <t>[1.796992746003469, 0.6967651924451193, 0.44862927349408466, 0.33346134028434754, 0.28093691843350727, 0.25879272503058115, 0.2410881762822469, 0.22985518767038982, 0.21607913207213084, 0.20643132581710816, 0.20043677208423616, 0.19279560395876566, 0.18684720313549041, 0.18076899704933166, 0.17958156407674153, 0.17622686092853546, 0.16517014120817183, 0.1675150729060173, 0.1632119274020195, 0.16027101627190907, 0.15891791048844656, 0.15707532481749853, 0.1519137887318929, 0.14944538385868072, 0.14822075214385985, 0.14566371644735338, 0.14573252357641855, 0.14269117755889893, 0.14246562378406524, 0.14216998057365418, 0.13942357805172603, 0.13698225876490275, 0.134503923257192, 0.13165372763872146, 0.1337738655368487, 0.13072893450657527, 0.1292339281161626, 0.12576152466535567, 0.12806493743658065, 0.12584856877326966, 0.12592344657580057, 0.12371805160045624, 0.12116852246522904, 0.11968957529067993, 0.12070043286482493, 0.12031274582544962, 0.11826210990548133, 0.11844716369311015, 0.11628279433647791, 0.11470094081958135]</t>
+  </si>
+  <si>
+    <t>loss_acc-m=2</t>
+  </si>
+  <si>
+    <t>[0.7702755502700805, 0.6563847566604615, 0.3599026378154755, 0.45017890539169314, 0.3183985339641571, 0.30679046123027803, 0.327120378780365, 0.23979159350395202, 0.23333257808685304, 0.21906963171958924, 0.2540407627105713, 0.2194236291885376, 0.2269581612586975, 0.23365360078811645, 0.22645604701042174, 0.24647037711143494, 0.2263266718864441, 0.2616854296684265, 0.23852091582119464, 0.2084234191417694, 0.2507894216060638, 0.21081140279769897, 0.23264265180826188, 0.1986100512266159, 0.2375032895565033, 0.20407104939818382, 0.20056182866096497, 0.21715429842472075, 0.19419949502944947, 0.25746903610229493, 0.20248049354553221, 0.20913139414787293, 0.22623862769603728, 0.21040349128246308, 0.269990363907814, 0.19596831715106963, 0.2448221804857254, 0.20863727803230286, 0.2824375217199326, 0.1959837067604065, 0.22818665833473206, 0.2188623044013977, 0.20091066613197325, 0.22043920466899872, 0.19896196842193603, 0.1989090336084366, 0.198925567984581, 0.21428583533763884, 0.2447571233034134, 0.21768616886138917]</t>
+  </si>
+  <si>
+    <t>loss-m=4</t>
+  </si>
+  <si>
+    <t>loss_acc-m=4</t>
+  </si>
+  <si>
+    <t>loss-m=6</t>
+  </si>
+  <si>
+    <t>[4.503869314066569, 2.661051361719767, 2.290957247034709, 2.0497333848953248, 1.92621972395579, 1.8204629552205405, 1.6707618209203083, 1.5977290835698446, 1.4932424040476482, 1.4015185124715168, 1.3456159894943238, 1.2698045771280924, 1.211360136349996, 1.0641954799016318, 0.8206477171103159, 0.6499551862716675, 0.5551745921532313, 0.49615992330710096, 0.46700051301320394, 0.4450902535756429, 0.42538235228061677, 0.4041574338118235, 0.37853184281984964, 0.36581998365720114, 0.3507087033589681, 0.32521757212479907, 0.2944893718878428, 0.26889200901985166, 0.2410573749860128, 0.23416104544003805, 0.22624644918441772, 0.22067735563913982, 0.21454964393774667, 0.2021461422363917, 0.19755044049421946, 0.19168919902642567, 0.19014664398034414, 0.18207378400564195, 0.18442502408822378, 0.17781508094469706, 0.1779800017118454, 0.17239325053095816, 0.1730191473722458, 0.16543579846024514, 0.16698665257294973, 0.1634498503446579, 0.16027647020816804, 0.1571799013932546, 0.15914161904652913, 0.15757559673786165]</t>
+  </si>
+  <si>
+    <t>loss_acc-m=6</t>
+  </si>
+  <si>
+    <t>[3.005065628051758, 2.7198987167358397, 2.075603588104248, 1.8251098693847656, 1.7702643314361572, 1.4919474266052246, 1.4688218254089356, 1.6691759025573731, 1.3327515460968018, 1.5149177101135254, 1.5054072731018067, 1.4002966346740722, 1.087169906616211, 0.902347926902771, 0.7288475505828858, 1.1132038597106935, 0.5745881952285766, 0.4649471841812134, 0.4286325695514679, 0.4874656723499298, 0.479423295044899, 0.4537977313041687, 0.4174393220663071, 0.388511039686203, 0.3700146833896637, 0.3508243861198425, 0.3138568066596985, 0.3729127887248993, 0.26073718004226687, 0.25995339341163637, 0.26036177517175674, 0.2581786008834839, 0.2909464366436005, 0.42741735520362856, 0.280877097594738, 0.26767145290374755, 0.2504728013038635, 0.29114581375122073, 0.24013926157951354, 0.30367343211174014, 0.22645479202270508, 0.2763035492062569, 0.21875227255821228, 0.2675821108579636, 0.25251204488277434, 0.22369246512651444, 0.24162125264406203, 0.27640702130794526, 0.2955663190126419, 0.2535638157725334]</t>
   </si>
 </sst>
 </file>
@@ -27,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -45,6 +87,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -64,7 +136,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,8 +179,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,16 +203,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,78 +227,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,7 +243,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,13 +321,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,25 +369,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,127 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,6 +434,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -419,13 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,21 +506,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -483,15 +534,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -500,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,7 +814,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>acc-m=4</c:v>
+                  <c:v>acc-m=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -799,154 +841,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.411266666634877</c:v>
+                  <c:v>0.738516666698455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.768183333365122</c:v>
+                  <c:v>0.8455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8375</c:v>
+                  <c:v>0.877533333301544</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.864616666634877</c:v>
+                  <c:v>0.895483333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88375</c:v>
+                  <c:v>0.907733333301544</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8936</c:v>
+                  <c:v>0.914933333365122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.899533333333333</c:v>
+                  <c:v>0.918283333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.906616666634877</c:v>
+                  <c:v>0.922316666698455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.911783333333333</c:v>
+                  <c:v>0.9263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91435</c:v>
+                  <c:v>0.930133333301544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.916816666698455</c:v>
+                  <c:v>0.932783333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.920250000031789</c:v>
+                  <c:v>0.93394999996821</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.920583333333333</c:v>
+                  <c:v>0.93549999996821</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92135</c:v>
+                  <c:v>0.937733333365122</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9233</c:v>
+                  <c:v>0.938933333365122</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.925916666634877</c:v>
+                  <c:v>0.939566666698455</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.927583333365122</c:v>
+                  <c:v>0.943116666698455</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.927733333333333</c:v>
+                  <c:v>0.942583333301544</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.929016666666666</c:v>
+                  <c:v>0.943183333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.929816666634877</c:v>
+                  <c:v>0.94505</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.930483333333333</c:v>
+                  <c:v>0.946216666698455</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.93135</c:v>
+                  <c:v>0.946166666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.933583333365122</c:v>
+                  <c:v>0.946616666698455</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93454999996821</c:v>
+                  <c:v>0.94774999996821</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9322</c:v>
+                  <c:v>0.948416666698455</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.932550000031789</c:v>
+                  <c:v>0.948316666634877</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.933383333333333</c:v>
+                  <c:v>0.949783333301544</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.934566666634877</c:v>
+                  <c:v>0.94994999996821</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.93459999996821</c:v>
+                  <c:v>0.95094999996821</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.936516666698455</c:v>
+                  <c:v>0.950916666698455</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.93725</c:v>
+                  <c:v>0.952083333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9355</c:v>
+                  <c:v>0.95255</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.93619999996821</c:v>
+                  <c:v>0.953666666634877</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.937533333333333</c:v>
+                  <c:v>0.954683333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.938616666698455</c:v>
+                  <c:v>0.9532</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.938566666698455</c:v>
+                  <c:v>0.9546</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.936516666666666</c:v>
+                  <c:v>0.9554</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.93905</c:v>
+                  <c:v>0.955783333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.939816666634877</c:v>
+                  <c:v>0.955233333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.939733333365122</c:v>
+                  <c:v>0.955916666698455</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.939416666634877</c:v>
+                  <c:v>0.956183333365122</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.940933333301544</c:v>
+                  <c:v>0.957266666698455</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.941116666634877</c:v>
+                  <c:v>0.957566666698455</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.940433333365122</c:v>
+                  <c:v>0.95869999996821</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.94115</c:v>
+                  <c:v>0.958066666698455</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.941016666634877</c:v>
+                  <c:v>0.958583333301544</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.941083333301544</c:v>
+                  <c:v>0.959066666698455</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.942483333301544</c:v>
+                  <c:v>0.960150000031789</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.942016666634877</c:v>
+                  <c:v>0.960033333301544</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.943383333333333</c:v>
+                  <c:v>0.9597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +1004,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>val_acc-m=4</c:v>
+                  <c:v>val_acc-m=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -989,154 +1031,914 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.6759</c:v>
+                  <c:v>0.8466</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8451</c:v>
+                  <c:v>0.886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8697</c:v>
+                  <c:v>0.8992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8875</c:v>
+                  <c:v>0.8732</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8829</c:v>
+                  <c:v>0.917</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9054</c:v>
+                  <c:v>0.9281</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.9236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9323</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9317</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9346</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9282</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9424</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9053</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.948</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.941</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9066</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9497</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9345</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9444</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9461</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9494</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9312</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9486</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9456</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9487</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9504</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9481</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9505</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.948</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9423</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9453</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9487</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9532</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9415</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9495</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9466</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9527</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9492</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9477</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9507</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SphereFace!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acc-m=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>SphereFace!$B$3:$AY$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.428700000031789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.787733333365122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86649999996821</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89019999996821</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.903933333365122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.914183333365122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.920733333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.926633333301544</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.928816666634877</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.930666666698455</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.933216666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.936516666634877</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93839999996821</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.940916666634877</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.941466666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.944583333301544</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.942666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.945000000031789</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.944183333365122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.947666666666666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.946033333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94799999996821</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.946850000031789</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.948183333301544</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.949566666698455</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.947583333301544</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.949333333365122</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.948683333365122</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.950016666666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.951583333365122</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.950483333301544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.952216666698455</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.951816666634877</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.953333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95389999996821</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.954033333333333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.952533333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.953233333333333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.954166666666666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95614999996821</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.956733333301544</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.955483333333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.955383333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.955533333301544</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.955716666698455</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.957216666666666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.957400000031789</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.956683333365122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SphereFace!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_acc-m=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>SphereFace!$B$4:$AY$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.7583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9085</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9187</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9031</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8894</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9308</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9178</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9194</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9274</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9166</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9164</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9352</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9065</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9185</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9343</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9245</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9136</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9224</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9229</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.8985</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9056</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9079</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.8925</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9201</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9256</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9338</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9251</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9234</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.905</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9217</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9182</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9249</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9214</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0.9156</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SphereFace!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acc-m=6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>SphereFace!$B$5:$AY$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.666616666698455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.811616666634877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.840333333301544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.856583333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.864850000031789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87264999996821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.881633333333333</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9128</c:v>
+                  <c:v>0.88595</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9159</c:v>
+                  <c:v>0.891516666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9135</c:v>
+                  <c:v>0.897350000031789</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9231</c:v>
+                  <c:v>0.899866666698455</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9299</c:v>
+                  <c:v>0.902850000031789</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9103</c:v>
+                  <c:v>0.90244999996821</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9204</c:v>
+                  <c:v>0.9049</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.902233333301544</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.899416666698455</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.90359999996821</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9067</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.910716666698455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.910750000031789</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.914783333301544</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91795</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.918416666666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.921833333365122</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92265</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.922666666698455</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.924966666698455</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.927216666666666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93064999996821</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.930366666666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.930150000031789</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.933233333365122</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.933966666666666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.937783333301544</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93805</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.940733333365122</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.940566666634877</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.94169999996821</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.941916666698455</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.943216666666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.943600000031789</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.945666666634877</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.945183333333333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.947883333365122</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.94624999996821</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.948050000031789</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94825</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95014999996821</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.950216666634877</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.949016666698455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SphereFace!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_acc-m=6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>SphereFace!$B$6:$AY$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.7913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8767</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9069</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8951</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9189</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.919</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8519</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8943</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9257</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8991</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9202</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8966</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9345</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9211</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9297</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9372</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9216</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.9355</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
+                  <c:v>0.9356</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9397</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9397</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9345</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.943</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0.93</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.9372</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.9332</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.9111</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.9213</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.9325</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.9362</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.9133</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.9301</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.9307</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.9322</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.927</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.9259</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.9268</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.9374</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.9363</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.9237</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.9284</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.9344</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9356</c:v>
+                  <c:v>0.9411</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.9362</c:v>
+                  <c:v>0.9296</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.9435</c:v>
+                  <c:v>0.928</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.9328</c:v>
+                  <c:v>0.9448</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.9441</c:v>
+                  <c:v>0.9386</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.9407</c:v>
+                  <c:v>0.9116</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.9311</c:v>
+                  <c:v>0.9447</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.9329</c:v>
+                  <c:v>0.9472</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.9362</c:v>
+                  <c:v>0.9399</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.9432</c:v>
+                  <c:v>0.9471</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.9236</c:v>
+                  <c:v>0.947</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.9323</c:v>
+                  <c:v>0.9487</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.9374</c:v>
+                  <c:v>0.9475</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.9411</c:v>
+                  <c:v>0.9465</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.9405</c:v>
+                  <c:v>0.9449</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.9439</c:v>
+                  <c:v>0.9378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,7 +2139,669 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SphereFace!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loss-m=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>SphereFace!$B$41:$AY$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.15203628625869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.614953836472829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.411733244419097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.338763604164123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.295153510459264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.263031616957982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24465583521525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.230220618549982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.216845081710815</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.210694062550862</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.205897949083646</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.198739878177642</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19415555802981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.190262338868776</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.187397386328379</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.183211089396476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.182001369897524</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.176028664048512</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.177095756959915</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.173993937285741</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.170481328479448</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16367156689167</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.167193339089552</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.163745887565612</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.165038088957468</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.159962185295422</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.158253463160991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.161334856359163</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.153845995211601</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.158008680494626</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.156026821275552</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.152065652887026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.153394744753837</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.150756739203135</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.147371281981468</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14519886337916</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.146308003948132</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.144546408025423</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.146826561729113</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.146823473509152</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.144211389283339</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.140161772469679</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.140314832556247</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.138491430004437</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.140811289652188</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.141275468802452</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.136189713962872</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.136460562535127</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.137623570076624</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.135407358038425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SphereFace!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loss_acc-m=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>SphereFace!$B$42:$AY$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.715602321147918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.352223469424247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.335182739984989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.501621952009201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.531459507608413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.289538801813125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.392821443367004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.408278045129776</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.371398489081859</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37630773024559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42825316991806</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.275959285259246</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50930651640892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.327229115605354</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.514373969316482</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.265683312892913</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.558711115503311</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30993900899887</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.584694111824035</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46620564289093</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.320549545073509</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.302736858201026</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50904691119194</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.386017687368392</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.330256191086769</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.485769724082946</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.474691577792167</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.478175974273681</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.32877195982933</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.4230027926445</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.477516760993003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.435743067359924</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.391898934268951</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.545273218059539</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.468435247254371</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.26506108341217</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.461449797344207</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.586146600914001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.479364687776565</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.428875145435333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.3752063580513</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.406557753896713</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.402709792852401</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.529030613899231</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.406075363206863</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.423663830614089</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.320016308498382</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.418127346658706</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.392980967664718</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.37712640209198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="451141328"/>
+        <c:axId val="620257167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="451141328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620257167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="620257167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451141328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1893,20 +3357,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1914,12 +3894,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="647700" y="1536700"/>
-        <a:ext cx="8867775" cy="4513580"/>
+        <a:off x="4772025" y="1241425"/>
+        <a:ext cx="6753225" cy="3970020"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1365250" y="7499350"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2186,325 +4196,1287 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="51" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:51">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>0.411266666634877</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.768183333365122</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.8375</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0.864616666634877</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0.88375</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="B1">
+        <v>0.738516666698455</v>
+      </c>
+      <c r="C1">
+        <v>0.8455</v>
+      </c>
+      <c r="D1">
+        <v>0.877533333301544</v>
+      </c>
+      <c r="E1">
+        <v>0.895483333333333</v>
+      </c>
+      <c r="F1">
+        <v>0.907733333301544</v>
+      </c>
+      <c r="G1">
+        <v>0.914933333365122</v>
+      </c>
+      <c r="H1">
+        <v>0.918283333333333</v>
+      </c>
+      <c r="I1">
+        <v>0.922316666698455</v>
+      </c>
+      <c r="J1">
+        <v>0.9263</v>
+      </c>
+      <c r="K1">
+        <v>0.930133333301544</v>
+      </c>
+      <c r="L1">
+        <v>0.932783333333333</v>
+      </c>
+      <c r="M1">
+        <v>0.93394999996821</v>
+      </c>
+      <c r="N1">
+        <v>0.93549999996821</v>
+      </c>
+      <c r="O1">
+        <v>0.937733333365122</v>
+      </c>
+      <c r="P1">
+        <v>0.938933333365122</v>
+      </c>
+      <c r="Q1">
+        <v>0.939566666698455</v>
+      </c>
+      <c r="R1">
+        <v>0.943116666698455</v>
+      </c>
+      <c r="S1">
+        <v>0.942583333301544</v>
+      </c>
+      <c r="T1">
+        <v>0.943183333333333</v>
+      </c>
+      <c r="U1">
+        <v>0.94505</v>
+      </c>
+      <c r="V1">
+        <v>0.946216666698455</v>
+      </c>
+      <c r="W1">
+        <v>0.946166666666666</v>
+      </c>
+      <c r="X1">
+        <v>0.946616666698455</v>
+      </c>
+      <c r="Y1">
+        <v>0.94774999996821</v>
+      </c>
+      <c r="Z1">
+        <v>0.948416666698455</v>
+      </c>
+      <c r="AA1">
+        <v>0.948316666634877</v>
+      </c>
+      <c r="AB1">
+        <v>0.949783333301544</v>
+      </c>
+      <c r="AC1">
+        <v>0.94994999996821</v>
+      </c>
+      <c r="AD1">
+        <v>0.95094999996821</v>
+      </c>
+      <c r="AE1">
+        <v>0.950916666698455</v>
+      </c>
+      <c r="AF1">
+        <v>0.952083333333333</v>
+      </c>
+      <c r="AG1">
+        <v>0.95255</v>
+      </c>
+      <c r="AH1">
+        <v>0.953666666634877</v>
+      </c>
+      <c r="AI1">
+        <v>0.954683333333333</v>
+      </c>
+      <c r="AJ1">
+        <v>0.9532</v>
+      </c>
+      <c r="AK1">
+        <v>0.9546</v>
+      </c>
+      <c r="AL1">
+        <v>0.9554</v>
+      </c>
+      <c r="AM1">
+        <v>0.955783333333333</v>
+      </c>
+      <c r="AN1">
+        <v>0.955233333333333</v>
+      </c>
+      <c r="AO1">
+        <v>0.955916666698455</v>
+      </c>
+      <c r="AP1">
+        <v>0.956183333365122</v>
+      </c>
+      <c r="AQ1">
+        <v>0.957266666698455</v>
+      </c>
+      <c r="AR1">
+        <v>0.957566666698455</v>
+      </c>
+      <c r="AS1">
+        <v>0.95869999996821</v>
+      </c>
+      <c r="AT1">
+        <v>0.958066666698455</v>
+      </c>
+      <c r="AU1">
+        <v>0.958583333301544</v>
+      </c>
+      <c r="AV1">
+        <v>0.959066666698455</v>
+      </c>
+      <c r="AW1">
+        <v>0.960150000031789</v>
+      </c>
+      <c r="AX1">
+        <v>0.960033333301544</v>
+      </c>
+      <c r="AY1">
+        <v>0.9597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.8466</v>
+      </c>
+      <c r="C2">
+        <v>0.886</v>
+      </c>
+      <c r="D2">
+        <v>0.8992</v>
+      </c>
+      <c r="E2">
+        <v>0.8732</v>
+      </c>
+      <c r="F2">
+        <v>0.917</v>
+      </c>
+      <c r="G2">
+        <v>0.9281</v>
+      </c>
+      <c r="H2">
+        <v>0.9236</v>
+      </c>
+      <c r="I2">
+        <v>0.934</v>
+      </c>
+      <c r="J2">
+        <v>0.9323</v>
+      </c>
+      <c r="K2">
+        <v>0.9317</v>
+      </c>
+      <c r="L2">
+        <v>0.9346</v>
+      </c>
+      <c r="M2">
+        <v>0.9225</v>
+      </c>
+      <c r="N2">
+        <v>0.9415</v>
+      </c>
+      <c r="O2">
+        <v>0.9282</v>
+      </c>
+      <c r="P2">
+        <v>0.9424</v>
+      </c>
+      <c r="Q2">
+        <v>0.9273</v>
+      </c>
+      <c r="R2">
+        <v>0.9377</v>
+      </c>
+      <c r="S2">
+        <v>0.9053</v>
+      </c>
+      <c r="T2">
+        <v>0.948</v>
+      </c>
+      <c r="U2">
+        <v>0.941</v>
+      </c>
+      <c r="V2">
+        <v>0.9066</v>
+      </c>
+      <c r="W2">
+        <v>0.9348</v>
+      </c>
+      <c r="X2">
+        <v>0.9497</v>
+      </c>
+      <c r="Y2">
+        <v>0.9345</v>
+      </c>
+      <c r="Z2">
+        <v>0.9444</v>
+      </c>
+      <c r="AA2">
+        <v>0.9461</v>
+      </c>
+      <c r="AB2">
+        <v>0.9499</v>
+      </c>
+      <c r="AC2">
+        <v>0.9494</v>
+      </c>
+      <c r="AD2">
+        <v>0.9312</v>
+      </c>
+      <c r="AE2">
+        <v>0.9486</v>
+      </c>
+      <c r="AF2">
+        <v>0.9456</v>
+      </c>
+      <c r="AG2">
+        <v>0.9487</v>
+      </c>
+      <c r="AH2">
+        <v>0.9504</v>
+      </c>
+      <c r="AI2">
+        <v>0.9481</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9501</v>
+      </c>
+      <c r="AK2">
+        <v>0.9505</v>
+      </c>
+      <c r="AL2">
+        <v>0.9108</v>
+      </c>
+      <c r="AM2">
+        <v>0.948</v>
+      </c>
+      <c r="AN2">
+        <v>0.9423</v>
+      </c>
+      <c r="AO2">
+        <v>0.9453</v>
+      </c>
+      <c r="AP2">
+        <v>0.9487</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9532</v>
+      </c>
+      <c r="AR2">
+        <v>0.9415</v>
+      </c>
+      <c r="AS2">
+        <v>0.9495</v>
+      </c>
+      <c r="AT2">
+        <v>0.9466</v>
+      </c>
+      <c r="AU2">
+        <v>0.9527</v>
+      </c>
+      <c r="AV2">
+        <v>0.9492</v>
+      </c>
+      <c r="AW2">
+        <v>0.9477</v>
+      </c>
+      <c r="AX2">
+        <v>0.9507</v>
+      </c>
+      <c r="AY2">
+        <v>0.9505</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.428700000031789</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.787733333365122</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.86649999996821</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.89019999996821</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.903933333365122</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.914183333365122</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.920733333333333</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.926633333301544</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.928816666634877</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.930666666698455</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.933216666666666</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.936516666634877</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.9381</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.93839999996821</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.9398</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.940916666634877</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.941466666666666</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.944583333301544</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.942666666666666</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.945000000031789</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.944183333365122</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.947666666666666</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.946033333333333</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.94799999996821</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.946850000031789</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.948183333301544</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.949566666698455</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0.947583333301544</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0.949333333365122</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.948683333365122</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0.950016666666666</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0.951583333365122</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0.950483333301544</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.952216666698455</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0.951816666634877</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0.953333333333333</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0.95389999996821</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0.954033333333333</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0.952533333333333</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0.953233333333333</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0.954166666666666</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0.95614999996821</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0.956733333301544</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0.955483333333333</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0.955383333333333</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0.955533333301544</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0.955716666698455</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>0.957216666666666</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>0.957400000031789</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>0.956683333365122</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.7583</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.8796</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.8913</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.8823</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.9234</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.9085</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.9153</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.9121</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.9187</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.8976</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.9304</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.906</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.9119</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.9031</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.9308</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.8894</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.9308</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.8901</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.9178</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.9194</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.9274</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.9166</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.9164</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.9352</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.9065</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.9185</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0.9159</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.9343</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.9245</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.9136</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.9224</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0.9229</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0.8985</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0.9056</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0.929</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0.9079</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0.8925</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0.9201</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0.9256</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0.9338</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0.9251</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0.9234</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0.905</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0.9217</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0.9182</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0.9249</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0.9214</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>0.9156</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>0.9207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.666616666698455</v>
+      </c>
+      <c r="C5">
+        <v>0.811616666634877</v>
+      </c>
+      <c r="D5">
+        <v>0.840333333301544</v>
+      </c>
+      <c r="E5">
+        <v>0.856583333333333</v>
+      </c>
+      <c r="F5">
+        <v>0.864850000031789</v>
+      </c>
+      <c r="G5">
+        <v>0.87264999996821</v>
+      </c>
+      <c r="H5">
+        <v>0.881633333333333</v>
+      </c>
+      <c r="I5">
+        <v>0.88595</v>
+      </c>
+      <c r="J5">
+        <v>0.891516666666666</v>
+      </c>
+      <c r="K5">
+        <v>0.897350000031789</v>
+      </c>
+      <c r="L5">
+        <v>0.899866666698455</v>
+      </c>
+      <c r="M5">
+        <v>0.902850000031789</v>
+      </c>
+      <c r="N5">
+        <v>0.90244999996821</v>
+      </c>
+      <c r="O5">
+        <v>0.9049</v>
+      </c>
+      <c r="P5">
+        <v>0.902233333301544</v>
+      </c>
+      <c r="Q5">
+        <v>0.899416666698455</v>
+      </c>
+      <c r="R5">
+        <v>0.90359999996821</v>
+      </c>
+      <c r="S5">
+        <v>0.9067</v>
+      </c>
+      <c r="T5">
+        <v>0.910716666698455</v>
+      </c>
+      <c r="U5">
+        <v>0.910750000031789</v>
+      </c>
+      <c r="V5">
+        <v>0.914783333301544</v>
+      </c>
+      <c r="W5">
+        <v>0.91795</v>
+      </c>
+      <c r="X5">
+        <v>0.918416666666666</v>
+      </c>
+      <c r="Y5">
+        <v>0.921833333365122</v>
+      </c>
+      <c r="Z5">
+        <v>0.92265</v>
+      </c>
+      <c r="AA5">
+        <v>0.922666666698455</v>
+      </c>
+      <c r="AB5">
+        <v>0.924966666698455</v>
+      </c>
+      <c r="AC5">
+        <v>0.927216666666666</v>
+      </c>
+      <c r="AD5">
+        <v>0.93064999996821</v>
+      </c>
+      <c r="AE5">
+        <v>0.930366666666666</v>
+      </c>
+      <c r="AF5">
+        <v>0.930150000031789</v>
+      </c>
+      <c r="AG5">
+        <v>0.933233333365122</v>
+      </c>
+      <c r="AH5">
+        <v>0.933966666666666</v>
+      </c>
+      <c r="AI5">
+        <v>0.937783333301544</v>
+      </c>
+      <c r="AJ5">
+        <v>0.93805</v>
+      </c>
+      <c r="AK5">
+        <v>0.940733333365122</v>
+      </c>
+      <c r="AL5">
+        <v>0.940566666634877</v>
+      </c>
+      <c r="AM5">
+        <v>0.94169999996821</v>
+      </c>
+      <c r="AN5">
+        <v>0.941916666698455</v>
+      </c>
+      <c r="AO5">
+        <v>0.943216666666666</v>
+      </c>
+      <c r="AP5">
+        <v>0.943600000031789</v>
+      </c>
+      <c r="AQ5">
+        <v>0.945666666634877</v>
+      </c>
+      <c r="AR5">
+        <v>0.945183333333333</v>
+      </c>
+      <c r="AS5">
+        <v>0.947883333365122</v>
+      </c>
+      <c r="AT5">
+        <v>0.94624999996821</v>
+      </c>
+      <c r="AU5">
+        <v>0.948050000031789</v>
+      </c>
+      <c r="AV5">
+        <v>0.94825</v>
+      </c>
+      <c r="AW5">
+        <v>0.95014999996821</v>
+      </c>
+      <c r="AX5">
+        <v>0.950216666634877</v>
+      </c>
+      <c r="AY5">
+        <v>0.949016666698455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.7913</v>
+      </c>
+      <c r="C6">
+        <v>0.8104</v>
+      </c>
+      <c r="D6">
+        <v>0.8606</v>
+      </c>
+      <c r="E6">
+        <v>0.8767</v>
+      </c>
+      <c r="F6">
+        <v>0.8784</v>
+      </c>
+      <c r="G6">
+        <v>0.8979</v>
+      </c>
+      <c r="H6">
+        <v>0.8982</v>
+      </c>
+      <c r="I6">
+        <v>0.8844</v>
+      </c>
+      <c r="J6">
+        <v>0.9069</v>
+      </c>
+      <c r="K6">
+        <v>0.8988</v>
+      </c>
+      <c r="L6">
+        <v>0.8951</v>
+      </c>
+      <c r="M6">
         <v>0.8936</v>
       </c>
-      <c r="H1" s="1">
-        <v>0.899533333333333</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0.906616666634877</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0.911783333333333</v>
-      </c>
-      <c r="K1" s="1">
-        <v>0.91435</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0.916816666698455</v>
-      </c>
-      <c r="M1" s="1">
-        <v>0.920250000031789</v>
-      </c>
-      <c r="N1" s="1">
-        <v>0.920583333333333</v>
-      </c>
-      <c r="O1" s="1">
-        <v>0.92135</v>
-      </c>
-      <c r="P1" s="1">
-        <v>0.9233</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>0.925916666634877</v>
-      </c>
-      <c r="R1" s="1">
-        <v>0.927583333365122</v>
-      </c>
-      <c r="S1" s="1">
-        <v>0.927733333333333</v>
-      </c>
-      <c r="T1" s="1">
-        <v>0.929016666666666</v>
-      </c>
-      <c r="U1" s="1">
-        <v>0.929816666634877</v>
-      </c>
-      <c r="V1" s="1">
-        <v>0.930483333333333</v>
-      </c>
-      <c r="W1" s="1">
-        <v>0.93135</v>
-      </c>
-      <c r="X1" s="1">
-        <v>0.933583333365122</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>0.93454999996821</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>0.9322</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>0.932550000031789</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>0.933383333333333</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>0.934566666634877</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>0.93459999996821</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>0.936516666698455</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>0.93725</v>
-      </c>
-      <c r="AG1" s="1">
+      <c r="N6">
+        <v>0.9189</v>
+      </c>
+      <c r="O6">
+        <v>0.9248</v>
+      </c>
+      <c r="P6">
+        <v>0.919</v>
+      </c>
+      <c r="Q6">
+        <v>0.8519</v>
+      </c>
+      <c r="R6">
+        <v>0.8943</v>
+      </c>
+      <c r="S6">
+        <v>0.921</v>
+      </c>
+      <c r="T6">
+        <v>0.9257</v>
+      </c>
+      <c r="U6">
+        <v>0.8991</v>
+      </c>
+      <c r="V6">
+        <v>0.9202</v>
+      </c>
+      <c r="W6">
+        <v>0.8966</v>
+      </c>
+      <c r="X6">
+        <v>0.9345</v>
+      </c>
+      <c r="Y6">
+        <v>0.9211</v>
+      </c>
+      <c r="Z6">
+        <v>0.9297</v>
+      </c>
+      <c r="AA6">
+        <v>0.9372</v>
+      </c>
+      <c r="AB6">
+        <v>0.9216</v>
+      </c>
+      <c r="AC6">
         <v>0.9355</v>
       </c>
-      <c r="AH1" s="1">
-        <v>0.93619999996821</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>0.937533333333333</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>0.938616666698455</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>0.938566666698455</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>0.936516666666666</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>0.93905</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>0.939816666634877</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>0.939733333365122</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>0.939416666634877</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>0.940933333301544</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>0.941116666634877</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>0.940433333365122</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>0.94115</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>0.941016666634877</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>0.941083333301544</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>0.942483333301544</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>0.942016666634877</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>0.943383333333333</v>
+      <c r="AD6">
+        <v>0.9356</v>
+      </c>
+      <c r="AE6">
+        <v>0.9397</v>
+      </c>
+      <c r="AF6">
+        <v>0.9397</v>
+      </c>
+      <c r="AG6">
+        <v>0.9345</v>
+      </c>
+      <c r="AH6">
+        <v>0.943</v>
+      </c>
+      <c r="AI6">
+        <v>0.93</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9411</v>
+      </c>
+      <c r="AK6">
+        <v>0.9296</v>
+      </c>
+      <c r="AL6">
+        <v>0.928</v>
+      </c>
+      <c r="AM6">
+        <v>0.9448</v>
+      </c>
+      <c r="AN6">
+        <v>0.9386</v>
+      </c>
+      <c r="AO6">
+        <v>0.9116</v>
+      </c>
+      <c r="AP6">
+        <v>0.9447</v>
+      </c>
+      <c r="AQ6">
+        <v>0.9472</v>
+      </c>
+      <c r="AR6">
+        <v>0.9399</v>
+      </c>
+      <c r="AS6">
+        <v>0.9471</v>
+      </c>
+      <c r="AT6">
+        <v>0.947</v>
+      </c>
+      <c r="AU6">
+        <v>0.9487</v>
+      </c>
+      <c r="AV6">
+        <v>0.9475</v>
+      </c>
+      <c r="AW6">
+        <v>0.9465</v>
+      </c>
+      <c r="AX6">
+        <v>0.9449</v>
+      </c>
+      <c r="AY6">
+        <v>0.9378</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.6759</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.8451</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.8697</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.8875</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.8829</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.9054</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.9156</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.9128</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.9159</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.9135</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.9231</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.9299</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.9103</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0.9204</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.9355</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0.9372</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.9332</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0.9111</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0.9213</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0.9325</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0.9362</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0.9133</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0.9301</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0.9307</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0.9322</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0.927</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0.9259</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0.9268</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0.9374</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0.9363</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0.9237</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0.9284</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>0.9344</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0.9356</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0.9362</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>0.9435</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>0.9328</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>0.9441</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>0.9407</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>0.9311</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>0.9329</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>0.9362</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>0.9432</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>0.9236</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>0.9323</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>0.9374</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>0.9411</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>0.9405</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>0.9439</v>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2.15203628625869</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.614953836472829</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.411733244419097</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.338763604164123</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.295153510459264</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.263031616957982</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.24465583521525</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.230220618549982</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.216845081710815</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.210694062550862</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.205897949083646</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.198739878177642</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.19415555802981</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0.190262338868776</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0.187397386328379</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0.183211089396476</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0.182001369897524</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0.176028664048512</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0.177095756959915</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0.173993937285741</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0.170481328479448</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0.16367156689167</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0.167193339089552</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>0.163745887565612</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0.165038088957468</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0.159962185295422</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>0.158253463160991</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0.161334856359163</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>0.153845995211601</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>0.158008680494626</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>0.156026821275552</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>0.152065652887026</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>0.153394744753837</v>
+      </c>
+      <c r="AI41" s="2">
+        <v>0.150756739203135</v>
+      </c>
+      <c r="AJ41" s="2">
+        <v>0.147371281981468</v>
+      </c>
+      <c r="AK41" s="2">
+        <v>0.14519886337916</v>
+      </c>
+      <c r="AL41" s="2">
+        <v>0.146308003948132</v>
+      </c>
+      <c r="AM41" s="2">
+        <v>0.144546408025423</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>0.146826561729113</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>0.146823473509152</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>0.144211389283339</v>
+      </c>
+      <c r="AQ41" s="2">
+        <v>0.140161772469679</v>
+      </c>
+      <c r="AR41" s="2">
+        <v>0.140314832556247</v>
+      </c>
+      <c r="AS41" s="2">
+        <v>0.138491430004437</v>
+      </c>
+      <c r="AT41" s="2">
+        <v>0.140811289652188</v>
+      </c>
+      <c r="AU41" s="2">
+        <v>0.141275468802452</v>
+      </c>
+      <c r="AV41" s="2">
+        <v>0.136189713962872</v>
+      </c>
+      <c r="AW41" s="2">
+        <v>0.136460562535127</v>
+      </c>
+      <c r="AX41" s="2">
+        <v>0.137623570076624</v>
+      </c>
+      <c r="AY41" s="2">
+        <v>0.135407358038425</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.715602321147918</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.352223469424247</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.335182739984989</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.501621952009201</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.531459507608413</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.289538801813125</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.392821443367004</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.408278045129776</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.371398489081859</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.37630773024559</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.42825316991806</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0.275959285259246</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0.50930651640892</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.327229115605354</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.514373969316482</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0.265683312892913</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0.558711115503311</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0.30993900899887</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0.584694111824035</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0.46620564289093</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0.320549545073509</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0.302736858201026</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0.50904691119194</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0.386017687368392</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0.330256191086769</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0.485769724082946</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>0.474691577792167</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>0.478175974273681</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>0.32877195982933</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>0.4230027926445</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>0.477516760993003</v>
+      </c>
+      <c r="AG42" s="2">
+        <v>0.435743067359924</v>
+      </c>
+      <c r="AH42" s="2">
+        <v>0.391898934268951</v>
+      </c>
+      <c r="AI42" s="2">
+        <v>0.545273218059539</v>
+      </c>
+      <c r="AJ42" s="2">
+        <v>0.468435247254371</v>
+      </c>
+      <c r="AK42" s="2">
+        <v>0.26506108341217</v>
+      </c>
+      <c r="AL42" s="2">
+        <v>0.461449797344207</v>
+      </c>
+      <c r="AM42" s="2">
+        <v>0.586146600914001</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>0.479364687776565</v>
+      </c>
+      <c r="AO42" s="2">
+        <v>0.428875145435333</v>
+      </c>
+      <c r="AP42" s="2">
+        <v>0.3752063580513</v>
+      </c>
+      <c r="AQ42" s="2">
+        <v>0.406557753896713</v>
+      </c>
+      <c r="AR42" s="2">
+        <v>0.402709792852401</v>
+      </c>
+      <c r="AS42" s="2">
+        <v>0.529030613899231</v>
+      </c>
+      <c r="AT42" s="2">
+        <v>0.406075363206863</v>
+      </c>
+      <c r="AU42" s="2">
+        <v>0.423663830614089</v>
+      </c>
+      <c r="AV42" s="2">
+        <v>0.320016308498382</v>
+      </c>
+      <c r="AW42" s="2">
+        <v>0.418127346658706</v>
+      </c>
+      <c r="AX42" s="2">
+        <v>0.392980967664718</v>
+      </c>
+      <c r="AY42" s="2">
+        <v>0.37712640209198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -70,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -90,71 +90,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,8 +120,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,14 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -203,17 +205,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +243,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,19 +303,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,19 +339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +357,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,61 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,37 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +434,84 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,84 +534,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -542,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,141 +554,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -770,6 +767,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Val acc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -779,25 +801,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -805,196 +808,6 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SphereFace!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>acc-m=2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>SphereFace!$B$1:$AY$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.738516666698455</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8455</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.877533333301544</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.895483333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.907733333301544</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.914933333365122</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.918283333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.922316666698455</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9263</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.930133333301544</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.932783333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.93394999996821</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.93549999996821</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.937733333365122</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.938933333365122</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.939566666698455</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.943116666698455</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.942583333301544</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.943183333333333</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94505</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.946216666698455</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.946166666666666</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.946616666698455</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.94774999996821</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.948416666698455</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.948316666634877</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.949783333301544</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.94994999996821</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.95094999996821</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.950916666698455</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.952083333333333</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.95255</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.953666666634877</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.954683333333333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.9532</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.9546</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.9554</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.955783333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.955233333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.955916666698455</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.956183333365122</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.957266666698455</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.957566666698455</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.95869999996821</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.958066666698455</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.958583333301544</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.959066666698455</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.960150000031789</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.960033333301544</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.9597</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1186,196 +999,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SphereFace!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>acc-m=4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>SphereFace!$B$3:$AY$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.428700000031789</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.787733333365122</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86649999996821</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89019999996821</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.903933333365122</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.914183333365122</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.920733333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.926633333301544</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.928816666634877</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.930666666698455</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.933216666666666</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.936516666634877</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.9381</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.93839999996821</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.9398</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.940916666634877</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.941466666666666</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.944583333301544</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.942666666666666</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.945000000031789</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.944183333365122</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.947666666666666</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.946033333333333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.94799999996821</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.946850000031789</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.948183333301544</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.949566666698455</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.947583333301544</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.949333333365122</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.948683333365122</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.950016666666666</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.951583333365122</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.950483333301544</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.952216666698455</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.951816666634877</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.953333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.95389999996821</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.954033333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.952533333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.953233333333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.954166666666666</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.95614999996821</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.956733333301544</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.955483333333333</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.955383333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.955533333301544</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.955716666698455</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.957216666666666</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.957400000031789</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.956683333365122</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -1566,196 +1189,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SphereFace!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>acc-m=6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>SphereFace!$B$5:$AY$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.666616666698455</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.811616666634877</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.840333333301544</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.856583333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.864850000031789</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.87264999996821</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.881633333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88595</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.891516666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.897350000031789</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.899866666698455</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.902850000031789</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.90244999996821</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9049</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.902233333301544</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.899416666698455</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.90359999996821</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.9067</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.910716666698455</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.910750000031789</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.914783333301544</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.91795</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.918416666666666</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.921833333365122</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.92265</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.922666666698455</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.924966666698455</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.927216666666666</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.93064999996821</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.930366666666666</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.930150000031789</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.933233333365122</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.933966666666666</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.937783333301544</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.93805</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.940733333365122</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.940566666634877</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.94169999996821</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.941916666698455</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.943216666666666</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.943600000031789</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.945666666634877</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.945183333333333</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.947883333365122</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.94624999996821</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.948050000031789</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.94825</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.95014999996821</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.950216666634877</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.949016666698455</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
@@ -1957,6 +1390,622 @@
         <c:smooth val="0"/>
         <c:axId val="485441608"/>
         <c:axId val="956545819"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>SphereFace!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>acc-m=2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>SphereFace!$B$1:$AY$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0.738516666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8455</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.877533333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.895483333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.907733333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.914933333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.918283333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.922316666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.9263</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.930133333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.932783333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.93394999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.93549999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.937733333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.938933333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.939566666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.943116666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.942583333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.943183333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.94505</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.946216666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.946166666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.946616666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.94774999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.948416666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.948316666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.949783333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.94994999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.95094999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.950916666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.952083333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.95255</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.953666666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.954683333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.9532</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.9546</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.9554</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.955783333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.955233333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.955916666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.956183333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.957266666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.957566666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.95869999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.958066666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.958583333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.959066666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.960150000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.960033333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.9597</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>SphereFace!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>acc-m=4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>SphereFace!$B$3:$AY$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0.428700000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.787733333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.86649999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.89019999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.903933333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.914183333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.920733333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.926633333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.928816666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.930666666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.933216666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.936516666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.9381</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.93839999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.9398</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.940916666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.941466666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.944583333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.942666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.945000000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.944183333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.947666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.946033333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.94799999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.946850000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.948183333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.949566666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.947583333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.949333333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.948683333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.950016666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.951583333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.950483333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.952216666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.951816666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.953333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.95389999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.954033333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.952533333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.953233333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.954166666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.95614999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.956733333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.955483333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.955383333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.955533333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.955716666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.957216666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.957400000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.956683333365122</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>SphereFace!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>acc-m=6</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>SphereFace!$B$5:$AY$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0.666616666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.811616666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.840333333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.856583333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.864850000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.87264999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.881633333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.88595</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.891516666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.897350000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.899866666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.902850000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.90244999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.9049</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.902233333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.899416666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.90359999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.9067</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.910716666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.910750000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.914783333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.91795</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.918416666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.921833333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.92265</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.922666666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.924966666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.927216666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.93064999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.930366666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.930150000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.933233333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.933966666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.937783333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.93805</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.940733333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.940566666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.94169999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.941916666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.943216666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.943600000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.945666666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.945183333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.947883333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.94624999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.948050000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.94825</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.95014999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.950216666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.949016666698455</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="485441608"/>
@@ -4199,7 +4248,7 @@
   <dimension ref="A1:AY44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5153,313 +5202,313 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="11.25" spans="1:51">
+    <row r="41" s="1" customFormat="1" ht="11.25" spans="1:51">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>2.15203628625869</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>0.614953836472829</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>0.411733244419097</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>0.338763604164123</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>0.295153510459264</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>0.263031616957982</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>0.24465583521525</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>0.230220618549982</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>0.216845081710815</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>0.210694062550862</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1">
         <v>0.205897949083646</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="1">
         <v>0.198739878177642</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="1">
         <v>0.19415555802981</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="1">
         <v>0.190262338868776</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="1">
         <v>0.187397386328379</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="1">
         <v>0.183211089396476</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41" s="1">
         <v>0.182001369897524</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="1">
         <v>0.176028664048512</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T41" s="1">
         <v>0.177095756959915</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U41" s="1">
         <v>0.173993937285741</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41" s="1">
         <v>0.170481328479448</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41" s="1">
         <v>0.16367156689167</v>
       </c>
-      <c r="X41" s="2">
+      <c r="X41" s="1">
         <v>0.167193339089552</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="Y41" s="1">
         <v>0.163745887565612</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="Z41" s="1">
         <v>0.165038088957468</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AA41" s="1">
         <v>0.159962185295422</v>
       </c>
-      <c r="AB41" s="2">
+      <c r="AB41" s="1">
         <v>0.158253463160991</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AC41" s="1">
         <v>0.161334856359163</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41" s="1">
         <v>0.153845995211601</v>
       </c>
-      <c r="AE41" s="2">
+      <c r="AE41" s="1">
         <v>0.158008680494626</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AF41" s="1">
         <v>0.156026821275552</v>
       </c>
-      <c r="AG41" s="2">
+      <c r="AG41" s="1">
         <v>0.152065652887026</v>
       </c>
-      <c r="AH41" s="2">
+      <c r="AH41" s="1">
         <v>0.153394744753837</v>
       </c>
-      <c r="AI41" s="2">
+      <c r="AI41" s="1">
         <v>0.150756739203135</v>
       </c>
-      <c r="AJ41" s="2">
+      <c r="AJ41" s="1">
         <v>0.147371281981468</v>
       </c>
-      <c r="AK41" s="2">
+      <c r="AK41" s="1">
         <v>0.14519886337916</v>
       </c>
-      <c r="AL41" s="2">
+      <c r="AL41" s="1">
         <v>0.146308003948132</v>
       </c>
-      <c r="AM41" s="2">
+      <c r="AM41" s="1">
         <v>0.144546408025423</v>
       </c>
-      <c r="AN41" s="2">
+      <c r="AN41" s="1">
         <v>0.146826561729113</v>
       </c>
-      <c r="AO41" s="2">
+      <c r="AO41" s="1">
         <v>0.146823473509152</v>
       </c>
-      <c r="AP41" s="2">
+      <c r="AP41" s="1">
         <v>0.144211389283339</v>
       </c>
-      <c r="AQ41" s="2">
+      <c r="AQ41" s="1">
         <v>0.140161772469679</v>
       </c>
-      <c r="AR41" s="2">
+      <c r="AR41" s="1">
         <v>0.140314832556247</v>
       </c>
-      <c r="AS41" s="2">
+      <c r="AS41" s="1">
         <v>0.138491430004437</v>
       </c>
-      <c r="AT41" s="2">
+      <c r="AT41" s="1">
         <v>0.140811289652188</v>
       </c>
-      <c r="AU41" s="2">
+      <c r="AU41" s="1">
         <v>0.141275468802452</v>
       </c>
-      <c r="AV41" s="2">
+      <c r="AV41" s="1">
         <v>0.136189713962872</v>
       </c>
-      <c r="AW41" s="2">
+      <c r="AW41" s="1">
         <v>0.136460562535127</v>
       </c>
-      <c r="AX41" s="2">
+      <c r="AX41" s="1">
         <v>0.137623570076624</v>
       </c>
-      <c r="AY41" s="2">
+      <c r="AY41" s="1">
         <v>0.135407358038425</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="11.25" spans="1:51">
+    <row r="42" s="1" customFormat="1" ht="11.25" spans="1:51">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>0.715602321147918</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>0.352223469424247</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>0.335182739984989</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>0.501621952009201</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>0.531459507608413</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>0.289538801813125</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>0.392821443367004</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>0.408278045129776</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>0.371398489081859</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>0.37630773024559</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>0.42825316991806</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="1">
         <v>0.275959285259246</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="1">
         <v>0.50930651640892</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="1">
         <v>0.327229115605354</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="1">
         <v>0.514373969316482</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42" s="1">
         <v>0.265683312892913</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42" s="1">
         <v>0.558711115503311</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="1">
         <v>0.30993900899887</v>
       </c>
-      <c r="T42" s="2">
+      <c r="T42" s="1">
         <v>0.584694111824035</v>
       </c>
-      <c r="U42" s="2">
+      <c r="U42" s="1">
         <v>0.46620564289093</v>
       </c>
-      <c r="V42" s="2">
+      <c r="V42" s="1">
         <v>0.320549545073509</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W42" s="1">
         <v>0.302736858201026</v>
       </c>
-      <c r="X42" s="2">
+      <c r="X42" s="1">
         <v>0.50904691119194</v>
       </c>
-      <c r="Y42" s="2">
+      <c r="Y42" s="1">
         <v>0.386017687368392</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="Z42" s="1">
         <v>0.330256191086769</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="AA42" s="1">
         <v>0.485769724082946</v>
       </c>
-      <c r="AB42" s="2">
+      <c r="AB42" s="1">
         <v>0.474691577792167</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AC42" s="1">
         <v>0.478175974273681</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42" s="1">
         <v>0.32877195982933</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AE42" s="1">
         <v>0.4230027926445</v>
       </c>
-      <c r="AF42" s="2">
+      <c r="AF42" s="1">
         <v>0.477516760993003</v>
       </c>
-      <c r="AG42" s="2">
+      <c r="AG42" s="1">
         <v>0.435743067359924</v>
       </c>
-      <c r="AH42" s="2">
+      <c r="AH42" s="1">
         <v>0.391898934268951</v>
       </c>
-      <c r="AI42" s="2">
+      <c r="AI42" s="1">
         <v>0.545273218059539</v>
       </c>
-      <c r="AJ42" s="2">
+      <c r="AJ42" s="1">
         <v>0.468435247254371</v>
       </c>
-      <c r="AK42" s="2">
+      <c r="AK42" s="1">
         <v>0.26506108341217</v>
       </c>
-      <c r="AL42" s="2">
+      <c r="AL42" s="1">
         <v>0.461449797344207</v>
       </c>
-      <c r="AM42" s="2">
+      <c r="AM42" s="1">
         <v>0.586146600914001</v>
       </c>
-      <c r="AN42" s="2">
+      <c r="AN42" s="1">
         <v>0.479364687776565</v>
       </c>
-      <c r="AO42" s="2">
+      <c r="AO42" s="1">
         <v>0.428875145435333</v>
       </c>
-      <c r="AP42" s="2">
+      <c r="AP42" s="1">
         <v>0.3752063580513</v>
       </c>
-      <c r="AQ42" s="2">
+      <c r="AQ42" s="1">
         <v>0.406557753896713</v>
       </c>
-      <c r="AR42" s="2">
+      <c r="AR42" s="1">
         <v>0.402709792852401</v>
       </c>
-      <c r="AS42" s="2">
+      <c r="AS42" s="1">
         <v>0.529030613899231</v>
       </c>
-      <c r="AT42" s="2">
+      <c r="AT42" s="1">
         <v>0.406075363206863</v>
       </c>
-      <c r="AU42" s="2">
+      <c r="AU42" s="1">
         <v>0.423663830614089</v>
       </c>
-      <c r="AV42" s="2">
+      <c r="AV42" s="1">
         <v>0.320016308498382</v>
       </c>
-      <c r="AW42" s="2">
+      <c r="AW42" s="1">
         <v>0.418127346658706</v>
       </c>
-      <c r="AX42" s="2">
+      <c r="AX42" s="1">
         <v>0.392980967664718</v>
       </c>
-      <c r="AY42" s="2">
+      <c r="AY42" s="1">
         <v>0.37712640209198</v>
       </c>
     </row>

--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -90,11 +90,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,22 +107,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,6 +129,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,23 +165,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -174,13 +180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -190,8 +189,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,12 +205,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -226,13 +233,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,13 +243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +279,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,73 +327,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,13 +351,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +409,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -437,16 +437,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -476,50 +500,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,19 +554,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,112 +575,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -787,8 +787,9 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Val acc</a:t>
+              <a:t>Model accuracy</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2161,12 +2162,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4248,7 +4244,7 @@
   <dimension ref="A1:AY44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="24345" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SphereFace" sheetId="1" r:id="rId1"/>
+    <sheet name="ArcFace" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>acc-m=2</t>
   </si>
@@ -63,6 +64,51 @@
   <si>
     <t>[3.005065628051758, 2.7198987167358397, 2.075603588104248, 1.8251098693847656, 1.7702643314361572, 1.4919474266052246, 1.4688218254089356, 1.6691759025573731, 1.3327515460968018, 1.5149177101135254, 1.5054072731018067, 1.4002966346740722, 1.087169906616211, 0.902347926902771, 0.7288475505828858, 1.1132038597106935, 0.5745881952285766, 0.4649471841812134, 0.4286325695514679, 0.4874656723499298, 0.479423295044899, 0.4537977313041687, 0.4174393220663071, 0.388511039686203, 0.3700146833896637, 0.3508243861198425, 0.3138568066596985, 0.3729127887248993, 0.26073718004226687, 0.25995339341163637, 0.26036177517175674, 0.2581786008834839, 0.2909464366436005, 0.42741735520362856, 0.280877097594738, 0.26767145290374755, 0.2504728013038635, 0.29114581375122073, 0.24013926157951354, 0.30367343211174014, 0.22645479202270508, 0.2763035492062569, 0.21875227255821228, 0.2675821108579636, 0.25251204488277434, 0.22369246512651444, 0.24162125264406203, 0.27640702130794526, 0.2955663190126419, 0.2535638157725334]</t>
   </si>
+  <si>
+    <t>acc-m=0.5</t>
+  </si>
+  <si>
+    <t>[0.7733833333015442, 0.8759666666666667, 0.895, 0.90565, 0.9131166666666667, 0.9176833333015442, 0.9211500000317892, 0.9254000000317891, 0.9279333333333334, 0.9305666666984558, 0.93175, 0.9348499999682108, 0.9368, 0.9392666666348776, 0.93955, 0.9407666666666666, 0.9428166666984558, 0.9438000000317891, 0.9449666666666666, 0.9468166666666666, 0.9481333333651225, 0.9473166666984558, 0.9504000000317891, 0.9505833333015442, 0.9513166666348776, 0.9507000000317891, 0.9527833333015442, 0.9536666666984558, 0.9538166666984558, 0.9544166666666667, 0.9559999999682108, 0.95555, 0.9573000000317892, 0.9570333333015442, 0.9584833333651225, 0.9577000000317891, 0.9604000000317892, 0.9586833333651225, 0.9594000000317892, 0.9602333333651225, 0.9609499999682108, 0.9613000000317892, 0.9613, 0.9616, 0.9619000000317891, 0.9631166666984559, 0.9637000000317891, 0.9631333333333333, 0.9634833333015442, 0.9647166666348775]</t>
+  </si>
+  <si>
+    <t>val_acc-m=0.5</t>
+  </si>
+  <si>
+    <t>[0.8791, 0.8923, 0.9125, 0.9086, 0.918, 0.9116, 0.9244, 0.9309, 0.93, 0.9251, 0.9147, 0.927, 0.9204, 0.9325, 0.915, 0.9299, 0.9356, 0.9301, 0.9362, 0.9393, 0.9157, 0.9273, 0.9368, 0.9325, 0.9371, 0.937, 0.9363, 0.9397, 0.9402, 0.9418, 0.9417, 0.94, 0.9395, 0.9392, 0.9428, 0.9403, 0.942, 0.9382, 0.9404, 0.9393, 0.936, 0.943, 0.9392, 0.9423, 0.9423, 0.94, 0.9424, 0.941, 0.9398, 0.9393]</t>
+  </si>
+  <si>
+    <t>[0.7701166666348775, 0.8601666666984558, 0.8864833333015442, 0.8992166666666667, 0.9084333333651224, 0.9130666666348776, 0.9164833333015442, 0.9206833333651224, 0.9240833333651225, 0.9267500000317891, 0.92755, 0.9321333333333334, 0.9330666666984558, 0.9349666666348775, 0.9359333333333333, 0.9377833333651224, 0.9400833333015441, 0.9404000000317891, 0.9423333333333334, 0.9443999999682109, 0.9439, 0.9455833333333333, 0.9469500000317892, 0.9479500000317892, 0.9498333333651224, 0.9489000000317891, 0.9509500000317891, 0.9519333333651224, 0.9513166666984558, 0.9522000000317892, 0.9526333333651225, 0.9527833333015442, 0.9552999999682109, 0.9554499999682109, 0.9557500000317891, 0.9566166666984558, 0.9569666666666666, 0.9570666666666666, 0.9585166666666667, 0.9581, 0.9595000000317891, 0.9592833333333334, 0.9593333333651225, 0.9611333333333333, 0.9607833333333333, 0.96125, 0.9608999999682108, 0.9618333333651224, 0.9617666666666667, 0.9623500000317892]</t>
+  </si>
+  <si>
+    <t>[0.8585, 0.8476, 0.893, 0.8904, 0.9068, 0.9133, 0.915, 0.9189, 0.9249, 0.9143, 0.9228, 0.922, 0.92, 0.9277, 0.9292, 0.9264, 0.9235, 0.9306, 0.9307, 0.9301, 0.9255, 0.9347, 0.9307, 0.9329, 0.9296, 0.936, 0.9324, 0.9344, 0.9342, 0.9376, 0.93, 0.935, 0.934, 0.9357, 0.936, 0.9303, 0.9313, 0.9353, 0.9325, 0.9333, 0.9347, 0.934, 0.9327, 0.9327, 0.929, 0.9356, 0.933, 0.9358, 0.9363, 0.9329]</t>
+  </si>
+  <si>
+    <t>[0.7696666666984558, 0.8635166666348775, 0.8878333333333334, 0.8994499999682108, 0.9085666666984558, 0.9133000000317891, 0.9175833333651224, 0.9197333333015442, 0.9244666666348775, 0.9265166666348775, 0.9284166666348775, 0.9317833333651224, 0.93275, 0.9351500000317892, 0.9360166666348775, 0.9379666666984559, 0.9396833333333333, 0.9399499999682108, 0.9420166666984559, 0.9430666666984558, 0.9448333333651224, 0.9441166666666667, 0.9462333333651225, 0.9480833333333333, 0.9479333333015442, 0.9493500000317892, 0.95075, 0.9499333333651224, 0.9509333333015442, 0.9518666666984558, 0.9539666666348775, 0.9528833333651224, 0.9544666666666667, 0.9545000000317891, 0.9555333333333333, 0.9558166666666666, 0.9555166666666667, 0.9578333333015442, 0.9572333333651225, 0.9578666666984558, 0.9594999999682109, 0.9600166666348775, 0.9605666666348776, 0.9597833333333333, 0.9617833333651225, 0.96135, 0.9614166666348776, 0.9621833333015442, 0.9616666666666667, 0.9624]</t>
+  </si>
+  <si>
+    <t>[0.8712, 0.8974, 0.8993, 0.8928, 0.9122, 0.9047, 0.9188, 0.9218, 0.9203, 0.9239, 0.9265, 0.9286, 0.9238, 0.9235, 0.9263, 0.925, 0.9199, 0.9273, 0.9335, 0.9293, 0.9207, 0.9304, 0.9288, 0.9337, 0.9355, 0.9323, 0.9351, 0.9341, 0.9336, 0.9374, 0.9323, 0.9325, 0.936, 0.9342, 0.9331, 0.9362, 0.9341, 0.9403, 0.9333, 0.9335, 0.9377, 0.9318, 0.9369, 0.9373, 0.9313, 0.9335, 0.9358, 0.9329, 0.9363, 0.9276]</t>
+  </si>
+  <si>
+    <t>[0.82558031056722, 0.3583249341805776, 0.2992440880378087, 0.26790906106630963, 0.24885034449895224, 0.2335666558265686, 0.22133711239496867, 0.21210524741013845, 0.20359083353678387, 0.19826012216409047, 0.19157731771469116, 0.18312955984274545, 0.1790081272959709, 0.17397131520112355, 0.17173005491097768, 0.1663390117883682, 0.1621240569114685, 0.15819169685840606, 0.15515407599806785, 0.15236208732525508, 0.14858216761350632, 0.14821630314985912, 0.1431822382728259, 0.14156100145975747, 0.13941985361973444, 0.13958149767716727, 0.1317994777917862, 0.13252142297426858, 0.13334634039402007, 0.13083748207092286, 0.12596418851614, 0.12513695335388184, 0.12298686267932256, 0.12136787182092666, 0.11870914851029714, 0.12046717158158621, 0.11483201804558436, 0.11636733693679174, 0.11466599394480387, 0.11301990094184876, 0.1119655856013298, 0.10958879311879476, 0.10926917106707891, 0.10867321262657642, 0.1070389017144839, 0.10439182184537252, 0.10558307957251867, 0.10216513299942016, 0.10243334085543951, 0.10029181140661239]</t>
+  </si>
+  <si>
+    <t>[0.3911528120994568, 0.3285017228126526, 0.28401436372995376, 0.3109586349993944, 0.2666826489686966, 0.28344696187973023, 0.26189566705226897, 0.25180366421937944, 0.23658644186258315, 0.2607322504758835, 0.2933499836683273, 0.2678439004659653, 0.2944930073261261, 0.2456562442779541, 0.3290972019910812, 0.26198933355808257, 0.24109961873590946, 0.27755070397853854, 0.24482544350624086, 0.22738917977809905, 0.3531070623874664, 0.2745352034687996, 0.2400593271613121, 0.2759577614068985, 0.26238603882789613, 0.23873804459571837, 0.27159695115089416, 0.2600568056404591, 0.23438204629421233, 0.24127332837581633, 0.24245908455848694, 0.24665918951034546, 0.25746217373907565, 0.2474349233984947, 0.23863642104268074, 0.24384897550940512, 0.2523319841861725, 0.28369006230831145, 0.26883399329185487, 0.268493248462677, 0.28198946989774704, 0.25454405260682106, 0.2563770172119141, 0.2759905807852745, 0.2659680297970772, 0.27450826040506365, 0.27189267646372317, 0.27115639197826386, 0.2891010644257069, 0.2924569987893105]</t>
+  </si>
+  <si>
+    <t>[1.0279987868944804, 0.4018678037484487, 0.3205472097714742, 0.2860086159070333, 0.26274114478429156, 0.24983127291997273, 0.2352278179168701, 0.22643134678204854, 0.21585201757748923, 0.21164857635498047, 0.20499564010302226, 0.1963017283121745, 0.19119695901870729, 0.1865973643541336, 0.18128971309661865, 0.1797123970826467, 0.17461022130648296, 0.1695188481092453, 0.16670491176843644, 0.16238229101498922, 0.15766078776518505, 0.15817498147090275, 0.15331517715454102, 0.1510507650454839, 0.1489592136065165, 0.1452249798377355, 0.14359758704503378, 0.14113047259648642, 0.13906748989423115, 0.13712629871765772, 0.13323688457012176, 0.133424436767896, 0.13065163422028223, 0.1296401049931844, 0.12859813506205878, 0.12707780000368754, 0.12439359327157339, 0.12235637143055599, 0.12213518983523051, 0.1207393238623937, 0.11794580442905427, 0.1161528791387876, 0.11694136563936869, 0.11550588846604029, 0.11405248310963313, 0.11204691480000814, 0.11302234853506088, 0.10848112047910691, 0.11082752018372218, 0.10758982851505279]</t>
+  </si>
+  <si>
+    <t>[0.44156986582279206, 0.3227958699226379, 0.31836338655948637, 0.34440329624414445, 0.29687055135965346, 0.3111713119268417, 0.2712202852964401, 0.26288332171440126, 0.26522966923713687, 0.24758219569921494, 0.2534164700627327, 0.24491114477515222, 0.27224594885110853, 0.2552194907665253, 0.2587538597524166, 0.25978606526851655, 0.2884081271648407, 0.2461101704120636, 0.2463862988948822, 0.25337145330905914, 0.28878794441223143, 0.2575452010512352, 0.2567881756067276, 0.24579584444761277, 0.24869305013418197, 0.2546563011169434, 0.24351738052368163, 0.25768977692127226, 0.2523760567307472, 0.2432783149123192, 0.26495656735897066, 0.24752320132255554, 0.24800340867042542, 0.2716702998638153, 0.2745073406934738, 0.2589404640197754, 0.26507594470977786, 0.26192220356464385, 0.26859545826911924, 0.26857943696975706, 0.27384238414764406, 0.2731600060939789, 0.2638881692647934, 0.2725757819890976, 0.2896095124721527, 0.2788563093185425, 0.27424406785964967, 0.2906049245357513, 0.2693288754940033, 0.31040895352363584]</t>
+  </si>
+  <si>
+    <t>[1.0515933532238007, 0.41607377586364747, 0.32261296854019167, 0.28631802512804666, 0.2627117423852285, 0.2498046500523885, 0.2354231336593628, 0.22432120529810587, 0.21719223075707753, 0.21003160801728565, 0.2051272812684377, 0.1959484705130259, 0.1903389381011327, 0.18494261496861775, 0.1817716153383255, 0.17699074119726818, 0.1711781978448232, 0.16758249825636545, 0.16389392185211182, 0.16015898156166078, 0.15867687845627468, 0.15472305455207824, 0.1513252179503441, 0.14905007275740306, 0.14719199486970902, 0.1443894792397817, 0.13949103775819144, 0.1371598136663437, 0.1389383931239446, 0.13644276474316916, 0.13416609944105148, 0.13353192307154338, 0.1304883041381836, 0.12847167013486227, 0.12697436773379644, 0.12420977052847544, 0.12289254466692606, 0.12335918444196384, 0.1196563757220904, 0.11897481754223506, 0.11782696870565415, 0.11601085436344147, 0.11591302444537481, 0.1121733137845993, 0.11438913466135661, 0.11214043853282929, 0.11110994284152985, 0.10941759219566981, 0.10897705935239792, 0.10850901939074198]</t>
+  </si>
+  <si>
+    <t>[0.5244290155410767, 0.49817072665691375, 0.35044566934108734, 0.3408344588279724, 0.3145392474532127, 0.28594164087772367, 0.27527439997196196, 0.2553806967020035, 0.2538077415466309, 0.2773864573597908, 0.2667924723625183, 0.2491808883905411, 0.27698023158311846, 0.24359952688217162, 0.25112717707157134, 0.260733140206337, 0.26323610010147097, 0.24245990238189696, 0.2504157831788063, 0.2451899160504341, 0.2635472270131111, 0.23798090858459472, 0.2659808694839478, 0.247974620115757, 0.25394021897315977, 0.24643553261756898, 0.2544330001592636, 0.24169054679870605, 0.2507600312590599, 0.2505510125517845, 0.27649855675697327, 0.2515835995912552, 0.24885553271770477, 0.2625922176718712, 0.26537645522356035, 0.2764041557312012, 0.2651929197072983, 0.2632584715843201, 0.27974569063186644, 0.2670471898078918, 0.27491873261928557, 0.27233273228406907, 0.2803860902547836, 0.28716946730613707, 0.3074971463441849, 0.27271773923933507, 0.28797717666625977, 0.28333623042106626, 0.27194452562332155, 0.30531497979164124]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -70,9 +116,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,7 +137,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -107,15 +161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +174,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -143,8 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,77 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +289,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,37 +313,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,19 +337,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +379,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,19 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +433,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,55 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +480,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,54 +527,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +556,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -542,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4243,8 +4289,8 @@
   <sheetPr/>
   <dimension ref="A1:AY44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE27" sqref="AE27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5529,4 +5575,122 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>acc-m=2</t>
   </si>
@@ -68,43 +68,7 @@
     <t>acc-m=0.5</t>
   </si>
   <si>
-    <t>[0.7733833333015442, 0.8759666666666667, 0.895, 0.90565, 0.9131166666666667, 0.9176833333015442, 0.9211500000317892, 0.9254000000317891, 0.9279333333333334, 0.9305666666984558, 0.93175, 0.9348499999682108, 0.9368, 0.9392666666348776, 0.93955, 0.9407666666666666, 0.9428166666984558, 0.9438000000317891, 0.9449666666666666, 0.9468166666666666, 0.9481333333651225, 0.9473166666984558, 0.9504000000317891, 0.9505833333015442, 0.9513166666348776, 0.9507000000317891, 0.9527833333015442, 0.9536666666984558, 0.9538166666984558, 0.9544166666666667, 0.9559999999682108, 0.95555, 0.9573000000317892, 0.9570333333015442, 0.9584833333651225, 0.9577000000317891, 0.9604000000317892, 0.9586833333651225, 0.9594000000317892, 0.9602333333651225, 0.9609499999682108, 0.9613000000317892, 0.9613, 0.9616, 0.9619000000317891, 0.9631166666984559, 0.9637000000317891, 0.9631333333333333, 0.9634833333015442, 0.9647166666348775]</t>
-  </si>
-  <si>
     <t>val_acc-m=0.5</t>
-  </si>
-  <si>
-    <t>[0.8791, 0.8923, 0.9125, 0.9086, 0.918, 0.9116, 0.9244, 0.9309, 0.93, 0.9251, 0.9147, 0.927, 0.9204, 0.9325, 0.915, 0.9299, 0.9356, 0.9301, 0.9362, 0.9393, 0.9157, 0.9273, 0.9368, 0.9325, 0.9371, 0.937, 0.9363, 0.9397, 0.9402, 0.9418, 0.9417, 0.94, 0.9395, 0.9392, 0.9428, 0.9403, 0.942, 0.9382, 0.9404, 0.9393, 0.936, 0.943, 0.9392, 0.9423, 0.9423, 0.94, 0.9424, 0.941, 0.9398, 0.9393]</t>
-  </si>
-  <si>
-    <t>[0.7701166666348775, 0.8601666666984558, 0.8864833333015442, 0.8992166666666667, 0.9084333333651224, 0.9130666666348776, 0.9164833333015442, 0.9206833333651224, 0.9240833333651225, 0.9267500000317891, 0.92755, 0.9321333333333334, 0.9330666666984558, 0.9349666666348775, 0.9359333333333333, 0.9377833333651224, 0.9400833333015441, 0.9404000000317891, 0.9423333333333334, 0.9443999999682109, 0.9439, 0.9455833333333333, 0.9469500000317892, 0.9479500000317892, 0.9498333333651224, 0.9489000000317891, 0.9509500000317891, 0.9519333333651224, 0.9513166666984558, 0.9522000000317892, 0.9526333333651225, 0.9527833333015442, 0.9552999999682109, 0.9554499999682109, 0.9557500000317891, 0.9566166666984558, 0.9569666666666666, 0.9570666666666666, 0.9585166666666667, 0.9581, 0.9595000000317891, 0.9592833333333334, 0.9593333333651225, 0.9611333333333333, 0.9607833333333333, 0.96125, 0.9608999999682108, 0.9618333333651224, 0.9617666666666667, 0.9623500000317892]</t>
-  </si>
-  <si>
-    <t>[0.8585, 0.8476, 0.893, 0.8904, 0.9068, 0.9133, 0.915, 0.9189, 0.9249, 0.9143, 0.9228, 0.922, 0.92, 0.9277, 0.9292, 0.9264, 0.9235, 0.9306, 0.9307, 0.9301, 0.9255, 0.9347, 0.9307, 0.9329, 0.9296, 0.936, 0.9324, 0.9344, 0.9342, 0.9376, 0.93, 0.935, 0.934, 0.9357, 0.936, 0.9303, 0.9313, 0.9353, 0.9325, 0.9333, 0.9347, 0.934, 0.9327, 0.9327, 0.929, 0.9356, 0.933, 0.9358, 0.9363, 0.9329]</t>
-  </si>
-  <si>
-    <t>[0.7696666666984558, 0.8635166666348775, 0.8878333333333334, 0.8994499999682108, 0.9085666666984558, 0.9133000000317891, 0.9175833333651224, 0.9197333333015442, 0.9244666666348775, 0.9265166666348775, 0.9284166666348775, 0.9317833333651224, 0.93275, 0.9351500000317892, 0.9360166666348775, 0.9379666666984559, 0.9396833333333333, 0.9399499999682108, 0.9420166666984559, 0.9430666666984558, 0.9448333333651224, 0.9441166666666667, 0.9462333333651225, 0.9480833333333333, 0.9479333333015442, 0.9493500000317892, 0.95075, 0.9499333333651224, 0.9509333333015442, 0.9518666666984558, 0.9539666666348775, 0.9528833333651224, 0.9544666666666667, 0.9545000000317891, 0.9555333333333333, 0.9558166666666666, 0.9555166666666667, 0.9578333333015442, 0.9572333333651225, 0.9578666666984558, 0.9594999999682109, 0.9600166666348775, 0.9605666666348776, 0.9597833333333333, 0.9617833333651225, 0.96135, 0.9614166666348776, 0.9621833333015442, 0.9616666666666667, 0.9624]</t>
-  </si>
-  <si>
-    <t>[0.8712, 0.8974, 0.8993, 0.8928, 0.9122, 0.9047, 0.9188, 0.9218, 0.9203, 0.9239, 0.9265, 0.9286, 0.9238, 0.9235, 0.9263, 0.925, 0.9199, 0.9273, 0.9335, 0.9293, 0.9207, 0.9304, 0.9288, 0.9337, 0.9355, 0.9323, 0.9351, 0.9341, 0.9336, 0.9374, 0.9323, 0.9325, 0.936, 0.9342, 0.9331, 0.9362, 0.9341, 0.9403, 0.9333, 0.9335, 0.9377, 0.9318, 0.9369, 0.9373, 0.9313, 0.9335, 0.9358, 0.9329, 0.9363, 0.9276]</t>
-  </si>
-  <si>
-    <t>[0.82558031056722, 0.3583249341805776, 0.2992440880378087, 0.26790906106630963, 0.24885034449895224, 0.2335666558265686, 0.22133711239496867, 0.21210524741013845, 0.20359083353678387, 0.19826012216409047, 0.19157731771469116, 0.18312955984274545, 0.1790081272959709, 0.17397131520112355, 0.17173005491097768, 0.1663390117883682, 0.1621240569114685, 0.15819169685840606, 0.15515407599806785, 0.15236208732525508, 0.14858216761350632, 0.14821630314985912, 0.1431822382728259, 0.14156100145975747, 0.13941985361973444, 0.13958149767716727, 0.1317994777917862, 0.13252142297426858, 0.13334634039402007, 0.13083748207092286, 0.12596418851614, 0.12513695335388184, 0.12298686267932256, 0.12136787182092666, 0.11870914851029714, 0.12046717158158621, 0.11483201804558436, 0.11636733693679174, 0.11466599394480387, 0.11301990094184876, 0.1119655856013298, 0.10958879311879476, 0.10926917106707891, 0.10867321262657642, 0.1070389017144839, 0.10439182184537252, 0.10558307957251867, 0.10216513299942016, 0.10243334085543951, 0.10029181140661239]</t>
-  </si>
-  <si>
-    <t>[0.3911528120994568, 0.3285017228126526, 0.28401436372995376, 0.3109586349993944, 0.2666826489686966, 0.28344696187973023, 0.26189566705226897, 0.25180366421937944, 0.23658644186258315, 0.2607322504758835, 0.2933499836683273, 0.2678439004659653, 0.2944930073261261, 0.2456562442779541, 0.3290972019910812, 0.26198933355808257, 0.24109961873590946, 0.27755070397853854, 0.24482544350624086, 0.22738917977809905, 0.3531070623874664, 0.2745352034687996, 0.2400593271613121, 0.2759577614068985, 0.26238603882789613, 0.23873804459571837, 0.27159695115089416, 0.2600568056404591, 0.23438204629421233, 0.24127332837581633, 0.24245908455848694, 0.24665918951034546, 0.25746217373907565, 0.2474349233984947, 0.23863642104268074, 0.24384897550940512, 0.2523319841861725, 0.28369006230831145, 0.26883399329185487, 0.268493248462677, 0.28198946989774704, 0.25454405260682106, 0.2563770172119141, 0.2759905807852745, 0.2659680297970772, 0.27450826040506365, 0.27189267646372317, 0.27115639197826386, 0.2891010644257069, 0.2924569987893105]</t>
-  </si>
-  <si>
-    <t>[1.0279987868944804, 0.4018678037484487, 0.3205472097714742, 0.2860086159070333, 0.26274114478429156, 0.24983127291997273, 0.2352278179168701, 0.22643134678204854, 0.21585201757748923, 0.21164857635498047, 0.20499564010302226, 0.1963017283121745, 0.19119695901870729, 0.1865973643541336, 0.18128971309661865, 0.1797123970826467, 0.17461022130648296, 0.1695188481092453, 0.16670491176843644, 0.16238229101498922, 0.15766078776518505, 0.15817498147090275, 0.15331517715454102, 0.1510507650454839, 0.1489592136065165, 0.1452249798377355, 0.14359758704503378, 0.14113047259648642, 0.13906748989423115, 0.13712629871765772, 0.13323688457012176, 0.133424436767896, 0.13065163422028223, 0.1296401049931844, 0.12859813506205878, 0.12707780000368754, 0.12439359327157339, 0.12235637143055599, 0.12213518983523051, 0.1207393238623937, 0.11794580442905427, 0.1161528791387876, 0.11694136563936869, 0.11550588846604029, 0.11405248310963313, 0.11204691480000814, 0.11302234853506088, 0.10848112047910691, 0.11082752018372218, 0.10758982851505279]</t>
-  </si>
-  <si>
-    <t>[0.44156986582279206, 0.3227958699226379, 0.31836338655948637, 0.34440329624414445, 0.29687055135965346, 0.3111713119268417, 0.2712202852964401, 0.26288332171440126, 0.26522966923713687, 0.24758219569921494, 0.2534164700627327, 0.24491114477515222, 0.27224594885110853, 0.2552194907665253, 0.2587538597524166, 0.25978606526851655, 0.2884081271648407, 0.2461101704120636, 0.2463862988948822, 0.25337145330905914, 0.28878794441223143, 0.2575452010512352, 0.2567881756067276, 0.24579584444761277, 0.24869305013418197, 0.2546563011169434, 0.24351738052368163, 0.25768977692127226, 0.2523760567307472, 0.2432783149123192, 0.26495656735897066, 0.24752320132255554, 0.24800340867042542, 0.2716702998638153, 0.2745073406934738, 0.2589404640197754, 0.26507594470977786, 0.26192220356464385, 0.26859545826911924, 0.26857943696975706, 0.27384238414764406, 0.2731600060939789, 0.2638881692647934, 0.2725757819890976, 0.2896095124721527, 0.2788563093185425, 0.27424406785964967, 0.2906049245357513, 0.2693288754940033, 0.31040895352363584]</t>
-  </si>
-  <si>
-    <t>[1.0515933532238007, 0.41607377586364747, 0.32261296854019167, 0.28631802512804666, 0.2627117423852285, 0.2498046500523885, 0.2354231336593628, 0.22432120529810587, 0.21719223075707753, 0.21003160801728565, 0.2051272812684377, 0.1959484705130259, 0.1903389381011327, 0.18494261496861775, 0.1817716153383255, 0.17699074119726818, 0.1711781978448232, 0.16758249825636545, 0.16389392185211182, 0.16015898156166078, 0.15867687845627468, 0.15472305455207824, 0.1513252179503441, 0.14905007275740306, 0.14719199486970902, 0.1443894792397817, 0.13949103775819144, 0.1371598136663437, 0.1389383931239446, 0.13644276474316916, 0.13416609944105148, 0.13353192307154338, 0.1304883041381836, 0.12847167013486227, 0.12697436773379644, 0.12420977052847544, 0.12289254466692606, 0.12335918444196384, 0.1196563757220904, 0.11897481754223506, 0.11782696870565415, 0.11601085436344147, 0.11591302444537481, 0.1121733137845993, 0.11438913466135661, 0.11214043853282929, 0.11110994284152985, 0.10941759219566981, 0.10897705935239792, 0.10850901939074198]</t>
-  </si>
-  <si>
-    <t>[0.5244290155410767, 0.49817072665691375, 0.35044566934108734, 0.3408344588279724, 0.3145392474532127, 0.28594164087772367, 0.27527439997196196, 0.2553806967020035, 0.2538077415466309, 0.2773864573597908, 0.2667924723625183, 0.2491808883905411, 0.27698023158311846, 0.24359952688217162, 0.25112717707157134, 0.260733140206337, 0.26323610010147097, 0.24245990238189696, 0.2504157831788063, 0.2451899160504341, 0.2635472270131111, 0.23798090858459472, 0.2659808694839478, 0.247974620115757, 0.25394021897315977, 0.24643553261756898, 0.2544330001592636, 0.24169054679870605, 0.2507600312590599, 0.2505510125517845, 0.27649855675697327, 0.2515835995912552, 0.24885553271770477, 0.2625922176718712, 0.26537645522356035, 0.2764041557312012, 0.2651929197072983, 0.2632584715843201, 0.27974569063186644, 0.2670471898078918, 0.27491873261928557, 0.27233273228406907, 0.2803860902547836, 0.28716946730613707, 0.3074971463441849, 0.27271773923933507, 0.28797717666625977, 0.28333623042106626, 0.27194452562332155, 0.30531497979164124]</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -115,14 +79,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -137,65 +108,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -204,7 +116,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -227,8 +139,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,7 +170,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,13 +216,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -268,13 +246,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,7 +260,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +284,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,25 +356,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,85 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,31 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,11 +454,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,24 +519,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,32 +545,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -588,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,73 +571,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -675,63 +646,69 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2852,6 +2829,1436 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Model accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ArcFace!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_acc-m=0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ArcFace!$B$2:$AY$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.8791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9147</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.927</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9325</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.915</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9356</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9362</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9393</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9157</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9273</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9368</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9325</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9371</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.937</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9363</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9397</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9402</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9418</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9417</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9395</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9392</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9428</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9403</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.942</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9382</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9404</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9393</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.936</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.943</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9392</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9423</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9423</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9424</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.941</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9398</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ArcFace!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_acc-m=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ArcFace!$B$4:$AY$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.8585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9228</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.922</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9292</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9264</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9307</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9255</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9347</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9307</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9329</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9296</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.936</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9324</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9344</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9342</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9376</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.935</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.934</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9357</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.936</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9303</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9313</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9353</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9325</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9347</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.934</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9327</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9327</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9356</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.933</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9358</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9363</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ArcFace!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_acc-m=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ArcFace!$B$6:$AY$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.8712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9218</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9238</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9263</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9293</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9304</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9288</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9337</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9355</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9323</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9351</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9341</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9336</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9374</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9323</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9325</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.936</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9342</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9331</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9362</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9341</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9403</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9377</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9318</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9369</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9373</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9313</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9335</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9358</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9329</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9363</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="485441608"/>
+        <c:axId val="956545819"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ArcFace!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>acc-m=0.5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ArcFace!$B$1:$AY$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0.773383333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.875966666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.895</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.90565</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.913116666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.917683333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.921150000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.925400000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.927933333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.930566666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.93175</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.93484999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.9368</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.939266666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.93955</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.940766666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.942816666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.943800000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.944966666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.946816666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.948133333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.947316666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.950400000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.950583333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.951316666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.950700000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.952783333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.953666666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.953816666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.954416666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.95599999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.95555</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.957300000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.957033333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.958483333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.957700000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.960400000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.958683333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.959400000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.960233333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.96094999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.961300000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.9613</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.9616</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.961900000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.963116666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.963700000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.963133333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.963483333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.964716666634877</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ArcFace!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>acc-m=2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ArcFace!$B$3:$AY$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0.770116666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.860166666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.886483333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.899216666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.908433333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.913066666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.916483333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.920683333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.924083333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.926750000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.92755</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.932133333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.933066666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.934966666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.935933333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.937783333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.940083333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.940400000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.942333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.94439999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.9439</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.945583333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.946950000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.947950000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.949833333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.948900000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.950950000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.951933333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.951316666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.952200000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.952633333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.952783333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.95529999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.95544999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.955750000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.956616666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.956966666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.957066666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.958516666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.9581</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.959500000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.959283333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.959333333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.961133333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.960783333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.96125</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.96089999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.961833333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.961766666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.962350000031789</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ArcFace!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>acc-m=4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ArcFace!$B$5:$AY$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0.769666666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.863516666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.887833333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.89944999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.908566666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.913300000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.917583333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.919733333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.924466666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.926516666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.928416666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.931783333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.93275</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.935150000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.936016666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.937966666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.939683333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.93994999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.942016666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.943066666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.944833333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.944116666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.946233333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.948083333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.947933333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.949350000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.95075</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.949933333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.950933333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.951866666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.953966666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.952883333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.954466666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.954500000031789</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.955533333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.955816666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.955516666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.957833333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.957233333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.957866666698455</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.95949999996821</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.960016666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.960566666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.959783333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.961783333365122</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.96135</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.961416666634877</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.962183333301544</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.961666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.9624</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="485441608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956545819"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="956545819"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485441608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2893,6 +4300,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3964,6 +5411,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4021,6 +5984,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1733550" y="1200150"/>
+        <a:ext cx="6753225" cy="3970020"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4299,7 +6297,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -4454,7 +6452,7 @@
       </c>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -4608,318 +6606,318 @@
         <v>0.9505</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.428700000031789</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.787733333365122</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.86649999996821</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.89019999996821</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.903933333365122</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.914183333365122</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0.920733333333333</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>0.926633333301544</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>0.928816666634877</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>0.930666666698455</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>0.933216666666666</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>0.936516666634877</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>0.9381</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="2">
         <v>0.93839999996821</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="2">
         <v>0.9398</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="2">
         <v>0.940916666634877</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="2">
         <v>0.941466666666666</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="2">
         <v>0.944583333301544</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="2">
         <v>0.942666666666666</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="2">
         <v>0.945000000031789</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="2">
         <v>0.944183333365122</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="2">
         <v>0.947666666666666</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="2">
         <v>0.946033333333333</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="2">
         <v>0.94799999996821</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="2">
         <v>0.946850000031789</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="2">
         <v>0.948183333301544</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="2">
         <v>0.949566666698455</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="2">
         <v>0.947583333301544</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3" s="2">
         <v>0.949333333365122</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AE3" s="2">
         <v>0.948683333365122</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3" s="2">
         <v>0.950016666666666</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3" s="2">
         <v>0.951583333365122</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="2">
         <v>0.950483333301544</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AI3" s="2">
         <v>0.952216666698455</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="2">
         <v>0.951816666634877</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AK3" s="2">
         <v>0.953333333333333</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AL3" s="2">
         <v>0.95389999996821</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3" s="2">
         <v>0.954033333333333</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AN3" s="2">
         <v>0.952533333333333</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AO3" s="2">
         <v>0.953233333333333</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AP3" s="2">
         <v>0.954166666666666</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3" s="2">
         <v>0.95614999996821</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AR3" s="2">
         <v>0.956733333301544</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3" s="2">
         <v>0.955483333333333</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AT3" s="2">
         <v>0.955383333333333</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AU3" s="2">
         <v>0.955533333301544</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AV3" s="2">
         <v>0.955716666698455</v>
       </c>
-      <c r="AW3" s="1">
+      <c r="AW3" s="2">
         <v>0.957216666666666</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="AX3" s="2">
         <v>0.957400000031789</v>
       </c>
-      <c r="AY3" s="1">
+      <c r="AY3" s="2">
         <v>0.956683333365122</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.7583</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.8796</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.8913</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.871</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.8823</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>0.9234</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>0.9085</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>0.9153</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>0.9121</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>0.9187</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>0.8976</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>0.9304</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>0.906</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="2">
         <v>0.9119</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="2">
         <v>0.9031</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="2">
         <v>0.9308</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="2">
         <v>0.8894</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="2">
         <v>0.9308</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="2">
         <v>0.8901</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="2">
         <v>0.9178</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="2">
         <v>0.9194</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="2">
         <v>0.9274</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="2">
         <v>0.9166</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="2">
         <v>0.9164</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="2">
         <v>0.9352</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="2">
         <v>0.9065</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="2">
         <v>0.9185</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="2">
         <v>0.9159</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="2">
         <v>0.9343</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="2">
         <v>0.9245</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="2">
         <v>0.9136</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="2">
         <v>0.9224</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="2">
         <v>0.9229</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="2">
         <v>0.8985</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="2">
         <v>0.9056</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" s="2">
         <v>0.929</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4" s="2">
         <v>0.9079</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="2">
         <v>0.8925</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="2">
         <v>0.9201</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="2">
         <v>0.9256</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AP4" s="2">
         <v>0.9338</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4" s="2">
         <v>0.9251</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AR4" s="2">
         <v>0.9234</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="2">
         <v>0.905</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="2">
         <v>0.9217</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AU4" s="2">
         <v>0.9182</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AV4" s="2">
         <v>0.9249</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AW4" s="2">
         <v>0.9214</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AX4" s="2">
         <v>0.9156</v>
       </c>
-      <c r="AY4" s="1">
+      <c r="AY4" s="2">
         <v>0.9207</v>
       </c>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -5074,7 +7072,7 @@
       </c>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -5229,7 +7227,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
@@ -5237,325 +7235,325 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A41" s="1" t="s">
+    <row r="41" s="2" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>2.15203628625869</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>0.614953836472829</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>0.411733244419097</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>0.338763604164123</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>0.295153510459264</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="2">
         <v>0.263031616957982</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="2">
         <v>0.24465583521525</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="2">
         <v>0.230220618549982</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="2">
         <v>0.216845081710815</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="2">
         <v>0.210694062550862</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="2">
         <v>0.205897949083646</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="2">
         <v>0.198739878177642</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="2">
         <v>0.19415555802981</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="2">
         <v>0.190262338868776</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="2">
         <v>0.187397386328379</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="2">
         <v>0.183211089396476</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="2">
         <v>0.182001369897524</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41" s="2">
         <v>0.176028664048512</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T41" s="2">
         <v>0.177095756959915</v>
       </c>
-      <c r="U41" s="1">
+      <c r="U41" s="2">
         <v>0.173993937285741</v>
       </c>
-      <c r="V41" s="1">
+      <c r="V41" s="2">
         <v>0.170481328479448</v>
       </c>
-      <c r="W41" s="1">
+      <c r="W41" s="2">
         <v>0.16367156689167</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X41" s="2">
         <v>0.167193339089552</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Y41" s="2">
         <v>0.163745887565612</v>
       </c>
-      <c r="Z41" s="1">
+      <c r="Z41" s="2">
         <v>0.165038088957468</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AA41" s="2">
         <v>0.159962185295422</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AB41" s="2">
         <v>0.158253463160991</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AC41" s="2">
         <v>0.161334856359163</v>
       </c>
-      <c r="AD41" s="1">
+      <c r="AD41" s="2">
         <v>0.153845995211601</v>
       </c>
-      <c r="AE41" s="1">
+      <c r="AE41" s="2">
         <v>0.158008680494626</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AF41" s="2">
         <v>0.156026821275552</v>
       </c>
-      <c r="AG41" s="1">
+      <c r="AG41" s="2">
         <v>0.152065652887026</v>
       </c>
-      <c r="AH41" s="1">
+      <c r="AH41" s="2">
         <v>0.153394744753837</v>
       </c>
-      <c r="AI41" s="1">
+      <c r="AI41" s="2">
         <v>0.150756739203135</v>
       </c>
-      <c r="AJ41" s="1">
+      <c r="AJ41" s="2">
         <v>0.147371281981468</v>
       </c>
-      <c r="AK41" s="1">
+      <c r="AK41" s="2">
         <v>0.14519886337916</v>
       </c>
-      <c r="AL41" s="1">
+      <c r="AL41" s="2">
         <v>0.146308003948132</v>
       </c>
-      <c r="AM41" s="1">
+      <c r="AM41" s="2">
         <v>0.144546408025423</v>
       </c>
-      <c r="AN41" s="1">
+      <c r="AN41" s="2">
         <v>0.146826561729113</v>
       </c>
-      <c r="AO41" s="1">
+      <c r="AO41" s="2">
         <v>0.146823473509152</v>
       </c>
-      <c r="AP41" s="1">
+      <c r="AP41" s="2">
         <v>0.144211389283339</v>
       </c>
-      <c r="AQ41" s="1">
+      <c r="AQ41" s="2">
         <v>0.140161772469679</v>
       </c>
-      <c r="AR41" s="1">
+      <c r="AR41" s="2">
         <v>0.140314832556247</v>
       </c>
-      <c r="AS41" s="1">
+      <c r="AS41" s="2">
         <v>0.138491430004437</v>
       </c>
-      <c r="AT41" s="1">
+      <c r="AT41" s="2">
         <v>0.140811289652188</v>
       </c>
-      <c r="AU41" s="1">
+      <c r="AU41" s="2">
         <v>0.141275468802452</v>
       </c>
-      <c r="AV41" s="1">
+      <c r="AV41" s="2">
         <v>0.136189713962872</v>
       </c>
-      <c r="AW41" s="1">
+      <c r="AW41" s="2">
         <v>0.136460562535127</v>
       </c>
-      <c r="AX41" s="1">
+      <c r="AX41" s="2">
         <v>0.137623570076624</v>
       </c>
-      <c r="AY41" s="1">
+      <c r="AY41" s="2">
         <v>0.135407358038425</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A42" s="1" t="s">
+    <row r="42" s="2" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>0.715602321147918</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>0.352223469424247</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>0.335182739984989</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>0.501621952009201</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0.531459507608413</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="2">
         <v>0.289538801813125</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="2">
         <v>0.392821443367004</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="2">
         <v>0.408278045129776</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="2">
         <v>0.371398489081859</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="2">
         <v>0.37630773024559</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="2">
         <v>0.42825316991806</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="2">
         <v>0.275959285259246</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="2">
         <v>0.50930651640892</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="2">
         <v>0.327229115605354</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="2">
         <v>0.514373969316482</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="2">
         <v>0.265683312892913</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="2">
         <v>0.558711115503311</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42" s="2">
         <v>0.30993900899887</v>
       </c>
-      <c r="T42" s="1">
+      <c r="T42" s="2">
         <v>0.584694111824035</v>
       </c>
-      <c r="U42" s="1">
+      <c r="U42" s="2">
         <v>0.46620564289093</v>
       </c>
-      <c r="V42" s="1">
+      <c r="V42" s="2">
         <v>0.320549545073509</v>
       </c>
-      <c r="W42" s="1">
+      <c r="W42" s="2">
         <v>0.302736858201026</v>
       </c>
-      <c r="X42" s="1">
+      <c r="X42" s="2">
         <v>0.50904691119194</v>
       </c>
-      <c r="Y42" s="1">
+      <c r="Y42" s="2">
         <v>0.386017687368392</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="Z42" s="2">
         <v>0.330256191086769</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AA42" s="2">
         <v>0.485769724082946</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AB42" s="2">
         <v>0.474691577792167</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AC42" s="2">
         <v>0.478175974273681</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AD42" s="2">
         <v>0.32877195982933</v>
       </c>
-      <c r="AE42" s="1">
+      <c r="AE42" s="2">
         <v>0.4230027926445</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AF42" s="2">
         <v>0.477516760993003</v>
       </c>
-      <c r="AG42" s="1">
+      <c r="AG42" s="2">
         <v>0.435743067359924</v>
       </c>
-      <c r="AH42" s="1">
+      <c r="AH42" s="2">
         <v>0.391898934268951</v>
       </c>
-      <c r="AI42" s="1">
+      <c r="AI42" s="2">
         <v>0.545273218059539</v>
       </c>
-      <c r="AJ42" s="1">
+      <c r="AJ42" s="2">
         <v>0.468435247254371</v>
       </c>
-      <c r="AK42" s="1">
+      <c r="AK42" s="2">
         <v>0.26506108341217</v>
       </c>
-      <c r="AL42" s="1">
+      <c r="AL42" s="2">
         <v>0.461449797344207</v>
       </c>
-      <c r="AM42" s="1">
+      <c r="AM42" s="2">
         <v>0.586146600914001</v>
       </c>
-      <c r="AN42" s="1">
+      <c r="AN42" s="2">
         <v>0.479364687776565</v>
       </c>
-      <c r="AO42" s="1">
+      <c r="AO42" s="2">
         <v>0.428875145435333</v>
       </c>
-      <c r="AP42" s="1">
+      <c r="AP42" s="2">
         <v>0.3752063580513</v>
       </c>
-      <c r="AQ42" s="1">
+      <c r="AQ42" s="2">
         <v>0.406557753896713</v>
       </c>
-      <c r="AR42" s="1">
+      <c r="AR42" s="2">
         <v>0.402709792852401</v>
       </c>
-      <c r="AS42" s="1">
+      <c r="AS42" s="2">
         <v>0.529030613899231</v>
       </c>
-      <c r="AT42" s="1">
+      <c r="AT42" s="2">
         <v>0.406075363206863</v>
       </c>
-      <c r="AU42" s="1">
+      <c r="AU42" s="2">
         <v>0.423663830614089</v>
       </c>
-      <c r="AV42" s="1">
+      <c r="AV42" s="2">
         <v>0.320016308498382</v>
       </c>
-      <c r="AW42" s="1">
+      <c r="AW42" s="2">
         <v>0.418127346658706</v>
       </c>
-      <c r="AX42" s="1">
+      <c r="AX42" s="2">
         <v>0.392980967664718</v>
       </c>
-      <c r="AY42" s="1">
+      <c r="AY42" s="2">
         <v>0.37712640209198</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
@@ -5563,7 +7561,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
@@ -5580,117 +7578,1885 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:AY27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A22"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="51" width="6.875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:51">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1">
+        <v>0.773383333301544</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.875966666666666</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.895</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.90565</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.913116666666666</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.917683333301544</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.921150000031789</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.925400000031789</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.927933333333333</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.930566666698455</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.93175</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.93484999996821</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.9368</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.939266666634877</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.93955</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.940766666666666</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.942816666698455</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.943800000031789</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.944966666666666</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.946816666666666</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.948133333365122</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.947316666698455</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.950400000031789</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.950583333301544</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.951316666634877</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.950700000031789</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.952783333301544</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.953666666698455</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.953816666698455</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0.954416666666666</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0.95599999996821</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0.95555</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0.957300000031789</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0.957033333301544</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0.958483333365122</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.957700000031789</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0.960400000031789</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.958683333365122</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.959400000031789</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0.960233333365122</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>0.96094999996821</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>0.961300000031789</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>0.9613</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>0.9616</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>0.961900000031789</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>0.963116666698455</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>0.963700000031789</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>0.963133333333333</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>0.963483333301544</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>0.964716666634877</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B2" s="1">
+        <v>0.8791</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.8923</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.9125</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.9086</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.918</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.9116</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.9244</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.9309</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.9251</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.9147</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.927</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.9204</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.9325</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.915</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.9299</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.9356</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.9301</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.9362</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.9393</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.9157</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.9273</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.9368</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.9325</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0.9371</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0.937</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.9363</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0.9397</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.9402</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0.9418</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.9417</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.9395</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0.9392</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.9428</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0.9403</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0.942</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0.9382</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0.9404</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0.9393</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0.936</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0.943</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0.9392</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0.9423</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0.9423</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0.9424</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0.941</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>0.9398</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>0.9393</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
+    <row r="3" spans="1:51">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.770116666634877</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.860166666698455</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.886483333301544</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.899216666666666</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.908433333365122</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.913066666634877</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.916483333301544</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.920683333365122</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.924083333365122</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.926750000031789</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.92755</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.932133333333333</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.933066666698455</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.934966666634877</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.935933333333333</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.937783333365122</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.940083333301544</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.940400000031789</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.942333333333333</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.94439999996821</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.9439</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.945583333333333</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.946950000031789</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.947950000031789</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.949833333365122</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.948900000031789</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.950950000031789</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0.951933333365122</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0.951316666698455</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.952200000031789</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0.952633333365122</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0.952783333301544</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0.95529999996821</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.95544999996821</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0.955750000031789</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0.956616666698455</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0.956966666666666</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0.957066666666666</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0.958516666666666</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0.9581</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0.959500000031789</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0.959283333333333</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0.959333333365122</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0.961133333333333</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0.960783333333333</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0.96125</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0.96089999996821</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>0.961833333365122</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>0.961766666666666</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>0.962350000031789</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+    <row r="4" spans="1:51">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.8585</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.8476</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.893</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.8904</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.9068</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.9133</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.915</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.9189</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.9249</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.9143</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.9228</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.922</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.9277</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.9292</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.9264</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.9235</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.9306</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.9307</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.9301</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.9255</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.9347</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.9307</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.9329</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.9296</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.936</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.9324</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0.9344</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.9342</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.9376</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.935</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0.934</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0.9357</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0.936</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0.9303</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0.9313</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0.9353</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0.9325</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0.9333</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0.9347</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0.934</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0.9327</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0.9327</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0.929</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0.9356</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0.933</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0.9358</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>0.9363</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>0.9329</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
+    <row r="5" spans="1:51">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.769666666698455</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.863516666634877</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.887833333333333</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.89944999996821</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.908566666698455</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.913300000031789</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.917583333365122</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.919733333301544</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.924466666634877</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.926516666634877</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.928416666634877</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.931783333365122</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.93275</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.935150000031789</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.936016666634877</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.937966666698455</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.939683333333333</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.93994999996821</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.942016666698455</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.943066666698455</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.944833333365122</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.944116666666666</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.946233333365122</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.948083333333333</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.947933333301544</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.949350000031789</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.95075</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0.949933333365122</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0.950933333301544</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.951866666698455</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0.953966666634877</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0.952883333365122</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0.954466666666666</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0.954500000031789</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.955533333333333</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0.955816666666666</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0.955516666666666</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0.957833333301544</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0.957233333365122</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0.957866666698455</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0.95949999996821</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0.960016666634877</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0.960566666634877</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0.959783333333333</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0.961783333365122</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0.96135</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0.961416666634877</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0.962183333301544</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0.961666666666666</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>0.9624</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
+    <row r="6" spans="1:51">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.8712</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.8974</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.8993</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.8928</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.9122</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.9047</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.9188</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.9218</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.9203</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.9239</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.9265</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.9286</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.9238</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.9235</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.9263</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.925</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.9199</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.9273</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.9335</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.9293</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.9207</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.9304</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.9288</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0.9337</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.9355</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0.9323</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.9351</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0.9341</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.9336</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.9374</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0.9323</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0.9325</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0.936</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0.9342</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0.9331</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0.9362</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0.9341</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0.9403</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0.9333</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0.9335</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0.9377</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0.9318</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0.9369</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0.9373</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0.9313</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0.9335</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0.9358</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0.9329</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0.9363</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>0.9276</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
+    <row r="21" spans="1:51">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.82558031056722</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.358324934180577</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.299244088037808</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.267909061066309</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.248850344498952</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.233566655826568</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.221337112394968</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.212105247410138</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.203590833536783</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.19826012216409</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.191577317714691</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.183129559842745</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.17900812729597</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.173971315201123</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.171730054910977</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.166339011788368</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.162124056911468</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.158191696858406</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0.155154075998067</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.152362087325255</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.148582167613506</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.148216303149859</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.143182238272825</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.141561001459757</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0.139419853619734</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0.139581497677167</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0.131799477791786</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0.132521422974268</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0.13334634039402</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0.130837482070922</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0.12596418851614</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0.125136953353881</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0.122986862679322</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0.121367871820926</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0.118709148510297</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0.120467171581586</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0.114832018045584</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0.116367336936791</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0.114665993944803</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0.113019900941848</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0.111965585601329</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0.109588793118794</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0.109269171067078</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0.108673212626576</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0.107038901714483</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>0.104391821845372</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>0.105583079572518</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>0.10216513299942</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>0.102433340855439</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>0.100291811406612</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
+    <row r="22" spans="1:51">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.391152812099456</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.328501722812652</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.284014363729953</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.310958634999394</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.266682648968696</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.28344696187973</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.261895667052268</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.251803664219379</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.236586441862583</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.260732250475883</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.293349983668327</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.267843900465965</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.294493007326126</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.245656244277954</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.329097201991081</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.261989333558082</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.241099618735909</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.277550703978538</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0.24482544350624</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.227389179778099</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.353107062387466</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.274535203468799</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.240059327161312</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0.275957761406898</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.262386038827896</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0.238738044595718</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.271596951150894</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0.260056805640459</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0.234382046294212</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0.241273328375816</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0.242459084558486</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0.246659189510345</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0.257462173739075</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0.247434923398494</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0.23863642104268</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0.243848975509405</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0.252331984186172</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0.283690062308311</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0.268833993291854</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>0.268493248462677</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0.281989469897747</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0.254544052606821</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>0.256377017211914</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>0.275990580785274</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0.265968029797077</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>0.274508260405063</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>0.271892676463723</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>0.271156391978263</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>0.289101064425706</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>0.29245699878931</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
+    <row r="23" spans="1:51">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.02799878689448</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.401867803748448</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.320547209771474</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.286008615907033</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.262741144784291</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.249831272919972</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.23522781791687</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.226431346782048</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.215852017577489</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.21164857635498</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.204995640103022</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.196301728312174</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.191196959018707</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.186597364354133</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.181289713096618</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.179712397082646</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.174610221306482</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.169518848109245</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.166704911768436</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.162382291014989</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.157660787765185</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0.158174981470902</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.153315177154541</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0.151050765045483</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0.148959213606516</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0.145224979837735</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0.143597587045033</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0.141130472596486</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0.139067489894231</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.137126298717657</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0.133236884570121</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0.133424436767896</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0.130651634220282</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0.129640104993184</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>0.128598135062058</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0.127077800003687</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0.124393593271573</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0.122356371430555</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0.12213518983523</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0.120739323862393</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0.117945804429054</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0.116152879138787</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>0.116941365639368</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>0.11550588846604</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0.114052483109633</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>0.112046914800008</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>0.11302234853506</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>0.108481120479106</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>0.110827520183722</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>0.107589828515052</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
+    <row r="24" spans="1:51">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.441569865822792</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.322795869922637</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.318363386559486</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.344403296244144</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.296870551359653</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.311171311926841</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.27122028529644</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.262883321714401</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.265229669237136</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.247582195699214</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.253416470062732</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.244911144775152</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.272245948851108</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.255219490766525</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.258753859752416</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.259786065268516</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.28840812716484</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.246110170412063</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.246386298894882</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.253371453309059</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.288787944412231</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0.257545201051235</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.256788175606727</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0.245795844447612</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0.248693050134181</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0.254656301116943</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0.243517380523681</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0.257689776921272</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0.252376056730747</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0.243278314912319</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0.26495656735897</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0.247523201322555</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0.248003408670425</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0.271670299863815</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>0.274507340693473</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0.258940464019775</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0.265075944709777</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>0.261922203564643</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>0.268595458269119</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>0.268579436969757</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0.273842384147644</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0.273160006093978</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>0.263888169264793</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>0.272575781989097</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0.289609512472152</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>0.278856309318542</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>0.274244067859649</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>0.290604924535751</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>0.269328875494003</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>0.310408953523635</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
+    <row r="25" spans="1:51">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.0515933532238</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.416073775863647</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.322612968540191</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.286318025128046</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.262711742385228</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.249804650052388</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.235423133659362</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.224321205298105</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.217192230757077</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.210031608017285</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.205127281268437</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.195948470513025</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.190338938101132</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.184942614968617</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.181771615338325</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.176990741197268</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.171178197844823</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.167582498256365</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.163893921852111</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.16015898156166</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.158676878456274</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.154723054552078</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.151325217950344</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0.149050072757403</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0.147191994869709</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.144389479239781</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0.139491037758191</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0.137159813666343</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0.138938393123944</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.136442764743169</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0.134166099441051</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0.133531923071543</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0.130488304138183</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0.128471670134862</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>0.126974367733796</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0.124209770528475</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0.122892544666926</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0.123359184441963</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0.11965637572209</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>0.118974817542235</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0.117826968705654</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0.116010854363441</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0.115913024445374</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>0.112173313784599</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0.114389134661356</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>0.112140438532829</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>0.111109942841529</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>0.109417592195669</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>0.108977059352397</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>0.108509019390741</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:51">
+      <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
+      <c r="B26" s="1">
+        <v>0.524429015541076</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.498170726656913</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.350445669341087</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.340834458827972</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.314539247453212</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.285941640877723</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.275274399971961</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.255380696702003</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.25380774154663</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.27738645735979</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.266792472362518</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.249180888390541</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.276980231583118</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.243599526882171</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.251127177071571</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.260733140206337</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.26323610010147</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.242459902381896</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.250415783178806</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.245189916050434</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.263547227013111</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.237980908584594</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.265980869483947</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0.247974620115757</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0.253940218973159</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0.246435532617568</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0.254433000159263</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0.241690546798706</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0.250760031259059</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0.250551012551784</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>0.276498556756973</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0.251583599591255</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0.248855532717704</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0.262592217671871</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>0.26537645522356</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>0.276404155731201</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0.265192919707298</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>0.26325847158432</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>0.279745690631866</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>0.267047189807891</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>0.274918732619285</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>0.272332732284069</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>0.280386090254783</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>0.287169467306137</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>0.307497146344184</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>0.272717739239335</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>0.287977176666259</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>0.283336230421066</v>
+      </c>
+      <c r="AX26" s="1">
+        <v>0.271944525623321</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>0.305314979791641</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>30</v>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SphereFace" sheetId="1" r:id="rId1"/>
     <sheet name="ArcFace" sheetId="2" r:id="rId2"/>
+    <sheet name="Softmax" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>acc-m=2</t>
   </si>
@@ -73,15 +74,135 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Modified_Softmax_Acc</t>
+  </si>
+  <si>
+    <t>Modified_Softmax_Val_Acc</t>
+  </si>
+  <si>
+    <t>Softmax_Acc</t>
+  </si>
+  <si>
+    <t>Softmax_Val_Acc</t>
+  </si>
+  <si>
+    <t>New_Acc</t>
+  </si>
+  <si>
+    <t>New_Val_Acc</t>
+  </si>
+  <si>
+    <t>0.4982454564412435, 0.3213339031537374, 0.2752384445110957, 0.24827729173501334, 0.22941943378448487, 0.21670728758970897, 0.20473428254127501, 0.19638654345671336, 0.1871463236808777, 0.181297429895401, 0.17533072085380555, 0.16581572205225625, 0.16255478039582572, 0.15739846204121907, 0.15306490774154663, 0.14981315328280131, 0.14710376740296682, 0.142395338733991, 0.13879297616879147, 0.13373640193144481, 0.1320986744562785, 0.1288536984324455, 0.125778681965669, 0.12398170501788457, 0.12213599317868551, 0.11999726198911667, 0.11307085029681524, 0.11304720484813055, 0.11204469437599182, 0.11037571302254995, 0.10753700881004334, 0.10648510508139929, 0.1038909214536349, 0.10305425123771032, 0.1020683580895265, 0.09997758815685907, 0.09688634843826294, 0.09504844782948493, 0.09544803944031398, 0.09347765016158421, 0.09109134999116261, 0.09087569470008214, 0.08906125794649124, 0.08583482650121053, 0.08862567077875137, 0.08589932902852694, 0.08612570948402087, 0.08453636022011439, 0.08172766111691793, 0.07991581210295359</t>
+  </si>
+  <si>
+    <t>[0.3803957824230194, 0.30636766991615294, 0.25193945920467375, 0.2345545463323593, 0.23830538189411163, 0.2349854341030121, 0.20243897895812987, 0.25465904831886294, 0.20332025649547578, 0.24124905791282653, 0.24077608938217163, 0.20259071700572967, 0.21948049025535585, 0.19739066953659057, 0.198522588968277, 0.2109373197555542, 0.19566807205677034, 0.1924243496656418, 0.1940985946416855, 0.1984536642074585, 0.20327782280445097, 0.20563176560401916, 0.18923264989852906, 0.20004542610645293, 0.20113081958293916, 0.20239992603063583, 0.20575075821876526, 0.21168311290740968, 0.20344702410697937, 0.19617337446212768, 0.2185903731584549, 0.19168935387134553, 0.20100767571926118, 0.2124226729154587, 0.21413548233509064, 0.20726311855316162, 0.2161069895029068, 0.2040738788127899, 0.21386329939365387, 0.22786674883365632, 0.21969239094257353, 0.21763124947547913, 0.220872491979599, 0.21136816029548644, 0.2227944972038269, 0.20841400077342986, 0.21594922608137132, 0.21875285519361495, 0.22210172724723815, 0.2659365689277649]</t>
+  </si>
+  <si>
+    <t>[0.5149456525882086, 0.329121760002772, 0.2785346038420995, 0.253146715593338, 0.23389086209932963, 0.22110083797772725, 0.21000315697987873, 0.20112637979984282, 0.19156665818691254, 0.18885621273517608, 0.17934535191059112, 0.17401047396659852, 0.16851226445833842, 0.16319562640984853, 0.1582165447552999, 0.15493232822418213, 0.1515298074086507, 0.14720872470140456, 0.14317204075256984, 0.13739570681254068, 0.13569655887683232, 0.1346707934776942, 0.1298229312221209, 0.1291269964059194, 0.12548853860696157, 0.12525928644339243, 0.12066376556158066, 0.118599975502491, 0.11534657243092855, 0.11418858382701874, 0.1128871023774147, 0.11301352846622467, 0.1090248696009318, 0.10803224597771963, 0.10730164135297139, 0.10478803808291753, 0.10271943252086639, 0.10118586667776108, 0.10191047288974127, 0.09888598946332931, 0.09765868144035339, 0.09821709118286769, 0.09527597015698751, 0.09363473763863246, 0.09498263247211775, 0.09178990937074026, 0.09177082057396571, 0.08949865078926086, 0.08778111591339112, 0.08745331546465555]</t>
+  </si>
+  <si>
+    <t>[0.33465273621082303, 0.34754649119377135, 0.26708394758701326, 0.26165550763607026, 0.2226670414686203, 0.2647761696577072, 0.22661265535354613, 0.21580721411705017, 0.2000710515499115, 0.21491659469604493, 0.2188563841342926, 0.19761197273731232, 0.24661237783432008, 0.20784911999702455, 0.2276803144454956, 0.2003179204940796, 0.1993357720375061, 0.21362293620109557, 0.19517654967308046, 0.22149449455738068, 0.20516979558467865, 0.20277436168193816, 0.20669840202331544, 0.21608393261432648, 0.2027846269607544, 0.19594869875907897, 0.2089981734752655, 0.21311980936527253, 0.2036924063682556, 0.1982289137840271, 0.21369479966163635, 0.2098707492351532, 0.21706376280784606, 0.21818110947608949, 0.21440455179214477, 0.19955237033367157, 0.2224838388681412, 0.22582547435760497, 0.2257474638223648, 0.22130791702270508, 0.2329435263156891, 0.21527106437683105, 0.20851778242588043, 0.2237362895965576, 0.2311042738199234, 0.21410251512527465, 0.2276853623390198, 0.22966814832687377, 0.24515350279808046, 0.22612245659828187]</t>
+  </si>
+  <si>
+    <t>[0.8901666666666667, 0.9373, 0.9494616666666666, 0.9574133333333333, 0.9624166666666667, 0.9659083333333334, 0.9692283333333334, 0.9716116666666667, 0.9733466666666667, 0.97525, 0.97615, 0.9777383333333334, 0.9786766666666666, 0.9793466666666667, 0.980185, 0.980925, 0.9816566666666666, 0.9820316666666666, 0.9828366666666667, 0.983275, 0.98354, 0.9841366666666667, 0.9843083333333333, 0.9847333333333333, 0.9851366666666667, 0.985445, 0.98586, 0.9862116666666667, 0.986205, 0.9865233333333333, 0.986935, 0.9872266666666667, 0.98735, 0.987425, 0.9879566666666667, 0.9876916666666666, 0.98811, 0.9880683333333333, 0.9881266666666667, 0.98868, 0.988725, 0.9887816666666667, 0.9891833333333333, 0.9891083333333334, 0.9892, 0.9894516666666666, 0.98958, 0.98966, 0.9896683333333334, 0.9896716666666666]</t>
+  </si>
+  <si>
+    <t>[0.9244, 0.9305, 0.9309, 0.9367, 0.9368, 0.9382, 0.9381, 0.9389, 0.939, 0.9393, 0.9398, 0.9405, 0.9397, 0.9421, 0.9375, 0.9394, 0.9404, 0.9413, 0.9406, 0.9402, 0.9408, 0.9399, 0.9394, 0.9404, 0.9406, 0.9383, 0.9397, 0.94, 0.94, 0.9405, 0.9397, 0.9409, 0.9404, 0.9411, 0.9396, 0.939, 0.9395, 0.9407, 0.9406, 0.9417, 0.9402, 0.9403, 0.9407, 0.9392, 0.9407, 0.9398, 0.9401, 0.9385, 0.9392, 0.9397]</t>
+  </si>
+  <si>
+    <t>[0.311330884124438, 0.17711072004000347, 0.14177081815481185, 0.11913017241080602, 0.10443403048952421, 0.09471698020835717, 0.0857549156109492, 0.07896215683182081, 0.07421271961520115, 0.06922987568755945, 0.06649089469775557, 0.06230842086285353, 0.05988584383144975, 0.057807731484075385, 0.055522234891752405, 0.05337168613900741, 0.052215955915550394, 0.05036283753171563, 0.0486521701652805, 0.047558972229609885, 0.04665142819618185, 0.045040033435647685, 0.04454167347845932, 0.043456898332287865, 0.042009578610186775, 0.04174448208125929, 0.04051461230690281, 0.039410777950423456, 0.03949283426682154, 0.03818804654649149, 0.03759857004498442, 0.037467102181514104, 0.03616726899422705, 0.036146968106242516, 0.035111673567742106, 0.035378831278011204, 0.03417644553730885, 0.03450238879758865, 0.03444250684507191, 0.032827093048890435, 0.03281743575894584, 0.03200955831876025, 0.03134205689628919, 0.03152116800341134, 0.03128301766183227, 0.03083720933760827, 0.03019510640020172, 0.02986815896599864, 0.030025615972106654, 0.030002698436044157]</t>
+  </si>
+  <si>
+    <t>[0.21761844587326049, 0.20749562320709228, 0.21789814073741437, 0.21142322931885718, 0.23639914178214969, 0.22759055925309657, 0.21977627918720247, 0.2409048616319895, 0.2452510452479124, 0.23920556104183197, 0.2688928315192461, 0.2675693401813507, 0.2860898331999779, 0.24916492229402065, 0.2960081401079893, 0.25468678405284884, 0.2363821780025959, 0.2781660493373871, 0.28985923495292665, 0.29079319493174555, 0.29889009174108505, 0.27881390911340714, 0.28910821558237076, 0.2801463934779167, 0.25142593472599983, 0.278699441576004, 0.2913756864070892, 0.27571109240055086, 0.2841731875658035, 0.2902508896112442, 0.2918370954751968, 0.29241320159435275, 0.3168279032707214, 0.3042239855289459, 0.31945596966743467, 0.2969710541963577, 0.30774223470687867, 0.29220013213157653, 0.2754831881523132, 0.30361367430686953, 0.297377844285965, 0.3062985652446747, 0.3376524206161499, 0.31276841039657594, 0.308867852306366, 0.33273143932819366, 0.32277252974510195, 0.31802646658420564, 0.2989366458892822, 0.33876428946256637]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.89      0.90      0.89      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       1.00      0.98      0.99      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.92      0.91      0.92      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.95      0.93      0.94      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.87      0.93      0.90      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.99      0.98      0.99      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.84      0.80      0.82      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.97      0.98      0.97      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           8       0.99      0.99      0.99      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.97      0.97      0.97      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   micro avg       0.94      0.94      0.94     10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.94      0.94      0.94     10000</t>
+  </si>
+  <si>
+    <t>weighted avg       0.94      0.94      0.94     10000</t>
+  </si>
+  <si>
+    <t>Confusion matrix, without normalization</t>
+  </si>
+  <si>
+    <t>[[900   0  21   6   0   2  66   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1 985   0   8   0   0   4   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 16   1 913   4  44   0  22   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 10   1   7 931  29   0  22   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  20  12 934   0  34   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 984   0   9   0   7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 86   1  29  18  63   0 798   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   3   0 978   0  19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   1   0   2   2   1   0   0 992   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   4   0  22   1 973]]</t>
+  </si>
+  <si>
+    <t>Process finished with exit code 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -107,33 +228,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,32 +243,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,7 +259,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -200,15 +291,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +327,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -230,15 +343,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,19 +381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +399,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,103 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +477,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,13 +531,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,26 +575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,21 +589,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +619,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,11 +658,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +692,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -708,10 +829,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4259,6 +4380,1389 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Softmax!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modified_Softmax_Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Softmax!$B$2:$AY$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.825933333301544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.886633333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.902933333365122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.911233333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.918716666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.922300000031789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92624999996821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.930450000031789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.933733333301544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.934616666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.937066666634877</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.940416666698455</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.941483333301544</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94394999996821</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.944983333365122</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.946483333301544</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.947316666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.949533333365122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.950166666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.952083333301544</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.952583333365122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.954183333301544</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.953916666634877</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.955966666634877</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.955833333333333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.956800000031789</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.959283333365122</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95959999996821</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.959350000031789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9614</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.96129999996821</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.962533333301544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.962116666634877</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.962683333365122</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.964133333365122</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.966</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.965483333365122</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96504999996821</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.965416666666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.967566666634877</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.966783333365122</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.96759999996821</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.969033333365122</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.96784999996821</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.968366666698455</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.968333333333333</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.969250000031789</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.969516666698455</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.970950000031789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Softmax!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modified_Softmax_Val_Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Softmax!$B$3:$AY$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.8591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9087</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9274</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.912</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9163</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.928</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9246</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9317</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9269</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.932</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9342</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9315</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9298</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9359</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9359</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9356</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9346</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9315</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9346</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9358</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9354</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9371</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9327</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9374</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9356</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9373</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9341</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9343</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9348</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9362</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.936</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9354</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9374</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9357</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.934</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9359</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9341</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.936</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9371</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9345</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Softmax!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Softmax_Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Softmax!$B$4:$AY$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.816516666634877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.883900000031789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.900966666698455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.910316666698455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.920066666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.931150000031789</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.931550000031789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.935416666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.937216666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.939216666698455</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.942016666634877</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.942833333301544</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.943266666698455</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.944933333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.946650000031789</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.948533333301544</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.950866666666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.951133333365122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.951283333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.952833333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.952516666666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.954516666666666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95484999996821</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.956250000031789</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.956983333333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.958100000031789</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95814999996821</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.959133333301544</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.958466666698455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.959816666698455</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.960566666698455</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.961833333333333</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.961850000031789</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9629</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.963083333333333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96309999996821</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.963533333301544</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.964833333301544</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.964266666634877</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.965566666634877</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.966733333301544</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.965683333301544</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.96569999996821</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.966616666666666</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.967416666634877</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.967216666666666</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.968416666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Softmax!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Softmax_Val_Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Softmax!$B$5:$AY$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.8798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9292</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.925</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9272</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9171</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9221</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9305</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9311</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9327</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9229</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9318</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9324</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9316</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9332</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9318</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9317</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9309</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9354</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9341</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9315</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.931</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9337</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9354</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9349</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9326</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9337</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9343</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9343</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9331</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9369</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9351</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9327</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9351</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9359</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9252</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Softmax!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New_Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Softmax!$B$6:$AY$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.890166666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.949461666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.957413333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.962416666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.965908333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.969228333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.971611666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.973346666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97615</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.977738333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.978676666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.979346666666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.980185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.980925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.981656666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.982031666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.982836666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.983275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98354</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.984136666666666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.984308333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.984733333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.985136666666666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.985445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98586</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.986211666666666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.986205</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.986523333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.986935</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.987226666666666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.98735</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.987425</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.987956666666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.987691666666666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.98811</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.988068333333333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.988126666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98868</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.988725</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.988781666666666</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.989183333333333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.989108333333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9892</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.989451666666666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98958</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.98966</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.989668333333333</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.989671666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Softmax!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New_Val_Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Softmax!$B$7:$AY$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.9244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9389</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.939</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9405</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9397</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9421</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9413</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9406</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9408</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9399</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9394</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9404</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9406</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9383</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9397</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9405</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9397</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9409</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9404</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9411</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9396</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.939</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9395</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9407</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9406</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9417</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9402</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9403</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9407</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9392</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9407</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9398</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9401</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9385</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9392</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="583911131"/>
+        <c:axId val="857899609"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="583911131"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="857899609"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="857899609"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583911131"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4340,6 +5844,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5927,6 +7471,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5996,16 +8056,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6013,8 +8073,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1733550" y="1200150"/>
+        <a:off x="3238500" y="923925"/>
         <a:ext cx="6753225" cy="3970020"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>496570</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>389890</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1182370" y="1233170"/>
+        <a:ext cx="11723370" cy="6141720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6297,7 +8392,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -6452,7 +8547,7 @@
       </c>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -6606,318 +8701,318 @@
         <v>0.9505</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="3" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>0.428700000031789</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.787733333365122</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.86649999996821</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>0.89019999996821</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0.903933333365122</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>0.914183333365122</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>0.920733333333333</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>0.926633333301544</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>0.928816666634877</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>0.930666666698455</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>0.933216666666666</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>0.936516666634877</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="3">
         <v>0.9381</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="3">
         <v>0.93839999996821</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="3">
         <v>0.9398</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3">
         <v>0.940916666634877</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="3">
         <v>0.941466666666666</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="3">
         <v>0.944583333301544</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="3">
         <v>0.942666666666666</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="3">
         <v>0.945000000031789</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="3">
         <v>0.944183333365122</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="3">
         <v>0.947666666666666</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="3">
         <v>0.946033333333333</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="3">
         <v>0.94799999996821</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="3">
         <v>0.946850000031789</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="3">
         <v>0.948183333301544</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="3">
         <v>0.949566666698455</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="3">
         <v>0.947583333301544</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="3">
         <v>0.949333333365122</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="3">
         <v>0.948683333365122</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="3">
         <v>0.950016666666666</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="3">
         <v>0.951583333365122</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="3">
         <v>0.950483333301544</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AI3" s="3">
         <v>0.952216666698455</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AJ3" s="3">
         <v>0.951816666634877</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3" s="3">
         <v>0.953333333333333</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3" s="3">
         <v>0.95389999996821</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3" s="3">
         <v>0.954033333333333</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3" s="3">
         <v>0.952533333333333</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3" s="3">
         <v>0.953233333333333</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AP3" s="3">
         <v>0.954166666666666</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3" s="3">
         <v>0.95614999996821</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AR3" s="3">
         <v>0.956733333301544</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AS3" s="3">
         <v>0.955483333333333</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AT3" s="3">
         <v>0.955383333333333</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AU3" s="3">
         <v>0.955533333301544</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AV3" s="3">
         <v>0.955716666698455</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="AW3" s="3">
         <v>0.957216666666666</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="AX3" s="3">
         <v>0.957400000031789</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="AY3" s="3">
         <v>0.956683333365122</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.7583</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0.8796</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>0.8913</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>0.871</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0.8823</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>0.9234</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>0.9085</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>0.9153</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>0.9121</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>0.9187</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>0.8976</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>0.9304</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3">
         <v>0.906</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="3">
         <v>0.9119</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="3">
         <v>0.9031</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="3">
         <v>0.9308</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="3">
         <v>0.8894</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="3">
         <v>0.9308</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="3">
         <v>0.8901</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="3">
         <v>0.9178</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="3">
         <v>0.9194</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="3">
         <v>0.9274</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="3">
         <v>0.9166</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="3">
         <v>0.9164</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="3">
         <v>0.9352</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="3">
         <v>0.9065</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="3">
         <v>0.9185</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="3">
         <v>0.9159</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="3">
         <v>0.9343</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="3">
         <v>0.9245</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="3">
         <v>0.9136</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="3">
         <v>0.9224</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH4" s="3">
         <v>0.9229</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4" s="3">
         <v>0.8985</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ4" s="3">
         <v>0.9056</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4" s="3">
         <v>0.929</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4" s="3">
         <v>0.9079</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4" s="3">
         <v>0.8925</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4" s="3">
         <v>0.9201</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4" s="3">
         <v>0.9256</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP4" s="3">
         <v>0.9338</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4" s="3">
         <v>0.9251</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AR4" s="3">
         <v>0.9234</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4" s="3">
         <v>0.905</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT4" s="3">
         <v>0.9217</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AU4" s="3">
         <v>0.9182</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AV4" s="3">
         <v>0.9249</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AW4" s="3">
         <v>0.9214</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AX4" s="3">
         <v>0.9156</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AY4" s="3">
         <v>0.9207</v>
       </c>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -7072,7 +9167,7 @@
       </c>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -7227,7 +9322,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
@@ -7235,325 +9330,325 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A41" s="2" t="s">
+    <row r="41" s="3" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>2.15203628625869</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <v>0.614953836472829</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>0.411733244419097</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>0.338763604164123</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>0.295153510459264</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="3">
         <v>0.263031616957982</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="3">
         <v>0.24465583521525</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="3">
         <v>0.230220618549982</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="3">
         <v>0.216845081710815</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="3">
         <v>0.210694062550862</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="3">
         <v>0.205897949083646</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="3">
         <v>0.198739878177642</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="3">
         <v>0.19415555802981</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="3">
         <v>0.190262338868776</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="3">
         <v>0.187397386328379</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="3">
         <v>0.183211089396476</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41" s="3">
         <v>0.182001369897524</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="3">
         <v>0.176028664048512</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T41" s="3">
         <v>0.177095756959915</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U41" s="3">
         <v>0.173993937285741</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41" s="3">
         <v>0.170481328479448</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41" s="3">
         <v>0.16367156689167</v>
       </c>
-      <c r="X41" s="2">
+      <c r="X41" s="3">
         <v>0.167193339089552</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="Y41" s="3">
         <v>0.163745887565612</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="Z41" s="3">
         <v>0.165038088957468</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AA41" s="3">
         <v>0.159962185295422</v>
       </c>
-      <c r="AB41" s="2">
+      <c r="AB41" s="3">
         <v>0.158253463160991</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AC41" s="3">
         <v>0.161334856359163</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41" s="3">
         <v>0.153845995211601</v>
       </c>
-      <c r="AE41" s="2">
+      <c r="AE41" s="3">
         <v>0.158008680494626</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AF41" s="3">
         <v>0.156026821275552</v>
       </c>
-      <c r="AG41" s="2">
+      <c r="AG41" s="3">
         <v>0.152065652887026</v>
       </c>
-      <c r="AH41" s="2">
+      <c r="AH41" s="3">
         <v>0.153394744753837</v>
       </c>
-      <c r="AI41" s="2">
+      <c r="AI41" s="3">
         <v>0.150756739203135</v>
       </c>
-      <c r="AJ41" s="2">
+      <c r="AJ41" s="3">
         <v>0.147371281981468</v>
       </c>
-      <c r="AK41" s="2">
+      <c r="AK41" s="3">
         <v>0.14519886337916</v>
       </c>
-      <c r="AL41" s="2">
+      <c r="AL41" s="3">
         <v>0.146308003948132</v>
       </c>
-      <c r="AM41" s="2">
+      <c r="AM41" s="3">
         <v>0.144546408025423</v>
       </c>
-      <c r="AN41" s="2">
+      <c r="AN41" s="3">
         <v>0.146826561729113</v>
       </c>
-      <c r="AO41" s="2">
+      <c r="AO41" s="3">
         <v>0.146823473509152</v>
       </c>
-      <c r="AP41" s="2">
+      <c r="AP41" s="3">
         <v>0.144211389283339</v>
       </c>
-      <c r="AQ41" s="2">
+      <c r="AQ41" s="3">
         <v>0.140161772469679</v>
       </c>
-      <c r="AR41" s="2">
+      <c r="AR41" s="3">
         <v>0.140314832556247</v>
       </c>
-      <c r="AS41" s="2">
+      <c r="AS41" s="3">
         <v>0.138491430004437</v>
       </c>
-      <c r="AT41" s="2">
+      <c r="AT41" s="3">
         <v>0.140811289652188</v>
       </c>
-      <c r="AU41" s="2">
+      <c r="AU41" s="3">
         <v>0.141275468802452</v>
       </c>
-      <c r="AV41" s="2">
+      <c r="AV41" s="3">
         <v>0.136189713962872</v>
       </c>
-      <c r="AW41" s="2">
+      <c r="AW41" s="3">
         <v>0.136460562535127</v>
       </c>
-      <c r="AX41" s="2">
+      <c r="AX41" s="3">
         <v>0.137623570076624</v>
       </c>
-      <c r="AY41" s="2">
+      <c r="AY41" s="3">
         <v>0.135407358038425</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A42" s="2" t="s">
+    <row r="42" s="3" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>0.715602321147918</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <v>0.352223469424247</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>0.335182739984989</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>0.501621952009201</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>0.531459507608413</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="3">
         <v>0.289538801813125</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="3">
         <v>0.392821443367004</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="3">
         <v>0.408278045129776</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="3">
         <v>0.371398489081859</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="3">
         <v>0.37630773024559</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="3">
         <v>0.42825316991806</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="3">
         <v>0.275959285259246</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="3">
         <v>0.50930651640892</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="3">
         <v>0.327229115605354</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="3">
         <v>0.514373969316482</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42" s="3">
         <v>0.265683312892913</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42" s="3">
         <v>0.558711115503311</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="3">
         <v>0.30993900899887</v>
       </c>
-      <c r="T42" s="2">
+      <c r="T42" s="3">
         <v>0.584694111824035</v>
       </c>
-      <c r="U42" s="2">
+      <c r="U42" s="3">
         <v>0.46620564289093</v>
       </c>
-      <c r="V42" s="2">
+      <c r="V42" s="3">
         <v>0.320549545073509</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W42" s="3">
         <v>0.302736858201026</v>
       </c>
-      <c r="X42" s="2">
+      <c r="X42" s="3">
         <v>0.50904691119194</v>
       </c>
-      <c r="Y42" s="2">
+      <c r="Y42" s="3">
         <v>0.386017687368392</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="Z42" s="3">
         <v>0.330256191086769</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="AA42" s="3">
         <v>0.485769724082946</v>
       </c>
-      <c r="AB42" s="2">
+      <c r="AB42" s="3">
         <v>0.474691577792167</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AC42" s="3">
         <v>0.478175974273681</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42" s="3">
         <v>0.32877195982933</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AE42" s="3">
         <v>0.4230027926445</v>
       </c>
-      <c r="AF42" s="2">
+      <c r="AF42" s="3">
         <v>0.477516760993003</v>
       </c>
-      <c r="AG42" s="2">
+      <c r="AG42" s="3">
         <v>0.435743067359924</v>
       </c>
-      <c r="AH42" s="2">
+      <c r="AH42" s="3">
         <v>0.391898934268951</v>
       </c>
-      <c r="AI42" s="2">
+      <c r="AI42" s="3">
         <v>0.545273218059539</v>
       </c>
-      <c r="AJ42" s="2">
+      <c r="AJ42" s="3">
         <v>0.468435247254371</v>
       </c>
-      <c r="AK42" s="2">
+      <c r="AK42" s="3">
         <v>0.26506108341217</v>
       </c>
-      <c r="AL42" s="2">
+      <c r="AL42" s="3">
         <v>0.461449797344207</v>
       </c>
-      <c r="AM42" s="2">
+      <c r="AM42" s="3">
         <v>0.586146600914001</v>
       </c>
-      <c r="AN42" s="2">
+      <c r="AN42" s="3">
         <v>0.479364687776565</v>
       </c>
-      <c r="AO42" s="2">
+      <c r="AO42" s="3">
         <v>0.428875145435333</v>
       </c>
-      <c r="AP42" s="2">
+      <c r="AP42" s="3">
         <v>0.3752063580513</v>
       </c>
-      <c r="AQ42" s="2">
+      <c r="AQ42" s="3">
         <v>0.406557753896713</v>
       </c>
-      <c r="AR42" s="2">
+      <c r="AR42" s="3">
         <v>0.402709792852401</v>
       </c>
-      <c r="AS42" s="2">
+      <c r="AS42" s="3">
         <v>0.529030613899231</v>
       </c>
-      <c r="AT42" s="2">
+      <c r="AT42" s="3">
         <v>0.406075363206863</v>
       </c>
-      <c r="AU42" s="2">
+      <c r="AU42" s="3">
         <v>0.423663830614089</v>
       </c>
-      <c r="AV42" s="2">
+      <c r="AV42" s="3">
         <v>0.320016308498382</v>
       </c>
-      <c r="AW42" s="2">
+      <c r="AW42" s="3">
         <v>0.418127346658706</v>
       </c>
-      <c r="AX42" s="2">
+      <c r="AX42" s="3">
         <v>0.392980967664718</v>
       </c>
-      <c r="AY42" s="2">
+      <c r="AY42" s="3">
         <v>0.37712640209198</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
@@ -7561,7 +9656,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
@@ -7580,1878 +9675,3004 @@
   <sheetPr/>
   <dimension ref="A1:AY27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="51" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="51" width="6.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>0.773383333301544</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>0.875966666666666</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>0.895</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>0.90565</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>0.913116666666666</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>0.917683333301544</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
         <v>0.921150000031789</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="2">
         <v>0.925400000031789</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="2">
         <v>0.927933333333333</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="2">
         <v>0.930566666698455</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="2">
         <v>0.93175</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="2">
         <v>0.93484999996821</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="2">
         <v>0.9368</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="2">
         <v>0.939266666634877</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="2">
         <v>0.93955</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="2">
         <v>0.940766666666666</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="2">
         <v>0.942816666698455</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="2">
         <v>0.943800000031789</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="2">
         <v>0.944966666666666</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="2">
         <v>0.946816666666666</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="2">
         <v>0.948133333365122</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="2">
         <v>0.947316666698455</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="2">
         <v>0.950400000031789</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="2">
         <v>0.950583333301544</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="2">
         <v>0.951316666634877</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="2">
         <v>0.950700000031789</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="2">
         <v>0.952783333301544</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="2">
         <v>0.953666666698455</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="2">
         <v>0.953816666698455</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="2">
         <v>0.954416666666666</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="2">
         <v>0.95599999996821</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="2">
         <v>0.95555</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="2">
         <v>0.957300000031789</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="2">
         <v>0.957033333301544</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="2">
         <v>0.958483333365122</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="2">
         <v>0.957700000031789</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="2">
         <v>0.960400000031789</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="2">
         <v>0.958683333365122</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="2">
         <v>0.959400000031789</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="2">
         <v>0.960233333365122</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="2">
         <v>0.96094999996821</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="2">
         <v>0.961300000031789</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="2">
         <v>0.9613</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="2">
         <v>0.9616</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="2">
         <v>0.961900000031789</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="2">
         <v>0.963116666698455</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="2">
         <v>0.963700000031789</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="2">
         <v>0.963133333333333</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="2">
         <v>0.963483333301544</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="2">
         <v>0.964716666634877</v>
       </c>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.8791</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.8923</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.9125</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.9086</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.918</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.9116</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>0.9244</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>0.9309</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>0.93</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>0.9251</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>0.9147</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>0.927</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>0.9204</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>0.9325</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="2">
         <v>0.915</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="2">
         <v>0.9299</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="2">
         <v>0.9356</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="2">
         <v>0.9301</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="2">
         <v>0.9362</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="2">
         <v>0.9393</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="2">
         <v>0.9157</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="2">
         <v>0.9273</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="2">
         <v>0.9368</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="2">
         <v>0.9325</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="2">
         <v>0.9371</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="2">
         <v>0.937</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="2">
         <v>0.9363</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="2">
         <v>0.9397</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="2">
         <v>0.9402</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="2">
         <v>0.9418</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="2">
         <v>0.9417</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="2">
         <v>0.94</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2" s="2">
         <v>0.9395</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="2">
         <v>0.9392</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="2">
         <v>0.9428</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="2">
         <v>0.9403</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="2">
         <v>0.942</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="2">
         <v>0.9382</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="2">
         <v>0.9404</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="2">
         <v>0.9393</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="2">
         <v>0.936</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="2">
         <v>0.943</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2" s="2">
         <v>0.9392</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2" s="2">
         <v>0.9423</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="2">
         <v>0.9423</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="2">
         <v>0.94</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="2">
         <v>0.9424</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2" s="2">
         <v>0.941</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2" s="2">
         <v>0.9398</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AY2" s="2">
         <v>0.9393</v>
       </c>
     </row>
     <row r="3" spans="1:51">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.770116666634877</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.860166666698455</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.886483333301544</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.899216666666666</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.908433333365122</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.913066666634877</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0.916483333301544</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>0.920683333365122</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>0.924083333365122</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>0.926750000031789</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>0.92755</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>0.932133333333333</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>0.933066666698455</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="2">
         <v>0.934966666634877</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="2">
         <v>0.935933333333333</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="2">
         <v>0.937783333365122</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="2">
         <v>0.940083333301544</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="2">
         <v>0.940400000031789</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="2">
         <v>0.942333333333333</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="2">
         <v>0.94439999996821</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="2">
         <v>0.9439</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="2">
         <v>0.945583333333333</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="2">
         <v>0.946950000031789</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="2">
         <v>0.947950000031789</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="2">
         <v>0.949833333365122</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="2">
         <v>0.948900000031789</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="2">
         <v>0.950950000031789</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="2">
         <v>0.951933333365122</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3" s="2">
         <v>0.951316666698455</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AE3" s="2">
         <v>0.952200000031789</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3" s="2">
         <v>0.952633333365122</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3" s="2">
         <v>0.952783333301544</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="2">
         <v>0.95529999996821</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AI3" s="2">
         <v>0.95544999996821</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="2">
         <v>0.955750000031789</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AK3" s="2">
         <v>0.956616666698455</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AL3" s="2">
         <v>0.956966666666666</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3" s="2">
         <v>0.957066666666666</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AN3" s="2">
         <v>0.958516666666666</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AO3" s="2">
         <v>0.9581</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AP3" s="2">
         <v>0.959500000031789</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3" s="2">
         <v>0.959283333333333</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AR3" s="2">
         <v>0.959333333365122</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3" s="2">
         <v>0.961133333333333</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AT3" s="2">
         <v>0.960783333333333</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AU3" s="2">
         <v>0.96125</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AV3" s="2">
         <v>0.96089999996821</v>
       </c>
-      <c r="AW3" s="1">
+      <c r="AW3" s="2">
         <v>0.961833333365122</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="AX3" s="2">
         <v>0.961766666666666</v>
       </c>
-      <c r="AY3" s="1">
+      <c r="AY3" s="2">
         <v>0.962350000031789</v>
       </c>
     </row>
     <row r="4" spans="1:51">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.8585</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.8476</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.893</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.8904</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.9068</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>0.9133</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>0.915</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>0.9189</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>0.9249</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>0.9143</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>0.9228</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>0.922</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>0.92</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="2">
         <v>0.9277</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="2">
         <v>0.9292</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="2">
         <v>0.9264</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="2">
         <v>0.9235</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="2">
         <v>0.9306</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="2">
         <v>0.9307</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="2">
         <v>0.9301</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="2">
         <v>0.9255</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="2">
         <v>0.9347</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="2">
         <v>0.9307</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="2">
         <v>0.9329</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="2">
         <v>0.9296</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="2">
         <v>0.936</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="2">
         <v>0.9324</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="2">
         <v>0.9344</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="2">
         <v>0.9342</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="2">
         <v>0.9376</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="2">
         <v>0.93</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="2">
         <v>0.935</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="2">
         <v>0.934</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="2">
         <v>0.9357</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="2">
         <v>0.936</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" s="2">
         <v>0.9303</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4" s="2">
         <v>0.9313</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="2">
         <v>0.9353</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="2">
         <v>0.9325</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="2">
         <v>0.9333</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AP4" s="2">
         <v>0.9347</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4" s="2">
         <v>0.934</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AR4" s="2">
         <v>0.9327</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="2">
         <v>0.9327</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="2">
         <v>0.929</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AU4" s="2">
         <v>0.9356</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AV4" s="2">
         <v>0.933</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AW4" s="2">
         <v>0.9358</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AX4" s="2">
         <v>0.9363</v>
       </c>
-      <c r="AY4" s="1">
+      <c r="AY4" s="2">
         <v>0.9329</v>
       </c>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0.769666666698455</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.863516666634877</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.887833333333333</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0.89944999996821</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.908566666698455</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>0.913300000031789</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>0.917583333365122</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>0.919733333301544</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>0.924466666634877</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>0.926516666634877</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>0.928416666634877</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>0.931783333365122</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>0.93275</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
         <v>0.935150000031789</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="2">
         <v>0.936016666634877</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="2">
         <v>0.937966666698455</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="2">
         <v>0.939683333333333</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="2">
         <v>0.93994999996821</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="2">
         <v>0.942016666698455</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="2">
         <v>0.943066666698455</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="2">
         <v>0.944833333365122</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="2">
         <v>0.944116666666666</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="2">
         <v>0.946233333365122</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="2">
         <v>0.948083333333333</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="2">
         <v>0.947933333301544</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="2">
         <v>0.949350000031789</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="2">
         <v>0.95075</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="2">
         <v>0.949933333365122</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="2">
         <v>0.950933333301544</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="2">
         <v>0.951866666698455</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" s="2">
         <v>0.953966666634877</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="2">
         <v>0.952883333365122</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="2">
         <v>0.954466666666666</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="2">
         <v>0.954500000031789</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="2">
         <v>0.955533333333333</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="2">
         <v>0.955816666666666</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5" s="2">
         <v>0.955516666666666</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AM5" s="2">
         <v>0.957833333301544</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5" s="2">
         <v>0.957233333365122</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AO5" s="2">
         <v>0.957866666698455</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AP5" s="2">
         <v>0.95949999996821</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AQ5" s="2">
         <v>0.960016666634877</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AR5" s="2">
         <v>0.960566666634877</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AS5" s="2">
         <v>0.959783333333333</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AT5" s="2">
         <v>0.961783333365122</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AU5" s="2">
         <v>0.96135</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AV5" s="2">
         <v>0.961416666634877</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="AW5" s="2">
         <v>0.962183333301544</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AX5" s="2">
         <v>0.961666666666666</v>
       </c>
-      <c r="AY5" s="1">
+      <c r="AY5" s="2">
         <v>0.9624</v>
       </c>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0.8712</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.8974</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.8993</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.8928</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.9122</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.9047</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0.9188</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>0.9218</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>0.9203</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>0.9239</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>0.9265</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>0.9286</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>0.9238</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
         <v>0.9235</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="2">
         <v>0.9263</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="2">
         <v>0.925</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="2">
         <v>0.9199</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="2">
         <v>0.9273</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="2">
         <v>0.9335</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="2">
         <v>0.9293</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="2">
         <v>0.9207</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="2">
         <v>0.9304</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="2">
         <v>0.9288</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="2">
         <v>0.9337</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="2">
         <v>0.9355</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="2">
         <v>0.9323</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="2">
         <v>0.9351</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="2">
         <v>0.9341</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="2">
         <v>0.9336</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" s="2">
         <v>0.9374</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6" s="2">
         <v>0.9323</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AG6" s="2">
         <v>0.9325</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" s="2">
         <v>0.936</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="2">
         <v>0.9342</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="2">
         <v>0.9331</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="2">
         <v>0.9362</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6" s="2">
         <v>0.9341</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="2">
         <v>0.9403</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="2">
         <v>0.9333</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="2">
         <v>0.9335</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AP6" s="2">
         <v>0.9377</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6" s="2">
         <v>0.9318</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AR6" s="2">
         <v>0.9369</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AS6" s="2">
         <v>0.9373</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AT6" s="2">
         <v>0.9313</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AU6" s="2">
         <v>0.9335</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AV6" s="2">
         <v>0.9358</v>
       </c>
-      <c r="AW6" s="1">
+      <c r="AW6" s="2">
         <v>0.9329</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AX6" s="2">
         <v>0.9363</v>
       </c>
-      <c r="AY6" s="1">
+      <c r="AY6" s="2">
         <v>0.9276</v>
       </c>
     </row>
     <row r="21" spans="1:51">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>0.82558031056722</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>0.358324934180577</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>0.299244088037808</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>0.267909061066309</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0.248850344498952</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>0.233566655826568</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>0.221337112394968</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>0.212105247410138</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>0.203590833536783</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <v>0.19826012216409</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="2">
         <v>0.191577317714691</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="2">
         <v>0.183129559842745</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="2">
         <v>0.17900812729597</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="2">
         <v>0.173971315201123</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="2">
         <v>0.171730054910977</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="2">
         <v>0.166339011788368</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="2">
         <v>0.162124056911468</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="2">
         <v>0.158191696858406</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="2">
         <v>0.155154075998067</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="2">
         <v>0.152362087325255</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="2">
         <v>0.148582167613506</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="2">
         <v>0.148216303149859</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="2">
         <v>0.143182238272825</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="2">
         <v>0.141561001459757</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21" s="2">
         <v>0.139419853619734</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA21" s="2">
         <v>0.139581497677167</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21" s="2">
         <v>0.131799477791786</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AC21" s="2">
         <v>0.132521422974268</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AD21" s="2">
         <v>0.13334634039402</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AE21" s="2">
         <v>0.130837482070922</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AF21" s="2">
         <v>0.12596418851614</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AG21" s="2">
         <v>0.125136953353881</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AH21" s="2">
         <v>0.122986862679322</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AI21" s="2">
         <v>0.121367871820926</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AJ21" s="2">
         <v>0.118709148510297</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AK21" s="2">
         <v>0.120467171581586</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AL21" s="2">
         <v>0.114832018045584</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AM21" s="2">
         <v>0.116367336936791</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AN21" s="2">
         <v>0.114665993944803</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AO21" s="2">
         <v>0.113019900941848</v>
       </c>
-      <c r="AP21" s="1">
+      <c r="AP21" s="2">
         <v>0.111965585601329</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AQ21" s="2">
         <v>0.109588793118794</v>
       </c>
-      <c r="AR21" s="1">
+      <c r="AR21" s="2">
         <v>0.109269171067078</v>
       </c>
-      <c r="AS21" s="1">
+      <c r="AS21" s="2">
         <v>0.108673212626576</v>
       </c>
-      <c r="AT21" s="1">
+      <c r="AT21" s="2">
         <v>0.107038901714483</v>
       </c>
-      <c r="AU21" s="1">
+      <c r="AU21" s="2">
         <v>0.104391821845372</v>
       </c>
-      <c r="AV21" s="1">
+      <c r="AV21" s="2">
         <v>0.105583079572518</v>
       </c>
-      <c r="AW21" s="1">
+      <c r="AW21" s="2">
         <v>0.10216513299942</v>
       </c>
-      <c r="AX21" s="1">
+      <c r="AX21" s="2">
         <v>0.102433340855439</v>
       </c>
-      <c r="AY21" s="1">
+      <c r="AY21" s="2">
         <v>0.100291811406612</v>
       </c>
     </row>
     <row r="22" spans="1:51">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>0.391152812099456</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>0.328501722812652</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.284014363729953</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>0.310958634999394</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0.266682648968696</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>0.28344696187973</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>0.261895667052268</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>0.251803664219379</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>0.236586441862583</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <v>0.260732250475883</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="2">
         <v>0.293349983668327</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="2">
         <v>0.267843900465965</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="2">
         <v>0.294493007326126</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="2">
         <v>0.245656244277954</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="2">
         <v>0.329097201991081</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="2">
         <v>0.261989333558082</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="2">
         <v>0.241099618735909</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="2">
         <v>0.277550703978538</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="2">
         <v>0.24482544350624</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="2">
         <v>0.227389179778099</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="2">
         <v>0.353107062387466</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="2">
         <v>0.274535203468799</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="2">
         <v>0.240059327161312</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="2">
         <v>0.275957761406898</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22" s="2">
         <v>0.262386038827896</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AA22" s="2">
         <v>0.238738044595718</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB22" s="2">
         <v>0.271596951150894</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AC22" s="2">
         <v>0.260056805640459</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22" s="2">
         <v>0.234382046294212</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AE22" s="2">
         <v>0.241273328375816</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AF22" s="2">
         <v>0.242459084558486</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AG22" s="2">
         <v>0.246659189510345</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AH22" s="2">
         <v>0.257462173739075</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AI22" s="2">
         <v>0.247434923398494</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AJ22" s="2">
         <v>0.23863642104268</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AK22" s="2">
         <v>0.243848975509405</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AL22" s="2">
         <v>0.252331984186172</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AM22" s="2">
         <v>0.283690062308311</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AN22" s="2">
         <v>0.268833993291854</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AO22" s="2">
         <v>0.268493248462677</v>
       </c>
-      <c r="AP22" s="1">
+      <c r="AP22" s="2">
         <v>0.281989469897747</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AQ22" s="2">
         <v>0.254544052606821</v>
       </c>
-      <c r="AR22" s="1">
+      <c r="AR22" s="2">
         <v>0.256377017211914</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="AS22" s="2">
         <v>0.275990580785274</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AT22" s="2">
         <v>0.265968029797077</v>
       </c>
-      <c r="AU22" s="1">
+      <c r="AU22" s="2">
         <v>0.274508260405063</v>
       </c>
-      <c r="AV22" s="1">
+      <c r="AV22" s="2">
         <v>0.271892676463723</v>
       </c>
-      <c r="AW22" s="1">
+      <c r="AW22" s="2">
         <v>0.271156391978263</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AX22" s="2">
         <v>0.289101064425706</v>
       </c>
-      <c r="AY22" s="1">
+      <c r="AY22" s="2">
         <v>0.29245699878931</v>
       </c>
     </row>
     <row r="23" spans="1:51">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>1.02799878689448</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>0.401867803748448</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>0.320547209771474</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>0.286008615907033</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0.262741144784291</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>0.249831272919972</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>0.23522781791687</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>0.226431346782048</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>0.215852017577489</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <v>0.21164857635498</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="2">
         <v>0.204995640103022</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="2">
         <v>0.196301728312174</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="2">
         <v>0.191196959018707</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="2">
         <v>0.186597364354133</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="2">
         <v>0.181289713096618</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="2">
         <v>0.179712397082646</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="2">
         <v>0.174610221306482</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="2">
         <v>0.169518848109245</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="2">
         <v>0.166704911768436</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="2">
         <v>0.162382291014989</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="2">
         <v>0.157660787765185</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="2">
         <v>0.158174981470902</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="2">
         <v>0.153315177154541</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23" s="2">
         <v>0.151050765045483</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z23" s="2">
         <v>0.148959213606516</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AA23" s="2">
         <v>0.145224979837735</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AB23" s="2">
         <v>0.143597587045033</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AC23" s="2">
         <v>0.141130472596486</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AD23" s="2">
         <v>0.139067489894231</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AE23" s="2">
         <v>0.137126298717657</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AF23" s="2">
         <v>0.133236884570121</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AG23" s="2">
         <v>0.133424436767896</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AH23" s="2">
         <v>0.130651634220282</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AI23" s="2">
         <v>0.129640104993184</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AJ23" s="2">
         <v>0.128598135062058</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AK23" s="2">
         <v>0.127077800003687</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AL23" s="2">
         <v>0.124393593271573</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AM23" s="2">
         <v>0.122356371430555</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AN23" s="2">
         <v>0.12213518983523</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AO23" s="2">
         <v>0.120739323862393</v>
       </c>
-      <c r="AP23" s="1">
+      <c r="AP23" s="2">
         <v>0.117945804429054</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AQ23" s="2">
         <v>0.116152879138787</v>
       </c>
-      <c r="AR23" s="1">
+      <c r="AR23" s="2">
         <v>0.116941365639368</v>
       </c>
-      <c r="AS23" s="1">
+      <c r="AS23" s="2">
         <v>0.11550588846604</v>
       </c>
-      <c r="AT23" s="1">
+      <c r="AT23" s="2">
         <v>0.114052483109633</v>
       </c>
-      <c r="AU23" s="1">
+      <c r="AU23" s="2">
         <v>0.112046914800008</v>
       </c>
-      <c r="AV23" s="1">
+      <c r="AV23" s="2">
         <v>0.11302234853506</v>
       </c>
-      <c r="AW23" s="1">
+      <c r="AW23" s="2">
         <v>0.108481120479106</v>
       </c>
-      <c r="AX23" s="1">
+      <c r="AX23" s="2">
         <v>0.110827520183722</v>
       </c>
-      <c r="AY23" s="1">
+      <c r="AY23" s="2">
         <v>0.107589828515052</v>
       </c>
     </row>
     <row r="24" spans="1:51">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>0.441569865822792</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>0.322795869922637</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>0.318363386559486</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>0.344403296244144</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0.296870551359653</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>0.311171311926841</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>0.27122028529644</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>0.262883321714401</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>0.265229669237136</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <v>0.247582195699214</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="2">
         <v>0.253416470062732</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="2">
         <v>0.244911144775152</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="2">
         <v>0.272245948851108</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="2">
         <v>0.255219490766525</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="2">
         <v>0.258753859752416</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="2">
         <v>0.259786065268516</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="2">
         <v>0.28840812716484</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="2">
         <v>0.246110170412063</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="2">
         <v>0.246386298894882</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="2">
         <v>0.253371453309059</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24" s="2">
         <v>0.288787944412231</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W24" s="2">
         <v>0.257545201051235</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="2">
         <v>0.256788175606727</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Y24" s="2">
         <v>0.245795844447612</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z24" s="2">
         <v>0.248693050134181</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA24" s="2">
         <v>0.254656301116943</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB24" s="2">
         <v>0.243517380523681</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AC24" s="2">
         <v>0.257689776921272</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AD24" s="2">
         <v>0.252376056730747</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AE24" s="2">
         <v>0.243278314912319</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AF24" s="2">
         <v>0.26495656735897</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AG24" s="2">
         <v>0.247523201322555</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AH24" s="2">
         <v>0.248003408670425</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AI24" s="2">
         <v>0.271670299863815</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AJ24" s="2">
         <v>0.274507340693473</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AK24" s="2">
         <v>0.258940464019775</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AL24" s="2">
         <v>0.265075944709777</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AM24" s="2">
         <v>0.261922203564643</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AN24" s="2">
         <v>0.268595458269119</v>
       </c>
-      <c r="AO24" s="1">
+      <c r="AO24" s="2">
         <v>0.268579436969757</v>
       </c>
-      <c r="AP24" s="1">
+      <c r="AP24" s="2">
         <v>0.273842384147644</v>
       </c>
-      <c r="AQ24" s="1">
+      <c r="AQ24" s="2">
         <v>0.273160006093978</v>
       </c>
-      <c r="AR24" s="1">
+      <c r="AR24" s="2">
         <v>0.263888169264793</v>
       </c>
-      <c r="AS24" s="1">
+      <c r="AS24" s="2">
         <v>0.272575781989097</v>
       </c>
-      <c r="AT24" s="1">
+      <c r="AT24" s="2">
         <v>0.289609512472152</v>
       </c>
-      <c r="AU24" s="1">
+      <c r="AU24" s="2">
         <v>0.278856309318542</v>
       </c>
-      <c r="AV24" s="1">
+      <c r="AV24" s="2">
         <v>0.274244067859649</v>
       </c>
-      <c r="AW24" s="1">
+      <c r="AW24" s="2">
         <v>0.290604924535751</v>
       </c>
-      <c r="AX24" s="1">
+      <c r="AX24" s="2">
         <v>0.269328875494003</v>
       </c>
-      <c r="AY24" s="1">
+      <c r="AY24" s="2">
         <v>0.310408953523635</v>
       </c>
     </row>
     <row r="25" spans="1:51">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>1.0515933532238</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>0.416073775863647</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>0.322612968540191</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>0.286318025128046</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0.262711742385228</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>0.249804650052388</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>0.235423133659362</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>0.224321205298105</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>0.217192230757077</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="2">
         <v>0.210031608017285</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="2">
         <v>0.205127281268437</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="2">
         <v>0.195948470513025</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="2">
         <v>0.190338938101132</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="2">
         <v>0.184942614968617</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="2">
         <v>0.181771615338325</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="2">
         <v>0.176990741197268</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="2">
         <v>0.171178197844823</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="2">
         <v>0.167582498256365</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25" s="2">
         <v>0.163893921852111</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="2">
         <v>0.16015898156166</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25" s="2">
         <v>0.158676878456274</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W25" s="2">
         <v>0.154723054552078</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25" s="2">
         <v>0.151325217950344</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25" s="2">
         <v>0.149050072757403</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="Z25" s="2">
         <v>0.147191994869709</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AA25" s="2">
         <v>0.144389479239781</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AB25" s="2">
         <v>0.139491037758191</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AC25" s="2">
         <v>0.137159813666343</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AD25" s="2">
         <v>0.138938393123944</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AE25" s="2">
         <v>0.136442764743169</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AF25" s="2">
         <v>0.134166099441051</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AG25" s="2">
         <v>0.133531923071543</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AH25" s="2">
         <v>0.130488304138183</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AI25" s="2">
         <v>0.128471670134862</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AJ25" s="2">
         <v>0.126974367733796</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AK25" s="2">
         <v>0.124209770528475</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AL25" s="2">
         <v>0.122892544666926</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AM25" s="2">
         <v>0.123359184441963</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AN25" s="2">
         <v>0.11965637572209</v>
       </c>
-      <c r="AO25" s="1">
+      <c r="AO25" s="2">
         <v>0.118974817542235</v>
       </c>
-      <c r="AP25" s="1">
+      <c r="AP25" s="2">
         <v>0.117826968705654</v>
       </c>
-      <c r="AQ25" s="1">
+      <c r="AQ25" s="2">
         <v>0.116010854363441</v>
       </c>
-      <c r="AR25" s="1">
+      <c r="AR25" s="2">
         <v>0.115913024445374</v>
       </c>
-      <c r="AS25" s="1">
+      <c r="AS25" s="2">
         <v>0.112173313784599</v>
       </c>
-      <c r="AT25" s="1">
+      <c r="AT25" s="2">
         <v>0.114389134661356</v>
       </c>
-      <c r="AU25" s="1">
+      <c r="AU25" s="2">
         <v>0.112140438532829</v>
       </c>
-      <c r="AV25" s="1">
+      <c r="AV25" s="2">
         <v>0.111109942841529</v>
       </c>
-      <c r="AW25" s="1">
+      <c r="AW25" s="2">
         <v>0.109417592195669</v>
       </c>
-      <c r="AX25" s="1">
+      <c r="AX25" s="2">
         <v>0.108977059352397</v>
       </c>
-      <c r="AY25" s="1">
+      <c r="AY25" s="2">
         <v>0.108509019390741</v>
       </c>
     </row>
     <row r="26" spans="1:51">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>0.524429015541076</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>0.498170726656913</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>0.350445669341087</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>0.340834458827972</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0.314539247453212</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>0.285941640877723</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>0.275274399971961</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <v>0.255380696702003</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <v>0.25380774154663</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
         <v>0.27738645735979</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="2">
         <v>0.266792472362518</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="2">
         <v>0.249180888390541</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="2">
         <v>0.276980231583118</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="2">
         <v>0.243599526882171</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="2">
         <v>0.251127177071571</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="2">
         <v>0.260733140206337</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="2">
         <v>0.26323610010147</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="2">
         <v>0.242459902381896</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26" s="2">
         <v>0.250415783178806</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26" s="2">
         <v>0.245189916050434</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="2">
         <v>0.263547227013111</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26" s="2">
         <v>0.237980908584594</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="2">
         <v>0.265980869483947</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y26" s="2">
         <v>0.247974620115757</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="Z26" s="2">
         <v>0.253940218973159</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AA26" s="2">
         <v>0.246435532617568</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AB26" s="2">
         <v>0.254433000159263</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AC26" s="2">
         <v>0.241690546798706</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AD26" s="2">
         <v>0.250760031259059</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AE26" s="2">
         <v>0.250551012551784</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AF26" s="2">
         <v>0.276498556756973</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AG26" s="2">
         <v>0.251583599591255</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AH26" s="2">
         <v>0.248855532717704</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AI26" s="2">
         <v>0.262592217671871</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AJ26" s="2">
         <v>0.26537645522356</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AK26" s="2">
         <v>0.276404155731201</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AL26" s="2">
         <v>0.265192919707298</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AM26" s="2">
         <v>0.26325847158432</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AN26" s="2">
         <v>0.279745690631866</v>
       </c>
-      <c r="AO26" s="1">
+      <c r="AO26" s="2">
         <v>0.267047189807891</v>
       </c>
-      <c r="AP26" s="1">
+      <c r="AP26" s="2">
         <v>0.274918732619285</v>
       </c>
-      <c r="AQ26" s="1">
+      <c r="AQ26" s="2">
         <v>0.272332732284069</v>
       </c>
-      <c r="AR26" s="1">
+      <c r="AR26" s="2">
         <v>0.280386090254783</v>
       </c>
-      <c r="AS26" s="1">
+      <c r="AS26" s="2">
         <v>0.287169467306137</v>
       </c>
-      <c r="AT26" s="1">
+      <c r="AT26" s="2">
         <v>0.307497146344184</v>
       </c>
-      <c r="AU26" s="1">
+      <c r="AU26" s="2">
         <v>0.272717739239335</v>
       </c>
-      <c r="AV26" s="1">
+      <c r="AV26" s="2">
         <v>0.287977176666259</v>
       </c>
-      <c r="AW26" s="1">
+      <c r="AW26" s="2">
         <v>0.283336230421066</v>
       </c>
-      <c r="AX26" s="1">
+      <c r="AX26" s="2">
         <v>0.271944525623321</v>
       </c>
-      <c r="AY26" s="1">
+      <c r="AY26" s="2">
         <v>0.305314979791641</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:AY80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="51" width="6.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:51">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.825933333301544</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.886633333333333</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.902933333365122</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.911233333333333</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.918716666666666</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.922300000031789</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.92624999996821</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.930450000031789</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.933733333301544</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.934616666666666</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.937066666634877</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.940416666698455</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.941483333301544</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.94394999996821</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.944983333365122</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.946483333301544</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.947316666666666</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.949533333365122</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.950166666666666</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.952083333301544</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.952583333365122</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.954183333301544</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.953916666634877</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.955966666634877</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0.955833333333333</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0.956800000031789</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.959283333365122</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0.95959999996821</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.9599</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0.959350000031789</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.9614</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.96129999996821</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.962533333301544</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0.962116666634877</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.962683333365122</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0.964133333365122</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0.966</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0.965483333365122</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0.96504999996821</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0.965416666666666</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0.967566666634877</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0.966783333365122</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0.96759999996821</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0.969033333365122</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0.96784999996821</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0.968366666698455</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0.968333333333333</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0.969250000031789</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>0.969516666698455</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>0.970950000031789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.8591</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.889</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.9076</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.9162</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.915</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.9158</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.9266</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.9087</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.9274</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.912</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.9163</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.928</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.9246</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.9299</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.9317</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.9269</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.932</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.9342</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.9352</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.9315</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.9298</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.9359</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.9359</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.9356</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.9346</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.9315</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.9346</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0.9358</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0.9354</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.9371</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0.9327</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0.9374</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0.9356</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.9373</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0.9341</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0.9343</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0.9348</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0.9362</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0.936</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0.9354</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0.9374</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0.9357</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0.934</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0.9359</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0.9341</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0.936</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>0.9371</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>0.9345</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>0.9268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.816516666634877</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.883900000031789</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.900966666698455</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.910316666698455</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.91665</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.920066666666666</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.9243</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.9279</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.931150000031789</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.931550000031789</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.935416666666666</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.937216666666666</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.939216666698455</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.942016666634877</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.942833333301544</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.943266666698455</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.944933333333333</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.946650000031789</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.948533333301544</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.950866666666666</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.951133333365122</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.951283333333333</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.952833333333333</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.952516666666666</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.954516666666666</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.95484999996821</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.956250000031789</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0.956983333333333</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.958100000031789</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.95814999996821</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.959133333301544</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.958466666698455</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0.959816666698455</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0.960566666698455</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0.961833333333333</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0.961850000031789</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0.9629</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0.963083333333333</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0.96309999996821</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0.963533333301544</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0.964833333301544</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0.964266666634877</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0.965566666634877</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0.966733333301544</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0.965683333301544</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0.96569999996821</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0.966616666666666</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0.967416666634877</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>0.967216666666666</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>0.968416666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.8798</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.8766</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.9008</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.9064</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.9192</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.9083</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.9214</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.9214</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.9292</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.9201</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.925</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.9272</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.9171</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.9304</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.9221</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.9305</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.9311</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.9299</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.9327</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.9229</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.9318</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.9326</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.9324</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.9316</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.9332</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.9318</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.9317</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0.9309</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0.9354</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.9341</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0.9315</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0.931</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0.9337</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0.9318</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.9354</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0.9349</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0.9326</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0.9337</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0.9343</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0.9343</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0.9331</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0.9334</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0.9369</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0.9351</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0.9327</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0.9351</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0.9377</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0.9359</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0.9252</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>0.936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.890166666666666</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.9373</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.949461666666666</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.957413333333333</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.962416666666666</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.965908333333333</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.969228333333333</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.971611666666666</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.973346666666666</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.97525</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.97615</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.977738333333333</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.978676666666666</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.979346666666666</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.980185</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.980925</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.981656666666666</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.982031666666666</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.982836666666666</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.983275</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.98354</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.984136666666666</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.984308333333333</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0.984733333333333</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.985136666666666</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0.985445</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.98586</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0.986211666666666</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.986205</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.986523333333333</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0.986935</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0.987226666666666</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0.98735</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0.987425</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0.987956666666666</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0.987691666666666</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0.98811</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0.988068333333333</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0.988126666666666</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0.98868</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0.988725</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0.988781666666666</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0.989183333333333</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0.989108333333333</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0.9892</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0.989451666666666</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0.98958</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0.98966</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0.989668333333333</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>0.989671666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.9244</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.9305</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.9309</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.9367</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.9368</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.9382</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.9381</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.9389</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.939</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.9393</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.9398</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.9405</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.9397</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.9421</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.9394</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.9404</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.9413</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.9406</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.9402</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.9408</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0.9399</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.9394</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.9404</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.9406</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0.9383</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0.9397</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.9405</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0.9397</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0.9409</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0.9404</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.9411</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0.9396</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0.939</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0.9395</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0.9407</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0.9406</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0.9417</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0.9402</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0.9403</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0.9407</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0.9392</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>0.9407</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>0.9398</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0.9401</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0.9385</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>0.9392</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>0.9397</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SphereFace" sheetId="1" r:id="rId1"/>
     <sheet name="ArcFace" sheetId="2" r:id="rId2"/>
     <sheet name="Softmax" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>acc-m=2</t>
   </si>
@@ -194,16 +195,103 @@
   <si>
     <t>Process finished with exit code 0</t>
   </si>
+  <si>
+    <t>100-200</t>
+  </si>
+  <si>
+    <t>[0.9294333351651828, 0.9300000020861625, 0.9302666682004929, 0.9302166699369748, 0.9309833349784216, 0.930566668510437, 0.9307833367586136, 0.9297000017762184, 0.9301166693369548, 0.9306833347678185, 0.9312833354870478, 0.930316668053468, 0.9304666679104169, 0.9314000017444293, 0.9308000024159749, 0.9316833354036014, 0.931266667942206, 0.931400002638499, 0.9327000024914741, 0.9329166682561238, 0.9319500016172727, 0.931966668566068, 0.9302833348512649, 0.9317166683077812, 0.9318166682124138, 0.9323666682839393, 0.9320166683197022, 0.9316166689991952, 0.9329833368460337, 0.9315833338101704, 0.9315333354473114, 0.9334166684746742, 0.9332000024120013, 0.931266666551431, 0.9335333350300788, 0.9324000015854835, 0.9350166676441828, 0.9335500020782153, 0.9324500016371409, 0.9334333348274231, 0.9321666689713796, 0.9330833338697752, 0.9325666681925455, 0.9331000018119812, 0.9325666683912277, 0.9320833357175191, 0.9341833350062371, 0.9331333363056182, 0.9336166675885519, 0.9355833361546199, 0.9332000024120013, 0.9340333352486293, 0.9327666675051053, 0.9347666681806246, 0.9323000012834867, 0.9337666682402292, 0.9328666674097379, 0.9346500016252199, 0.934816668132941, 0.9334666686256726, 0.9345666687687239, 0.9344833359122277, 0.9358000007271766, 0.9360666671395301, 0.9332833341757456, 0.9339666681488356, 0.9344833355148633, 0.9356000017126401, 0.9351333342989285, 0.9343500025073688, 0.9351500024398168, 0.9352000008026758, 0.9348833348353703, 0.9354666685064633, 0.9347166684269905, 0.9353000019987424, 0.936350001792113, 0.9357833353678385, 0.9361333345373472, 0.9360333354274432, 0.9351500022411346, 0.9344166687130928, 0.935533335407575, 0.9370666675766309, 0.936366668343544, 0.93635000060002, 0.9360000014305114, 0.9367166685064634, 0.9354000027974446, 0.9358000008265177, 0.9385166683793068, 0.93635000060002, 0.9380666679143905, 0.935716668566068, 0.935366667409738, 0.9366500024000803, 0.9364500011006991, 0.9370333348711332, 0.9367833353082339, 0.9369666678706805]</t>
+  </si>
+  <si>
+    <t>[0.933300006389618, 0.9365999990701676, 0.9318000036478042, 0.936700000166893, 0.9383000022172928, 0.9376999986171722, 0.9367000007629395, 0.936499999165535, 0.9358999997377395, 0.9358999997377395, 0.934200001358986, 0.938600002527237, 0.9314000016450882, 0.9381000024080276, 0.9324000000953674, 0.9384000009298324, 0.9381999999284745, 0.9404000014066696, 0.9354000008106231, 0.9361999994516372, 0.9334000009298324, 0.9371000021696091, 0.9369999998807907, 0.9368000006675721, 0.9372999989986419, 0.9348000019788743, 0.9343000000715256, 0.9366999983787536, 0.9379000025987625, 0.9367999994754791, 0.9359000021219254, 0.9385000014305115, 0.9390000015497207, 0.9401000010967254, 0.9376999998092651, 0.9323000013828278, 0.9384999996423722, 0.9376999998092651, 0.9371000015735627, 0.9373000007867813, 0.9372000026702881, 0.9387000000476837, 0.9379000020027161, 0.9396000015735626, 0.9386000001430511, 0.936100001335144, 0.9398000025749207, 0.9362000018358231, 0.9391000008583069, 0.9406000030040741, 0.9376999986171722, 0.9401999998092652, 0.9373000007867813, 0.9376999998092651, 0.9400999981164933, 0.9382000029087066, 0.9393999999761582, 0.9387000036239624, 0.9323000001907349, 0.9388999992609024, 0.9400000023841858, 0.937700002193451, 0.9377999991178513, 0.9388999998569488, 0.9379000031948089, 0.9405000013113022, 0.9398000031709671, 0.9393000018596649, 0.9369000029563904, 0.9360000026226044, 0.9326000016927719, 0.9382000029087066, 0.9393000036478043, 0.9404000002145767, 0.939300000667572, 0.9358000004291535, 0.9385000002384186, 0.9387000012397766, 0.9394000017642975, 0.9374000012874604, 0.9355000001192093, 0.9417000007629395, 0.9406999987363815, 0.9419000017642974, 0.9399999988079071, 0.9402000027894973, 0.9416000020503997, 0.9372000008821487, 0.9403000009059906, 0.9350000011920929, 0.9395999997854233, 0.9394000017642975, 0.9392000019550324, 0.9387000012397766, 0.9392000031471253, 0.940200001001358, 0.940799999833107, 0.938400000333786, 0.9417000007629395, 0.940699999332428]</t>
+  </si>
+  <si>
+    <t>[0.1970434941040973, 0.19652573379377525, 0.19704519362499318, 0.19450903464108704, 0.1958691864150266, 0.19473776840915283, 0.19416564386958876, 0.1975557328760624, 0.19601868646219373, 0.1959513421356678, 0.19680871726324162, 0.19361547047272323, 0.19429340086877345, 0.19298744797706605, 0.19410225199535489, 0.19423771501208345, 0.19204645833621423, 0.19209980299696328, 0.19307522516076764, 0.19071562839671968, 0.1921784608066082, 0.19285976752638817, 0.1944376239180565, 0.19159583649908504, 0.1909919055737555, 0.19125170775999625, 0.18996345907449722, 0.19216712351267537, 0.1887622450912992, 0.1915877000366648, 0.1908255903547009, 0.18612648372227947, 0.18798748613645633, 0.1909877276668946, 0.18758026118700702, 0.18759732800225418, 0.18729457271595795, 0.18867123302072286, 0.1885824772218863, 0.18750501003116368, 0.18911993512883782, 0.18768437044074138, 0.19067574877291918, 0.18648063120121758, 0.1875812794951101, 0.1896526848276456, 0.18630456912020843, 0.18498526121179262, 0.18626631366088986, 0.1825726376660168, 0.186880990366141, 0.18350884386648733, 0.1855152647631864, 0.18442991046234966, 0.18783600201830267, 0.18431242473423481, 0.18641267970204353, 0.1845197781920433, 0.18449995501587788, 0.186898357514292, 0.18362911300112802, 0.1858175807322065, 0.18285860246047378, 0.1817479129259785, 0.18586680805931488, 0.18321179686114192, 0.18180452063058813, 0.18047642529010774, 0.1817156813169519, 0.1824309796032806, 0.17895148255551854, 0.183686465912809, 0.18264080672214428, 0.18181455204884212, 0.18222905120501914, 0.17910286132246256, 0.17989552233368158, 0.18041811395436524, 0.18126508044078946, 0.18082465743646026, 0.18314088872323434, 0.1821809451530377, 0.18073465480779607, 0.1791739137098193, 0.18111232411116363, 0.17965363576387366, 0.18094727288310727, 0.17949337292462586, 0.18036228410278757, 0.17946358360971013, 0.17518018369873364, 0.17907913935681183, 0.174268199801445, 0.17865880043556293, 0.17938173594574133, 0.17553815873960654, 0.1768270667269826, 0.17660308589537937, 0.17830503746246298, 0.1766990940583249]</t>
+  </si>
+  <si>
+    <t>[0.19407960914075376, 0.18541707050055264, 0.18861674416810273, 0.19155799519270658, 0.18413022365421056, 0.1843372679874301, 0.19122077122330666, 0.1813189098611474, 0.1883427182585001, 0.19616019446402788, 0.1925141340494156, 0.1845494147390127, 0.1943681724369526, 0.18802016820758582, 0.1968306504562497, 0.18139969024807215, 0.18469371270388366, 0.18601383324712514, 0.18995752826333046, 0.18515984531491994, 0.18417457841336726, 0.1839751612395048, 0.18169502295553686, 0.18345359656959773, 0.18209540266543628, 0.1965446674451232, 0.19947350185364485, 0.19233288809657098, 0.178895428404212, 0.18032302733510733, 0.19882284052670002, 0.1829195848479867, 0.17879079207777976, 0.18147055357694625, 0.1859725698083639, 0.19457572944462298, 0.18619030460715294, 0.1853018021211028, 0.1918758523836732, 0.1818130196630955, 0.18796978607773782, 0.18865770399570464, 0.18489869292825462, 0.18510343451052905, 0.18438216242939234, 0.1841542041115463, 0.18127099018543957, 0.18726036436855792, 0.17982842000201343, 0.18130361914634704, 0.19069236986339091, 0.18206191271543504, 0.1848433157801628, 0.18228857412934305, 0.17972041480243206, 0.18655904743820428, 0.1789968192577362, 0.18756099596619605, 0.19020203061401844, 0.1841154643893242, 0.1817426299676299, 0.18527075987309216, 0.18151028044521808, 0.18537131197750567, 0.18400075923651457, 0.17597582414746285, 0.1789295995607972, 0.18639636799693107, 0.18476904183626175, 0.1826244119182229, 0.1919063486158848, 0.17845275655388831, 0.17932251889258624, 0.1801589522138238, 0.18480972703546286, 0.1907775543630123, 0.186549863088876, 0.18339996948838233, 0.1856615538522601, 0.1765094428136945, 0.1894899845123291, 0.18408965423703194, 0.1765905200690031, 0.17853317886590958, 0.17990645248442888, 0.18273982219398022, 0.17985425665974616, 0.19671592570841312, 0.17432570315897464, 0.19165560130029916, 0.18455569349229337, 0.17857164159417152, 0.18370024707168342, 0.18301870584487914, 0.18396257385611534, 0.1835606523603201, 0.1820174767449498, 0.18368983916938306, 0.18302176728844644, 0.17746358077973126]</t>
+  </si>
+  <si>
+    <t>[[901   0  14  12   0   0  70   0   3   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1 986   0   6   2   1   2   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 16   2 908   7  29   0  38   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  5   1   7 948  20   0  19   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  22  18 926   0  34   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 989   0   8   0   3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 71   0  29  23  53   0 820   0   4   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   8   0 983   0   9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   0   0   2   1   0   1   0 994   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   1   0   0   0   6   0  41   0 952]]</t>
+  </si>
+  <si>
+    <t>[0.9083958363781373, 0.9222083352506161, 0.9281458359211683, 0.9319583341479302, 0.9368125014007092, 0.9389166675508023, 0.9430833337207635, 0.94558333431681, 0.9481875019768874, 0.9510000025232633, 0.9533125014354785, 0.9567708361893892, 0.9573541698356469, 0.9608333375304937, 0.9612500049173832, 0.9649583399295807, 0.9658958381662767, 0.9673333403964838, 0.9690208395322164, 0.9714583419263363, 0.9733125073214371, 0.9746250090499718, 0.9743958421051502, 0.9756041756520669, 0.9766458444297313, 0.9793958434214195, 0.9800416771322489, 0.9803958434611559, 0.9815208427608013, 0.9815416768193245, 0.9797083431233963, 0.9830833440025647, 0.9839791766057412, 0.9852708429098129, 0.9838750101625919, 0.9854166767249505, 0.9849583438287178, 0.9860000099986792, 0.985812509804964, 0.9873958429942529, 0.9887500087420146, 0.9868333431581656, 0.9882291761537393, 0.9887916748722394, 0.9883333425968885, 0.9893958422044913, 0.9894583421448867, 0.9887083427359661, 0.9898958413551251, 0.9886875091741483]</t>
+  </si>
+  <si>
+    <t>[0.9169166679183642, 0.9159166713555654, 0.9179166699449222, 0.9259166712562243, 0.9276666695872943, 0.9311666692296664, 0.9306666692097981, 0.930083333949248, 0.9303333337108294, 0.9235000024239223, 0.93125, 0.9360833336909612, 0.9330000037948291, 0.9385000015298526, 0.9372500012318293, 0.9333333333333333, 0.9298333326975504, 0.9324166670441627, 0.9423333356777827, 0.9385833332935969, 0.9400000015894572, 0.9425833369294803, 0.9387500002980232, 0.9398333365718524, 0.9343333353598913, 0.9431666667262714, 0.940750002861023, 0.9412500003973643, 0.939833336075147, 0.9389166673024495, 0.9385000025232633, 0.9415833344062169, 0.9391666665673256, 0.9395833348234495, 0.9378333369890849, 0.9381666670242945, 0.9358333319425582, 0.9407500003774961, 0.9408333346247673, 0.9410000011324883, 0.9351666703820228, 0.9375000034769376, 0.9395833378036816, 0.9433333362142245, 0.941083337366581, 0.9389166697859764, 0.9328333333134651, 0.9437500009934108, 0.9391666680574418, 0.9399166693290074]</t>
+  </si>
+  <si>
+    <t>[0.25083735552616415, 0.21404001517221333, 0.1987344072666019, 0.1878016356534014, 0.176782661001198, 0.1666757208838438, 0.15574373985873535, 0.1489751586224884, 0.13850082890906681, 0.1327502940238143, 0.12796005021082238, 0.11982099555122355, 0.11683689090423285, 0.10737906407254437, 0.10409614013818404, 0.09520745824168747, 0.09335292423299203, 0.08993934188426161, 0.0841036748199258, 0.07906756092367383, 0.07511603885116831, 0.07073150290331492, 0.07041689608304295, 0.06595450611008952, 0.06608210589523272, 0.05715244716169157, 0.057577877910322664, 0.05515006146597443, 0.051815109359449704, 0.05111043858923949, 0.05887438908733505, 0.04838564950720562, 0.046089764382729, 0.04440200255412492, 0.046876452941069145, 0.04238980829025726, 0.04431728907196278, 0.04140947438160462, 0.042752437871725606, 0.03705884578836655, 0.03324655146934674, 0.038319422931939094, 0.035577358972598935, 0.03480143021976498, 0.03367818132780182, 0.031429049849248256, 0.032383101091666804, 0.03430654997937381, 0.03053600033793676, 0.03445766678796645]</t>
+  </si>
+  <si>
+    <t>[0.22493995192150276, 0.22975236947337788, 0.23306771889328956, 0.2071323151389758, 0.19932893713315328, 0.2027068850894769, 0.21570513788610696, 0.20764730715503296, 0.24075863528996705, 0.23466754717131455, 0.2047273089798788, 0.19392792070284487, 0.21673793001100422, 0.20095483297482133, 0.21373080393920343, 0.21700987921406825, 0.2367090202247103, 0.21913938916598757, 0.20599214951507747, 0.204736537206918, 0.2155452768318355, 0.21268977740158637, 0.2107865539068977, 0.2255783064911763, 0.25160877918824553, 0.22863102514917652, 0.22842137111971775, 0.23296877251317102, 0.23676319783553482, 0.23407422918826343, 0.2273173480294645, 0.2644945605037113, 0.24623914497594038, 0.27944141466480993, 0.2796374952420592, 0.31683771399160227, 0.26190778880069654, 0.2770411214946459, 0.2475434632351001, 0.26621778185168904, 0.3321155388529102, 0.3117755345689754, 0.27314653554931284, 0.2805686601437628, 0.29734927266836164, 0.2868140637874603, 0.2741845725104213, 0.2518159031867981, 0.29372565237184367, 0.29897015495225787]</t>
+  </si>
+  <si>
+    <t>[[886   1  19  11   2   1  79   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 989   1   4   0   0   4   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 12   1 903   9  33   0  42   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 12   2   6 938  16   0  25   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  15  19 934   0  32   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 980   0  14   0   6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 85   0  26  16  55   0 816   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   1   0 987   0  12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   0   2   2   2   3   1   1 987   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   3   0  28   1 968]]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -228,6 +316,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -236,7 +354,75 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -251,8 +437,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,112 +455,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,7 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,13 +481,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +511,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,73 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +571,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,25 +637,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,11 +672,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,26 +698,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,17 +732,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,10 +768,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,141 +780,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -8392,7 +8477,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -8547,7 +8632,7 @@
       </c>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -8701,318 +8786,318 @@
         <v>0.9505</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="2" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.428700000031789</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.787733333365122</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.86649999996821</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.89019999996821</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.903933333365122</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.914183333365122</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.920733333333333</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>0.926633333301544</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>0.928816666634877</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>0.930666666698455</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>0.933216666666666</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.936516666634877</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>0.9381</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>0.93839999996821</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>0.9398</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>0.940916666634877</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <v>0.941466666666666</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <v>0.944583333301544</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>0.942666666666666</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>0.945000000031789</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="2">
         <v>0.944183333365122</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="2">
         <v>0.947666666666666</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="2">
         <v>0.946033333333333</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="2">
         <v>0.94799999996821</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="2">
         <v>0.946850000031789</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="2">
         <v>0.948183333301544</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="2">
         <v>0.949566666698455</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="2">
         <v>0.947583333301544</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="2">
         <v>0.949333333365122</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="2">
         <v>0.948683333365122</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AF3" s="2">
         <v>0.950016666666666</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="2">
         <v>0.951583333365122</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="AH3" s="2">
         <v>0.950483333301544</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="2">
         <v>0.952216666698455</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="2">
         <v>0.951816666634877</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="2">
         <v>0.953333333333333</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="2">
         <v>0.95389999996821</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AM3" s="2">
         <v>0.954033333333333</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AN3" s="2">
         <v>0.952533333333333</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="2">
         <v>0.953233333333333</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="2">
         <v>0.954166666666666</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="2">
         <v>0.95614999996821</v>
       </c>
-      <c r="AR3" s="3">
+      <c r="AR3" s="2">
         <v>0.956733333301544</v>
       </c>
-      <c r="AS3" s="3">
+      <c r="AS3" s="2">
         <v>0.955483333333333</v>
       </c>
-      <c r="AT3" s="3">
+      <c r="AT3" s="2">
         <v>0.955383333333333</v>
       </c>
-      <c r="AU3" s="3">
+      <c r="AU3" s="2">
         <v>0.955533333301544</v>
       </c>
-      <c r="AV3" s="3">
+      <c r="AV3" s="2">
         <v>0.955716666698455</v>
       </c>
-      <c r="AW3" s="3">
+      <c r="AW3" s="2">
         <v>0.957216666666666</v>
       </c>
-      <c r="AX3" s="3">
+      <c r="AX3" s="2">
         <v>0.957400000031789</v>
       </c>
-      <c r="AY3" s="3">
+      <c r="AY3" s="2">
         <v>0.956683333365122</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="2" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.7583</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.8796</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.8913</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.871</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.8823</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.9234</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0.9085</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>0.9153</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>0.9121</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>0.9187</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>0.8976</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.9304</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>0.906</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>0.9119</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>0.9031</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>0.9308</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <v>0.8894</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <v>0.9308</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <v>0.8901</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <v>0.9178</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <v>0.9194</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <v>0.9274</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="2">
         <v>0.9166</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="2">
         <v>0.9164</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="2">
         <v>0.9352</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="2">
         <v>0.9065</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="2">
         <v>0.9185</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="2">
         <v>0.9159</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="2">
         <v>0.9343</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="2">
         <v>0.9245</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF4" s="2">
         <v>0.9136</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AG4" s="2">
         <v>0.9224</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AH4" s="2">
         <v>0.9229</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="2">
         <v>0.8985</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AJ4" s="2">
         <v>0.9056</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AK4" s="2">
         <v>0.929</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AL4" s="2">
         <v>0.9079</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AM4" s="2">
         <v>0.8925</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AN4" s="2">
         <v>0.9201</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO4" s="2">
         <v>0.9256</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AP4" s="2">
         <v>0.9338</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AQ4" s="2">
         <v>0.9251</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AR4" s="2">
         <v>0.9234</v>
       </c>
-      <c r="AS4" s="3">
+      <c r="AS4" s="2">
         <v>0.905</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AT4" s="2">
         <v>0.9217</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AU4" s="2">
         <v>0.9182</v>
       </c>
-      <c r="AV4" s="3">
+      <c r="AV4" s="2">
         <v>0.9249</v>
       </c>
-      <c r="AW4" s="3">
+      <c r="AW4" s="2">
         <v>0.9214</v>
       </c>
-      <c r="AX4" s="3">
+      <c r="AX4" s="2">
         <v>0.9156</v>
       </c>
-      <c r="AY4" s="3">
+      <c r="AY4" s="2">
         <v>0.9207</v>
       </c>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -9167,7 +9252,7 @@
       </c>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -9322,7 +9407,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
@@ -9330,325 +9415,325 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A41" s="3" t="s">
+    <row r="41" s="2" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>2.15203628625869</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>0.614953836472829</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>0.411733244419097</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>0.338763604164123</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>0.295153510459264</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>0.263031616957982</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>0.24465583521525</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="2">
         <v>0.230220618549982</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>0.216845081710815</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>0.210694062550862</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="2">
         <v>0.205897949083646</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="2">
         <v>0.198739878177642</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="2">
         <v>0.19415555802981</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="2">
         <v>0.190262338868776</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="2">
         <v>0.187397386328379</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="2">
         <v>0.183211089396476</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="2">
         <v>0.182001369897524</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="2">
         <v>0.176028664048512</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="2">
         <v>0.177095756959915</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="2">
         <v>0.173993937285741</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41" s="2">
         <v>0.170481328479448</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="2">
         <v>0.16367156689167</v>
       </c>
-      <c r="X41" s="3">
+      <c r="X41" s="2">
         <v>0.167193339089552</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="2">
         <v>0.163745887565612</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="2">
         <v>0.165038088957468</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="2">
         <v>0.159962185295422</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="2">
         <v>0.158253463160991</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="2">
         <v>0.161334856359163</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AD41" s="2">
         <v>0.153845995211601</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AE41" s="2">
         <v>0.158008680494626</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AF41" s="2">
         <v>0.156026821275552</v>
       </c>
-      <c r="AG41" s="3">
+      <c r="AG41" s="2">
         <v>0.152065652887026</v>
       </c>
-      <c r="AH41" s="3">
+      <c r="AH41" s="2">
         <v>0.153394744753837</v>
       </c>
-      <c r="AI41" s="3">
+      <c r="AI41" s="2">
         <v>0.150756739203135</v>
       </c>
-      <c r="AJ41" s="3">
+      <c r="AJ41" s="2">
         <v>0.147371281981468</v>
       </c>
-      <c r="AK41" s="3">
+      <c r="AK41" s="2">
         <v>0.14519886337916</v>
       </c>
-      <c r="AL41" s="3">
+      <c r="AL41" s="2">
         <v>0.146308003948132</v>
       </c>
-      <c r="AM41" s="3">
+      <c r="AM41" s="2">
         <v>0.144546408025423</v>
       </c>
-      <c r="AN41" s="3">
+      <c r="AN41" s="2">
         <v>0.146826561729113</v>
       </c>
-      <c r="AO41" s="3">
+      <c r="AO41" s="2">
         <v>0.146823473509152</v>
       </c>
-      <c r="AP41" s="3">
+      <c r="AP41" s="2">
         <v>0.144211389283339</v>
       </c>
-      <c r="AQ41" s="3">
+      <c r="AQ41" s="2">
         <v>0.140161772469679</v>
       </c>
-      <c r="AR41" s="3">
+      <c r="AR41" s="2">
         <v>0.140314832556247</v>
       </c>
-      <c r="AS41" s="3">
+      <c r="AS41" s="2">
         <v>0.138491430004437</v>
       </c>
-      <c r="AT41" s="3">
+      <c r="AT41" s="2">
         <v>0.140811289652188</v>
       </c>
-      <c r="AU41" s="3">
+      <c r="AU41" s="2">
         <v>0.141275468802452</v>
       </c>
-      <c r="AV41" s="3">
+      <c r="AV41" s="2">
         <v>0.136189713962872</v>
       </c>
-      <c r="AW41" s="3">
+      <c r="AW41" s="2">
         <v>0.136460562535127</v>
       </c>
-      <c r="AX41" s="3">
+      <c r="AX41" s="2">
         <v>0.137623570076624</v>
       </c>
-      <c r="AY41" s="3">
+      <c r="AY41" s="2">
         <v>0.135407358038425</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A42" s="3" t="s">
+    <row r="42" s="2" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>0.715602321147918</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>0.352223469424247</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>0.335182739984989</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>0.501621952009201</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>0.531459507608413</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>0.289538801813125</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>0.392821443367004</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <v>0.408278045129776</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>0.371398489081859</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>0.37630773024559</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="2">
         <v>0.42825316991806</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="2">
         <v>0.275959285259246</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="2">
         <v>0.50930651640892</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="2">
         <v>0.327229115605354</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="2">
         <v>0.514373969316482</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="2">
         <v>0.265683312892913</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="2">
         <v>0.558711115503311</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="2">
         <v>0.30993900899887</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="2">
         <v>0.584694111824035</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="2">
         <v>0.46620564289093</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="2">
         <v>0.320549545073509</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="2">
         <v>0.302736858201026</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="2">
         <v>0.50904691119194</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="2">
         <v>0.386017687368392</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="2">
         <v>0.330256191086769</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="2">
         <v>0.485769724082946</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="2">
         <v>0.474691577792167</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="2">
         <v>0.478175974273681</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AD42" s="2">
         <v>0.32877195982933</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AE42" s="2">
         <v>0.4230027926445</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AF42" s="2">
         <v>0.477516760993003</v>
       </c>
-      <c r="AG42" s="3">
+      <c r="AG42" s="2">
         <v>0.435743067359924</v>
       </c>
-      <c r="AH42" s="3">
+      <c r="AH42" s="2">
         <v>0.391898934268951</v>
       </c>
-      <c r="AI42" s="3">
+      <c r="AI42" s="2">
         <v>0.545273218059539</v>
       </c>
-      <c r="AJ42" s="3">
+      <c r="AJ42" s="2">
         <v>0.468435247254371</v>
       </c>
-      <c r="AK42" s="3">
+      <c r="AK42" s="2">
         <v>0.26506108341217</v>
       </c>
-      <c r="AL42" s="3">
+      <c r="AL42" s="2">
         <v>0.461449797344207</v>
       </c>
-      <c r="AM42" s="3">
+      <c r="AM42" s="2">
         <v>0.586146600914001</v>
       </c>
-      <c r="AN42" s="3">
+      <c r="AN42" s="2">
         <v>0.479364687776565</v>
       </c>
-      <c r="AO42" s="3">
+      <c r="AO42" s="2">
         <v>0.428875145435333</v>
       </c>
-      <c r="AP42" s="3">
+      <c r="AP42" s="2">
         <v>0.3752063580513</v>
       </c>
-      <c r="AQ42" s="3">
+      <c r="AQ42" s="2">
         <v>0.406557753896713</v>
       </c>
-      <c r="AR42" s="3">
+      <c r="AR42" s="2">
         <v>0.402709792852401</v>
       </c>
-      <c r="AS42" s="3">
+      <c r="AS42" s="2">
         <v>0.529030613899231</v>
       </c>
-      <c r="AT42" s="3">
+      <c r="AT42" s="2">
         <v>0.406075363206863</v>
       </c>
-      <c r="AU42" s="3">
+      <c r="AU42" s="2">
         <v>0.423663830614089</v>
       </c>
-      <c r="AV42" s="3">
+      <c r="AV42" s="2">
         <v>0.320016308498382</v>
       </c>
-      <c r="AW42" s="3">
+      <c r="AW42" s="2">
         <v>0.418127346658706</v>
       </c>
-      <c r="AX42" s="3">
+      <c r="AX42" s="2">
         <v>0.392980967664718</v>
       </c>
-      <c r="AY42" s="3">
+      <c r="AY42" s="2">
         <v>0.37712640209198</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
@@ -9656,7 +9741,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
@@ -9681,1871 +9766,1871 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="51" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="51" width="6.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>0.773383333301544</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>0.875966666666666</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>0.895</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>0.90565</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>0.913116666666666</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>0.917683333301544</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>0.921150000031789</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>0.925400000031789</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>0.927933333333333</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>0.930566666698455</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>0.93175</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>0.93484999996821</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>0.9368</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>0.939266666634877</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>0.93955</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>0.940766666666666</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1">
         <v>0.942816666698455</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="1">
         <v>0.943800000031789</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1">
         <v>0.944966666666666</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1">
         <v>0.946816666666666</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="1">
         <v>0.948133333365122</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="1">
         <v>0.947316666698455</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="1">
         <v>0.950400000031789</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="1">
         <v>0.950583333301544</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="1">
         <v>0.951316666634877</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="1">
         <v>0.950700000031789</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="1">
         <v>0.952783333301544</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="1">
         <v>0.953666666698455</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="1">
         <v>0.953816666698455</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="1">
         <v>0.954416666666666</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="1">
         <v>0.95599999996821</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="1">
         <v>0.95555</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="1">
         <v>0.957300000031789</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AI1" s="1">
         <v>0.957033333301544</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="1">
         <v>0.958483333365122</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AK1" s="1">
         <v>0.957700000031789</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AL1" s="1">
         <v>0.960400000031789</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AM1" s="1">
         <v>0.958683333365122</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="1">
         <v>0.959400000031789</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AO1" s="1">
         <v>0.960233333365122</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AP1" s="1">
         <v>0.96094999996821</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AQ1" s="1">
         <v>0.961300000031789</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AR1" s="1">
         <v>0.9613</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AS1" s="1">
         <v>0.9616</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AT1" s="1">
         <v>0.961900000031789</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AU1" s="1">
         <v>0.963116666698455</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AV1" s="1">
         <v>0.963700000031789</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AW1" s="1">
         <v>0.963133333333333</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AX1" s="1">
         <v>0.963483333301544</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AY1" s="1">
         <v>0.964716666634877</v>
       </c>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.8791</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.8923</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.9125</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.9086</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.918</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>0.9116</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>0.9244</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>0.9309</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>0.93</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>0.9251</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>0.9147</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>0.927</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>0.9204</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>0.9325</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>0.915</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>0.9299</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>0.9356</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>0.9301</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>0.9362</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>0.9393</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>0.9157</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>0.9273</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>0.9368</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>0.9325</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>0.9371</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>0.937</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>0.9363</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>0.9397</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="1">
         <v>0.9402</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="1">
         <v>0.9418</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="1">
         <v>0.9417</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="1">
         <v>0.94</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="1">
         <v>0.9395</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2" s="1">
         <v>0.9392</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2" s="1">
         <v>0.9428</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2" s="1">
         <v>0.9403</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="1">
         <v>0.942</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AM2" s="1">
         <v>0.9382</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2" s="1">
         <v>0.9404</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2" s="1">
         <v>0.9393</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AP2" s="1">
         <v>0.936</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2" s="1">
         <v>0.943</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AR2" s="1">
         <v>0.9392</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AS2" s="1">
         <v>0.9423</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AT2" s="1">
         <v>0.9423</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AU2" s="1">
         <v>0.94</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="AV2" s="1">
         <v>0.9424</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="AW2" s="1">
         <v>0.941</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="AX2" s="1">
         <v>0.9398</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="AY2" s="1">
         <v>0.9393</v>
       </c>
     </row>
     <row r="3" spans="1:51">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.770116666634877</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.860166666698455</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.886483333301544</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.899216666666666</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.908433333365122</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.913066666634877</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.916483333301544</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.920683333365122</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>0.924083333365122</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>0.926750000031789</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.92755</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.932133333333333</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>0.933066666698455</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>0.934966666634877</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>0.935933333333333</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>0.937783333365122</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>0.940083333301544</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>0.940400000031789</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>0.942333333333333</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>0.94439999996821</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>0.9439</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>0.945583333333333</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>0.946950000031789</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>0.947950000031789</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>0.949833333365122</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>0.948900000031789</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>0.950950000031789</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="1">
         <v>0.951933333365122</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="1">
         <v>0.951316666698455</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="1">
         <v>0.952200000031789</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="1">
         <v>0.952633333365122</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="1">
         <v>0.952783333301544</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="1">
         <v>0.95529999996821</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AI3" s="1">
         <v>0.95544999996821</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AJ3" s="1">
         <v>0.955750000031789</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3" s="1">
         <v>0.956616666698455</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3" s="1">
         <v>0.956966666666666</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3" s="1">
         <v>0.957066666666666</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3" s="1">
         <v>0.958516666666666</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3" s="1">
         <v>0.9581</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AP3" s="1">
         <v>0.959500000031789</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3" s="1">
         <v>0.959283333333333</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AR3" s="1">
         <v>0.959333333365122</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AS3" s="1">
         <v>0.961133333333333</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AT3" s="1">
         <v>0.960783333333333</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AU3" s="1">
         <v>0.96125</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AV3" s="1">
         <v>0.96089999996821</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="AW3" s="1">
         <v>0.961833333365122</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="AX3" s="1">
         <v>0.961766666666666</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="AY3" s="1">
         <v>0.962350000031789</v>
       </c>
     </row>
     <row r="4" spans="1:51">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.8585</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.8476</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.893</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.8904</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.9068</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.9133</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.915</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0.9189</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>0.9249</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>0.9143</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>0.9228</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>0.922</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>0.92</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>0.9277</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>0.9292</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>0.9264</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>0.9235</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>0.9306</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>0.9307</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>0.9301</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>0.9255</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>0.9347</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>0.9307</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>0.9329</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>0.9296</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>0.936</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>0.9324</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="1">
         <v>0.9344</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="1">
         <v>0.9342</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="1">
         <v>0.9376</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="1">
         <v>0.93</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="1">
         <v>0.935</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH4" s="1">
         <v>0.934</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4" s="1">
         <v>0.9357</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ4" s="1">
         <v>0.936</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4" s="1">
         <v>0.9303</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4" s="1">
         <v>0.9313</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4" s="1">
         <v>0.9353</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4" s="1">
         <v>0.9325</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4" s="1">
         <v>0.9333</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP4" s="1">
         <v>0.9347</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4" s="1">
         <v>0.934</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AR4" s="1">
         <v>0.9327</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4" s="1">
         <v>0.9327</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT4" s="1">
         <v>0.929</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AU4" s="1">
         <v>0.9356</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AV4" s="1">
         <v>0.933</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AW4" s="1">
         <v>0.9358</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AX4" s="1">
         <v>0.9363</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AY4" s="1">
         <v>0.9329</v>
       </c>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.769666666698455</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.863516666634877</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.887833333333333</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.89944999996821</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.908566666698455</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.913300000031789</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.917583333365122</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0.919733333301544</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0.924466666634877</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>0.926516666634877</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0.928416666634877</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>0.931783333365122</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>0.93275</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>0.935150000031789</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>0.936016666634877</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>0.937966666698455</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>0.939683333333333</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>0.93994999996821</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>0.942016666698455</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>0.943066666698455</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>0.944833333365122</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>0.944116666666666</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>0.946233333365122</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>0.948083333333333</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>0.947933333301544</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>0.949350000031789</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>0.95075</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="1">
         <v>0.949933333365122</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="1">
         <v>0.950933333301544</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="1">
         <v>0.951866666698455</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="1">
         <v>0.953966666634877</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="1">
         <v>0.952883333365122</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AH5" s="1">
         <v>0.954466666666666</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AI5" s="1">
         <v>0.954500000031789</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AJ5" s="1">
         <v>0.955533333333333</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AK5" s="1">
         <v>0.955816666666666</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5" s="1">
         <v>0.955516666666666</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5" s="1">
         <v>0.957833333301544</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AN5" s="1">
         <v>0.957233333365122</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AO5" s="1">
         <v>0.957866666698455</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AP5" s="1">
         <v>0.95949999996821</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AQ5" s="1">
         <v>0.960016666634877</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AR5" s="1">
         <v>0.960566666634877</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AS5" s="1">
         <v>0.959783333333333</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AT5" s="1">
         <v>0.961783333365122</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AU5" s="1">
         <v>0.96135</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="AV5" s="1">
         <v>0.961416666634877</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="AW5" s="1">
         <v>0.962183333301544</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="AX5" s="1">
         <v>0.961666666666666</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="AY5" s="1">
         <v>0.9624</v>
       </c>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.8712</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.8974</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.8993</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.8928</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.9122</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.9047</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.9188</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.9218</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0.9203</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>0.9239</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>0.9265</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>0.9286</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>0.9238</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>0.9235</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>0.9263</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>0.925</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>0.9199</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>0.9273</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>0.9335</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <v>0.9293</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <v>0.9207</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="1">
         <v>0.9304</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="1">
         <v>0.9288</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="1">
         <v>0.9337</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="1">
         <v>0.9355</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="1">
         <v>0.9323</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="1">
         <v>0.9351</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="1">
         <v>0.9341</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="1">
         <v>0.9336</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="1">
         <v>0.9374</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="1">
         <v>0.9323</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6" s="1">
         <v>0.9325</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AH6" s="1">
         <v>0.936</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AI6" s="1">
         <v>0.9342</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AJ6" s="1">
         <v>0.9331</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AK6" s="1">
         <v>0.9362</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6" s="1">
         <v>0.9341</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6" s="1">
         <v>0.9403</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AN6" s="1">
         <v>0.9333</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO6" s="1">
         <v>0.9335</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AP6" s="1">
         <v>0.9377</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ6" s="1">
         <v>0.9318</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AR6" s="1">
         <v>0.9369</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AS6" s="1">
         <v>0.9373</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AT6" s="1">
         <v>0.9313</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AU6" s="1">
         <v>0.9335</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AV6" s="1">
         <v>0.9358</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AW6" s="1">
         <v>0.9329</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AX6" s="1">
         <v>0.9363</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AY6" s="1">
         <v>0.9276</v>
       </c>
     </row>
     <row r="21" spans="1:51">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.82558031056722</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>0.358324934180577</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.299244088037808</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.267909061066309</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0.248850344498952</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>0.233566655826568</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>0.221337112394968</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>0.212105247410138</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>0.203590833536783</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>0.19826012216409</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>0.191577317714691</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>0.183129559842745</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>0.17900812729597</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="1">
         <v>0.173971315201123</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="1">
         <v>0.171730054910977</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="1">
         <v>0.166339011788368</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="1">
         <v>0.162124056911468</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="1">
         <v>0.158191696858406</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="1">
         <v>0.155154075998067</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="1">
         <v>0.152362087325255</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V21" s="1">
         <v>0.148582167613506</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W21" s="1">
         <v>0.148216303149859</v>
       </c>
-      <c r="X21" s="2">
+      <c r="X21" s="1">
         <v>0.143182238272825</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="Y21" s="1">
         <v>0.141561001459757</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="Z21" s="1">
         <v>0.139419853619734</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AA21" s="1">
         <v>0.139581497677167</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AB21" s="1">
         <v>0.131799477791786</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AC21" s="1">
         <v>0.132521422974268</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21" s="1">
         <v>0.13334634039402</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AE21" s="1">
         <v>0.130837482070922</v>
       </c>
-      <c r="AF21" s="2">
+      <c r="AF21" s="1">
         <v>0.12596418851614</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AG21" s="1">
         <v>0.125136953353881</v>
       </c>
-      <c r="AH21" s="2">
+      <c r="AH21" s="1">
         <v>0.122986862679322</v>
       </c>
-      <c r="AI21" s="2">
+      <c r="AI21" s="1">
         <v>0.121367871820926</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AJ21" s="1">
         <v>0.118709148510297</v>
       </c>
-      <c r="AK21" s="2">
+      <c r="AK21" s="1">
         <v>0.120467171581586</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AL21" s="1">
         <v>0.114832018045584</v>
       </c>
-      <c r="AM21" s="2">
+      <c r="AM21" s="1">
         <v>0.116367336936791</v>
       </c>
-      <c r="AN21" s="2">
+      <c r="AN21" s="1">
         <v>0.114665993944803</v>
       </c>
-      <c r="AO21" s="2">
+      <c r="AO21" s="1">
         <v>0.113019900941848</v>
       </c>
-      <c r="AP21" s="2">
+      <c r="AP21" s="1">
         <v>0.111965585601329</v>
       </c>
-      <c r="AQ21" s="2">
+      <c r="AQ21" s="1">
         <v>0.109588793118794</v>
       </c>
-      <c r="AR21" s="2">
+      <c r="AR21" s="1">
         <v>0.109269171067078</v>
       </c>
-      <c r="AS21" s="2">
+      <c r="AS21" s="1">
         <v>0.108673212626576</v>
       </c>
-      <c r="AT21" s="2">
+      <c r="AT21" s="1">
         <v>0.107038901714483</v>
       </c>
-      <c r="AU21" s="2">
+      <c r="AU21" s="1">
         <v>0.104391821845372</v>
       </c>
-      <c r="AV21" s="2">
+      <c r="AV21" s="1">
         <v>0.105583079572518</v>
       </c>
-      <c r="AW21" s="2">
+      <c r="AW21" s="1">
         <v>0.10216513299942</v>
       </c>
-      <c r="AX21" s="2">
+      <c r="AX21" s="1">
         <v>0.102433340855439</v>
       </c>
-      <c r="AY21" s="2">
+      <c r="AY21" s="1">
         <v>0.100291811406612</v>
       </c>
     </row>
     <row r="22" spans="1:51">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.391152812099456</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>0.328501722812652</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0.284014363729953</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>0.310958634999394</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0.266682648968696</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>0.28344696187973</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>0.261895667052268</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>0.251803664219379</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>0.236586441862583</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>0.260732250475883</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>0.293349983668327</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>0.267843900465965</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>0.294493007326126</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="1">
         <v>0.245656244277954</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="1">
         <v>0.329097201991081</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="1">
         <v>0.261989333558082</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="1">
         <v>0.241099618735909</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="1">
         <v>0.277550703978538</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="1">
         <v>0.24482544350624</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="1">
         <v>0.227389179778099</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22" s="1">
         <v>0.353107062387466</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W22" s="1">
         <v>0.274535203468799</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X22" s="1">
         <v>0.240059327161312</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22" s="1">
         <v>0.275957761406898</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="Z22" s="1">
         <v>0.262386038827896</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AA22" s="1">
         <v>0.238738044595718</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AB22" s="1">
         <v>0.271596951150894</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AC22" s="1">
         <v>0.260056805640459</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22" s="1">
         <v>0.234382046294212</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AE22" s="1">
         <v>0.241273328375816</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AF22" s="1">
         <v>0.242459084558486</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AG22" s="1">
         <v>0.246659189510345</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AH22" s="1">
         <v>0.257462173739075</v>
       </c>
-      <c r="AI22" s="2">
+      <c r="AI22" s="1">
         <v>0.247434923398494</v>
       </c>
-      <c r="AJ22" s="2">
+      <c r="AJ22" s="1">
         <v>0.23863642104268</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AK22" s="1">
         <v>0.243848975509405</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AL22" s="1">
         <v>0.252331984186172</v>
       </c>
-      <c r="AM22" s="2">
+      <c r="AM22" s="1">
         <v>0.283690062308311</v>
       </c>
-      <c r="AN22" s="2">
+      <c r="AN22" s="1">
         <v>0.268833993291854</v>
       </c>
-      <c r="AO22" s="2">
+      <c r="AO22" s="1">
         <v>0.268493248462677</v>
       </c>
-      <c r="AP22" s="2">
+      <c r="AP22" s="1">
         <v>0.281989469897747</v>
       </c>
-      <c r="AQ22" s="2">
+      <c r="AQ22" s="1">
         <v>0.254544052606821</v>
       </c>
-      <c r="AR22" s="2">
+      <c r="AR22" s="1">
         <v>0.256377017211914</v>
       </c>
-      <c r="AS22" s="2">
+      <c r="AS22" s="1">
         <v>0.275990580785274</v>
       </c>
-      <c r="AT22" s="2">
+      <c r="AT22" s="1">
         <v>0.265968029797077</v>
       </c>
-      <c r="AU22" s="2">
+      <c r="AU22" s="1">
         <v>0.274508260405063</v>
       </c>
-      <c r="AV22" s="2">
+      <c r="AV22" s="1">
         <v>0.271892676463723</v>
       </c>
-      <c r="AW22" s="2">
+      <c r="AW22" s="1">
         <v>0.271156391978263</v>
       </c>
-      <c r="AX22" s="2">
+      <c r="AX22" s="1">
         <v>0.289101064425706</v>
       </c>
-      <c r="AY22" s="2">
+      <c r="AY22" s="1">
         <v>0.29245699878931</v>
       </c>
     </row>
     <row r="23" spans="1:51">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>1.02799878689448</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>0.401867803748448</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>0.320547209771474</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>0.286008615907033</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>0.262741144784291</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>0.249831272919972</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>0.23522781791687</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>0.226431346782048</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>0.215852017577489</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>0.21164857635498</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <v>0.204995640103022</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>0.196301728312174</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <v>0.191196959018707</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="1">
         <v>0.186597364354133</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="1">
         <v>0.181289713096618</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="1">
         <v>0.179712397082646</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="1">
         <v>0.174610221306482</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="1">
         <v>0.169518848109245</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="1">
         <v>0.166704911768436</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="1">
         <v>0.162382291014989</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V23" s="1">
         <v>0.157660787765185</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W23" s="1">
         <v>0.158174981470902</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="1">
         <v>0.153315177154541</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="Y23" s="1">
         <v>0.151050765045483</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="Z23" s="1">
         <v>0.148959213606516</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AA23" s="1">
         <v>0.145224979837735</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AB23" s="1">
         <v>0.143597587045033</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AC23" s="1">
         <v>0.141130472596486</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23" s="1">
         <v>0.139067489894231</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AE23" s="1">
         <v>0.137126298717657</v>
       </c>
-      <c r="AF23" s="2">
+      <c r="AF23" s="1">
         <v>0.133236884570121</v>
       </c>
-      <c r="AG23" s="2">
+      <c r="AG23" s="1">
         <v>0.133424436767896</v>
       </c>
-      <c r="AH23" s="2">
+      <c r="AH23" s="1">
         <v>0.130651634220282</v>
       </c>
-      <c r="AI23" s="2">
+      <c r="AI23" s="1">
         <v>0.129640104993184</v>
       </c>
-      <c r="AJ23" s="2">
+      <c r="AJ23" s="1">
         <v>0.128598135062058</v>
       </c>
-      <c r="AK23" s="2">
+      <c r="AK23" s="1">
         <v>0.127077800003687</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AL23" s="1">
         <v>0.124393593271573</v>
       </c>
-      <c r="AM23" s="2">
+      <c r="AM23" s="1">
         <v>0.122356371430555</v>
       </c>
-      <c r="AN23" s="2">
+      <c r="AN23" s="1">
         <v>0.12213518983523</v>
       </c>
-      <c r="AO23" s="2">
+      <c r="AO23" s="1">
         <v>0.120739323862393</v>
       </c>
-      <c r="AP23" s="2">
+      <c r="AP23" s="1">
         <v>0.117945804429054</v>
       </c>
-      <c r="AQ23" s="2">
+      <c r="AQ23" s="1">
         <v>0.116152879138787</v>
       </c>
-      <c r="AR23" s="2">
+      <c r="AR23" s="1">
         <v>0.116941365639368</v>
       </c>
-      <c r="AS23" s="2">
+      <c r="AS23" s="1">
         <v>0.11550588846604</v>
       </c>
-      <c r="AT23" s="2">
+      <c r="AT23" s="1">
         <v>0.114052483109633</v>
       </c>
-      <c r="AU23" s="2">
+      <c r="AU23" s="1">
         <v>0.112046914800008</v>
       </c>
-      <c r="AV23" s="2">
+      <c r="AV23" s="1">
         <v>0.11302234853506</v>
       </c>
-      <c r="AW23" s="2">
+      <c r="AW23" s="1">
         <v>0.108481120479106</v>
       </c>
-      <c r="AX23" s="2">
+      <c r="AX23" s="1">
         <v>0.110827520183722</v>
       </c>
-      <c r="AY23" s="2">
+      <c r="AY23" s="1">
         <v>0.107589828515052</v>
       </c>
     </row>
     <row r="24" spans="1:51">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>0.441569865822792</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>0.322795869922637</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>0.318363386559486</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>0.344403296244144</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0.296870551359653</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>0.311171311926841</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>0.27122028529644</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>0.262883321714401</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>0.265229669237136</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>0.247582195699214</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>0.253416470062732</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>0.244911144775152</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <v>0.272245948851108</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="1">
         <v>0.255219490766525</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="1">
         <v>0.258753859752416</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="1">
         <v>0.259786065268516</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="1">
         <v>0.28840812716484</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="1">
         <v>0.246110170412063</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="1">
         <v>0.246386298894882</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U24" s="1">
         <v>0.253371453309059</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V24" s="1">
         <v>0.288787944412231</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W24" s="1">
         <v>0.257545201051235</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24" s="1">
         <v>0.256788175606727</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="Y24" s="1">
         <v>0.245795844447612</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="Z24" s="1">
         <v>0.248693050134181</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AA24" s="1">
         <v>0.254656301116943</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AB24" s="1">
         <v>0.243517380523681</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AC24" s="1">
         <v>0.257689776921272</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24" s="1">
         <v>0.252376056730747</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AE24" s="1">
         <v>0.243278314912319</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AF24" s="1">
         <v>0.26495656735897</v>
       </c>
-      <c r="AG24" s="2">
+      <c r="AG24" s="1">
         <v>0.247523201322555</v>
       </c>
-      <c r="AH24" s="2">
+      <c r="AH24" s="1">
         <v>0.248003408670425</v>
       </c>
-      <c r="AI24" s="2">
+      <c r="AI24" s="1">
         <v>0.271670299863815</v>
       </c>
-      <c r="AJ24" s="2">
+      <c r="AJ24" s="1">
         <v>0.274507340693473</v>
       </c>
-      <c r="AK24" s="2">
+      <c r="AK24" s="1">
         <v>0.258940464019775</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AL24" s="1">
         <v>0.265075944709777</v>
       </c>
-      <c r="AM24" s="2">
+      <c r="AM24" s="1">
         <v>0.261922203564643</v>
       </c>
-      <c r="AN24" s="2">
+      <c r="AN24" s="1">
         <v>0.268595458269119</v>
       </c>
-      <c r="AO24" s="2">
+      <c r="AO24" s="1">
         <v>0.268579436969757</v>
       </c>
-      <c r="AP24" s="2">
+      <c r="AP24" s="1">
         <v>0.273842384147644</v>
       </c>
-      <c r="AQ24" s="2">
+      <c r="AQ24" s="1">
         <v>0.273160006093978</v>
       </c>
-      <c r="AR24" s="2">
+      <c r="AR24" s="1">
         <v>0.263888169264793</v>
       </c>
-      <c r="AS24" s="2">
+      <c r="AS24" s="1">
         <v>0.272575781989097</v>
       </c>
-      <c r="AT24" s="2">
+      <c r="AT24" s="1">
         <v>0.289609512472152</v>
       </c>
-      <c r="AU24" s="2">
+      <c r="AU24" s="1">
         <v>0.278856309318542</v>
       </c>
-      <c r="AV24" s="2">
+      <c r="AV24" s="1">
         <v>0.274244067859649</v>
       </c>
-      <c r="AW24" s="2">
+      <c r="AW24" s="1">
         <v>0.290604924535751</v>
       </c>
-      <c r="AX24" s="2">
+      <c r="AX24" s="1">
         <v>0.269328875494003</v>
       </c>
-      <c r="AY24" s="2">
+      <c r="AY24" s="1">
         <v>0.310408953523635</v>
       </c>
     </row>
     <row r="25" spans="1:51">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>1.0515933532238</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>0.416073775863647</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>0.322612968540191</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0.286318025128046</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0.262711742385228</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>0.249804650052388</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>0.235423133659362</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>0.224321205298105</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>0.217192230757077</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>0.210031608017285</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>0.205127281268437</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>0.195948470513025</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>0.190338938101132</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="1">
         <v>0.184942614968617</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="1">
         <v>0.181771615338325</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="1">
         <v>0.176990741197268</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="1">
         <v>0.171178197844823</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="1">
         <v>0.167582498256365</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="1">
         <v>0.163893921852111</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="1">
         <v>0.16015898156166</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="1">
         <v>0.158676878456274</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W25" s="1">
         <v>0.154723054552078</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X25" s="1">
         <v>0.151325217950344</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="Y25" s="1">
         <v>0.149050072757403</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="Z25" s="1">
         <v>0.147191994869709</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AA25" s="1">
         <v>0.144389479239781</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AB25" s="1">
         <v>0.139491037758191</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AC25" s="1">
         <v>0.137159813666343</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25" s="1">
         <v>0.138938393123944</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AE25" s="1">
         <v>0.136442764743169</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AF25" s="1">
         <v>0.134166099441051</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AG25" s="1">
         <v>0.133531923071543</v>
       </c>
-      <c r="AH25" s="2">
+      <c r="AH25" s="1">
         <v>0.130488304138183</v>
       </c>
-      <c r="AI25" s="2">
+      <c r="AI25" s="1">
         <v>0.128471670134862</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AJ25" s="1">
         <v>0.126974367733796</v>
       </c>
-      <c r="AK25" s="2">
+      <c r="AK25" s="1">
         <v>0.124209770528475</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL25" s="1">
         <v>0.122892544666926</v>
       </c>
-      <c r="AM25" s="2">
+      <c r="AM25" s="1">
         <v>0.123359184441963</v>
       </c>
-      <c r="AN25" s="2">
+      <c r="AN25" s="1">
         <v>0.11965637572209</v>
       </c>
-      <c r="AO25" s="2">
+      <c r="AO25" s="1">
         <v>0.118974817542235</v>
       </c>
-      <c r="AP25" s="2">
+      <c r="AP25" s="1">
         <v>0.117826968705654</v>
       </c>
-      <c r="AQ25" s="2">
+      <c r="AQ25" s="1">
         <v>0.116010854363441</v>
       </c>
-      <c r="AR25" s="2">
+      <c r="AR25" s="1">
         <v>0.115913024445374</v>
       </c>
-      <c r="AS25" s="2">
+      <c r="AS25" s="1">
         <v>0.112173313784599</v>
       </c>
-      <c r="AT25" s="2">
+      <c r="AT25" s="1">
         <v>0.114389134661356</v>
       </c>
-      <c r="AU25" s="2">
+      <c r="AU25" s="1">
         <v>0.112140438532829</v>
       </c>
-      <c r="AV25" s="2">
+      <c r="AV25" s="1">
         <v>0.111109942841529</v>
       </c>
-      <c r="AW25" s="2">
+      <c r="AW25" s="1">
         <v>0.109417592195669</v>
       </c>
-      <c r="AX25" s="2">
+      <c r="AX25" s="1">
         <v>0.108977059352397</v>
       </c>
-      <c r="AY25" s="2">
+      <c r="AY25" s="1">
         <v>0.108509019390741</v>
       </c>
     </row>
     <row r="26" spans="1:51">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>0.524429015541076</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>0.498170726656913</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0.350445669341087</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>0.340834458827972</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0.314539247453212</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>0.285941640877723</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>0.275274399971961</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>0.255380696702003</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>0.25380774154663</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>0.27738645735979</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>0.266792472362518</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>0.249180888390541</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>0.276980231583118</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="1">
         <v>0.243599526882171</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="1">
         <v>0.251127177071571</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="1">
         <v>0.260733140206337</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="1">
         <v>0.26323610010147</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="1">
         <v>0.242459902381896</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="1">
         <v>0.250415783178806</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="1">
         <v>0.245189916050434</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V26" s="1">
         <v>0.263547227013111</v>
       </c>
-      <c r="W26" s="2">
+      <c r="W26" s="1">
         <v>0.237980908584594</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X26" s="1">
         <v>0.265980869483947</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y26" s="1">
         <v>0.247974620115757</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="Z26" s="1">
         <v>0.253940218973159</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AA26" s="1">
         <v>0.246435532617568</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AB26" s="1">
         <v>0.254433000159263</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AC26" s="1">
         <v>0.241690546798706</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26" s="1">
         <v>0.250760031259059</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AE26" s="1">
         <v>0.250551012551784</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AF26" s="1">
         <v>0.276498556756973</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AG26" s="1">
         <v>0.251583599591255</v>
       </c>
-      <c r="AH26" s="2">
+      <c r="AH26" s="1">
         <v>0.248855532717704</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AI26" s="1">
         <v>0.262592217671871</v>
       </c>
-      <c r="AJ26" s="2">
+      <c r="AJ26" s="1">
         <v>0.26537645522356</v>
       </c>
-      <c r="AK26" s="2">
+      <c r="AK26" s="1">
         <v>0.276404155731201</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AL26" s="1">
         <v>0.265192919707298</v>
       </c>
-      <c r="AM26" s="2">
+      <c r="AM26" s="1">
         <v>0.26325847158432</v>
       </c>
-      <c r="AN26" s="2">
+      <c r="AN26" s="1">
         <v>0.279745690631866</v>
       </c>
-      <c r="AO26" s="2">
+      <c r="AO26" s="1">
         <v>0.267047189807891</v>
       </c>
-      <c r="AP26" s="2">
+      <c r="AP26" s="1">
         <v>0.274918732619285</v>
       </c>
-      <c r="AQ26" s="2">
+      <c r="AQ26" s="1">
         <v>0.272332732284069</v>
       </c>
-      <c r="AR26" s="2">
+      <c r="AR26" s="1">
         <v>0.280386090254783</v>
       </c>
-      <c r="AS26" s="2">
+      <c r="AS26" s="1">
         <v>0.287169467306137</v>
       </c>
-      <c r="AT26" s="2">
+      <c r="AT26" s="1">
         <v>0.307497146344184</v>
       </c>
-      <c r="AU26" s="2">
+      <c r="AU26" s="1">
         <v>0.272717739239335</v>
       </c>
-      <c r="AV26" s="2">
+      <c r="AV26" s="1">
         <v>0.287977176666259</v>
       </c>
-      <c r="AW26" s="2">
+      <c r="AW26" s="1">
         <v>0.283336230421066</v>
       </c>
-      <c r="AX26" s="2">
+      <c r="AX26" s="1">
         <v>0.271944525623321</v>
       </c>
-      <c r="AY26" s="2">
+      <c r="AY26" s="1">
         <v>0.305314979791641</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11561,7 +11646,7 @@
   <sheetPr/>
   <dimension ref="A2:AY80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -12501,27 +12586,27 @@
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12680,4 +12765,559 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A14:G81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.9</v>
+      </c>
+      <c r="E20">
+        <v>0.9</v>
+      </c>
+      <c r="F20">
+        <v>0.9</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0.99</v>
+      </c>
+      <c r="F21">
+        <v>0.99</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>0.93</v>
+      </c>
+      <c r="E22">
+        <v>0.91</v>
+      </c>
+      <c r="F22">
+        <v>0.92</v>
+      </c>
+      <c r="G22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0.93</v>
+      </c>
+      <c r="E23">
+        <v>0.95</v>
+      </c>
+      <c r="F23">
+        <v>0.94</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0.9</v>
+      </c>
+      <c r="E24">
+        <v>0.93</v>
+      </c>
+      <c r="F24">
+        <v>0.91</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>0.99</v>
+      </c>
+      <c r="E25">
+        <v>0.99</v>
+      </c>
+      <c r="F25">
+        <v>0.99</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>0.83</v>
+      </c>
+      <c r="E26">
+        <v>0.82</v>
+      </c>
+      <c r="F26">
+        <v>0.83</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>0.95</v>
+      </c>
+      <c r="E27">
+        <v>0.98</v>
+      </c>
+      <c r="F27">
+        <v>0.97</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>0.99</v>
+      </c>
+      <c r="E28">
+        <v>0.99</v>
+      </c>
+      <c r="F28">
+        <v>0.99</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>0.99</v>
+      </c>
+      <c r="E29">
+        <v>0.95</v>
+      </c>
+      <c r="F29">
+        <v>0.97</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0.89</v>
+      </c>
+      <c r="E54">
+        <v>0.89</v>
+      </c>
+      <c r="F54">
+        <v>0.89</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0.99</v>
+      </c>
+      <c r="F55">
+        <v>0.99</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>0.93</v>
+      </c>
+      <c r="E56">
+        <v>0.9</v>
+      </c>
+      <c r="F56">
+        <v>0.92</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>0.94</v>
+      </c>
+      <c r="E57">
+        <v>0.94</v>
+      </c>
+      <c r="F57">
+        <v>0.94</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>0.9</v>
+      </c>
+      <c r="E58">
+        <v>0.93</v>
+      </c>
+      <c r="F58">
+        <v>0.91</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>0.99</v>
+      </c>
+      <c r="E59">
+        <v>0.98</v>
+      </c>
+      <c r="F59">
+        <v>0.99</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>0.82</v>
+      </c>
+      <c r="E60">
+        <v>0.82</v>
+      </c>
+      <c r="F60">
+        <v>0.82</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>0.96</v>
+      </c>
+      <c r="E61">
+        <v>0.99</v>
+      </c>
+      <c r="F61">
+        <v>0.97</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>0.99</v>
+      </c>
+      <c r="E62">
+        <v>0.99</v>
+      </c>
+      <c r="F62">
+        <v>0.99</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>0.98</v>
+      </c>
+      <c r="E63">
+        <v>0.97</v>
+      </c>
+      <c r="F63">
+        <v>0.97</v>
+      </c>
+      <c r="G63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SphereFace" sheetId="1" r:id="rId1"/>
     <sheet name="ArcFace" sheetId="2" r:id="rId2"/>
     <sheet name="Softmax" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Wide CNN" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="K=8" sheetId="6" r:id="rId6"/>
+    <sheet name="Embedding" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="207">
   <si>
     <t>acc-m=2</t>
   </si>
@@ -196,6 +199,108 @@
     <t>Process finished with exit code 0</t>
   </si>
   <si>
+    <t>k=1,kernels=[1,3,5,7],Drop=0.25,Acc</t>
+  </si>
+  <si>
+    <t>k=1,kernels=[1,3,5,7],Drop=0.25,Val-Acc</t>
+  </si>
+  <si>
+    <t>[0.8229833333651225, 0.8881833333651225, 0.9033333333015442, 0.9132333333015442, 0.9196833333651224, 0.9248833333651225, 0.9284833333651225, 0.9330166666348775, 0.9351000000317892, 0.9380666666666667, 0.93975, 0.94325, 0.9451333333333334, 0.9472166666666667, 0.9485833333333333, 0.9498333333333333, 0.9512833333015442, 0.9533666666348776, 0.9550000000317892, 0.9561333333333333, 0.9586333333333333, 0.9594999999682109, 0.9598499999682109, 0.9617833333015442, 0.9628166666348775, 0.9650833333015442, 0.9651666666984559, 0.9658833333333333, 0.9670166666666666, 0.9677833333333333, 0.9683666666348775, 0.9686000000317891, 0.9703333333015441, 0.9700833333651224, 0.9719833333333333, 0.97215, 0.9726499999682109, 0.9747833333015442, 0.9739833333333333, 0.9747166666348775, 0.9763333333015441, 0.9763999999682108, 0.97615, 0.9771166666348775, 0.9771166666984558, 0.9779000000317891, 0.9788, 0.9795833333015442, 0.9791, 0.9809499999682109]</t>
+  </si>
+  <si>
+    <t>[0.8617, 0.8887, 0.9032, 0.9174, 0.9192, 0.9178, 0.9185, 0.8979, 0.9271, 0.9298, 0.9306, 0.9263, 0.9297, 0.9333, 0.9321, 0.9364, 0.9345, 0.9321, 0.9357, 0.9273, 0.934, 0.9374, 0.9369, 0.9395, 0.9366, 0.9373, 0.9351, 0.9315, 0.9351, 0.9355, 0.9391, 0.9237, 0.936, 0.9391, 0.9389, 0.9381, 0.9392, 0.9399, 0.9395, 0.9397, 0.9408, 0.9407, 0.9396, 0.94, 0.9402, 0.9379, 0.9383, 0.9354, 0.9426, 0.9391]</t>
+  </si>
+  <si>
+    <t>[0.5132331071853637, 0.3169011078516642, 0.26915984970728557, 0.24398666860262552, 0.2243456683397293, 0.21094811273415884, 0.19882063287099203, 0.1882607788324356, 0.17958158804575602, 0.17139049167633055, 0.16557250702381135, 0.15747310155232747, 0.15320995649496713, 0.1471176282008489, 0.14079294486840566, 0.13885044553677242, 0.13498879905144373, 0.12807604396740596, 0.12376324347257614, 0.12060051109790802, 0.11537036352157592, 0.11256503143012524, 0.1089047976732254, 0.1054847518225511, 0.10220064144134522, 0.09697717862129211, 0.09589775106112162, 0.09360532063643137, 0.09080128821631273, 0.0893676562110583, 0.08498982393145561, 0.08546168389320373, 0.08189395393530528, 0.08059605490763982, 0.07646618187973897, 0.07675745622913042, 0.07357558869719505, 0.06974178485870361, 0.07096597126722336, 0.06980546450018883, 0.06594636845986049, 0.06575173771778743, 0.06488781398236751, 0.061440818774700166, 0.06284136501351992, 0.05943530740141868, 0.05772312884728114, 0.056692668869098024, 0.05554328957895438, 0.05331554219822089]</t>
+  </si>
+  <si>
+    <t>[0.3984189578056335, 0.31374843924045565, 0.2668014086008072, 0.22575834114551543, 0.22849510560035705, 0.2257079447746277, 0.22443266077041626, 0.26582190196514127, 0.21012048785686493, 0.20262003729343414, 0.19676178288459778, 0.20750996429920196, 0.21006619637012483, 0.1983846462249756, 0.199648521900177, 0.19716071865558624, 0.1957690192937851, 0.20202358479499816, 0.19495385901927947, 0.22326244485378266, 0.2065706232070923, 0.20706643328666688, 0.20747477188110353, 0.20183629746437073, 0.21311022820472716, 0.19514643518924712, 0.21748665583133697, 0.22175232343673706, 0.23202335703372956, 0.2137882336139679, 0.20883310317993165, 0.25532571444511415, 0.22208154289722443, 0.20988406147956848, 0.2062541581630707, 0.21637920553684234, 0.22324865963459015, 0.2268845362663269, 0.2314041453361511, 0.21443736534118651, 0.2168848967552185, 0.2272480523109436, 0.23888695361614226, 0.23892256331443787, 0.2358256914973259, 0.2362729782104492, 0.24073655015230178, 0.24927089161872865, 0.25444000258445737, 0.2518551763534546]</t>
+  </si>
+  <si>
+    <t>[[896   0  22   7   0   0  70   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  3 985   0   8   1   0   1   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 15   1 918   9  22   0  35   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  9   1   8 949  15   0  18   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  29  17 907   0  47   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   1   0 979   0  15   0   5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 84   1  33  26  36   0 816   0   4   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   1   0 986   0  13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  3   0   1   2   2   1   0   0 991   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   1   0   0   4   0  31   0 964]]</t>
+  </si>
+  <si>
+    <t>Epoch 00050: saving model to ./weights/cnn_label_weight.ckpt</t>
+  </si>
+  <si>
+    <t>[0.9554499999682109, 0.9588666666348775, 0.9618333333333333, 0.9648166666348775, 0.9682333333651225, 0.9695333333333334, 0.9712833333015441, 0.9735666666348776, 0.9747833333015442, 0.97655, 0.9783333333333334, 0.9787833333015442, 0.9797666666348775, 0.9811999999682108, 0.9819666666348775, 0.9818833333333333, 0.9821166666348775, 0.9836000000317892, 0.9849833333651224, 0.9855666666348776, 0.9869500000317891, 0.9867666666666667, 0.98705, 0.9881833333333333, 0.9874, 0.9882500000317891, 0.98885, 0.9897, 0.9886666666666667, 0.9894333333651225, 0.9896499999682109, 0.9901166666666666, 0.9902833333015442, 0.9906166666666667, 0.9907666666666667, 0.9915333333015441, 0.99135, 0.9915833333333334, 0.9922, 0.9922833333333333, 0.9920000000317891, 0.9926833333333334, 0.9921, 0.9929833333333333, 0.9926833333015442, 0.9928166666666667, 0.9934333333651225, 0.9934833333333334, 0.99335, 0.9936166666348776]</t>
+  </si>
+  <si>
+    <t>[0.9336, 0.9407, 0.9422, 0.937, 0.9414, 0.9415, 0.9433, 0.9401, 0.944, 0.9419, 0.9443, 0.9409, 0.9427, 0.9413, 0.939, 0.9389, 0.9436, 0.9437, 0.9436, 0.9439, 0.9429, 0.9449, 0.9454, 0.9447, 0.9425, 0.9468, 0.9418, 0.9391, 0.9452, 0.9457, 0.9445, 0.9441, 0.9433, 0.9446, 0.9436, 0.9436, 0.9465, 0.9466, 0.9452, 0.9409, 0.9416, 0.9449, 0.9455, 0.9469, 0.9462, 0.9445, 0.9435, 0.9456, 0.9463, 0.9466]</t>
+  </si>
+  <si>
+    <t>[0.12174737502336502, 0.11159756557544072, 0.1026673746307691, 0.09656512521505356, 0.08783760957121849, 0.0832153204023838, 0.07909494132002194, 0.07304773692289988, 0.06952892674803735, 0.06441071606874466, 0.060367966425418855, 0.05803423224886258, 0.05455062922437986, 0.0521314167847236, 0.04925817909439405, 0.04931465179026127, 0.04837128624419371, 0.04415369244515896, 0.04098244809806347, 0.04005255520194769, 0.03624558331817389, 0.036476826554536816, 0.036379529989014066, 0.033013367366294066, 0.03362847904016574, 0.03179758362521728, 0.030469296222428482, 0.027603457477440436, 0.03115079589523375, 0.02954856782803933, 0.028208040231466294, 0.02808168830598394, 0.025978139268855255, 0.025454932439823944, 0.025003913149113457, 0.022573986002057792, 0.023224711715430023, 0.023648367694020272, 0.02192921096806725, 0.021235577357312043, 0.022219600192829966, 0.020386509902526936, 0.02130380710779379, 0.019610185400148233, 0.02053017168280979, 0.019940035204837718, 0.018399256876856087, 0.018800336371238034, 0.01865367746775349, 0.01813031764042874]</t>
+  </si>
+  <si>
+    <t>[0.1998225504398346, 0.16977739992141724, 0.1838001655101776, 0.19995918743610383, 0.1797492437839508, 0.1939495964050293, 0.17814139757156372, 0.19678163566589355, 0.18294135632514955, 0.20504226050376892, 0.1892350981235504, 0.20216393744945527, 0.20565380430221558, 0.20805256233215333, 0.2165200062274933, 0.23865252175331117, 0.21979866161346437, 0.2307626534461975, 0.22024724159240722, 0.2573842420578003, 0.23261763877868652, 0.20649354028701783, 0.2343681161403656, 0.23629155864715576, 0.2846884913444519, 0.23433718867301942, 0.2549707520008087, 0.2572004180431366, 0.25082340664863584, 0.24798007984161377, 0.2570714551925659, 0.2569943021774292, 0.2715668171882629, 0.2705058620452881, 0.27084925513267516, 0.27426761755943296, 0.28224249529838563, 0.26429515776634216, 0.2624110044002533, 0.2704647810935974, 0.25882995898723604, 0.24860711545944214, 0.27753159737586974, 0.28798054218292235, 0.26847779693603513, 0.30285421667099, 0.30771448068618773, 0.256957145690918, 0.29220509605407713, 0.28894165782928466]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   micro avg       0.95      0.95      0.95     10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.95      0.95      0.95     10000</t>
+  </si>
+  <si>
+    <t>weighted avg       0.95      0.95      0.95     10000</t>
+  </si>
+  <si>
+    <t>[[884   0  12  11   2   1  85   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1 993   0   3   0   0   2   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 15   0 913   6  27   0  39   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  6   1   9 950  14   0  19   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  22  13 932   0  32   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 996   0   4   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 57   1  22  21  38   0 857   0   4   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0  10   0 980   0  10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   1   1   0   0 998   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   6   1  30   0 963]]</t>
+  </si>
+  <si>
     <t>100-200</t>
   </si>
   <si>
@@ -281,6 +386,261 @@
   </si>
   <si>
     <t xml:space="preserve"> [  0   0   0   0   0   3   0  28   1 968]]</t>
+  </si>
+  <si>
+    <t>Epoch 00030: saving model to ./weights/cnn_label_weight.ckpt</t>
+  </si>
+  <si>
+    <t>[0.9932499999682108, 0.9944333333015442, 0.9945333333015441, 0.9953999999682108, 0.9867166666666667, 0.9885833333333334, 0.9890833333333333, 0.9908833333015442, 0.9913833333333333, 0.99205, 0.9930666666348775, 0.99345, 0.9937666666666667, 0.9938833333333333, 0.9947333333651225, 0.9943333333015442, 0.9948166666666667, 0.9953833333333333, 0.9960833333015442, 0.9960333333651225, 0.9961833333333333, 0.9963, 0.9965166666348775, 0.9960666666348775, 0.9964833333015441, 0.9969166666666667, 0.9966333333015442, 0.9966333333333334, 0.9969666666666667, 0.9970833333333333]</t>
+  </si>
+  <si>
+    <t>[0.9454, 0.9489, 0.9482, 0.9446, 0.9478, 0.9478, 0.9495, 0.95, 0.9483, 0.9473, 0.9467, 0.9493, 0.9484, 0.9481, 0.9498, 0.9502, 0.9481, 0.9483, 0.9496, 0.9494, 0.9508, 0.9487, 0.9475, 0.9488, 0.9464, 0.9513, 0.9473, 0.9522, 0.9518, 0.9514]</t>
+  </si>
+  <si>
+    <t>[0.02008678261687358, 0.017220211381465195, 0.01559970223903656, 0.013725577417264382, 0.037864407824724916, 0.03140094692533215, 0.029763476220332086, 0.02459835168396433, 0.024405422640157243, 0.022596179307500523, 0.019762735709423822, 0.018284523500874637, 0.01754160318771998, 0.017062483773070077, 0.014610030008107424, 0.01541982640363276, 0.014391191725805401, 0.01357337534815694, 0.011126087282566975, 0.01164616164509207, 0.011806476926237035, 0.011136201436786602, 0.010587059625890106, 0.010777150673698634, 0.010216837768210097, 0.009063636602616559, 0.0094321939545994, 0.009326828191138338, 0.009039763033327958, 0.00878097220705046]</t>
+  </si>
+  <si>
+    <t>[0.28037724652290347, 0.29349940390586854, 0.2821453833460808, 0.3381374648094177, 0.29567932136058805, 0.30221047327518463, 0.29296504989862443, 0.2787908954620361, 0.3105933118104935, 0.3284612402319908, 0.2923558289051056, 0.2521023628473282, 0.34207282311916354, 0.31930782046318057, 0.3114876239776611, 0.2940309501647949, 0.2828611329078674, 0.33183140296638014, 0.3061326914250851, 0.3494173904418945, 0.33438504972457883, 0.33907664408683774, 0.36777088537216185, 0.34770586004257203, 0.3390937841653824, 0.33297526960372925, 0.3264488057136536, 0.35387397048473357, 0.3311211711168289, 0.33537347043156623]</t>
+  </si>
+  <si>
+    <t>[[903   0  17   6   0   0  71   0   2   1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 989   0   6   1   0   3   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 13   1 926   8  22   0  30   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  5   0   7 962   9   0  16   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  18  14 939   0  29   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 991   0   7   0   2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 66   1  20  17  41   0 854   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   3   0 990   0   7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   0   0   1   1   1   1   0 994   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   5   1  28   0 966]]</t>
+  </si>
+  <si>
+    <t>Epoch 00050: saving model to ./weights/cnn_wide_weight.ckpt</t>
+  </si>
+  <si>
+    <t>[0.9381000000317892, 0.9443500000317891, 0.9453166666348776, 0.9479333333333333, 0.9477666666666666, 0.9497999999682109, 0.9483833333015442, 0.9516333333651225, 0.9520333333651225, 0.9529000000317891, 0.9526666666348775, 0.9544333333333334, 0.9552666666348775, 0.9563833333651225, 0.9565166666984558, 0.9565499999682109, 0.9565333333651225, 0.9577166666666667, 0.9569166666666666, 0.9577000000317891, 0.9594166666666667, 0.9589499999682108, 0.9586333333651225, 0.9595166666348776, 0.95975, 0.9601, 0.9600166666348775, 0.96105, 0.9609166666666666, 0.9608833333651224, 0.9619999999682108, 0.9617666666984558, 0.9615666666984558, 0.9631666666666666, 0.9627333333651225, 0.9653666666348775, 0.9637, 0.9646666666666667, 0.9655833333651225, 0.9649833333651224, 0.9657333333333333, 0.9653499999682108, 0.9663666666348775, 0.9678333333333333, 0.9667833333015442, 0.9669999999682108, 0.9666833333333333, 0.9672833333333334, 0.9676333333651225, 0.9687833333333333]</t>
+  </si>
+  <si>
+    <t>[0.9329, 0.9396, 0.9368999963760376, 0.9380999967575073, 0.9356999979019165, 0.9371999988555908, 0.9398999994277955, 0.9412999969482422, 0.9349000007629394, 0.9416999984741211, 0.9371000015258789, 0.9396999990463257, 0.9333999990463256, 0.9400999986648559, 0.9414999980926514, 0.9394999992370605, 0.9433999988555908, 0.9397999994277955, 0.9412999975204468, 0.9389999984741211, 0.9410000024795532, 0.9448000003814697, 0.9411999992370605, 0.9428000003814697, 0.9416000015258789, 0.9401999988555908, 0.9367999988555908, 0.9395999979019165, 0.9420999967575073, 0.942200001335144, 0.9383000003814698, 0.9442999986648559, 0.940899997329712, 0.9426000001907349, 0.9389, 0.9392999977111817, 0.9416999996185302, 0.9424999992370605, 0.9432000011444092, 0.9420999986648559, 0.9427000009536743, 0.9435000001907349, 0.9433000001907349, 0.9420000001907348, 0.9427000017166137, 0.9384000017166138, 0.9413999990463257, 0.9445000003814698, 0.9441000028610229, 0.9430000001907348]</t>
+  </si>
+  <si>
+    <t>[0.1679708045641581, 0.15309003409544628, 0.14706684322754543, 0.14288355010350545, 0.14064104862213134, 0.13871555620034537, 0.13730942583878836, 0.13415074162483215, 0.13157605999310812, 0.13092970449527105, 0.12905753036141396, 0.12613686079978942, 0.12354541745980581, 0.12275580008029938, 0.12126568994522095, 0.11949604856173197, 0.11988389972448349, 0.11716146794160207, 0.1187640452961127, 0.11394752729932467, 0.11280176511208216, 0.11312154368956884, 0.11403976708650589, 0.1098134231964747, 0.10965511138836542, 0.10979685820142428, 0.11123155009746552, 0.10562746771971385, 0.10693799561659495, 0.10598217857281367, 0.10321765691041947, 0.10500991806983948, 0.10217244449853898, 0.10208355512420336, 0.10000203255017598, 0.09571315335432688, 0.09793699141343434, 0.09769768085877101, 0.0946870623131593, 0.09570611858765284, 0.09438718191385269, 0.09406499851147333, 0.09215481617649396, 0.08885286293029786, 0.09063473038276036, 0.08926112130482991, 0.0895056500752767, 0.08992316099007924, 0.08768906064033509, 0.08579056308070819]</t>
+  </si>
+  <si>
+    <t>[0.18804985182285308, 0.18579012891054153, 0.18839021618366242, 0.18578748787641525, 0.18535539042949675, 0.18517619692087173, 0.18891360965371132, 0.18211002678871155, 0.214651900100708, 0.18583305979967119, 0.19582894954681396, 0.20184664030075072, 0.22957859060764313, 0.2004365489125252, 0.195084727871418, 0.1975068342089653, 0.1855457815051079, 0.1978360312104225, 0.19437707096338272, 0.19889824941158293, 0.20760833142399787, 0.1875790308713913, 0.20339689375162123, 0.19257120921611787, 0.20214106996059417, 0.2095115496635437, 0.2130818006634712, 0.22096866503953932, 0.1935046848833561, 0.2138570332169533, 0.22952215662002565, 0.19445821403264998, 0.21570005408525467, 0.20933186200857162, 0.2205380299091339, 0.22398997094631196, 0.2131519696176052, 0.22623136212825776, 0.21567336277365684, 0.22446728863716126, 0.21894021357297896, 0.22250919734835625, 0.22541619843244554, 0.23282487038373947, 0.20345736187696456, 0.22800345817804338, 0.21899757890701294, 0.20823050537109375, 0.2241197757065296, 0.22365783097743988]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.92      0.88      0.90      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.99      0.99      0.99      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.95      0.91      0.93      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.92      0.95      0.93      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.91      0.94      0.92      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.99      0.99      0.99      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.82      0.85      0.83      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.95      0.99      0.97      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.99      0.95      0.97      1000</t>
+  </si>
+  <si>
+    <t>[[880   0  10  20   4   0  84   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 986   0  11   0   0   2   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 14   1 905   7  30   0  43   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  6   2   8 947  14   0  22   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1   0  11  19 935   0  34   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 990   0   9   0   1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 58   0  21  26  45   0 849   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   2   0 991   0   7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   2   0   4   0   0   0   1 993   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   4   0  41   1 954]]</t>
+  </si>
+  <si>
+    <t>[0.8115985576923077, 0.8981036324786325, 0.9134448450854701, 0.9212740384615384, 0.9289362980769231, 0.9320078792735043, 0.9362313034188035, 0.9390524839743589, 0.9414396367521367, 0.9437266292735043, 0.9446280715811965, 0.9482672275641025, 0.9474325587606838, 0.9503205128205128, 0.9513388087606838, 0.952323717948718, 0.9538762019230769, 0.9547776442307693, 0.9567307692307693, 0.9551615918803419, 0.9574485844017094, 0.957565438034188, 0.9569310897435898, 0.9585837339743589, 0.9594684829059829, 0.9600360576923077, 0.9620225694444444, 0.9611712072649573, 0.9611879006410257, 0.9619891826923077]</t>
+  </si>
+  <si>
+    <t>[0.8119991987179487, 0.8627804487179487, 0.8736979166666666, 0.8887219551282052, 0.8923277243589743, 0.8873197115384616, 0.9008413461538461, 0.9063501602564102, 0.9002403846153846, 0.9092548076923077, 0.9128605769230769, 0.9087540064102564, 0.9137620192307693, 0.9140625, 0.9177684294871795, 0.9206730769230769, 0.9212740384615384, 0.9213741987179487, 0.9199719551282052, 0.9197716346153846, 0.9193709935897436, 0.9201722756410257, 0.9091546474358975, 0.9276842948717948, 0.9246794871794872, 0.9211738782051282, 0.9256810897435898, 0.9231770833333334, 0.9264823717948718, 0.9298878205128205]</t>
+  </si>
+  <si>
+    <t>[0.5895477205387547, 0.3012272621003481, 0.2576259922427245, 0.2289108896994183, 0.20659872790814465, 0.19703403331785121, 0.1861884197474927, 0.177447310091657, 0.1717990546160911, 0.1619317268825367, 0.16188157848122284, 0.1508929746098116, 0.15076308000164154, 0.14470777344595417, 0.14219690076051614, 0.13739292226477057, 0.13239205439184976, 0.13241718152665302, 0.12494281719987974, 0.12818177814921763, 0.12308968206007893, 0.12298627224010535, 0.1229125923023392, 0.11891858358509265, 0.11567895069049719, 0.11230529663272393, 0.1085040638398411, 0.11004103956202793, 0.11047412279165453, 0.10997361688611981]</t>
+  </si>
+  <si>
+    <t>[0.5028107605683498, 0.38216726653850996, 0.3585416852281644, 0.32042708419836485, 0.30605544512852645, 0.32096985880381024, 0.2784661153952281, 0.26668291978347, 0.2923355419666339, 0.25986402863875413, 0.24215847521256179, 0.25631047594241607, 0.24186963282334498, 0.24504749209452897, 0.23436189729433793, 0.23121401839531386, 0.22667310730769083, 0.22479123641283083, 0.2342760984141093, 0.23118423708738425, 0.23891867343813944, 0.23510684369084162, 0.25973436331901795, 0.2143976823068582, 0.22431697180637947, 0.2240163498581984, 0.22808890741987106, 0.22746169299651414, 0.22190059071932083, 0.2157897306367373]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.88      0.88      0.88      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.88      0.91      0.89      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.92      0.93      0.93      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.88      0.89      0.89      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.99      0.98      0.98      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.80      0.78      0.79      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.96      0.97      0.97      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   micro avg       0.93      0.93      0.93     10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.93      0.93      0.93     10000</t>
+  </si>
+  <si>
+    <t>weighted avg       0.93      0.93      0.93     10000</t>
+  </si>
+  <si>
+    <t>[[882   0  22  12   1   0  80   0   3   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1 981   2  10   4   0   2   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 18   1 907   9  28   0  37   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 12   1  11 927  20   0  29   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  41  18 891   0  49   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 982   0  14   0   4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 85   0  46  25  63   0 778   0   3   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   4   0 974   0  22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1   1   0   2   1   2   3   2 988   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   6   0  25   0 969]]</t>
+  </si>
+  <si>
+    <t>Epoch 00100: saving model to ./weights/cnn_label_weight.ckpt</t>
+  </si>
+  <si>
+    <t>[0.9635249732905983, 0.9638087606837606, 0.9631911057692307, 0.9628071581196581, 0.9630408653846154, 0.9649606036324786, 0.9655782585470085, 0.9651776175213675, 0.9667134081196581, 0.966796875, 0.966796875, 0.9664797008547008, 0.9670138888888888, 0.967948717948718, 0.9680321848290598, 0.9686498397435898, 0.9675647702991453, 0.9680154914529915, 0.9683994391025641, 0.9687333066239316, 0.9692007211538461, 0.9695846688034188, 0.9698684561965812, 0.9701188568376068, 0.9703191773504274, 0.970436030982906, 0.9710870726495726, 0.9709869123931624, 0.9704026442307693, 0.9718048878205128, 0.9729066506410257, 0.9724893162393162, 0.972389155982906, 0.9726061698717948, 0.9728899572649573, 0.9731236645299145, 0.9728231837606838, 0.9727564102564102, 0.973457532051282, 0.9740584935897436, 0.9746761485042735, 0.9749432425213675, 0.9741586538461539, 0.9745759882478633, 0.9752938034188035, 0.975143563034188, 0.9737413194444444, 0.9750934829059829, 0.9751602564102564, 0.9757946047008547, 0.9758112980769231, 0.9761785523504274, 0.9767795138888888, 0.9753271901709402, 0.9772636217948718, 0.9761117788461539, 0.9766793536324786, 0.9762286324786325, 0.977363782051282, 0.9769130608974359, 0.9776141826923077, 0.9772469284188035, 0.9781483707264957, 0.9778979700854701, 0.9776475694444444, 0.9802851228632479, 0.9772803151709402, 0.9779146634615384, 0.9780649038461539, 0.9780649038461539, 0.9785657051282052, 0.9802350427350427, 0.9787493322649573, 0.9797509348290598, 0.978782719017094, 0.9787326388888888, 0.9797008547008547, 0.9786324786324786, 0.9796841613247863, 0.9797342414529915, 0.979667467948718, 0.9793669871794872, 0.9804019764957265, 0.9808193108974359, 0.9803852831196581, 0.9801682692307693, 0.9804019764957265, 0.9808193108974359, 0.9810530181623932, 0.9802183493589743, 0.9808193108974359, 0.9810864049145299, 0.9803185096153846, 0.9814536591880342, 0.9808860844017094, 0.9799178685897436, 0.9811197916666666, 0.9809695512820513, 0.9814369658119658, 0.9818209134615384]</t>
+  </si>
+  <si>
+    <t>[0.9235777243589743, 0.9180689102564102, 0.9251802884615384, 0.9294871794871795, 0.9260817307692307, 0.9321915064102564, 0.9251802884615384, 0.9311899038461539, 0.9312900641025641, 0.9301883012820513, 0.9290865384615384, 0.9310897435897436, 0.9294871794871795, 0.9302884615384616, 0.9292868589743589, 0.9323918269230769, 0.9275841346153846, 0.9259815705128205, 0.9290865384615384, 0.9278846153846154, 0.926582532051282, 0.9320913461538461, 0.9290865384615384, 0.9301883012820513, 0.9283854166666666, 0.930488782051282, 0.930488782051282, 0.9319911858974359, 0.9295873397435898, 0.9348958333333334, 0.9307892628205128, 0.9342948717948718, 0.9352964743589743, 0.9271834935897436, 0.9326923076923077, 0.9339943910256411, 0.9318910256410257, 0.9309895833333334, 0.9339943910256411, 0.9347956730769231, 0.9334935897435898, 0.9363982371794872, 0.9336939102564102, 0.9297876602564102, 0.9344951923076923, 0.9285857371794872, 0.9337940705128205, 0.9308894230769231, 0.9283854166666666, 0.9326923076923077, 0.9316907051282052, 0.9325921474358975, 0.934395032051282, 0.9329927884615384, 0.9326923076923077, 0.9360977564102564, 0.9345953525641025, 0.9319911858974359, 0.9347956730769231, 0.9326923076923077, 0.9346955128205128, 0.9338942307692307, 0.9302884615384616, 0.9351963141025641, 0.9341947115384616, 0.9341947115384616, 0.9309895833333334, 0.9326923076923077, 0.9347956730769231, 0.9333934294871795, 0.9332932692307693, 0.9330929487179487, 0.9324919871794872, 0.9329927884615384, 0.9325921474358975, 0.9346955128205128, 0.9313902243589743, 0.9337940705128205, 0.9322916666666666, 0.9352964743589743, 0.9369991987179487, 0.9360977564102564, 0.9345953525641025, 0.9333934294871795, 0.9328926282051282, 0.9347956730769231, 0.9354967948717948, 0.9361979166666666, 0.9344951923076923, 0.9342948717948718, 0.9357972756410257, 0.9342948717948718, 0.9346955128205128, 0.9380008012820513, 0.9336939102564102, 0.9339943910256411, 0.9310897435897436, 0.9337940705128205, 0.9340945512820513, 0.9334935897435898]</t>
+  </si>
+  <si>
+    <t>[0.10603405967848296, 0.1026967286458637, 0.10362543842683618, 0.10424265721574044, 0.10325887117686117, 0.10114239604793425, 0.09813323329624712, 0.0987344813437607, 0.09470058722087206, 0.09325725097272895, 0.09328314723271845, 0.09524603978070056, 0.09245459661763321, 0.09025917906298214, 0.09003391356852192, 0.08865099772014934, 0.09056201350126956, 0.08819269695374955, 0.08742593495079722, 0.08869348104613331, 0.08577321727688496, 0.08548669548283339, 0.08398491297410722, 0.0840506858837146, 0.08240191234896581, 0.08256199189788128, 0.08164964269042715, 0.08026771205994818, 0.081117864475291, 0.07891781152520552, 0.07610535779450503, 0.07758448551146266, 0.07832546891350076, 0.07835769714313981, 0.07520363869893755, 0.07429361664570677, 0.07398306040101263, 0.07450202339663146, 0.0751967374354792, 0.07288222434397182, 0.0734628632119419, 0.07130035765779515, 0.07309707536155151, 0.07048265734472527, 0.06969067238024476, 0.06880333073811334, 0.07348780230714534, 0.06973368710237277, 0.06809387348281841, 0.0676224209431909, 0.06761388330517384, 0.06616922831720012, 0.06526735470367548, 0.06953639160984984, 0.06590775742482108, 0.06689200501264128, 0.06597211044958323, 0.06608748231799556, 0.06382805870201153, 0.063962559408755, 0.0635363082222354, 0.0651690781984128, 0.06252101878934087, 0.062047366935433425, 0.0621406177793128, 0.05728198210987398, 0.06235686573597929, 0.06178257220452572, 0.06109756062555517, 0.06248263170262082, 0.0608334882492319, 0.056048332054852545, 0.06000180108846826, 0.05621392905123086, 0.0596497367717262, 0.06074243944146249, 0.059320433475236356, 0.059112424509496324, 0.057128801529443, 0.05732363797266546, 0.05650143909196441, 0.05783244353543935, 0.05599858497098311, 0.05462345014063594, 0.05670772599748885, 0.055636597049032524, 0.05537102130414823, 0.055605303643382765, 0.05420555636828017, 0.05471359636300267, 0.053472006706417434, 0.05378195946204325, 0.054253593317041986, 0.05288679510032615, 0.051661775386733055, 0.05720909495945447, 0.053176690649209366, 0.053048511491451636, 0.0528487644604065, 0.05083246430796054]</t>
+  </si>
+  <si>
+    <t>[0.24533409405595216, 0.24447200752985784, 0.23331872077706534, 0.22381006735257614, 0.22817983564275962, 0.21365035592745513, 0.22760803615435576, 0.20995329778928024, 0.2202284543369061, 0.22773405785361925, 0.22304692768897766, 0.21937929046077606, 0.21865597634743422, 0.2313859234444606, 0.23175890743732452, 0.22788806001727396, 0.2230192404717971, 0.22660049968040907, 0.22211966558526725, 0.22884883855779967, 0.2227039709687233, 0.21888298474443266, 0.2373555448765938, 0.23018283750384283, 0.23857254850176665, 0.22047322615981102, 0.2223570435666121, 0.21856603857416373, 0.22801461729865807, 0.21028684796049044, 0.22898819278448057, 0.22996272519230843, 0.24559475615238532, 0.2395141631937944, 0.23320493465050673, 0.22326185487401792, 0.25223813034020937, 0.22839548878180674, 0.22859622060488433, 0.22817676920348254, 0.22969870861524191, 0.21838346190559557, 0.23189883975264353, 0.2454802933602761, 0.23687616422867927, 0.24728525716524857, 0.24459575546475557, 0.23206748928015047, 0.25946287657970035, 0.2315011421839396, 0.25245922593734205, 0.23198305395169136, 0.24863529425018874, 0.2354435370518611, 0.2650588881701995, 0.23724293775665453, 0.252352543366261, 0.2568167875974606, 0.2541143170151955, 0.23960980591483605, 0.2514822345513564, 0.24555858864616126, 0.24330424479185006, 0.24187367285291353, 0.24857112617255786, 0.2542321976178732, 0.24843958679300088, 0.2570637366137443, 0.2564258101181342, 0.24835210704268554, 0.2502666651629485, 0.2665907433972909, 0.26615647102395695, 0.2548100372346548, 0.24343872672090164, 0.24973798371278322, 0.23325652371232325, 0.23532369828377014, 0.25710806966974187, 0.24288353199760118, 0.24718738633852738, 0.24854318243570817, 0.2417485005198381, 0.27907191732755077, 0.26271690275424564, 0.23556974119482896, 0.26752263794724757, 0.2595074247950927, 0.26538866787002635, 0.2502233042166783, 0.2418261997592755, 0.286163907402601, 0.24268997508363846, 0.26107844633933824, 0.2619462001304596, 0.27541132557850617, 0.27445107001142627, 0.2411316748804007, 0.2760642569225568, 0.2663262838927599]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.86      0.90      0.88      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       1.00      0.99      0.99      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.91      0.92      0.91      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.93      0.92      0.93      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.89      0.92      0.90      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.83      0.77      0.80      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.96      0.98      0.97      1000</t>
+  </si>
+  <si>
+    <t>[[898   0  18  10   1   1  65   0   7   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2 989   1   6   1   0   0   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 20   1 916   7  25   0  31   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 16   1  12 924  23   0  23   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1   0  23  20 919   0  36   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 985   0   9   0   6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [102   1  40  19  66   0 767   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   4   0 976   0  20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   1   0   3   0   1   0   1 992   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   4   1  26   0 969]]</t>
   </si>
 </sst>
 </file>
@@ -289,9 +649,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -316,14 +676,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -333,6 +685,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -340,7 +707,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,7 +737,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,23 +796,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,53 +819,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -469,7 +829,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +877,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,19 +943,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,139 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,15 +1020,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -683,60 +1034,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,6 +1057,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -768,10 +1128,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,16 +1140,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,115 +1158,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5848,6 +6208,630 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wide CNN'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k=1,kernels=[1,3,5,7],Drop=0.25,Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wide CNN'!$B$1:$AY$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.822983333365122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.888183333365122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.903333333301544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.913233333301544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.919683333365122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.924883333365122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.928483333365122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.933016666634877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.935100000031789</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.938066666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93975</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94325</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.945133333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.947216666666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.948583333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.949833333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.951283333301544</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.953366666634877</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.955000000031789</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.956133333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.958633333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95949999996821</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95984999996821</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.961783333301544</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.962816666634877</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.965083333301544</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.965166666698455</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.965883333333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.967016666666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.967783333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.968366666634877</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.968600000031789</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.970333333301544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.970083333365122</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.971983333333333</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97215</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97264999996821</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.974783333301544</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.973983333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.974716666634877</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.976333333301544</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.97639999996821</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.97615</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.977116666634877</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.977116666698455</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.977900000031789</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9788</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.979583333301544</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9791</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98094999996821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wide CNN'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k=1,kernels=[1,3,5,7],Drop=0.25,Val-Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wide CNN'!$B$2:$AY$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.8617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9306</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9297</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9364</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9345</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9321</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9357</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9273</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.934</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9374</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9369</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9395</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9366</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9373</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9351</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9315</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9351</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9355</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9391</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9237</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.936</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9391</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9389</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9381</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9392</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9399</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9395</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9397</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9408</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9407</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9396</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9402</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9379</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9383</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9354</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9426</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="609591215"/>
+        <c:axId val="721517670"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="609591215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="721517670"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="721517670"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609591215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.02"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5969,6 +6953,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8072,6 +9096,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8195,6 +9735,41 @@
       <xdr:xfrm>
         <a:off x="1182370" y="1233170"/>
         <a:ext cx="11723370" cy="6141720"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5368925" y="727075"/>
+        <a:ext cx="8105775" cy="4065905"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11646,8 +13221,8 @@
   <sheetPr/>
   <dimension ref="A2:AY80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12770,35 +14345,911 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A14:G81"/>
+  <dimension ref="A1:AY89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="51" width="5.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.822983333365122</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.888183333365122</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.903333333301544</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.913233333301544</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.919683333365122</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.924883333365122</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.928483333365122</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.933016666634877</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.935100000031789</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.938066666666666</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.93975</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.94325</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.945133333333333</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.947216666666666</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.948583333333333</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.949833333333333</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.951283333301544</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.953366666634877</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.955000000031789</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.956133333333333</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.958633333333333</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.95949999996821</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.95984999996821</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.961783333301544</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.962816666634877</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.965083333301544</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.965166666698455</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.965883333333333</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.967016666666666</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0.967783333333333</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0.968366666634877</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0.968600000031789</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0.970333333301544</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0.970083333365122</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0.971983333333333</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.97215</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0.97264999996821</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.974783333301544</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.973983333333333</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0.974716666634877</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>0.976333333301544</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>0.97639999996821</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>0.97615</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>0.977116666634877</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>0.977116666698455</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>0.977900000031789</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>0.9788</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>0.979583333301544</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>0.9791</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>0.98094999996821</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.8617</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.8887</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.9032</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.9174</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.9192</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.9178</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.9185</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.8979</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.9271</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.9298</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.9306</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.9263</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.9297</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.9333</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.9321</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.9364</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.9345</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.9321</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.9357</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.9273</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.934</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.9374</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.9369</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.9395</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0.9366</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0.9373</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.9351</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0.9315</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.9351</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0.9355</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.9391</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.9237</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.936</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0.9391</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.9389</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0.9381</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0.9392</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0.9399</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0.9395</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0.9397</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0.9408</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0.9407</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0.9396</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0.9402</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0.9379</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0.9383</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0.9354</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>0.9426</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>0.9391</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="1">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="1">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="1">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="1">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7">
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" s="1">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="C68" s="1">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69" s="1">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" s="1">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7">
+      <c r="C71" s="1">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A14:G119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -12998,72 +15449,72 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:2">
@@ -13263,56 +15714,825 @@
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7">
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0.91</v>
+      </c>
+      <c r="E92">
+        <v>0.9</v>
+      </c>
+      <c r="F92">
+        <v>0.91</v>
+      </c>
+      <c r="G92">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0.99</v>
+      </c>
+      <c r="F93">
+        <v>0.99</v>
+      </c>
+      <c r="G93">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>0.94</v>
+      </c>
+      <c r="E94">
+        <v>0.93</v>
+      </c>
+      <c r="F94">
+        <v>0.93</v>
+      </c>
+      <c r="G94">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7">
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>0.95</v>
+      </c>
+      <c r="E95">
+        <v>0.96</v>
+      </c>
+      <c r="F95">
+        <v>0.96</v>
+      </c>
+      <c r="G95">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7">
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>0.93</v>
+      </c>
+      <c r="E96">
+        <v>0.94</v>
+      </c>
+      <c r="F96">
+        <v>0.93</v>
+      </c>
+      <c r="G96">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7">
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>0.99</v>
+      </c>
+      <c r="E97">
+        <v>0.99</v>
+      </c>
+      <c r="F97">
+        <v>0.99</v>
+      </c>
+      <c r="G97">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7">
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>0.85</v>
+      </c>
+      <c r="E98">
+        <v>0.85</v>
+      </c>
+      <c r="F98">
+        <v>0.85</v>
+      </c>
+      <c r="G98">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7">
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>0.97</v>
+      </c>
+      <c r="E99">
+        <v>0.99</v>
+      </c>
+      <c r="F99">
+        <v>0.98</v>
+      </c>
+      <c r="G99">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7">
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100">
+        <v>0.99</v>
+      </c>
+      <c r="E100">
+        <v>0.99</v>
+      </c>
+      <c r="F100">
+        <v>0.99</v>
+      </c>
+      <c r="G100">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7">
+      <c r="C101">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>0.99</v>
+      </c>
+      <c r="E101">
+        <v>0.97</v>
+      </c>
+      <c r="F101">
+        <v>0.98</v>
+      </c>
+      <c r="G101">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
         <v>58</v>
       </c>
     </row>

--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SphereFace" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
     <sheet name="K=8" sheetId="6" r:id="rId6"/>
     <sheet name="Embedding" sheetId="7" r:id="rId7"/>
+    <sheet name="Optimizers" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="230">
   <si>
     <t>acc-m=2</t>
   </si>
@@ -641,6 +642,75 @@
   </si>
   <si>
     <t xml:space="preserve"> [  0   0   0   0   0   4   1  26   0 969]]</t>
+  </si>
+  <si>
+    <t>rmsprop</t>
+  </si>
+  <si>
+    <t>Epoch 00050: val_acc did not improve from 0.93870</t>
+  </si>
+  <si>
+    <t>[0.8214499982508521, 0.8848666674892107, 0.9012666671474775, 0.9092333339651426, 0.9164333335558573, 0.9204333358009656, 0.9245333361625672, 0.9273166684309642, 0.9304666686058044, 0.9336000010371208, 0.9347000016768774, 0.9368166678150495, 0.93926666756471, 0.9413500022888184, 0.9439166684945425, 0.9438333354393641, 0.9460000014305114, 0.9469500012199084, 0.9472166694204013, 0.9490833342075348, 0.9510166682799657, 0.9510000023245812, 0.9523166694243749, 0.9543833355108897, 0.9548666683832804, 0.9545833365122477, 0.9560833363731702, 0.9575333369771639, 0.9573666697740555, 0.9580000032981236, 0.9590333363413811, 0.959566670358181, 0.9601666702826818, 0.9612833375732104, 0.9620500034093857, 0.962300004462401, 0.9630500036478042, 0.9631000049908955, 0.9629000044862429, 0.9642333378394444, 0.9647500053048134, 0.9650666718681653, 0.9654166736205418, 0.9660166730483373, 0.9671500075856845, 0.9676000058650971, 0.9679666728774706, 0.9684666732947032, 0.9690500071644783, 0.969183340370655]</t>
+  </si>
+  <si>
+    <t>[0.8781000012159348, 0.9045999991893768, 0.9065000003576279, 0.91, 0.9165000021457672, 0.9171000027656555, 0.9255000030994416, 0.9231000053882599, 0.930400003194809, 0.9264000046253205, 0.9310000032186508, 0.930500003695488, 0.9191000020503998, 0.9302000015974045, 0.918600002527237, 0.9355000019073486, 0.9320000034570693, 0.9341000026464462, 0.9338999998569488, 0.9344000035524368, 0.9326000040769578, 0.934200001358986, 0.9364000016450882, 0.9336000019311905, 0.935500002503395, 0.9355999994277954, 0.9349000018835067, 0.9373000007867813, 0.9362000024318695, 0.9371999996900559, 0.9325000011920929, 0.9354000014066696, 0.9387000024318695, 0.9324999994039536, 0.9343000054359436, 0.9359000009298325, 0.9368999993801117, 0.9385000020265579, 0.9325000011920929, 0.9387000006437302, 0.93480000436306, 0.9382999992370605, 0.937600000500679, 0.935500002503395, 0.935400003194809, 0.9373000007867813, 0.9352000015974045, 0.9380000001192093, 0.9365000015497208, 0.9363000023365021]</t>
+  </si>
+  <si>
+    <t>[0.502596356322368, 0.3230106641600529, 0.2761752166226506, 0.2529970720161994, 0.23282228263715904, 0.22254137432823579, 0.20983606927096843, 0.20245336410899958, 0.19419741050650677, 0.1840066176218291, 0.17999866855641206, 0.17574459550902247, 0.16770822100962202, 0.16201153075322508, 0.156215663542971, 0.15591492613156638, 0.1495137988589704, 0.14652610513071218, 0.14350523822009564, 0.14148407707301278, 0.1364530799165368, 0.13503175276642043, 0.13206646319168308, 0.12827149534597992, 0.12527102164613704, 0.12386584051884711, 0.1213427347689867, 0.11960584606975316, 0.11797361116235455, 0.1162742415846636, 0.11273382279401024, 0.1108695158533131, 0.10969607723876834, 0.10819204586868485, 0.10534153663708518, 0.10600208641029894, 0.10216168167224775, 0.09924936791726699, 0.10120291511217754, 0.0989890263384829, 0.09623454691842198, 0.09618204266764224, 0.09643685357800375, 0.09249972410034388, 0.08942211128616084, 0.08816353846341371, 0.08746420577478906, 0.0854688647435978, 0.08516011990606785, 0.08442027569748461]</t>
+  </si>
+  <si>
+    <t>[0.33437643587589266, 0.27049404501914975, 0.25787719286978245, 0.25320056088268755, 0.23349945388734342, 0.22825193047523498, 0.21525064170360564, 0.21134665083140136, 0.20312067396938802, 0.2023607950657606, 0.19749497924000026, 0.19463710211217403, 0.23679347783327104, 0.20468602295964955, 0.24224321737885476, 0.19505849596112967, 0.2011827427521348, 0.21052229981869458, 0.1891411978006363, 0.18684757009148598, 0.1963986986875534, 0.19788428450003268, 0.19889904718846083, 0.20326321806758643, 0.20434869773685932, 0.19726121511310338, 0.20450497498735787, 0.19779220676049591, 0.20240981401875616, 0.2058987445756793, 0.21897847805172205, 0.2137465883884579, 0.20777190826833247, 0.21727073347195983, 0.21611005937680602, 0.20552469054237008, 0.2168541801534593, 0.21956027572974562, 0.26016149811446665, 0.21490531160496176, 0.22620807440951465, 0.21299377465620636, 0.21964783978648483, 0.2368647402152419, 0.22725816458463668, 0.22607704375870527, 0.259387449324131, 0.2314134951867163, 0.2287890481390059, 0.24475191198289395]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.86      0.88      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.99      0.98      0.99      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.93      0.89      0.91      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.94      0.94      0.94      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.89      0.93      0.91      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.79      0.83      0.81      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.99      0.96      0.97      1000</t>
+  </si>
+  <si>
+    <t>[[856   0  19   8   2   1 110   0   4   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1 985   0   8   2   0   2   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 12   1 892   5  47   0  43   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  8   3   8 938  16   0  27   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1   0  11  18 934   0  36   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 989   0   9   0   2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 56   1  30  23  51   0 832   0   7   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   4   0 984   0  12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   0   1   1   1   2   0   1 992   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   5   0  34   0 961]]</t>
   </si>
 </sst>
 </file>
@@ -648,18 +718,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF008080"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
@@ -677,6 +760,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -685,7 +775,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,6 +790,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,23 +832,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,38 +864,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,11 +888,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -829,7 +912,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,73 +1008,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,61 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,13 +1044,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,7 +1080,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,74 +1103,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1120,6 +1135,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1128,10 +1211,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,137 +1223,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,6 +1361,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10052,7 +10141,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -10207,7 +10296,7 @@
       </c>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -10361,318 +10450,318 @@
         <v>0.9505</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="4" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>0.428700000031789</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>0.787733333365122</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>0.86649999996821</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>0.89019999996821</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>0.903933333365122</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>0.914183333365122</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>0.920733333333333</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>0.926633333301544</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>0.928816666634877</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>0.930666666698455</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="4">
         <v>0.933216666666666</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="4">
         <v>0.936516666634877</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <v>0.9381</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="4">
         <v>0.93839999996821</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="4">
         <v>0.9398</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="4">
         <v>0.940916666634877</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="4">
         <v>0.941466666666666</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="4">
         <v>0.944583333301544</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="4">
         <v>0.942666666666666</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="4">
         <v>0.945000000031789</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="4">
         <v>0.944183333365122</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="4">
         <v>0.947666666666666</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="4">
         <v>0.946033333333333</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="4">
         <v>0.94799999996821</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="4">
         <v>0.946850000031789</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="4">
         <v>0.948183333301544</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="4">
         <v>0.949566666698455</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="4">
         <v>0.947583333301544</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="4">
         <v>0.949333333365122</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="4">
         <v>0.948683333365122</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="4">
         <v>0.950016666666666</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="4">
         <v>0.951583333365122</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="4">
         <v>0.950483333301544</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AI3" s="4">
         <v>0.952216666698455</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AJ3" s="4">
         <v>0.951816666634877</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3" s="4">
         <v>0.953333333333333</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3" s="4">
         <v>0.95389999996821</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3" s="4">
         <v>0.954033333333333</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3" s="4">
         <v>0.952533333333333</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3" s="4">
         <v>0.953233333333333</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AP3" s="4">
         <v>0.954166666666666</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3" s="4">
         <v>0.95614999996821</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AR3" s="4">
         <v>0.956733333301544</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AS3" s="4">
         <v>0.955483333333333</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AT3" s="4">
         <v>0.955383333333333</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AU3" s="4">
         <v>0.955533333301544</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AV3" s="4">
         <v>0.955716666698455</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="AW3" s="4">
         <v>0.957216666666666</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="AX3" s="4">
         <v>0.957400000031789</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="AY3" s="4">
         <v>0.956683333365122</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="4" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>0.7583</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>0.8796</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>0.8913</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>0.871</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>0.8823</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>0.9234</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>0.9085</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>0.9153</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>0.9121</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <v>0.9187</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="4">
         <v>0.8976</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>0.9304</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="4">
         <v>0.906</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="4">
         <v>0.9119</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="4">
         <v>0.9031</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="4">
         <v>0.9308</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="4">
         <v>0.8894</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="4">
         <v>0.9308</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="4">
         <v>0.8901</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="4">
         <v>0.9178</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="4">
         <v>0.9194</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="4">
         <v>0.9274</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="4">
         <v>0.9166</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="4">
         <v>0.9164</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="4">
         <v>0.9352</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="4">
         <v>0.9065</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="4">
         <v>0.9185</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="4">
         <v>0.9159</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="4">
         <v>0.9343</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="4">
         <v>0.9245</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="4">
         <v>0.9136</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="4">
         <v>0.9224</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH4" s="4">
         <v>0.9229</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4" s="4">
         <v>0.8985</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ4" s="4">
         <v>0.9056</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4" s="4">
         <v>0.929</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4" s="4">
         <v>0.9079</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4" s="4">
         <v>0.8925</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4" s="4">
         <v>0.9201</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4" s="4">
         <v>0.9256</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP4" s="4">
         <v>0.9338</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4" s="4">
         <v>0.9251</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AR4" s="4">
         <v>0.9234</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4" s="4">
         <v>0.905</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT4" s="4">
         <v>0.9217</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AU4" s="4">
         <v>0.9182</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AV4" s="4">
         <v>0.9249</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AW4" s="4">
         <v>0.9214</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AX4" s="4">
         <v>0.9156</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AY4" s="4">
         <v>0.9207</v>
       </c>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -10827,7 +10916,7 @@
       </c>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -10982,7 +11071,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
@@ -10990,325 +11079,325 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A41" s="2" t="s">
+    <row r="41" s="4" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>2.15203628625869</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>0.614953836472829</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="4">
         <v>0.411733244419097</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="4">
         <v>0.338763604164123</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="4">
         <v>0.295153510459264</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="4">
         <v>0.263031616957982</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="4">
         <v>0.24465583521525</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="4">
         <v>0.230220618549982</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="4">
         <v>0.216845081710815</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="4">
         <v>0.210694062550862</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="4">
         <v>0.205897949083646</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="4">
         <v>0.198739878177642</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="4">
         <v>0.19415555802981</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="4">
         <v>0.190262338868776</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="4">
         <v>0.187397386328379</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="4">
         <v>0.183211089396476</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41" s="4">
         <v>0.182001369897524</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="4">
         <v>0.176028664048512</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T41" s="4">
         <v>0.177095756959915</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U41" s="4">
         <v>0.173993937285741</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41" s="4">
         <v>0.170481328479448</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41" s="4">
         <v>0.16367156689167</v>
       </c>
-      <c r="X41" s="2">
+      <c r="X41" s="4">
         <v>0.167193339089552</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="Y41" s="4">
         <v>0.163745887565612</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="Z41" s="4">
         <v>0.165038088957468</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AA41" s="4">
         <v>0.159962185295422</v>
       </c>
-      <c r="AB41" s="2">
+      <c r="AB41" s="4">
         <v>0.158253463160991</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AC41" s="4">
         <v>0.161334856359163</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41" s="4">
         <v>0.153845995211601</v>
       </c>
-      <c r="AE41" s="2">
+      <c r="AE41" s="4">
         <v>0.158008680494626</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AF41" s="4">
         <v>0.156026821275552</v>
       </c>
-      <c r="AG41" s="2">
+      <c r="AG41" s="4">
         <v>0.152065652887026</v>
       </c>
-      <c r="AH41" s="2">
+      <c r="AH41" s="4">
         <v>0.153394744753837</v>
       </c>
-      <c r="AI41" s="2">
+      <c r="AI41" s="4">
         <v>0.150756739203135</v>
       </c>
-      <c r="AJ41" s="2">
+      <c r="AJ41" s="4">
         <v>0.147371281981468</v>
       </c>
-      <c r="AK41" s="2">
+      <c r="AK41" s="4">
         <v>0.14519886337916</v>
       </c>
-      <c r="AL41" s="2">
+      <c r="AL41" s="4">
         <v>0.146308003948132</v>
       </c>
-      <c r="AM41" s="2">
+      <c r="AM41" s="4">
         <v>0.144546408025423</v>
       </c>
-      <c r="AN41" s="2">
+      <c r="AN41" s="4">
         <v>0.146826561729113</v>
       </c>
-      <c r="AO41" s="2">
+      <c r="AO41" s="4">
         <v>0.146823473509152</v>
       </c>
-      <c r="AP41" s="2">
+      <c r="AP41" s="4">
         <v>0.144211389283339</v>
       </c>
-      <c r="AQ41" s="2">
+      <c r="AQ41" s="4">
         <v>0.140161772469679</v>
       </c>
-      <c r="AR41" s="2">
+      <c r="AR41" s="4">
         <v>0.140314832556247</v>
       </c>
-      <c r="AS41" s="2">
+      <c r="AS41" s="4">
         <v>0.138491430004437</v>
       </c>
-      <c r="AT41" s="2">
+      <c r="AT41" s="4">
         <v>0.140811289652188</v>
       </c>
-      <c r="AU41" s="2">
+      <c r="AU41" s="4">
         <v>0.141275468802452</v>
       </c>
-      <c r="AV41" s="2">
+      <c r="AV41" s="4">
         <v>0.136189713962872</v>
       </c>
-      <c r="AW41" s="2">
+      <c r="AW41" s="4">
         <v>0.136460562535127</v>
       </c>
-      <c r="AX41" s="2">
+      <c r="AX41" s="4">
         <v>0.137623570076624</v>
       </c>
-      <c r="AY41" s="2">
+      <c r="AY41" s="4">
         <v>0.135407358038425</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A42" s="2" t="s">
+    <row r="42" s="4" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>0.715602321147918</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>0.352223469424247</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="4">
         <v>0.335182739984989</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="4">
         <v>0.501621952009201</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="4">
         <v>0.531459507608413</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="4">
         <v>0.289538801813125</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="4">
         <v>0.392821443367004</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="4">
         <v>0.408278045129776</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="4">
         <v>0.371398489081859</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="4">
         <v>0.37630773024559</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="4">
         <v>0.42825316991806</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="4">
         <v>0.275959285259246</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="4">
         <v>0.50930651640892</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="4">
         <v>0.327229115605354</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="4">
         <v>0.514373969316482</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42" s="4">
         <v>0.265683312892913</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42" s="4">
         <v>0.558711115503311</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="4">
         <v>0.30993900899887</v>
       </c>
-      <c r="T42" s="2">
+      <c r="T42" s="4">
         <v>0.584694111824035</v>
       </c>
-      <c r="U42" s="2">
+      <c r="U42" s="4">
         <v>0.46620564289093</v>
       </c>
-      <c r="V42" s="2">
+      <c r="V42" s="4">
         <v>0.320549545073509</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W42" s="4">
         <v>0.302736858201026</v>
       </c>
-      <c r="X42" s="2">
+      <c r="X42" s="4">
         <v>0.50904691119194</v>
       </c>
-      <c r="Y42" s="2">
+      <c r="Y42" s="4">
         <v>0.386017687368392</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="Z42" s="4">
         <v>0.330256191086769</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="AA42" s="4">
         <v>0.485769724082946</v>
       </c>
-      <c r="AB42" s="2">
+      <c r="AB42" s="4">
         <v>0.474691577792167</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AC42" s="4">
         <v>0.478175974273681</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42" s="4">
         <v>0.32877195982933</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AE42" s="4">
         <v>0.4230027926445</v>
       </c>
-      <c r="AF42" s="2">
+      <c r="AF42" s="4">
         <v>0.477516760993003</v>
       </c>
-      <c r="AG42" s="2">
+      <c r="AG42" s="4">
         <v>0.435743067359924</v>
       </c>
-      <c r="AH42" s="2">
+      <c r="AH42" s="4">
         <v>0.391898934268951</v>
       </c>
-      <c r="AI42" s="2">
+      <c r="AI42" s="4">
         <v>0.545273218059539</v>
       </c>
-      <c r="AJ42" s="2">
+      <c r="AJ42" s="4">
         <v>0.468435247254371</v>
       </c>
-      <c r="AK42" s="2">
+      <c r="AK42" s="4">
         <v>0.26506108341217</v>
       </c>
-      <c r="AL42" s="2">
+      <c r="AL42" s="4">
         <v>0.461449797344207</v>
       </c>
-      <c r="AM42" s="2">
+      <c r="AM42" s="4">
         <v>0.586146600914001</v>
       </c>
-      <c r="AN42" s="2">
+      <c r="AN42" s="4">
         <v>0.479364687776565</v>
       </c>
-      <c r="AO42" s="2">
+      <c r="AO42" s="4">
         <v>0.428875145435333</v>
       </c>
-      <c r="AP42" s="2">
+      <c r="AP42" s="4">
         <v>0.3752063580513</v>
       </c>
-      <c r="AQ42" s="2">
+      <c r="AQ42" s="4">
         <v>0.406557753896713</v>
       </c>
-      <c r="AR42" s="2">
+      <c r="AR42" s="4">
         <v>0.402709792852401</v>
       </c>
-      <c r="AS42" s="2">
+      <c r="AS42" s="4">
         <v>0.529030613899231</v>
       </c>
-      <c r="AT42" s="2">
+      <c r="AT42" s="4">
         <v>0.406075363206863</v>
       </c>
-      <c r="AU42" s="2">
+      <c r="AU42" s="4">
         <v>0.423663830614089</v>
       </c>
-      <c r="AV42" s="2">
+      <c r="AV42" s="4">
         <v>0.320016308498382</v>
       </c>
-      <c r="AW42" s="2">
+      <c r="AW42" s="4">
         <v>0.418127346658706</v>
       </c>
-      <c r="AX42" s="2">
+      <c r="AX42" s="4">
         <v>0.392980967664718</v>
       </c>
-      <c r="AY42" s="2">
+      <c r="AY42" s="4">
         <v>0.37712640209198</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
@@ -11316,7 +11405,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
@@ -11341,1871 +11430,1871 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="51" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="51" width="6.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>0.773383333301544</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>0.875966666666666</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>0.895</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>0.90565</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>0.913116666666666</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>0.917683333301544</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="3">
         <v>0.921150000031789</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <v>0.925400000031789</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="3">
         <v>0.927933333333333</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="3">
         <v>0.930566666698455</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="3">
         <v>0.93175</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="3">
         <v>0.93484999996821</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="3">
         <v>0.9368</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="3">
         <v>0.939266666634877</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="3">
         <v>0.93955</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="3">
         <v>0.940766666666666</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="3">
         <v>0.942816666698455</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="3">
         <v>0.943800000031789</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="3">
         <v>0.944966666666666</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="3">
         <v>0.946816666666666</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="3">
         <v>0.948133333365122</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="3">
         <v>0.947316666698455</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="3">
         <v>0.950400000031789</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="3">
         <v>0.950583333301544</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="3">
         <v>0.951316666634877</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="3">
         <v>0.950700000031789</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="3">
         <v>0.952783333301544</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="3">
         <v>0.953666666698455</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="3">
         <v>0.953816666698455</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="3">
         <v>0.954416666666666</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="3">
         <v>0.95599999996821</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="3">
         <v>0.95555</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="3">
         <v>0.957300000031789</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="3">
         <v>0.957033333301544</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="3">
         <v>0.958483333365122</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="3">
         <v>0.957700000031789</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="3">
         <v>0.960400000031789</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="3">
         <v>0.958683333365122</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="3">
         <v>0.959400000031789</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="3">
         <v>0.960233333365122</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="3">
         <v>0.96094999996821</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="3">
         <v>0.961300000031789</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="3">
         <v>0.9613</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="3">
         <v>0.9616</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="3">
         <v>0.961900000031789</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="3">
         <v>0.963116666698455</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="3">
         <v>0.963700000031789</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="3">
         <v>0.963133333333333</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="3">
         <v>0.963483333301544</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="3">
         <v>0.964716666634877</v>
       </c>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0.8791</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.8923</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>0.9125</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.9086</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>0.918</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>0.9116</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>0.9244</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>0.9309</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.93</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>0.9251</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>0.9147</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="3">
         <v>0.927</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="3">
         <v>0.9204</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
         <v>0.9325</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="3">
         <v>0.915</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="3">
         <v>0.9299</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="3">
         <v>0.9356</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="3">
         <v>0.9301</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="3">
         <v>0.9362</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="3">
         <v>0.9393</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="3">
         <v>0.9157</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="3">
         <v>0.9273</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="3">
         <v>0.9368</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="3">
         <v>0.9325</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="3">
         <v>0.9371</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="3">
         <v>0.937</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="3">
         <v>0.9363</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="3">
         <v>0.9397</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="3">
         <v>0.9402</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="3">
         <v>0.9418</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="3">
         <v>0.9417</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="3">
         <v>0.94</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2" s="3">
         <v>0.9395</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="3">
         <v>0.9392</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="3">
         <v>0.9428</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="3">
         <v>0.9403</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="3">
         <v>0.942</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="3">
         <v>0.9382</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="3">
         <v>0.9404</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="3">
         <v>0.9393</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="3">
         <v>0.936</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="3">
         <v>0.943</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2" s="3">
         <v>0.9392</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2" s="3">
         <v>0.9423</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="3">
         <v>0.9423</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="3">
         <v>0.94</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="3">
         <v>0.9424</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2" s="3">
         <v>0.941</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2" s="3">
         <v>0.9398</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AY2" s="3">
         <v>0.9393</v>
       </c>
     </row>
     <row r="3" spans="1:51">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.770116666634877</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.860166666698455</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.886483333301544</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.899216666666666</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0.908433333365122</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.913066666634877</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>0.916483333301544</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>0.920683333365122</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>0.924083333365122</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>0.926750000031789</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>0.92755</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
         <v>0.932133333333333</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>0.933066666698455</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <v>0.934966666634877</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="3">
         <v>0.935933333333333</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="3">
         <v>0.937783333365122</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>0.940083333301544</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="3">
         <v>0.940400000031789</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="3">
         <v>0.942333333333333</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="3">
         <v>0.94439999996821</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="3">
         <v>0.9439</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="3">
         <v>0.945583333333333</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="3">
         <v>0.946950000031789</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="3">
         <v>0.947950000031789</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="3">
         <v>0.949833333365122</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="3">
         <v>0.948900000031789</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="3">
         <v>0.950950000031789</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="3">
         <v>0.951933333365122</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3" s="3">
         <v>0.951316666698455</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AE3" s="3">
         <v>0.952200000031789</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3" s="3">
         <v>0.952633333365122</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3" s="3">
         <v>0.952783333301544</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="3">
         <v>0.95529999996821</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AI3" s="3">
         <v>0.95544999996821</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="3">
         <v>0.955750000031789</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AK3" s="3">
         <v>0.956616666698455</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AL3" s="3">
         <v>0.956966666666666</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3" s="3">
         <v>0.957066666666666</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AN3" s="3">
         <v>0.958516666666666</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AO3" s="3">
         <v>0.9581</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AP3" s="3">
         <v>0.959500000031789</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3" s="3">
         <v>0.959283333333333</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AR3" s="3">
         <v>0.959333333365122</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3" s="3">
         <v>0.961133333333333</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AT3" s="3">
         <v>0.960783333333333</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AU3" s="3">
         <v>0.96125</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AV3" s="3">
         <v>0.96089999996821</v>
       </c>
-      <c r="AW3" s="1">
+      <c r="AW3" s="3">
         <v>0.961833333365122</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="AX3" s="3">
         <v>0.961766666666666</v>
       </c>
-      <c r="AY3" s="1">
+      <c r="AY3" s="3">
         <v>0.962350000031789</v>
       </c>
     </row>
     <row r="4" spans="1:51">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0.8585</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.8476</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.893</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0.8904</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>0.9068</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>0.9133</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>0.915</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>0.9189</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>0.9249</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>0.9143</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>0.9228</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3">
         <v>0.922</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>0.92</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
         <v>0.9277</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="3">
         <v>0.9292</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="3">
         <v>0.9264</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="3">
         <v>0.9235</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="3">
         <v>0.9306</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="3">
         <v>0.9307</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="3">
         <v>0.9301</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="3">
         <v>0.9255</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="3">
         <v>0.9347</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="3">
         <v>0.9307</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="3">
         <v>0.9329</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="3">
         <v>0.9296</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="3">
         <v>0.936</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="3">
         <v>0.9324</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="3">
         <v>0.9344</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="3">
         <v>0.9342</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="3">
         <v>0.9376</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="3">
         <v>0.93</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="3">
         <v>0.935</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="3">
         <v>0.934</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="3">
         <v>0.9357</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="3">
         <v>0.936</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" s="3">
         <v>0.9303</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4" s="3">
         <v>0.9313</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="3">
         <v>0.9353</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="3">
         <v>0.9325</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="3">
         <v>0.9333</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AP4" s="3">
         <v>0.9347</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4" s="3">
         <v>0.934</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AR4" s="3">
         <v>0.9327</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="3">
         <v>0.9327</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="3">
         <v>0.929</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AU4" s="3">
         <v>0.9356</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AV4" s="3">
         <v>0.933</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AW4" s="3">
         <v>0.9358</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AX4" s="3">
         <v>0.9363</v>
       </c>
-      <c r="AY4" s="1">
+      <c r="AY4" s="3">
         <v>0.9329</v>
       </c>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0.769666666698455</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.863516666634877</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.887833333333333</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.89944999996821</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>0.908566666698455</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>0.913300000031789</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>0.917583333365122</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>0.919733333301544</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>0.924466666634877</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>0.926516666634877</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>0.928416666634877</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <v>0.931783333365122</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3">
         <v>0.93275</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
         <v>0.935150000031789</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3">
         <v>0.936016666634877</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="3">
         <v>0.937966666698455</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="3">
         <v>0.939683333333333</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
         <v>0.93994999996821</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="3">
         <v>0.942016666698455</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="3">
         <v>0.943066666698455</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="3">
         <v>0.944833333365122</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="3">
         <v>0.944116666666666</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="3">
         <v>0.946233333365122</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="3">
         <v>0.948083333333333</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="3">
         <v>0.947933333301544</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="3">
         <v>0.949350000031789</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="3">
         <v>0.95075</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="3">
         <v>0.949933333365122</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="3">
         <v>0.950933333301544</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="3">
         <v>0.951866666698455</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" s="3">
         <v>0.953966666634877</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="3">
         <v>0.952883333365122</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="3">
         <v>0.954466666666666</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="3">
         <v>0.954500000031789</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="3">
         <v>0.955533333333333</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="3">
         <v>0.955816666666666</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5" s="3">
         <v>0.955516666666666</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AM5" s="3">
         <v>0.957833333301544</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5" s="3">
         <v>0.957233333365122</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AO5" s="3">
         <v>0.957866666698455</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AP5" s="3">
         <v>0.95949999996821</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AQ5" s="3">
         <v>0.960016666634877</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AR5" s="3">
         <v>0.960566666634877</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AS5" s="3">
         <v>0.959783333333333</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AT5" s="3">
         <v>0.961783333365122</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AU5" s="3">
         <v>0.96135</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AV5" s="3">
         <v>0.961416666634877</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="AW5" s="3">
         <v>0.962183333301544</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AX5" s="3">
         <v>0.961666666666666</v>
       </c>
-      <c r="AY5" s="1">
+      <c r="AY5" s="3">
         <v>0.9624</v>
       </c>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0.8712</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.8974</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.8993</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.8928</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>0.9122</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>0.9047</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>0.9188</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>0.9218</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>0.9203</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>0.9239</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>0.9265</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <v>0.9286</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>0.9238</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
         <v>0.9235</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="3">
         <v>0.9263</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="3">
         <v>0.925</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="3">
         <v>0.9199</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
         <v>0.9273</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="3">
         <v>0.9335</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="3">
         <v>0.9293</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="3">
         <v>0.9207</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="3">
         <v>0.9304</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="3">
         <v>0.9288</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="3">
         <v>0.9337</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="3">
         <v>0.9355</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="3">
         <v>0.9323</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="3">
         <v>0.9351</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="3">
         <v>0.9341</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="3">
         <v>0.9336</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" s="3">
         <v>0.9374</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6" s="3">
         <v>0.9323</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AG6" s="3">
         <v>0.9325</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" s="3">
         <v>0.936</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="3">
         <v>0.9342</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="3">
         <v>0.9331</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="3">
         <v>0.9362</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6" s="3">
         <v>0.9341</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="3">
         <v>0.9403</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="3">
         <v>0.9333</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="3">
         <v>0.9335</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AP6" s="3">
         <v>0.9377</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6" s="3">
         <v>0.9318</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AR6" s="3">
         <v>0.9369</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AS6" s="3">
         <v>0.9373</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AT6" s="3">
         <v>0.9313</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AU6" s="3">
         <v>0.9335</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AV6" s="3">
         <v>0.9358</v>
       </c>
-      <c r="AW6" s="1">
+      <c r="AW6" s="3">
         <v>0.9329</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AX6" s="3">
         <v>0.9363</v>
       </c>
-      <c r="AY6" s="1">
+      <c r="AY6" s="3">
         <v>0.9276</v>
       </c>
     </row>
     <row r="21" spans="1:51">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>0.82558031056722</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>0.358324934180577</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>0.299244088037808</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>0.267909061066309</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>0.248850344498952</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <v>0.233566655826568</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="3">
         <v>0.221337112394968</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="3">
         <v>0.212105247410138</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="3">
         <v>0.203590833536783</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <v>0.19826012216409</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="3">
         <v>0.191577317714691</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="3">
         <v>0.183129559842745</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="3">
         <v>0.17900812729597</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="3">
         <v>0.173971315201123</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="3">
         <v>0.171730054910977</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="3">
         <v>0.166339011788368</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="3">
         <v>0.162124056911468</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="3">
         <v>0.158191696858406</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="3">
         <v>0.155154075998067</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="3">
         <v>0.152362087325255</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="3">
         <v>0.148582167613506</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="3">
         <v>0.148216303149859</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="3">
         <v>0.143182238272825</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="3">
         <v>0.141561001459757</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21" s="3">
         <v>0.139419853619734</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA21" s="3">
         <v>0.139581497677167</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21" s="3">
         <v>0.131799477791786</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AC21" s="3">
         <v>0.132521422974268</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AD21" s="3">
         <v>0.13334634039402</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AE21" s="3">
         <v>0.130837482070922</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AF21" s="3">
         <v>0.12596418851614</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AG21" s="3">
         <v>0.125136953353881</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AH21" s="3">
         <v>0.122986862679322</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AI21" s="3">
         <v>0.121367871820926</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AJ21" s="3">
         <v>0.118709148510297</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AK21" s="3">
         <v>0.120467171581586</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AL21" s="3">
         <v>0.114832018045584</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AM21" s="3">
         <v>0.116367336936791</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AN21" s="3">
         <v>0.114665993944803</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AO21" s="3">
         <v>0.113019900941848</v>
       </c>
-      <c r="AP21" s="1">
+      <c r="AP21" s="3">
         <v>0.111965585601329</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AQ21" s="3">
         <v>0.109588793118794</v>
       </c>
-      <c r="AR21" s="1">
+      <c r="AR21" s="3">
         <v>0.109269171067078</v>
       </c>
-      <c r="AS21" s="1">
+      <c r="AS21" s="3">
         <v>0.108673212626576</v>
       </c>
-      <c r="AT21" s="1">
+      <c r="AT21" s="3">
         <v>0.107038901714483</v>
       </c>
-      <c r="AU21" s="1">
+      <c r="AU21" s="3">
         <v>0.104391821845372</v>
       </c>
-      <c r="AV21" s="1">
+      <c r="AV21" s="3">
         <v>0.105583079572518</v>
       </c>
-      <c r="AW21" s="1">
+      <c r="AW21" s="3">
         <v>0.10216513299942</v>
       </c>
-      <c r="AX21" s="1">
+      <c r="AX21" s="3">
         <v>0.102433340855439</v>
       </c>
-      <c r="AY21" s="1">
+      <c r="AY21" s="3">
         <v>0.100291811406612</v>
       </c>
     </row>
     <row r="22" spans="1:51">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>0.391152812099456</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>0.328501722812652</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>0.284014363729953</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>0.310958634999394</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>0.266682648968696</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
         <v>0.28344696187973</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="3">
         <v>0.261895667052268</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="3">
         <v>0.251803664219379</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="3">
         <v>0.236586441862583</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="3">
         <v>0.260732250475883</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="3">
         <v>0.293349983668327</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="3">
         <v>0.267843900465965</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="3">
         <v>0.294493007326126</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="3">
         <v>0.245656244277954</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="3">
         <v>0.329097201991081</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="3">
         <v>0.261989333558082</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="3">
         <v>0.241099618735909</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="3">
         <v>0.277550703978538</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="3">
         <v>0.24482544350624</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="3">
         <v>0.227389179778099</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="3">
         <v>0.353107062387466</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="3">
         <v>0.274535203468799</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="3">
         <v>0.240059327161312</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="3">
         <v>0.275957761406898</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22" s="3">
         <v>0.262386038827896</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AA22" s="3">
         <v>0.238738044595718</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB22" s="3">
         <v>0.271596951150894</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AC22" s="3">
         <v>0.260056805640459</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22" s="3">
         <v>0.234382046294212</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AE22" s="3">
         <v>0.241273328375816</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AF22" s="3">
         <v>0.242459084558486</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AG22" s="3">
         <v>0.246659189510345</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AH22" s="3">
         <v>0.257462173739075</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AI22" s="3">
         <v>0.247434923398494</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AJ22" s="3">
         <v>0.23863642104268</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AK22" s="3">
         <v>0.243848975509405</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AL22" s="3">
         <v>0.252331984186172</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AM22" s="3">
         <v>0.283690062308311</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AN22" s="3">
         <v>0.268833993291854</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AO22" s="3">
         <v>0.268493248462677</v>
       </c>
-      <c r="AP22" s="1">
+      <c r="AP22" s="3">
         <v>0.281989469897747</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AQ22" s="3">
         <v>0.254544052606821</v>
       </c>
-      <c r="AR22" s="1">
+      <c r="AR22" s="3">
         <v>0.256377017211914</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="AS22" s="3">
         <v>0.275990580785274</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AT22" s="3">
         <v>0.265968029797077</v>
       </c>
-      <c r="AU22" s="1">
+      <c r="AU22" s="3">
         <v>0.274508260405063</v>
       </c>
-      <c r="AV22" s="1">
+      <c r="AV22" s="3">
         <v>0.271892676463723</v>
       </c>
-      <c r="AW22" s="1">
+      <c r="AW22" s="3">
         <v>0.271156391978263</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AX22" s="3">
         <v>0.289101064425706</v>
       </c>
-      <c r="AY22" s="1">
+      <c r="AY22" s="3">
         <v>0.29245699878931</v>
       </c>
     </row>
     <row r="23" spans="1:51">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>1.02799878689448</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>0.401867803748448</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>0.320547209771474</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>0.286008615907033</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>0.262741144784291</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
         <v>0.249831272919972</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="3">
         <v>0.23522781791687</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="3">
         <v>0.226431346782048</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="3">
         <v>0.215852017577489</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="3">
         <v>0.21164857635498</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="3">
         <v>0.204995640103022</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="3">
         <v>0.196301728312174</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="3">
         <v>0.191196959018707</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="3">
         <v>0.186597364354133</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="3">
         <v>0.181289713096618</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="3">
         <v>0.179712397082646</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="3">
         <v>0.174610221306482</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="3">
         <v>0.169518848109245</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="3">
         <v>0.166704911768436</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="3">
         <v>0.162382291014989</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="3">
         <v>0.157660787765185</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="3">
         <v>0.158174981470902</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="3">
         <v>0.153315177154541</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23" s="3">
         <v>0.151050765045483</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z23" s="3">
         <v>0.148959213606516</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AA23" s="3">
         <v>0.145224979837735</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AB23" s="3">
         <v>0.143597587045033</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AC23" s="3">
         <v>0.141130472596486</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AD23" s="3">
         <v>0.139067489894231</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AE23" s="3">
         <v>0.137126298717657</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AF23" s="3">
         <v>0.133236884570121</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AG23" s="3">
         <v>0.133424436767896</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AH23" s="3">
         <v>0.130651634220282</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AI23" s="3">
         <v>0.129640104993184</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AJ23" s="3">
         <v>0.128598135062058</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AK23" s="3">
         <v>0.127077800003687</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AL23" s="3">
         <v>0.124393593271573</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AM23" s="3">
         <v>0.122356371430555</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AN23" s="3">
         <v>0.12213518983523</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AO23" s="3">
         <v>0.120739323862393</v>
       </c>
-      <c r="AP23" s="1">
+      <c r="AP23" s="3">
         <v>0.117945804429054</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AQ23" s="3">
         <v>0.116152879138787</v>
       </c>
-      <c r="AR23" s="1">
+      <c r="AR23" s="3">
         <v>0.116941365639368</v>
       </c>
-      <c r="AS23" s="1">
+      <c r="AS23" s="3">
         <v>0.11550588846604</v>
       </c>
-      <c r="AT23" s="1">
+      <c r="AT23" s="3">
         <v>0.114052483109633</v>
       </c>
-      <c r="AU23" s="1">
+      <c r="AU23" s="3">
         <v>0.112046914800008</v>
       </c>
-      <c r="AV23" s="1">
+      <c r="AV23" s="3">
         <v>0.11302234853506</v>
       </c>
-      <c r="AW23" s="1">
+      <c r="AW23" s="3">
         <v>0.108481120479106</v>
       </c>
-      <c r="AX23" s="1">
+      <c r="AX23" s="3">
         <v>0.110827520183722</v>
       </c>
-      <c r="AY23" s="1">
+      <c r="AY23" s="3">
         <v>0.107589828515052</v>
       </c>
     </row>
     <row r="24" spans="1:51">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>0.441569865822792</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>0.322795869922637</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>0.318363386559486</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>0.344403296244144</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="3">
         <v>0.296870551359653</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="3">
         <v>0.311171311926841</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="3">
         <v>0.27122028529644</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="3">
         <v>0.262883321714401</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="3">
         <v>0.265229669237136</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="3">
         <v>0.247582195699214</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="3">
         <v>0.253416470062732</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="3">
         <v>0.244911144775152</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="3">
         <v>0.272245948851108</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="3">
         <v>0.255219490766525</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="3">
         <v>0.258753859752416</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="3">
         <v>0.259786065268516</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="3">
         <v>0.28840812716484</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="3">
         <v>0.246110170412063</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="3">
         <v>0.246386298894882</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="3">
         <v>0.253371453309059</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24" s="3">
         <v>0.288787944412231</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W24" s="3">
         <v>0.257545201051235</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="3">
         <v>0.256788175606727</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Y24" s="3">
         <v>0.245795844447612</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z24" s="3">
         <v>0.248693050134181</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA24" s="3">
         <v>0.254656301116943</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB24" s="3">
         <v>0.243517380523681</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AC24" s="3">
         <v>0.257689776921272</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AD24" s="3">
         <v>0.252376056730747</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AE24" s="3">
         <v>0.243278314912319</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AF24" s="3">
         <v>0.26495656735897</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AG24" s="3">
         <v>0.247523201322555</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AH24" s="3">
         <v>0.248003408670425</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AI24" s="3">
         <v>0.271670299863815</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AJ24" s="3">
         <v>0.274507340693473</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AK24" s="3">
         <v>0.258940464019775</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AL24" s="3">
         <v>0.265075944709777</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AM24" s="3">
         <v>0.261922203564643</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AN24" s="3">
         <v>0.268595458269119</v>
       </c>
-      <c r="AO24" s="1">
+      <c r="AO24" s="3">
         <v>0.268579436969757</v>
       </c>
-      <c r="AP24" s="1">
+      <c r="AP24" s="3">
         <v>0.273842384147644</v>
       </c>
-      <c r="AQ24" s="1">
+      <c r="AQ24" s="3">
         <v>0.273160006093978</v>
       </c>
-      <c r="AR24" s="1">
+      <c r="AR24" s="3">
         <v>0.263888169264793</v>
       </c>
-      <c r="AS24" s="1">
+      <c r="AS24" s="3">
         <v>0.272575781989097</v>
       </c>
-      <c r="AT24" s="1">
+      <c r="AT24" s="3">
         <v>0.289609512472152</v>
       </c>
-      <c r="AU24" s="1">
+      <c r="AU24" s="3">
         <v>0.278856309318542</v>
       </c>
-      <c r="AV24" s="1">
+      <c r="AV24" s="3">
         <v>0.274244067859649</v>
       </c>
-      <c r="AW24" s="1">
+      <c r="AW24" s="3">
         <v>0.290604924535751</v>
       </c>
-      <c r="AX24" s="1">
+      <c r="AX24" s="3">
         <v>0.269328875494003</v>
       </c>
-      <c r="AY24" s="1">
+      <c r="AY24" s="3">
         <v>0.310408953523635</v>
       </c>
     </row>
     <row r="25" spans="1:51">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>1.0515933532238</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>0.416073775863647</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>0.322612968540191</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>0.286318025128046</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>0.262711742385228</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3">
         <v>0.249804650052388</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="3">
         <v>0.235423133659362</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <v>0.224321205298105</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="3">
         <v>0.217192230757077</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="3">
         <v>0.210031608017285</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="3">
         <v>0.205127281268437</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="3">
         <v>0.195948470513025</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="3">
         <v>0.190338938101132</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="3">
         <v>0.184942614968617</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="3">
         <v>0.181771615338325</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="3">
         <v>0.176990741197268</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="3">
         <v>0.171178197844823</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="3">
         <v>0.167582498256365</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25" s="3">
         <v>0.163893921852111</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="3">
         <v>0.16015898156166</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25" s="3">
         <v>0.158676878456274</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W25" s="3">
         <v>0.154723054552078</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25" s="3">
         <v>0.151325217950344</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25" s="3">
         <v>0.149050072757403</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="Z25" s="3">
         <v>0.147191994869709</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AA25" s="3">
         <v>0.144389479239781</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AB25" s="3">
         <v>0.139491037758191</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AC25" s="3">
         <v>0.137159813666343</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AD25" s="3">
         <v>0.138938393123944</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AE25" s="3">
         <v>0.136442764743169</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AF25" s="3">
         <v>0.134166099441051</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AG25" s="3">
         <v>0.133531923071543</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AH25" s="3">
         <v>0.130488304138183</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AI25" s="3">
         <v>0.128471670134862</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AJ25" s="3">
         <v>0.126974367733796</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AK25" s="3">
         <v>0.124209770528475</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AL25" s="3">
         <v>0.122892544666926</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AM25" s="3">
         <v>0.123359184441963</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AN25" s="3">
         <v>0.11965637572209</v>
       </c>
-      <c r="AO25" s="1">
+      <c r="AO25" s="3">
         <v>0.118974817542235</v>
       </c>
-      <c r="AP25" s="1">
+      <c r="AP25" s="3">
         <v>0.117826968705654</v>
       </c>
-      <c r="AQ25" s="1">
+      <c r="AQ25" s="3">
         <v>0.116010854363441</v>
       </c>
-      <c r="AR25" s="1">
+      <c r="AR25" s="3">
         <v>0.115913024445374</v>
       </c>
-      <c r="AS25" s="1">
+      <c r="AS25" s="3">
         <v>0.112173313784599</v>
       </c>
-      <c r="AT25" s="1">
+      <c r="AT25" s="3">
         <v>0.114389134661356</v>
       </c>
-      <c r="AU25" s="1">
+      <c r="AU25" s="3">
         <v>0.112140438532829</v>
       </c>
-      <c r="AV25" s="1">
+      <c r="AV25" s="3">
         <v>0.111109942841529</v>
       </c>
-      <c r="AW25" s="1">
+      <c r="AW25" s="3">
         <v>0.109417592195669</v>
       </c>
-      <c r="AX25" s="1">
+      <c r="AX25" s="3">
         <v>0.108977059352397</v>
       </c>
-      <c r="AY25" s="1">
+      <c r="AY25" s="3">
         <v>0.108509019390741</v>
       </c>
     </row>
     <row r="26" spans="1:51">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>0.524429015541076</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>0.498170726656913</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>0.350445669341087</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>0.340834458827972</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>0.314539247453212</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>0.285941640877723</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="3">
         <v>0.275274399971961</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="3">
         <v>0.255380696702003</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="3">
         <v>0.25380774154663</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="3">
         <v>0.27738645735979</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="3">
         <v>0.266792472362518</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="3">
         <v>0.249180888390541</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="3">
         <v>0.276980231583118</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="3">
         <v>0.243599526882171</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="3">
         <v>0.251127177071571</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="3">
         <v>0.260733140206337</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="3">
         <v>0.26323610010147</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="3">
         <v>0.242459902381896</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26" s="3">
         <v>0.250415783178806</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26" s="3">
         <v>0.245189916050434</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="3">
         <v>0.263547227013111</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26" s="3">
         <v>0.237980908584594</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="3">
         <v>0.265980869483947</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y26" s="3">
         <v>0.247974620115757</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="Z26" s="3">
         <v>0.253940218973159</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AA26" s="3">
         <v>0.246435532617568</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AB26" s="3">
         <v>0.254433000159263</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AC26" s="3">
         <v>0.241690546798706</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AD26" s="3">
         <v>0.250760031259059</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AE26" s="3">
         <v>0.250551012551784</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AF26" s="3">
         <v>0.276498556756973</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AG26" s="3">
         <v>0.251583599591255</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AH26" s="3">
         <v>0.248855532717704</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AI26" s="3">
         <v>0.262592217671871</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AJ26" s="3">
         <v>0.26537645522356</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AK26" s="3">
         <v>0.276404155731201</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AL26" s="3">
         <v>0.265192919707298</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AM26" s="3">
         <v>0.26325847158432</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AN26" s="3">
         <v>0.279745690631866</v>
       </c>
-      <c r="AO26" s="1">
+      <c r="AO26" s="3">
         <v>0.267047189807891</v>
       </c>
-      <c r="AP26" s="1">
+      <c r="AP26" s="3">
         <v>0.274918732619285</v>
       </c>
-      <c r="AQ26" s="1">
+      <c r="AQ26" s="3">
         <v>0.272332732284069</v>
       </c>
-      <c r="AR26" s="1">
+      <c r="AR26" s="3">
         <v>0.280386090254783</v>
       </c>
-      <c r="AS26" s="1">
+      <c r="AS26" s="3">
         <v>0.287169467306137</v>
       </c>
-      <c r="AT26" s="1">
+      <c r="AT26" s="3">
         <v>0.307497146344184</v>
       </c>
-      <c r="AU26" s="1">
+      <c r="AU26" s="3">
         <v>0.272717739239335</v>
       </c>
-      <c r="AV26" s="1">
+      <c r="AV26" s="3">
         <v>0.287977176666259</v>
       </c>
-      <c r="AW26" s="1">
+      <c r="AW26" s="3">
         <v>0.283336230421066</v>
       </c>
-      <c r="AX26" s="1">
+      <c r="AX26" s="3">
         <v>0.271944525623321</v>
       </c>
-      <c r="AY26" s="1">
+      <c r="AY26" s="3">
         <v>0.305314979791641</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13227,161 +13316,161 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="51" width="6.75" style="1" customWidth="1"/>
+    <col min="2" max="51" width="6.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:51">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0.825933333301544</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.886633333333333</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>0.902933333365122</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.911233333333333</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>0.918716666666666</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>0.922300000031789</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>0.92624999996821</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>0.930450000031789</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.933733333301544</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>0.934616666666666</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>0.937066666634877</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="3">
         <v>0.940416666698455</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="3">
         <v>0.941483333301544</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
         <v>0.94394999996821</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="3">
         <v>0.944983333365122</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="3">
         <v>0.946483333301544</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="3">
         <v>0.947316666666666</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="3">
         <v>0.949533333365122</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="3">
         <v>0.950166666666666</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="3">
         <v>0.952083333301544</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="3">
         <v>0.952583333365122</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="3">
         <v>0.954183333301544</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="3">
         <v>0.953916666634877</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="3">
         <v>0.955966666634877</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="3">
         <v>0.955833333333333</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="3">
         <v>0.956800000031789</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="3">
         <v>0.959283333365122</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="3">
         <v>0.95959999996821</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="3">
         <v>0.9599</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="3">
         <v>0.959350000031789</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="3">
         <v>0.9614</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="3">
         <v>0.96129999996821</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2" s="3">
         <v>0.962533333301544</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="3">
         <v>0.962116666634877</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="3">
         <v>0.962683333365122</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="3">
         <v>0.964133333365122</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="3">
         <v>0.966</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="3">
         <v>0.965483333365122</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="3">
         <v>0.96504999996821</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="3">
         <v>0.965416666666666</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="3">
         <v>0.967566666634877</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="3">
         <v>0.966783333365122</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2" s="3">
         <v>0.96759999996821</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2" s="3">
         <v>0.969033333365122</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="3">
         <v>0.96784999996821</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="3">
         <v>0.968366666698455</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="3">
         <v>0.968333333333333</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2" s="3">
         <v>0.969250000031789</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2" s="3">
         <v>0.969516666698455</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AY2" s="3">
         <v>0.970950000031789</v>
       </c>
     </row>
@@ -13389,154 +13478,154 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.8591</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.889</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.9076</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.9162</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0.915</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.9158</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>0.9266</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>0.9087</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>0.9274</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>0.912</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>0.9163</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
         <v>0.928</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>0.9246</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <v>0.9299</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="3">
         <v>0.9317</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="3">
         <v>0.9269</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>0.932</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="3">
         <v>0.9342</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="3">
         <v>0.9352</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="3">
         <v>0.9315</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="3">
         <v>0.9298</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="3">
         <v>0.9359</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="3">
         <v>0.9359</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="3">
         <v>0.9356</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="3">
         <v>0.9346</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="3">
         <v>0.9315</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="3">
         <v>0.9346</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="3">
         <v>0.9358</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3" s="3">
         <v>0.9354</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AE3" s="3">
         <v>0.9371</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3" s="3">
         <v>0.9327</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3" s="3">
         <v>0.9374</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="3">
         <v>0.9356</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AI3" s="3">
         <v>0.9373</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="3">
         <v>0.9341</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AK3" s="3">
         <v>0.9343</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AL3" s="3">
         <v>0.9348</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3" s="3">
         <v>0.9362</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AN3" s="3">
         <v>0.936</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AO3" s="3">
         <v>0.9354</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AP3" s="3">
         <v>0.9374</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3" s="3">
         <v>0.9357</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AR3" s="3">
         <v>0.934</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3" s="3">
         <v>0.9359</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AT3" s="3">
         <v>0.9341</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AU3" s="3">
         <v>0.936</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AV3" s="3">
         <v>0.9375</v>
       </c>
-      <c r="AW3" s="1">
+      <c r="AW3" s="3">
         <v>0.9371</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="AX3" s="3">
         <v>0.9345</v>
       </c>
-      <c r="AY3" s="1">
+      <c r="AY3" s="3">
         <v>0.9268</v>
       </c>
     </row>
@@ -13544,154 +13633,154 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0.816516666634877</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.883900000031789</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.900966666698455</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0.910316666698455</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>0.91665</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>0.920066666666666</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>0.9243</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>0.9279</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>0.931150000031789</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>0.931550000031789</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>0.935416666666666</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3">
         <v>0.937216666666666</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>0.939216666698455</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
         <v>0.942016666634877</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="3">
         <v>0.942833333301544</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="3">
         <v>0.943266666698455</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="3">
         <v>0.944933333333333</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="3">
         <v>0.946650000031789</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="3">
         <v>0.948533333301544</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="3">
         <v>0.950866666666666</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="3">
         <v>0.951133333365122</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="3">
         <v>0.951283333333333</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="3">
         <v>0.952833333333333</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="3">
         <v>0.952516666666666</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="3">
         <v>0.954516666666666</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="3">
         <v>0.95484999996821</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="3">
         <v>0.956250000031789</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="3">
         <v>0.956983333333333</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="3">
         <v>0.958100000031789</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="3">
         <v>0.95814999996821</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="3">
         <v>0.959133333301544</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="3">
         <v>0.958466666698455</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="3">
         <v>0.959816666698455</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="3">
         <v>0.960566666698455</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="3">
         <v>0.961833333333333</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" s="3">
         <v>0.961850000031789</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4" s="3">
         <v>0.9629</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="3">
         <v>0.963083333333333</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="3">
         <v>0.96309999996821</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="3">
         <v>0.963533333301544</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AP4" s="3">
         <v>0.964833333301544</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4" s="3">
         <v>0.964266666634877</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AR4" s="3">
         <v>0.965566666634877</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="3">
         <v>0.966733333301544</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="3">
         <v>0.965683333301544</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AU4" s="3">
         <v>0.96569999996821</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AV4" s="3">
         <v>0.966616666666666</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AW4" s="3">
         <v>0.967416666634877</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AX4" s="3">
         <v>0.967216666666666</v>
       </c>
-      <c r="AY4" s="1">
+      <c r="AY4" s="3">
         <v>0.968416666666666</v>
       </c>
     </row>
@@ -13699,154 +13788,154 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0.8798</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.8766</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.9008</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.9064</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>0.9192</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>0.9083</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>0.9214</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>0.9214</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>0.9292</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>0.9201</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>0.925</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <v>0.9272</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3">
         <v>0.9171</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
         <v>0.9304</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3">
         <v>0.9221</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="3">
         <v>0.9305</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="3">
         <v>0.9311</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
         <v>0.9299</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="3">
         <v>0.9327</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="3">
         <v>0.9229</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="3">
         <v>0.9318</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="3">
         <v>0.9326</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="3">
         <v>0.9324</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="3">
         <v>0.9316</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="3">
         <v>0.9332</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="3">
         <v>0.9318</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="3">
         <v>0.9317</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="3">
         <v>0.9309</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="3">
         <v>0.9354</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="3">
         <v>0.9341</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" s="3">
         <v>0.9315</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="3">
         <v>0.931</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="3">
         <v>0.9337</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="3">
         <v>0.9318</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="3">
         <v>0.9354</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="3">
         <v>0.9349</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5" s="3">
         <v>0.9326</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AM5" s="3">
         <v>0.9337</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5" s="3">
         <v>0.9343</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AO5" s="3">
         <v>0.9343</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AP5" s="3">
         <v>0.9331</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AQ5" s="3">
         <v>0.9334</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AR5" s="3">
         <v>0.9369</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AS5" s="3">
         <v>0.9351</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AT5" s="3">
         <v>0.9327</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AU5" s="3">
         <v>0.9351</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AV5" s="3">
         <v>0.9377</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="AW5" s="3">
         <v>0.9359</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AX5" s="3">
         <v>0.9252</v>
       </c>
-      <c r="AY5" s="1">
+      <c r="AY5" s="3">
         <v>0.936</v>
       </c>
     </row>
@@ -13854,154 +13943,154 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0.890166666666666</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.9373</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.949461666666666</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.957413333333333</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>0.962416666666666</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>0.965908333333333</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>0.969228333333333</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>0.971611666666666</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>0.973346666666666</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>0.97525</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>0.97615</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <v>0.977738333333333</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>0.978676666666666</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
         <v>0.979346666666666</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="3">
         <v>0.980185</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="3">
         <v>0.980925</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="3">
         <v>0.981656666666666</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
         <v>0.982031666666666</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="3">
         <v>0.982836666666666</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="3">
         <v>0.983275</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="3">
         <v>0.98354</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="3">
         <v>0.984136666666666</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="3">
         <v>0.984308333333333</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="3">
         <v>0.984733333333333</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="3">
         <v>0.985136666666666</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="3">
         <v>0.985445</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="3">
         <v>0.98586</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="3">
         <v>0.986211666666666</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="3">
         <v>0.986205</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" s="3">
         <v>0.986523333333333</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6" s="3">
         <v>0.986935</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AG6" s="3">
         <v>0.987226666666666</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" s="3">
         <v>0.98735</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="3">
         <v>0.987425</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="3">
         <v>0.987956666666666</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="3">
         <v>0.987691666666666</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6" s="3">
         <v>0.98811</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="3">
         <v>0.988068333333333</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="3">
         <v>0.988126666666666</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="3">
         <v>0.98868</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AP6" s="3">
         <v>0.988725</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6" s="3">
         <v>0.988781666666666</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AR6" s="3">
         <v>0.989183333333333</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AS6" s="3">
         <v>0.989108333333333</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AT6" s="3">
         <v>0.9892</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AU6" s="3">
         <v>0.989451666666666</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AV6" s="3">
         <v>0.98958</v>
       </c>
-      <c r="AW6" s="1">
+      <c r="AW6" s="3">
         <v>0.98966</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AX6" s="3">
         <v>0.989668333333333</v>
       </c>
-      <c r="AY6" s="1">
+      <c r="AY6" s="3">
         <v>0.989671666666666</v>
       </c>
     </row>
@@ -14009,329 +14098,329 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>0.9244</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.9305</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.9309</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.9367</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>0.9368</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>0.9382</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>0.9381</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>0.9389</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>0.939</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>0.9393</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>0.9398</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="3">
         <v>0.9405</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="3">
         <v>0.9397</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="3">
         <v>0.9421</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="3">
         <v>0.9375</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="3">
         <v>0.9394</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="3">
         <v>0.9404</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="3">
         <v>0.9413</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="3">
         <v>0.9406</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="3">
         <v>0.9402</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="3">
         <v>0.9408</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="3">
         <v>0.9399</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="3">
         <v>0.9394</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="3">
         <v>0.9404</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="3">
         <v>0.9406</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="3">
         <v>0.9383</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="3">
         <v>0.9397</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="3">
         <v>0.94</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="3">
         <v>0.94</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="3">
         <v>0.9405</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" s="3">
         <v>0.9397</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="3">
         <v>0.9409</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="3">
         <v>0.9404</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="3">
         <v>0.9411</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="3">
         <v>0.9396</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="3">
         <v>0.939</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL7" s="3">
         <v>0.9395</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7" s="3">
         <v>0.9407</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7" s="3">
         <v>0.9406</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AO7" s="3">
         <v>0.9417</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AP7" s="3">
         <v>0.9402</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AQ7" s="3">
         <v>0.9403</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AR7" s="3">
         <v>0.9407</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AS7" s="3">
         <v>0.9392</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AT7" s="3">
         <v>0.9407</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AU7" s="3">
         <v>0.9398</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AV7" s="3">
         <v>0.9401</v>
       </c>
-      <c r="AW7" s="1">
+      <c r="AW7" s="3">
         <v>0.9385</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AX7" s="3">
         <v>0.9392</v>
       </c>
-      <c r="AY7" s="1">
+      <c r="AY7" s="3">
         <v>0.9397</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -14353,161 +14442,161 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="51" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="51" width="5.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
       <c r="A1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>0.822983333365122</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>0.888183333365122</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>0.903333333301544</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>0.913233333301544</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>0.919683333365122</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>0.924883333365122</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="3">
         <v>0.928483333365122</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <v>0.933016666634877</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="3">
         <v>0.935100000031789</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="3">
         <v>0.938066666666666</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="3">
         <v>0.93975</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="3">
         <v>0.94325</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="3">
         <v>0.945133333333333</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="3">
         <v>0.947216666666666</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="3">
         <v>0.948583333333333</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="3">
         <v>0.949833333333333</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="3">
         <v>0.951283333301544</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="3">
         <v>0.953366666634877</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="3">
         <v>0.955000000031789</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="3">
         <v>0.956133333333333</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="3">
         <v>0.958633333333333</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="3">
         <v>0.95949999996821</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="3">
         <v>0.95984999996821</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="3">
         <v>0.961783333301544</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="3">
         <v>0.962816666634877</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="3">
         <v>0.965083333301544</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="3">
         <v>0.965166666698455</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="3">
         <v>0.965883333333333</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="3">
         <v>0.967016666666666</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="3">
         <v>0.967783333333333</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="3">
         <v>0.968366666634877</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="3">
         <v>0.968600000031789</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="3">
         <v>0.970333333301544</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="3">
         <v>0.970083333365122</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="3">
         <v>0.971983333333333</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="3">
         <v>0.97215</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="3">
         <v>0.97264999996821</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="3">
         <v>0.974783333301544</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="3">
         <v>0.973983333333333</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="3">
         <v>0.974716666634877</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="3">
         <v>0.976333333301544</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="3">
         <v>0.97639999996821</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="3">
         <v>0.97615</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="3">
         <v>0.977116666634877</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="3">
         <v>0.977116666698455</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="3">
         <v>0.977900000031789</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="3">
         <v>0.9788</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="3">
         <v>0.979583333301544</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="3">
         <v>0.9791</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="3">
         <v>0.98094999996821</v>
       </c>
     </row>
@@ -14515,699 +14604,699 @@
       <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0.8617</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.8887</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>0.9032</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.9174</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>0.9192</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>0.9178</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>0.9185</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>0.8979</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.9271</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>0.9298</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>0.9306</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="3">
         <v>0.9263</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="3">
         <v>0.9297</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
         <v>0.9333</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="3">
         <v>0.9321</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="3">
         <v>0.9364</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="3">
         <v>0.9345</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="3">
         <v>0.9321</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="3">
         <v>0.9357</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="3">
         <v>0.9273</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="3">
         <v>0.934</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="3">
         <v>0.9374</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="3">
         <v>0.9369</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="3">
         <v>0.9395</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="3">
         <v>0.9366</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="3">
         <v>0.9373</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="3">
         <v>0.9351</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="3">
         <v>0.9315</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="3">
         <v>0.9351</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="3">
         <v>0.9355</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="3">
         <v>0.9391</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="3">
         <v>0.9237</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2" s="3">
         <v>0.936</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="3">
         <v>0.9391</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="3">
         <v>0.9389</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="3">
         <v>0.9381</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="3">
         <v>0.9392</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="3">
         <v>0.9399</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="3">
         <v>0.9395</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="3">
         <v>0.9397</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="3">
         <v>0.9408</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="3">
         <v>0.9407</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2" s="3">
         <v>0.9396</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2" s="3">
         <v>0.94</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="3">
         <v>0.9402</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="3">
         <v>0.9379</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="3">
         <v>0.9383</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2" s="3">
         <v>0.9354</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2" s="3">
         <v>0.9426</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AY2" s="3">
         <v>0.9391</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>0.89</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>0.9</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>0.89</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>0.98</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>0.99</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>0.91</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>0.92</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>0.91</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>0.93</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>0.95</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <v>0.94</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>4</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>0.92</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>0.91</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <v>0.91</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="30" spans="3:7">
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>5</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>0.99</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>0.98</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>0.99</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>6</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>0.83</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>0.82</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <v>0.82</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="32" spans="3:7">
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>7</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <v>0.96</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>0.99</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <v>0.97</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>8</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>0.99</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>0.99</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="3">
         <v>0.99</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>9</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>0.98</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>0.96</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="3">
         <v>0.97</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="3:7">
-      <c r="C62" s="1">
+      <c r="C62" s="3">
         <v>0</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <v>0.92</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="3">
         <v>0.88</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="3">
         <v>0.9</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="63" spans="3:7">
-      <c r="C63" s="1">
+      <c r="C63" s="3">
         <v>1</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="3">
         <v>1</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="3">
         <v>0.99</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="3">
         <v>1</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="64" spans="3:7">
-      <c r="C64" s="1">
+      <c r="C64" s="3">
         <v>2</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="3">
         <v>0.93</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="3">
         <v>0.91</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="3">
         <v>0.92</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="65" spans="3:7">
-      <c r="C65" s="1">
+      <c r="C65" s="3">
         <v>3</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="3">
         <v>0.95</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="3">
         <v>0.95</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="3">
         <v>0.95</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="1">
+      <c r="C66" s="3">
         <v>4</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="3">
         <v>0.92</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="3">
         <v>0.93</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="3">
         <v>0.93</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="67" spans="3:7">
-      <c r="C67" s="1">
+      <c r="C67" s="3">
         <v>5</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="3">
         <v>0.98</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="3">
         <v>1</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="3">
         <v>0.99</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="68" spans="3:7">
-      <c r="C68" s="1">
+      <c r="C68" s="3">
         <v>6</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="3">
         <v>0.83</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="3">
         <v>0.86</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="3">
         <v>0.84</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="69" spans="3:7">
-      <c r="C69" s="1">
+      <c r="C69" s="3">
         <v>7</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="3">
         <v>0.97</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="3">
         <v>0.98</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="3">
         <v>0.97</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="70" spans="3:7">
-      <c r="C70" s="1">
+      <c r="C70" s="3">
         <v>8</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="3">
         <v>0.99</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="3">
         <v>1</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="3">
         <v>0.99</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="71" spans="3:7">
-      <c r="C71" s="1">
+      <c r="C71" s="3">
         <v>9</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="3">
         <v>0.99</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="3">
         <v>0.96</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="3">
         <v>0.98</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -16220,7 +16309,7 @@
   <sheetPr/>
   <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38:A72"/>
     </sheetView>
   </sheetViews>
@@ -16540,4 +16629,179 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A11:B45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="11" ht="14.25" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -1090,9 +1090,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1138,32 +1138,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,6 +1154,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,18 +1175,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1221,13 +1203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1236,9 +1211,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,32 +1267,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1291,7 +1291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,7 +1303,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,25 +1351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,7 +1363,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,43 +1423,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,67 +1465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,6 +1485,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1496,18 +1550,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1527,58 +1574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1590,10 +1590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1602,137 +1602,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1743,9 +1743,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -12375,12 +12372,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -16799,7 +16791,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -16954,7 +16946,7 @@
       </c>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -17108,318 +17100,318 @@
         <v>0.9505</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="5" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.428700000031789</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0.787733333365122</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0.86649999996821</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.89019999996821</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>0.903933333365122</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.914183333365122</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.920733333333333</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>0.926633333301544</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>0.928816666634877</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>0.930666666698455</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>0.933216666666666</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>0.936516666634877</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>0.9381</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>0.93839999996821</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>0.9398</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>0.940916666634877</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>0.941466666666666</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>0.944583333301544</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <v>0.942666666666666</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <v>0.945000000031789</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="5">
         <v>0.944183333365122</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="5">
         <v>0.947666666666666</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="5">
         <v>0.946033333333333</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="5">
         <v>0.94799999996821</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="5">
         <v>0.946850000031789</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="5">
         <v>0.948183333301544</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="5">
         <v>0.949566666698455</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="5">
         <v>0.947583333301544</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="5">
         <v>0.949333333365122</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="5">
         <v>0.948683333365122</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="5">
         <v>0.950016666666666</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AG3" s="5">
         <v>0.951583333365122</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AH3" s="5">
         <v>0.950483333301544</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3" s="5">
         <v>0.952216666698455</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AJ3" s="5">
         <v>0.951816666634877</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AK3" s="5">
         <v>0.953333333333333</v>
       </c>
-      <c r="AL3" s="6">
+      <c r="AL3" s="5">
         <v>0.95389999996821</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AM3" s="5">
         <v>0.954033333333333</v>
       </c>
-      <c r="AN3" s="6">
+      <c r="AN3" s="5">
         <v>0.952533333333333</v>
       </c>
-      <c r="AO3" s="6">
+      <c r="AO3" s="5">
         <v>0.953233333333333</v>
       </c>
-      <c r="AP3" s="6">
+      <c r="AP3" s="5">
         <v>0.954166666666666</v>
       </c>
-      <c r="AQ3" s="6">
+      <c r="AQ3" s="5">
         <v>0.95614999996821</v>
       </c>
-      <c r="AR3" s="6">
+      <c r="AR3" s="5">
         <v>0.956733333301544</v>
       </c>
-      <c r="AS3" s="6">
+      <c r="AS3" s="5">
         <v>0.955483333333333</v>
       </c>
-      <c r="AT3" s="6">
+      <c r="AT3" s="5">
         <v>0.955383333333333</v>
       </c>
-      <c r="AU3" s="6">
+      <c r="AU3" s="5">
         <v>0.955533333301544</v>
       </c>
-      <c r="AV3" s="6">
+      <c r="AV3" s="5">
         <v>0.955716666698455</v>
       </c>
-      <c r="AW3" s="6">
+      <c r="AW3" s="5">
         <v>0.957216666666666</v>
       </c>
-      <c r="AX3" s="6">
+      <c r="AX3" s="5">
         <v>0.957400000031789</v>
       </c>
-      <c r="AY3" s="6">
+      <c r="AY3" s="5">
         <v>0.956683333365122</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="5" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.7583</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.8796</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.8913</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.871</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.8823</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.9234</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.9085</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>0.9153</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>0.9121</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>0.9187</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>0.8976</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>0.9304</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>0.906</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>0.9119</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>0.9031</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>0.9308</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>0.8894</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>0.9308</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>0.8901</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <v>0.9178</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <v>0.9194</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <v>0.9274</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <v>0.9166</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="5">
         <v>0.9164</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="5">
         <v>0.9352</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="5">
         <v>0.9065</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="5">
         <v>0.9185</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="5">
         <v>0.9159</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="5">
         <v>0.9343</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AE4" s="5">
         <v>0.9245</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="5">
         <v>0.9136</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AG4" s="5">
         <v>0.9224</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AH4" s="5">
         <v>0.9229</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4" s="5">
         <v>0.8985</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="5">
         <v>0.9056</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AK4" s="5">
         <v>0.929</v>
       </c>
-      <c r="AL4" s="6">
+      <c r="AL4" s="5">
         <v>0.9079</v>
       </c>
-      <c r="AM4" s="6">
+      <c r="AM4" s="5">
         <v>0.8925</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AN4" s="5">
         <v>0.9201</v>
       </c>
-      <c r="AO4" s="6">
+      <c r="AO4" s="5">
         <v>0.9256</v>
       </c>
-      <c r="AP4" s="6">
+      <c r="AP4" s="5">
         <v>0.9338</v>
       </c>
-      <c r="AQ4" s="6">
+      <c r="AQ4" s="5">
         <v>0.9251</v>
       </c>
-      <c r="AR4" s="6">
+      <c r="AR4" s="5">
         <v>0.9234</v>
       </c>
-      <c r="AS4" s="6">
+      <c r="AS4" s="5">
         <v>0.905</v>
       </c>
-      <c r="AT4" s="6">
+      <c r="AT4" s="5">
         <v>0.9217</v>
       </c>
-      <c r="AU4" s="6">
+      <c r="AU4" s="5">
         <v>0.9182</v>
       </c>
-      <c r="AV4" s="6">
+      <c r="AV4" s="5">
         <v>0.9249</v>
       </c>
-      <c r="AW4" s="6">
+      <c r="AW4" s="5">
         <v>0.9214</v>
       </c>
-      <c r="AX4" s="6">
+      <c r="AX4" s="5">
         <v>0.9156</v>
       </c>
-      <c r="AY4" s="6">
+      <c r="AY4" s="5">
         <v>0.9207</v>
       </c>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -17574,7 +17566,7 @@
       </c>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -17729,7 +17721,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
@@ -17737,325 +17729,325 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" s="6" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A41" s="6" t="s">
+    <row r="41" s="5" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>2.15203628625869</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>0.614953836472829</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>0.411733244419097</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>0.338763604164123</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>0.295153510459264</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>0.263031616957982</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>0.24465583521525</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>0.230220618549982</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <v>0.216845081710815</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>0.210694062550862</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="5">
         <v>0.205897949083646</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="5">
         <v>0.198739878177642</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="5">
         <v>0.19415555802981</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="5">
         <v>0.190262338868776</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="5">
         <v>0.187397386328379</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="Q41" s="5">
         <v>0.183211089396476</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="5">
         <v>0.182001369897524</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S41" s="5">
         <v>0.176028664048512</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="5">
         <v>0.177095756959915</v>
       </c>
-      <c r="U41" s="6">
+      <c r="U41" s="5">
         <v>0.173993937285741</v>
       </c>
-      <c r="V41" s="6">
+      <c r="V41" s="5">
         <v>0.170481328479448</v>
       </c>
-      <c r="W41" s="6">
+      <c r="W41" s="5">
         <v>0.16367156689167</v>
       </c>
-      <c r="X41" s="6">
+      <c r="X41" s="5">
         <v>0.167193339089552</v>
       </c>
-      <c r="Y41" s="6">
+      <c r="Y41" s="5">
         <v>0.163745887565612</v>
       </c>
-      <c r="Z41" s="6">
+      <c r="Z41" s="5">
         <v>0.165038088957468</v>
       </c>
-      <c r="AA41" s="6">
+      <c r="AA41" s="5">
         <v>0.159962185295422</v>
       </c>
-      <c r="AB41" s="6">
+      <c r="AB41" s="5">
         <v>0.158253463160991</v>
       </c>
-      <c r="AC41" s="6">
+      <c r="AC41" s="5">
         <v>0.161334856359163</v>
       </c>
-      <c r="AD41" s="6">
+      <c r="AD41" s="5">
         <v>0.153845995211601</v>
       </c>
-      <c r="AE41" s="6">
+      <c r="AE41" s="5">
         <v>0.158008680494626</v>
       </c>
-      <c r="AF41" s="6">
+      <c r="AF41" s="5">
         <v>0.156026821275552</v>
       </c>
-      <c r="AG41" s="6">
+      <c r="AG41" s="5">
         <v>0.152065652887026</v>
       </c>
-      <c r="AH41" s="6">
+      <c r="AH41" s="5">
         <v>0.153394744753837</v>
       </c>
-      <c r="AI41" s="6">
+      <c r="AI41" s="5">
         <v>0.150756739203135</v>
       </c>
-      <c r="AJ41" s="6">
+      <c r="AJ41" s="5">
         <v>0.147371281981468</v>
       </c>
-      <c r="AK41" s="6">
+      <c r="AK41" s="5">
         <v>0.14519886337916</v>
       </c>
-      <c r="AL41" s="6">
+      <c r="AL41" s="5">
         <v>0.146308003948132</v>
       </c>
-      <c r="AM41" s="6">
+      <c r="AM41" s="5">
         <v>0.144546408025423</v>
       </c>
-      <c r="AN41" s="6">
+      <c r="AN41" s="5">
         <v>0.146826561729113</v>
       </c>
-      <c r="AO41" s="6">
+      <c r="AO41" s="5">
         <v>0.146823473509152</v>
       </c>
-      <c r="AP41" s="6">
+      <c r="AP41" s="5">
         <v>0.144211389283339</v>
       </c>
-      <c r="AQ41" s="6">
+      <c r="AQ41" s="5">
         <v>0.140161772469679</v>
       </c>
-      <c r="AR41" s="6">
+      <c r="AR41" s="5">
         <v>0.140314832556247</v>
       </c>
-      <c r="AS41" s="6">
+      <c r="AS41" s="5">
         <v>0.138491430004437</v>
       </c>
-      <c r="AT41" s="6">
+      <c r="AT41" s="5">
         <v>0.140811289652188</v>
       </c>
-      <c r="AU41" s="6">
+      <c r="AU41" s="5">
         <v>0.141275468802452</v>
       </c>
-      <c r="AV41" s="6">
+      <c r="AV41" s="5">
         <v>0.136189713962872</v>
       </c>
-      <c r="AW41" s="6">
+      <c r="AW41" s="5">
         <v>0.136460562535127</v>
       </c>
-      <c r="AX41" s="6">
+      <c r="AX41" s="5">
         <v>0.137623570076624</v>
       </c>
-      <c r="AY41" s="6">
+      <c r="AY41" s="5">
         <v>0.135407358038425</v>
       </c>
     </row>
-    <row r="42" s="6" customFormat="1" ht="11.25" spans="1:51">
-      <c r="A42" s="6" t="s">
+    <row r="42" s="5" customFormat="1" ht="11.25" spans="1:51">
+      <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>0.715602321147918</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>0.352223469424247</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>0.335182739984989</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>0.501621952009201</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>0.531459507608413</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>0.289538801813125</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>0.392821443367004</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="5">
         <v>0.408278045129776</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>0.371398489081859</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>0.37630773024559</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="5">
         <v>0.42825316991806</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="5">
         <v>0.275959285259246</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="5">
         <v>0.50930651640892</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="5">
         <v>0.327229115605354</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="5">
         <v>0.514373969316482</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="5">
         <v>0.265683312892913</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="5">
         <v>0.558711115503311</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="5">
         <v>0.30993900899887</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="5">
         <v>0.584694111824035</v>
       </c>
-      <c r="U42" s="6">
+      <c r="U42" s="5">
         <v>0.46620564289093</v>
       </c>
-      <c r="V42" s="6">
+      <c r="V42" s="5">
         <v>0.320549545073509</v>
       </c>
-      <c r="W42" s="6">
+      <c r="W42" s="5">
         <v>0.302736858201026</v>
       </c>
-      <c r="X42" s="6">
+      <c r="X42" s="5">
         <v>0.50904691119194</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="Y42" s="5">
         <v>0.386017687368392</v>
       </c>
-      <c r="Z42" s="6">
+      <c r="Z42" s="5">
         <v>0.330256191086769</v>
       </c>
-      <c r="AA42" s="6">
+      <c r="AA42" s="5">
         <v>0.485769724082946</v>
       </c>
-      <c r="AB42" s="6">
+      <c r="AB42" s="5">
         <v>0.474691577792167</v>
       </c>
-      <c r="AC42" s="6">
+      <c r="AC42" s="5">
         <v>0.478175974273681</v>
       </c>
-      <c r="AD42" s="6">
+      <c r="AD42" s="5">
         <v>0.32877195982933</v>
       </c>
-      <c r="AE42" s="6">
+      <c r="AE42" s="5">
         <v>0.4230027926445</v>
       </c>
-      <c r="AF42" s="6">
+      <c r="AF42" s="5">
         <v>0.477516760993003</v>
       </c>
-      <c r="AG42" s="6">
+      <c r="AG42" s="5">
         <v>0.435743067359924</v>
       </c>
-      <c r="AH42" s="6">
+      <c r="AH42" s="5">
         <v>0.391898934268951</v>
       </c>
-      <c r="AI42" s="6">
+      <c r="AI42" s="5">
         <v>0.545273218059539</v>
       </c>
-      <c r="AJ42" s="6">
+      <c r="AJ42" s="5">
         <v>0.468435247254371</v>
       </c>
-      <c r="AK42" s="6">
+      <c r="AK42" s="5">
         <v>0.26506108341217</v>
       </c>
-      <c r="AL42" s="6">
+      <c r="AL42" s="5">
         <v>0.461449797344207</v>
       </c>
-      <c r="AM42" s="6">
+      <c r="AM42" s="5">
         <v>0.586146600914001</v>
       </c>
-      <c r="AN42" s="6">
+      <c r="AN42" s="5">
         <v>0.479364687776565</v>
       </c>
-      <c r="AO42" s="6">
+      <c r="AO42" s="5">
         <v>0.428875145435333</v>
       </c>
-      <c r="AP42" s="6">
+      <c r="AP42" s="5">
         <v>0.3752063580513</v>
       </c>
-      <c r="AQ42" s="6">
+      <c r="AQ42" s="5">
         <v>0.406557753896713</v>
       </c>
-      <c r="AR42" s="6">
+      <c r="AR42" s="5">
         <v>0.402709792852401</v>
       </c>
-      <c r="AS42" s="6">
+      <c r="AS42" s="5">
         <v>0.529030613899231</v>
       </c>
-      <c r="AT42" s="6">
+      <c r="AT42" s="5">
         <v>0.406075363206863</v>
       </c>
-      <c r="AU42" s="6">
+      <c r="AU42" s="5">
         <v>0.423663830614089</v>
       </c>
-      <c r="AV42" s="6">
+      <c r="AV42" s="5">
         <v>0.320016308498382</v>
       </c>
-      <c r="AW42" s="6">
+      <c r="AW42" s="5">
         <v>0.418127346658706</v>
       </c>
-      <c r="AX42" s="6">
+      <c r="AX42" s="5">
         <v>0.392980967664718</v>
       </c>
-      <c r="AY42" s="6">
+      <c r="AY42" s="5">
         <v>0.37712640209198</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
@@ -18063,7 +18055,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
@@ -18088,1871 +18080,1871 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="51" width="6.875" style="4" customWidth="1"/>
+    <col min="2" max="51" width="6.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="1">
         <v>0.773383333301544</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="1">
         <v>0.875966666666666</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="1">
         <v>0.895</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="1">
         <v>0.90565</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="1">
         <v>0.913116666666666</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="1">
         <v>0.917683333301544</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="1">
         <v>0.921150000031789</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="1">
         <v>0.925400000031789</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="1">
         <v>0.927933333333333</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="1">
         <v>0.930566666698455</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="1">
         <v>0.93175</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="1">
         <v>0.93484999996821</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="1">
         <v>0.9368</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="1">
         <v>0.939266666634877</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="1">
         <v>0.93955</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="1">
         <v>0.940766666666666</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="1">
         <v>0.942816666698455</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="1">
         <v>0.943800000031789</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="1">
         <v>0.944966666666666</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="1">
         <v>0.946816666666666</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="1">
         <v>0.948133333365122</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="1">
         <v>0.947316666698455</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1" s="1">
         <v>0.950400000031789</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="1">
         <v>0.950583333301544</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1" s="1">
         <v>0.951316666634877</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1" s="1">
         <v>0.950700000031789</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="1">
         <v>0.952783333301544</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1" s="1">
         <v>0.953666666698455</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1" s="1">
         <v>0.953816666698455</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1" s="1">
         <v>0.954416666666666</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="1">
         <v>0.95599999996821</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1" s="1">
         <v>0.95555</v>
       </c>
-      <c r="AH1" s="4">
+      <c r="AH1" s="1">
         <v>0.957300000031789</v>
       </c>
-      <c r="AI1" s="4">
+      <c r="AI1" s="1">
         <v>0.957033333301544</v>
       </c>
-      <c r="AJ1" s="4">
+      <c r="AJ1" s="1">
         <v>0.958483333365122</v>
       </c>
-      <c r="AK1" s="4">
+      <c r="AK1" s="1">
         <v>0.957700000031789</v>
       </c>
-      <c r="AL1" s="4">
+      <c r="AL1" s="1">
         <v>0.960400000031789</v>
       </c>
-      <c r="AM1" s="4">
+      <c r="AM1" s="1">
         <v>0.958683333365122</v>
       </c>
-      <c r="AN1" s="4">
+      <c r="AN1" s="1">
         <v>0.959400000031789</v>
       </c>
-      <c r="AO1" s="4">
+      <c r="AO1" s="1">
         <v>0.960233333365122</v>
       </c>
-      <c r="AP1" s="4">
+      <c r="AP1" s="1">
         <v>0.96094999996821</v>
       </c>
-      <c r="AQ1" s="4">
+      <c r="AQ1" s="1">
         <v>0.961300000031789</v>
       </c>
-      <c r="AR1" s="4">
+      <c r="AR1" s="1">
         <v>0.9613</v>
       </c>
-      <c r="AS1" s="4">
+      <c r="AS1" s="1">
         <v>0.9616</v>
       </c>
-      <c r="AT1" s="4">
+      <c r="AT1" s="1">
         <v>0.961900000031789</v>
       </c>
-      <c r="AU1" s="4">
+      <c r="AU1" s="1">
         <v>0.963116666698455</v>
       </c>
-      <c r="AV1" s="4">
+      <c r="AV1" s="1">
         <v>0.963700000031789</v>
       </c>
-      <c r="AW1" s="4">
+      <c r="AW1" s="1">
         <v>0.963133333333333</v>
       </c>
-      <c r="AX1" s="4">
+      <c r="AX1" s="1">
         <v>0.963483333301544</v>
       </c>
-      <c r="AY1" s="4">
+      <c r="AY1" s="1">
         <v>0.964716666634877</v>
       </c>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>0.8791</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>0.8923</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>0.9125</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>0.9086</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0.918</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>0.9116</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="1">
         <v>0.9244</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="1">
         <v>0.9309</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>0.93</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="1">
         <v>0.9251</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="1">
         <v>0.9147</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="1">
         <v>0.927</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="1">
         <v>0.9204</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="1">
         <v>0.9325</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="1">
         <v>0.915</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="1">
         <v>0.9299</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="1">
         <v>0.9356</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="1">
         <v>0.9301</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="1">
         <v>0.9362</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="1">
         <v>0.9393</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="1">
         <v>0.9157</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="1">
         <v>0.9273</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="1">
         <v>0.9368</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="1">
         <v>0.9325</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="1">
         <v>0.9371</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="1">
         <v>0.937</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="1">
         <v>0.9363</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="1">
         <v>0.9397</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="1">
         <v>0.9402</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2" s="1">
         <v>0.9418</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="1">
         <v>0.9417</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="1">
         <v>0.94</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="1">
         <v>0.9395</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="1">
         <v>0.9392</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AJ2" s="1">
         <v>0.9428</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AK2" s="1">
         <v>0.9403</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AL2" s="1">
         <v>0.942</v>
       </c>
-      <c r="AM2" s="4">
+      <c r="AM2" s="1">
         <v>0.9382</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AN2" s="1">
         <v>0.9404</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AO2" s="1">
         <v>0.9393</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AP2" s="1">
         <v>0.936</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AQ2" s="1">
         <v>0.943</v>
       </c>
-      <c r="AR2" s="4">
+      <c r="AR2" s="1">
         <v>0.9392</v>
       </c>
-      <c r="AS2" s="4">
+      <c r="AS2" s="1">
         <v>0.9423</v>
       </c>
-      <c r="AT2" s="4">
+      <c r="AT2" s="1">
         <v>0.9423</v>
       </c>
-      <c r="AU2" s="4">
+      <c r="AU2" s="1">
         <v>0.94</v>
       </c>
-      <c r="AV2" s="4">
+      <c r="AV2" s="1">
         <v>0.9424</v>
       </c>
-      <c r="AW2" s="4">
+      <c r="AW2" s="1">
         <v>0.941</v>
       </c>
-      <c r="AX2" s="4">
+      <c r="AX2" s="1">
         <v>0.9398</v>
       </c>
-      <c r="AY2" s="4">
+      <c r="AY2" s="1">
         <v>0.9393</v>
       </c>
     </row>
     <row r="3" spans="1:51">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>0.770116666634877</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>0.860166666698455</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>0.886483333301544</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>0.899216666666666</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>0.908433333365122</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>0.913066666634877</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1">
         <v>0.916483333301544</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="1">
         <v>0.920683333365122</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>0.924083333365122</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="1">
         <v>0.926750000031789</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="1">
         <v>0.92755</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="1">
         <v>0.932133333333333</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="1">
         <v>0.933066666698455</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="1">
         <v>0.934966666634877</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="1">
         <v>0.935933333333333</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="1">
         <v>0.937783333365122</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="1">
         <v>0.940083333301544</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="1">
         <v>0.940400000031789</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="1">
         <v>0.942333333333333</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="1">
         <v>0.94439999996821</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="1">
         <v>0.9439</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="1">
         <v>0.945583333333333</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="1">
         <v>0.946950000031789</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="1">
         <v>0.947950000031789</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="1">
         <v>0.949833333365122</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="1">
         <v>0.948900000031789</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB3" s="1">
         <v>0.950950000031789</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="1">
         <v>0.951933333365122</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3" s="1">
         <v>0.951316666698455</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE3" s="1">
         <v>0.952200000031789</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="1">
         <v>0.952633333365122</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AG3" s="1">
         <v>0.952783333301544</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AH3" s="1">
         <v>0.95529999996821</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AI3" s="1">
         <v>0.95544999996821</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AJ3" s="1">
         <v>0.955750000031789</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AK3" s="1">
         <v>0.956616666698455</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AL3" s="1">
         <v>0.956966666666666</v>
       </c>
-      <c r="AM3" s="4">
+      <c r="AM3" s="1">
         <v>0.957066666666666</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AN3" s="1">
         <v>0.958516666666666</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AO3" s="1">
         <v>0.9581</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AP3" s="1">
         <v>0.959500000031789</v>
       </c>
-      <c r="AQ3" s="4">
+      <c r="AQ3" s="1">
         <v>0.959283333333333</v>
       </c>
-      <c r="AR3" s="4">
+      <c r="AR3" s="1">
         <v>0.959333333365122</v>
       </c>
-      <c r="AS3" s="4">
+      <c r="AS3" s="1">
         <v>0.961133333333333</v>
       </c>
-      <c r="AT3" s="4">
+      <c r="AT3" s="1">
         <v>0.960783333333333</v>
       </c>
-      <c r="AU3" s="4">
+      <c r="AU3" s="1">
         <v>0.96125</v>
       </c>
-      <c r="AV3" s="4">
+      <c r="AV3" s="1">
         <v>0.96089999996821</v>
       </c>
-      <c r="AW3" s="4">
+      <c r="AW3" s="1">
         <v>0.961833333365122</v>
       </c>
-      <c r="AX3" s="4">
+      <c r="AX3" s="1">
         <v>0.961766666666666</v>
       </c>
-      <c r="AY3" s="4">
+      <c r="AY3" s="1">
         <v>0.962350000031789</v>
       </c>
     </row>
     <row r="4" spans="1:51">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>0.8585</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>0.8476</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>0.893</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>0.8904</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0.9068</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>0.9133</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>0.915</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="1">
         <v>0.9189</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="1">
         <v>0.9249</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="1">
         <v>0.9143</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1">
         <v>0.9228</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="1">
         <v>0.922</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="1">
         <v>0.92</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="1">
         <v>0.9277</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="1">
         <v>0.9292</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="1">
         <v>0.9264</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="1">
         <v>0.9235</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="1">
         <v>0.9306</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="1">
         <v>0.9307</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="1">
         <v>0.9301</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="1">
         <v>0.9255</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="1">
         <v>0.9347</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="1">
         <v>0.9307</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="1">
         <v>0.9329</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="1">
         <v>0.9296</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="1">
         <v>0.936</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AB4" s="1">
         <v>0.9324</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="1">
         <v>0.9344</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4" s="1">
         <v>0.9342</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AE4" s="1">
         <v>0.9376</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="1">
         <v>0.93</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AG4" s="1">
         <v>0.935</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AH4" s="1">
         <v>0.934</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AI4" s="1">
         <v>0.9357</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AJ4" s="1">
         <v>0.936</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AK4" s="1">
         <v>0.9303</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AL4" s="1">
         <v>0.9313</v>
       </c>
-      <c r="AM4" s="4">
+      <c r="AM4" s="1">
         <v>0.9353</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AN4" s="1">
         <v>0.9325</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AO4" s="1">
         <v>0.9333</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AP4" s="1">
         <v>0.9347</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AQ4" s="1">
         <v>0.934</v>
       </c>
-      <c r="AR4" s="4">
+      <c r="AR4" s="1">
         <v>0.9327</v>
       </c>
-      <c r="AS4" s="4">
+      <c r="AS4" s="1">
         <v>0.9327</v>
       </c>
-      <c r="AT4" s="4">
+      <c r="AT4" s="1">
         <v>0.929</v>
       </c>
-      <c r="AU4" s="4">
+      <c r="AU4" s="1">
         <v>0.9356</v>
       </c>
-      <c r="AV4" s="4">
+      <c r="AV4" s="1">
         <v>0.933</v>
       </c>
-      <c r="AW4" s="4">
+      <c r="AW4" s="1">
         <v>0.9358</v>
       </c>
-      <c r="AX4" s="4">
+      <c r="AX4" s="1">
         <v>0.9363</v>
       </c>
-      <c r="AY4" s="4">
+      <c r="AY4" s="1">
         <v>0.9329</v>
       </c>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>0.769666666698455</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>0.863516666634877</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>0.887833333333333</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>0.89944999996821</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0.908566666698455</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>0.913300000031789</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>0.917583333365122</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="1">
         <v>0.919733333301544</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="1">
         <v>0.924466666634877</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>0.926516666634877</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <v>0.928416666634877</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="1">
         <v>0.931783333365122</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="1">
         <v>0.93275</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="1">
         <v>0.935150000031789</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="1">
         <v>0.936016666634877</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="1">
         <v>0.937966666698455</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="1">
         <v>0.939683333333333</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="1">
         <v>0.93994999996821</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="1">
         <v>0.942016666698455</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="1">
         <v>0.943066666698455</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="1">
         <v>0.944833333365122</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="1">
         <v>0.944116666666666</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="1">
         <v>0.946233333365122</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="1">
         <v>0.948083333333333</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="1">
         <v>0.947933333301544</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="1">
         <v>0.949350000031789</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB5" s="1">
         <v>0.95075</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="1">
         <v>0.949933333365122</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD5" s="1">
         <v>0.950933333301544</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5" s="1">
         <v>0.951866666698455</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5" s="1">
         <v>0.953966666634877</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AG5" s="1">
         <v>0.952883333365122</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH5" s="1">
         <v>0.954466666666666</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI5" s="1">
         <v>0.954500000031789</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AJ5" s="1">
         <v>0.955533333333333</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AK5" s="1">
         <v>0.955816666666666</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AL5" s="1">
         <v>0.955516666666666</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AM5" s="1">
         <v>0.957833333301544</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AN5" s="1">
         <v>0.957233333365122</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AO5" s="1">
         <v>0.957866666698455</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AP5" s="1">
         <v>0.95949999996821</v>
       </c>
-      <c r="AQ5" s="4">
+      <c r="AQ5" s="1">
         <v>0.960016666634877</v>
       </c>
-      <c r="AR5" s="4">
+      <c r="AR5" s="1">
         <v>0.960566666634877</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="AS5" s="1">
         <v>0.959783333333333</v>
       </c>
-      <c r="AT5" s="4">
+      <c r="AT5" s="1">
         <v>0.961783333365122</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AU5" s="1">
         <v>0.96135</v>
       </c>
-      <c r="AV5" s="4">
+      <c r="AV5" s="1">
         <v>0.961416666634877</v>
       </c>
-      <c r="AW5" s="4">
+      <c r="AW5" s="1">
         <v>0.962183333301544</v>
       </c>
-      <c r="AX5" s="4">
+      <c r="AX5" s="1">
         <v>0.961666666666666</v>
       </c>
-      <c r="AY5" s="4">
+      <c r="AY5" s="1">
         <v>0.9624</v>
       </c>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>0.8712</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>0.8974</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>0.8993</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>0.8928</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0.9122</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>0.9047</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>0.9188</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <v>0.9218</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <v>0.9203</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>0.9239</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>0.9265</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="1">
         <v>0.9286</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="1">
         <v>0.9238</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="1">
         <v>0.9235</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="1">
         <v>0.9263</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="1">
         <v>0.925</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="1">
         <v>0.9199</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="1">
         <v>0.9273</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="1">
         <v>0.9335</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="1">
         <v>0.9293</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="1">
         <v>0.9207</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="1">
         <v>0.9304</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="1">
         <v>0.9288</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="1">
         <v>0.9337</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="1">
         <v>0.9355</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="1">
         <v>0.9323</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB6" s="1">
         <v>0.9351</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC6" s="1">
         <v>0.9341</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD6" s="1">
         <v>0.9336</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AE6" s="1">
         <v>0.9374</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF6" s="1">
         <v>0.9323</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG6" s="1">
         <v>0.9325</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH6" s="1">
         <v>0.936</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AI6" s="1">
         <v>0.9342</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AJ6" s="1">
         <v>0.9331</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AK6" s="1">
         <v>0.9362</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AL6" s="1">
         <v>0.9341</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AM6" s="1">
         <v>0.9403</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AN6" s="1">
         <v>0.9333</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AO6" s="1">
         <v>0.9335</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AP6" s="1">
         <v>0.9377</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AQ6" s="1">
         <v>0.9318</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AR6" s="1">
         <v>0.9369</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AS6" s="1">
         <v>0.9373</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AT6" s="1">
         <v>0.9313</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="AU6" s="1">
         <v>0.9335</v>
       </c>
-      <c r="AV6" s="4">
+      <c r="AV6" s="1">
         <v>0.9358</v>
       </c>
-      <c r="AW6" s="4">
+      <c r="AW6" s="1">
         <v>0.9329</v>
       </c>
-      <c r="AX6" s="4">
+      <c r="AX6" s="1">
         <v>0.9363</v>
       </c>
-      <c r="AY6" s="4">
+      <c r="AY6" s="1">
         <v>0.9276</v>
       </c>
     </row>
     <row r="21" spans="1:51">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <v>0.82558031056722</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>0.358324934180577</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>0.299244088037808</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <v>0.267909061066309</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>0.248850344498952</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>0.233566655826568</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="1">
         <v>0.221337112394968</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="1">
         <v>0.212105247410138</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="1">
         <v>0.203590833536783</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="1">
         <v>0.19826012216409</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="1">
         <v>0.191577317714691</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="1">
         <v>0.183129559842745</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="1">
         <v>0.17900812729597</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="1">
         <v>0.173971315201123</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="1">
         <v>0.171730054910977</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="1">
         <v>0.166339011788368</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="1">
         <v>0.162124056911468</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="1">
         <v>0.158191696858406</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="1">
         <v>0.155154075998067</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="1">
         <v>0.152362087325255</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="1">
         <v>0.148582167613506</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="1">
         <v>0.148216303149859</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21" s="1">
         <v>0.143182238272825</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y21" s="1">
         <v>0.141561001459757</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="Z21" s="1">
         <v>0.139419853619734</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AA21" s="1">
         <v>0.139581497677167</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AB21" s="1">
         <v>0.131799477791786</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AC21" s="1">
         <v>0.132521422974268</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AD21" s="1">
         <v>0.13334634039402</v>
       </c>
-      <c r="AE21" s="4">
+      <c r="AE21" s="1">
         <v>0.130837482070922</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AF21" s="1">
         <v>0.12596418851614</v>
       </c>
-      <c r="AG21" s="4">
+      <c r="AG21" s="1">
         <v>0.125136953353881</v>
       </c>
-      <c r="AH21" s="4">
+      <c r="AH21" s="1">
         <v>0.122986862679322</v>
       </c>
-      <c r="AI21" s="4">
+      <c r="AI21" s="1">
         <v>0.121367871820926</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AJ21" s="1">
         <v>0.118709148510297</v>
       </c>
-      <c r="AK21" s="4">
+      <c r="AK21" s="1">
         <v>0.120467171581586</v>
       </c>
-      <c r="AL21" s="4">
+      <c r="AL21" s="1">
         <v>0.114832018045584</v>
       </c>
-      <c r="AM21" s="4">
+      <c r="AM21" s="1">
         <v>0.116367336936791</v>
       </c>
-      <c r="AN21" s="4">
+      <c r="AN21" s="1">
         <v>0.114665993944803</v>
       </c>
-      <c r="AO21" s="4">
+      <c r="AO21" s="1">
         <v>0.113019900941848</v>
       </c>
-      <c r="AP21" s="4">
+      <c r="AP21" s="1">
         <v>0.111965585601329</v>
       </c>
-      <c r="AQ21" s="4">
+      <c r="AQ21" s="1">
         <v>0.109588793118794</v>
       </c>
-      <c r="AR21" s="4">
+      <c r="AR21" s="1">
         <v>0.109269171067078</v>
       </c>
-      <c r="AS21" s="4">
+      <c r="AS21" s="1">
         <v>0.108673212626576</v>
       </c>
-      <c r="AT21" s="4">
+      <c r="AT21" s="1">
         <v>0.107038901714483</v>
       </c>
-      <c r="AU21" s="4">
+      <c r="AU21" s="1">
         <v>0.104391821845372</v>
       </c>
-      <c r="AV21" s="4">
+      <c r="AV21" s="1">
         <v>0.105583079572518</v>
       </c>
-      <c r="AW21" s="4">
+      <c r="AW21" s="1">
         <v>0.10216513299942</v>
       </c>
-      <c r="AX21" s="4">
+      <c r="AX21" s="1">
         <v>0.102433340855439</v>
       </c>
-      <c r="AY21" s="4">
+      <c r="AY21" s="1">
         <v>0.100291811406612</v>
       </c>
     </row>
     <row r="22" spans="1:51">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="1">
         <v>0.391152812099456</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <v>0.328501722812652</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <v>0.284014363729953</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="1">
         <v>0.310958634999394</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
         <v>0.266682648968696</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>0.28344696187973</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="1">
         <v>0.261895667052268</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="1">
         <v>0.251803664219379</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="1">
         <v>0.236586441862583</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="1">
         <v>0.260732250475883</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="1">
         <v>0.293349983668327</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="1">
         <v>0.267843900465965</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="1">
         <v>0.294493007326126</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="1">
         <v>0.245656244277954</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="1">
         <v>0.329097201991081</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="1">
         <v>0.261989333558082</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="1">
         <v>0.241099618735909</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="1">
         <v>0.277550703978538</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="1">
         <v>0.24482544350624</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="1">
         <v>0.227389179778099</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="1">
         <v>0.353107062387466</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22" s="1">
         <v>0.274535203468799</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X22" s="1">
         <v>0.240059327161312</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Y22" s="1">
         <v>0.275957761406898</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="Z22" s="1">
         <v>0.262386038827896</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AA22" s="1">
         <v>0.238738044595718</v>
       </c>
-      <c r="AB22" s="4">
+      <c r="AB22" s="1">
         <v>0.271596951150894</v>
       </c>
-      <c r="AC22" s="4">
+      <c r="AC22" s="1">
         <v>0.260056805640459</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AD22" s="1">
         <v>0.234382046294212</v>
       </c>
-      <c r="AE22" s="4">
+      <c r="AE22" s="1">
         <v>0.241273328375816</v>
       </c>
-      <c r="AF22" s="4">
+      <c r="AF22" s="1">
         <v>0.242459084558486</v>
       </c>
-      <c r="AG22" s="4">
+      <c r="AG22" s="1">
         <v>0.246659189510345</v>
       </c>
-      <c r="AH22" s="4">
+      <c r="AH22" s="1">
         <v>0.257462173739075</v>
       </c>
-      <c r="AI22" s="4">
+      <c r="AI22" s="1">
         <v>0.247434923398494</v>
       </c>
-      <c r="AJ22" s="4">
+      <c r="AJ22" s="1">
         <v>0.23863642104268</v>
       </c>
-      <c r="AK22" s="4">
+      <c r="AK22" s="1">
         <v>0.243848975509405</v>
       </c>
-      <c r="AL22" s="4">
+      <c r="AL22" s="1">
         <v>0.252331984186172</v>
       </c>
-      <c r="AM22" s="4">
+      <c r="AM22" s="1">
         <v>0.283690062308311</v>
       </c>
-      <c r="AN22" s="4">
+      <c r="AN22" s="1">
         <v>0.268833993291854</v>
       </c>
-      <c r="AO22" s="4">
+      <c r="AO22" s="1">
         <v>0.268493248462677</v>
       </c>
-      <c r="AP22" s="4">
+      <c r="AP22" s="1">
         <v>0.281989469897747</v>
       </c>
-      <c r="AQ22" s="4">
+      <c r="AQ22" s="1">
         <v>0.254544052606821</v>
       </c>
-      <c r="AR22" s="4">
+      <c r="AR22" s="1">
         <v>0.256377017211914</v>
       </c>
-      <c r="AS22" s="4">
+      <c r="AS22" s="1">
         <v>0.275990580785274</v>
       </c>
-      <c r="AT22" s="4">
+      <c r="AT22" s="1">
         <v>0.265968029797077</v>
       </c>
-      <c r="AU22" s="4">
+      <c r="AU22" s="1">
         <v>0.274508260405063</v>
       </c>
-      <c r="AV22" s="4">
+      <c r="AV22" s="1">
         <v>0.271892676463723</v>
       </c>
-      <c r="AW22" s="4">
+      <c r="AW22" s="1">
         <v>0.271156391978263</v>
       </c>
-      <c r="AX22" s="4">
+      <c r="AX22" s="1">
         <v>0.289101064425706</v>
       </c>
-      <c r="AY22" s="4">
+      <c r="AY22" s="1">
         <v>0.29245699878931</v>
       </c>
     </row>
     <row r="23" spans="1:51">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="1">
         <v>1.02799878689448</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <v>0.401867803748448</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <v>0.320547209771474</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="1">
         <v>0.286008615907033</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
         <v>0.262741144784291</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>0.249831272919972</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="1">
         <v>0.23522781791687</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="1">
         <v>0.226431346782048</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="1">
         <v>0.215852017577489</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="1">
         <v>0.21164857635498</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="1">
         <v>0.204995640103022</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="1">
         <v>0.196301728312174</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="1">
         <v>0.191196959018707</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="1">
         <v>0.186597364354133</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="1">
         <v>0.181289713096618</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="1">
         <v>0.179712397082646</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="1">
         <v>0.174610221306482</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="1">
         <v>0.169518848109245</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="1">
         <v>0.166704911768436</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="1">
         <v>0.162382291014989</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="1">
         <v>0.157660787765185</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W23" s="1">
         <v>0.158174981470902</v>
       </c>
-      <c r="X23" s="4">
+      <c r="X23" s="1">
         <v>0.153315177154541</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Y23" s="1">
         <v>0.151050765045483</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="Z23" s="1">
         <v>0.148959213606516</v>
       </c>
-      <c r="AA23" s="4">
+      <c r="AA23" s="1">
         <v>0.145224979837735</v>
       </c>
-      <c r="AB23" s="4">
+      <c r="AB23" s="1">
         <v>0.143597587045033</v>
       </c>
-      <c r="AC23" s="4">
+      <c r="AC23" s="1">
         <v>0.141130472596486</v>
       </c>
-      <c r="AD23" s="4">
+      <c r="AD23" s="1">
         <v>0.139067489894231</v>
       </c>
-      <c r="AE23" s="4">
+      <c r="AE23" s="1">
         <v>0.137126298717657</v>
       </c>
-      <c r="AF23" s="4">
+      <c r="AF23" s="1">
         <v>0.133236884570121</v>
       </c>
-      <c r="AG23" s="4">
+      <c r="AG23" s="1">
         <v>0.133424436767896</v>
       </c>
-      <c r="AH23" s="4">
+      <c r="AH23" s="1">
         <v>0.130651634220282</v>
       </c>
-      <c r="AI23" s="4">
+      <c r="AI23" s="1">
         <v>0.129640104993184</v>
       </c>
-      <c r="AJ23" s="4">
+      <c r="AJ23" s="1">
         <v>0.128598135062058</v>
       </c>
-      <c r="AK23" s="4">
+      <c r="AK23" s="1">
         <v>0.127077800003687</v>
       </c>
-      <c r="AL23" s="4">
+      <c r="AL23" s="1">
         <v>0.124393593271573</v>
       </c>
-      <c r="AM23" s="4">
+      <c r="AM23" s="1">
         <v>0.122356371430555</v>
       </c>
-      <c r="AN23" s="4">
+      <c r="AN23" s="1">
         <v>0.12213518983523</v>
       </c>
-      <c r="AO23" s="4">
+      <c r="AO23" s="1">
         <v>0.120739323862393</v>
       </c>
-      <c r="AP23" s="4">
+      <c r="AP23" s="1">
         <v>0.117945804429054</v>
       </c>
-      <c r="AQ23" s="4">
+      <c r="AQ23" s="1">
         <v>0.116152879138787</v>
       </c>
-      <c r="AR23" s="4">
+      <c r="AR23" s="1">
         <v>0.116941365639368</v>
       </c>
-      <c r="AS23" s="4">
+      <c r="AS23" s="1">
         <v>0.11550588846604</v>
       </c>
-      <c r="AT23" s="4">
+      <c r="AT23" s="1">
         <v>0.114052483109633</v>
       </c>
-      <c r="AU23" s="4">
+      <c r="AU23" s="1">
         <v>0.112046914800008</v>
       </c>
-      <c r="AV23" s="4">
+      <c r="AV23" s="1">
         <v>0.11302234853506</v>
       </c>
-      <c r="AW23" s="4">
+      <c r="AW23" s="1">
         <v>0.108481120479106</v>
       </c>
-      <c r="AX23" s="4">
+      <c r="AX23" s="1">
         <v>0.110827520183722</v>
       </c>
-      <c r="AY23" s="4">
+      <c r="AY23" s="1">
         <v>0.107589828515052</v>
       </c>
     </row>
     <row r="24" spans="1:51">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="1">
         <v>0.441569865822792</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="1">
         <v>0.322795869922637</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="1">
         <v>0.318363386559486</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="1">
         <v>0.344403296244144</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="1">
         <v>0.296870551359653</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>0.311171311926841</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="1">
         <v>0.27122028529644</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="1">
         <v>0.262883321714401</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="1">
         <v>0.265229669237136</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="1">
         <v>0.247582195699214</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="1">
         <v>0.253416470062732</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="1">
         <v>0.244911144775152</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="1">
         <v>0.272245948851108</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="1">
         <v>0.255219490766525</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="1">
         <v>0.258753859752416</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="1">
         <v>0.259786065268516</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="1">
         <v>0.28840812716484</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="1">
         <v>0.246110170412063</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="1">
         <v>0.246386298894882</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="1">
         <v>0.253371453309059</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="1">
         <v>0.288787944412231</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="1">
         <v>0.257545201051235</v>
       </c>
-      <c r="X24" s="4">
+      <c r="X24" s="1">
         <v>0.256788175606727</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="Y24" s="1">
         <v>0.245795844447612</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="Z24" s="1">
         <v>0.248693050134181</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AA24" s="1">
         <v>0.254656301116943</v>
       </c>
-      <c r="AB24" s="4">
+      <c r="AB24" s="1">
         <v>0.243517380523681</v>
       </c>
-      <c r="AC24" s="4">
+      <c r="AC24" s="1">
         <v>0.257689776921272</v>
       </c>
-      <c r="AD24" s="4">
+      <c r="AD24" s="1">
         <v>0.252376056730747</v>
       </c>
-      <c r="AE24" s="4">
+      <c r="AE24" s="1">
         <v>0.243278314912319</v>
       </c>
-      <c r="AF24" s="4">
+      <c r="AF24" s="1">
         <v>0.26495656735897</v>
       </c>
-      <c r="AG24" s="4">
+      <c r="AG24" s="1">
         <v>0.247523201322555</v>
       </c>
-      <c r="AH24" s="4">
+      <c r="AH24" s="1">
         <v>0.248003408670425</v>
       </c>
-      <c r="AI24" s="4">
+      <c r="AI24" s="1">
         <v>0.271670299863815</v>
       </c>
-      <c r="AJ24" s="4">
+      <c r="AJ24" s="1">
         <v>0.274507340693473</v>
       </c>
-      <c r="AK24" s="4">
+      <c r="AK24" s="1">
         <v>0.258940464019775</v>
       </c>
-      <c r="AL24" s="4">
+      <c r="AL24" s="1">
         <v>0.265075944709777</v>
       </c>
-      <c r="AM24" s="4">
+      <c r="AM24" s="1">
         <v>0.261922203564643</v>
       </c>
-      <c r="AN24" s="4">
+      <c r="AN24" s="1">
         <v>0.268595458269119</v>
       </c>
-      <c r="AO24" s="4">
+      <c r="AO24" s="1">
         <v>0.268579436969757</v>
       </c>
-      <c r="AP24" s="4">
+      <c r="AP24" s="1">
         <v>0.273842384147644</v>
       </c>
-      <c r="AQ24" s="4">
+      <c r="AQ24" s="1">
         <v>0.273160006093978</v>
       </c>
-      <c r="AR24" s="4">
+      <c r="AR24" s="1">
         <v>0.263888169264793</v>
       </c>
-      <c r="AS24" s="4">
+      <c r="AS24" s="1">
         <v>0.272575781989097</v>
       </c>
-      <c r="AT24" s="4">
+      <c r="AT24" s="1">
         <v>0.289609512472152</v>
       </c>
-      <c r="AU24" s="4">
+      <c r="AU24" s="1">
         <v>0.278856309318542</v>
       </c>
-      <c r="AV24" s="4">
+      <c r="AV24" s="1">
         <v>0.274244067859649</v>
       </c>
-      <c r="AW24" s="4">
+      <c r="AW24" s="1">
         <v>0.290604924535751</v>
       </c>
-      <c r="AX24" s="4">
+      <c r="AX24" s="1">
         <v>0.269328875494003</v>
       </c>
-      <c r="AY24" s="4">
+      <c r="AY24" s="1">
         <v>0.310408953523635</v>
       </c>
     </row>
     <row r="25" spans="1:51">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="1">
         <v>1.0515933532238</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <v>0.416073775863647</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="1">
         <v>0.322612968540191</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="1">
         <v>0.286318025128046</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="1">
         <v>0.262711742385228</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>0.249804650052388</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="1">
         <v>0.235423133659362</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="1">
         <v>0.224321205298105</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="1">
         <v>0.217192230757077</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="1">
         <v>0.210031608017285</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="1">
         <v>0.205127281268437</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="1">
         <v>0.195948470513025</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="1">
         <v>0.190338938101132</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="1">
         <v>0.184942614968617</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="1">
         <v>0.181771615338325</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="1">
         <v>0.176990741197268</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="1">
         <v>0.171178197844823</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="1">
         <v>0.167582498256365</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="1">
         <v>0.163893921852111</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="1">
         <v>0.16015898156166</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="1">
         <v>0.158676878456274</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25" s="1">
         <v>0.154723054552078</v>
       </c>
-      <c r="X25" s="4">
+      <c r="X25" s="1">
         <v>0.151325217950344</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="Y25" s="1">
         <v>0.149050072757403</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="Z25" s="1">
         <v>0.147191994869709</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AA25" s="1">
         <v>0.144389479239781</v>
       </c>
-      <c r="AB25" s="4">
+      <c r="AB25" s="1">
         <v>0.139491037758191</v>
       </c>
-      <c r="AC25" s="4">
+      <c r="AC25" s="1">
         <v>0.137159813666343</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AD25" s="1">
         <v>0.138938393123944</v>
       </c>
-      <c r="AE25" s="4">
+      <c r="AE25" s="1">
         <v>0.136442764743169</v>
       </c>
-      <c r="AF25" s="4">
+      <c r="AF25" s="1">
         <v>0.134166099441051</v>
       </c>
-      <c r="AG25" s="4">
+      <c r="AG25" s="1">
         <v>0.133531923071543</v>
       </c>
-      <c r="AH25" s="4">
+      <c r="AH25" s="1">
         <v>0.130488304138183</v>
       </c>
-      <c r="AI25" s="4">
+      <c r="AI25" s="1">
         <v>0.128471670134862</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AJ25" s="1">
         <v>0.126974367733796</v>
       </c>
-      <c r="AK25" s="4">
+      <c r="AK25" s="1">
         <v>0.124209770528475</v>
       </c>
-      <c r="AL25" s="4">
+      <c r="AL25" s="1">
         <v>0.122892544666926</v>
       </c>
-      <c r="AM25" s="4">
+      <c r="AM25" s="1">
         <v>0.123359184441963</v>
       </c>
-      <c r="AN25" s="4">
+      <c r="AN25" s="1">
         <v>0.11965637572209</v>
       </c>
-      <c r="AO25" s="4">
+      <c r="AO25" s="1">
         <v>0.118974817542235</v>
       </c>
-      <c r="AP25" s="4">
+      <c r="AP25" s="1">
         <v>0.117826968705654</v>
       </c>
-      <c r="AQ25" s="4">
+      <c r="AQ25" s="1">
         <v>0.116010854363441</v>
       </c>
-      <c r="AR25" s="4">
+      <c r="AR25" s="1">
         <v>0.115913024445374</v>
       </c>
-      <c r="AS25" s="4">
+      <c r="AS25" s="1">
         <v>0.112173313784599</v>
       </c>
-      <c r="AT25" s="4">
+      <c r="AT25" s="1">
         <v>0.114389134661356</v>
       </c>
-      <c r="AU25" s="4">
+      <c r="AU25" s="1">
         <v>0.112140438532829</v>
       </c>
-      <c r="AV25" s="4">
+      <c r="AV25" s="1">
         <v>0.111109942841529</v>
       </c>
-      <c r="AW25" s="4">
+      <c r="AW25" s="1">
         <v>0.109417592195669</v>
       </c>
-      <c r="AX25" s="4">
+      <c r="AX25" s="1">
         <v>0.108977059352397</v>
       </c>
-      <c r="AY25" s="4">
+      <c r="AY25" s="1">
         <v>0.108509019390741</v>
       </c>
     </row>
     <row r="26" spans="1:51">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="1">
         <v>0.524429015541076</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>0.498170726656913</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
         <v>0.350445669341087</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>0.340834458827972</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <v>0.314539247453212</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>0.285941640877723</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="1">
         <v>0.275274399971961</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="1">
         <v>0.255380696702003</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="1">
         <v>0.25380774154663</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="1">
         <v>0.27738645735979</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="1">
         <v>0.266792472362518</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="1">
         <v>0.249180888390541</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="1">
         <v>0.276980231583118</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="1">
         <v>0.243599526882171</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="1">
         <v>0.251127177071571</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="1">
         <v>0.260733140206337</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="1">
         <v>0.26323610010147</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="1">
         <v>0.242459902381896</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="1">
         <v>0.250415783178806</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="1">
         <v>0.245189916050434</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26" s="1">
         <v>0.263547227013111</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W26" s="1">
         <v>0.237980908584594</v>
       </c>
-      <c r="X26" s="4">
+      <c r="X26" s="1">
         <v>0.265980869483947</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Y26" s="1">
         <v>0.247974620115757</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="Z26" s="1">
         <v>0.253940218973159</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AA26" s="1">
         <v>0.246435532617568</v>
       </c>
-      <c r="AB26" s="4">
+      <c r="AB26" s="1">
         <v>0.254433000159263</v>
       </c>
-      <c r="AC26" s="4">
+      <c r="AC26" s="1">
         <v>0.241690546798706</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AD26" s="1">
         <v>0.250760031259059</v>
       </c>
-      <c r="AE26" s="4">
+      <c r="AE26" s="1">
         <v>0.250551012551784</v>
       </c>
-      <c r="AF26" s="4">
+      <c r="AF26" s="1">
         <v>0.276498556756973</v>
       </c>
-      <c r="AG26" s="4">
+      <c r="AG26" s="1">
         <v>0.251583599591255</v>
       </c>
-      <c r="AH26" s="4">
+      <c r="AH26" s="1">
         <v>0.248855532717704</v>
       </c>
-      <c r="AI26" s="4">
+      <c r="AI26" s="1">
         <v>0.262592217671871</v>
       </c>
-      <c r="AJ26" s="4">
+      <c r="AJ26" s="1">
         <v>0.26537645522356</v>
       </c>
-      <c r="AK26" s="4">
+      <c r="AK26" s="1">
         <v>0.276404155731201</v>
       </c>
-      <c r="AL26" s="4">
+      <c r="AL26" s="1">
         <v>0.265192919707298</v>
       </c>
-      <c r="AM26" s="4">
+      <c r="AM26" s="1">
         <v>0.26325847158432</v>
       </c>
-      <c r="AN26" s="4">
+      <c r="AN26" s="1">
         <v>0.279745690631866</v>
       </c>
-      <c r="AO26" s="4">
+      <c r="AO26" s="1">
         <v>0.267047189807891</v>
       </c>
-      <c r="AP26" s="4">
+      <c r="AP26" s="1">
         <v>0.274918732619285</v>
       </c>
-      <c r="AQ26" s="4">
+      <c r="AQ26" s="1">
         <v>0.272332732284069</v>
       </c>
-      <c r="AR26" s="4">
+      <c r="AR26" s="1">
         <v>0.280386090254783</v>
       </c>
-      <c r="AS26" s="4">
+      <c r="AS26" s="1">
         <v>0.287169467306137</v>
       </c>
-      <c r="AT26" s="4">
+      <c r="AT26" s="1">
         <v>0.307497146344184</v>
       </c>
-      <c r="AU26" s="4">
+      <c r="AU26" s="1">
         <v>0.272717739239335</v>
       </c>
-      <c r="AV26" s="4">
+      <c r="AV26" s="1">
         <v>0.287977176666259</v>
       </c>
-      <c r="AW26" s="4">
+      <c r="AW26" s="1">
         <v>0.283336230421066</v>
       </c>
-      <c r="AX26" s="4">
+      <c r="AX26" s="1">
         <v>0.271944525623321</v>
       </c>
-      <c r="AY26" s="4">
+      <c r="AY26" s="1">
         <v>0.305314979791641</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -19974,161 +19966,161 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="51" width="6.75" style="4" customWidth="1"/>
+    <col min="2" max="51" width="6.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:51">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>0.825933333301544</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>0.886633333333333</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>0.902933333365122</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>0.911233333333333</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0.918716666666666</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>0.922300000031789</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="1">
         <v>0.92624999996821</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="1">
         <v>0.930450000031789</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>0.933733333301544</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="1">
         <v>0.934616666666666</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="1">
         <v>0.937066666634877</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="1">
         <v>0.940416666698455</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="1">
         <v>0.941483333301544</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="1">
         <v>0.94394999996821</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="1">
         <v>0.944983333365122</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="1">
         <v>0.946483333301544</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="1">
         <v>0.947316666666666</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="1">
         <v>0.949533333365122</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="1">
         <v>0.950166666666666</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="1">
         <v>0.952083333301544</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="1">
         <v>0.952583333365122</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="1">
         <v>0.954183333301544</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="1">
         <v>0.953916666634877</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="1">
         <v>0.955966666634877</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="1">
         <v>0.955833333333333</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="1">
         <v>0.956800000031789</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="1">
         <v>0.959283333365122</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="1">
         <v>0.95959999996821</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="1">
         <v>0.9599</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2" s="1">
         <v>0.959350000031789</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="1">
         <v>0.9614</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="1">
         <v>0.96129999996821</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="1">
         <v>0.962533333301544</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="1">
         <v>0.962116666634877</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AJ2" s="1">
         <v>0.962683333365122</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AK2" s="1">
         <v>0.964133333365122</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AL2" s="1">
         <v>0.966</v>
       </c>
-      <c r="AM2" s="4">
+      <c r="AM2" s="1">
         <v>0.965483333365122</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AN2" s="1">
         <v>0.96504999996821</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AO2" s="1">
         <v>0.965416666666666</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AP2" s="1">
         <v>0.967566666634877</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AQ2" s="1">
         <v>0.966783333365122</v>
       </c>
-      <c r="AR2" s="4">
+      <c r="AR2" s="1">
         <v>0.96759999996821</v>
       </c>
-      <c r="AS2" s="4">
+      <c r="AS2" s="1">
         <v>0.969033333365122</v>
       </c>
-      <c r="AT2" s="4">
+      <c r="AT2" s="1">
         <v>0.96784999996821</v>
       </c>
-      <c r="AU2" s="4">
+      <c r="AU2" s="1">
         <v>0.968366666698455</v>
       </c>
-      <c r="AV2" s="4">
+      <c r="AV2" s="1">
         <v>0.968333333333333</v>
       </c>
-      <c r="AW2" s="4">
+      <c r="AW2" s="1">
         <v>0.969250000031789</v>
       </c>
-      <c r="AX2" s="4">
+      <c r="AX2" s="1">
         <v>0.969516666698455</v>
       </c>
-      <c r="AY2" s="4">
+      <c r="AY2" s="1">
         <v>0.970950000031789</v>
       </c>
     </row>
@@ -20136,154 +20128,154 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>0.8591</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>0.889</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>0.9076</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>0.9162</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>0.915</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>0.9158</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1">
         <v>0.9266</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="1">
         <v>0.9087</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>0.9274</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="1">
         <v>0.912</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="1">
         <v>0.9163</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="1">
         <v>0.928</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="1">
         <v>0.9246</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="1">
         <v>0.9299</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="1">
         <v>0.9317</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="1">
         <v>0.9269</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="1">
         <v>0.932</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="1">
         <v>0.9342</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="1">
         <v>0.9352</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="1">
         <v>0.9315</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="1">
         <v>0.9298</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="1">
         <v>0.9359</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="1">
         <v>0.9359</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="1">
         <v>0.9356</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="1">
         <v>0.9346</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="1">
         <v>0.9315</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB3" s="1">
         <v>0.9346</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="1">
         <v>0.9358</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3" s="1">
         <v>0.9354</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE3" s="1">
         <v>0.9371</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="1">
         <v>0.9327</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AG3" s="1">
         <v>0.9374</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AH3" s="1">
         <v>0.9356</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AI3" s="1">
         <v>0.9373</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AJ3" s="1">
         <v>0.9341</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AK3" s="1">
         <v>0.9343</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AL3" s="1">
         <v>0.9348</v>
       </c>
-      <c r="AM3" s="4">
+      <c r="AM3" s="1">
         <v>0.9362</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AN3" s="1">
         <v>0.936</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AO3" s="1">
         <v>0.9354</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AP3" s="1">
         <v>0.9374</v>
       </c>
-      <c r="AQ3" s="4">
+      <c r="AQ3" s="1">
         <v>0.9357</v>
       </c>
-      <c r="AR3" s="4">
+      <c r="AR3" s="1">
         <v>0.934</v>
       </c>
-      <c r="AS3" s="4">
+      <c r="AS3" s="1">
         <v>0.9359</v>
       </c>
-      <c r="AT3" s="4">
+      <c r="AT3" s="1">
         <v>0.9341</v>
       </c>
-      <c r="AU3" s="4">
+      <c r="AU3" s="1">
         <v>0.936</v>
       </c>
-      <c r="AV3" s="4">
+      <c r="AV3" s="1">
         <v>0.9375</v>
       </c>
-      <c r="AW3" s="4">
+      <c r="AW3" s="1">
         <v>0.9371</v>
       </c>
-      <c r="AX3" s="4">
+      <c r="AX3" s="1">
         <v>0.9345</v>
       </c>
-      <c r="AY3" s="4">
+      <c r="AY3" s="1">
         <v>0.9268</v>
       </c>
     </row>
@@ -20291,154 +20283,154 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>0.816516666634877</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>0.883900000031789</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>0.900966666698455</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>0.910316666698455</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0.91665</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>0.920066666666666</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>0.9243</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="1">
         <v>0.9279</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="1">
         <v>0.931150000031789</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="1">
         <v>0.931550000031789</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1">
         <v>0.935416666666666</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="1">
         <v>0.937216666666666</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="1">
         <v>0.939216666698455</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="1">
         <v>0.942016666634877</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="1">
         <v>0.942833333301544</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="1">
         <v>0.943266666698455</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="1">
         <v>0.944933333333333</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="1">
         <v>0.946650000031789</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="1">
         <v>0.948533333301544</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="1">
         <v>0.950866666666666</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="1">
         <v>0.951133333365122</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="1">
         <v>0.951283333333333</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="1">
         <v>0.952833333333333</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="1">
         <v>0.952516666666666</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="1">
         <v>0.954516666666666</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="1">
         <v>0.95484999996821</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AB4" s="1">
         <v>0.956250000031789</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="1">
         <v>0.956983333333333</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4" s="1">
         <v>0.958100000031789</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AE4" s="1">
         <v>0.95814999996821</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="1">
         <v>0.959133333301544</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AG4" s="1">
         <v>0.958466666698455</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AH4" s="1">
         <v>0.959816666698455</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AI4" s="1">
         <v>0.960566666698455</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AJ4" s="1">
         <v>0.961833333333333</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AK4" s="1">
         <v>0.961850000031789</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AL4" s="1">
         <v>0.9629</v>
       </c>
-      <c r="AM4" s="4">
+      <c r="AM4" s="1">
         <v>0.963083333333333</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AN4" s="1">
         <v>0.96309999996821</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AO4" s="1">
         <v>0.963533333301544</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AP4" s="1">
         <v>0.964833333301544</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AQ4" s="1">
         <v>0.964266666634877</v>
       </c>
-      <c r="AR4" s="4">
+      <c r="AR4" s="1">
         <v>0.965566666634877</v>
       </c>
-      <c r="AS4" s="4">
+      <c r="AS4" s="1">
         <v>0.966733333301544</v>
       </c>
-      <c r="AT4" s="4">
+      <c r="AT4" s="1">
         <v>0.965683333301544</v>
       </c>
-      <c r="AU4" s="4">
+      <c r="AU4" s="1">
         <v>0.96569999996821</v>
       </c>
-      <c r="AV4" s="4">
+      <c r="AV4" s="1">
         <v>0.966616666666666</v>
       </c>
-      <c r="AW4" s="4">
+      <c r="AW4" s="1">
         <v>0.967416666634877</v>
       </c>
-      <c r="AX4" s="4">
+      <c r="AX4" s="1">
         <v>0.967216666666666</v>
       </c>
-      <c r="AY4" s="4">
+      <c r="AY4" s="1">
         <v>0.968416666666666</v>
       </c>
     </row>
@@ -20446,154 +20438,154 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>0.8798</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>0.8766</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>0.9008</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>0.9064</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0.9192</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>0.9083</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>0.9214</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="1">
         <v>0.9214</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="1">
         <v>0.9292</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>0.9201</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <v>0.925</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="1">
         <v>0.9272</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="1">
         <v>0.9171</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="1">
         <v>0.9304</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="1">
         <v>0.9221</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="1">
         <v>0.9305</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="1">
         <v>0.9311</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="1">
         <v>0.9299</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="1">
         <v>0.9327</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="1">
         <v>0.9229</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="1">
         <v>0.9318</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="1">
         <v>0.9326</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="1">
         <v>0.9324</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="1">
         <v>0.9316</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="1">
         <v>0.9332</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="1">
         <v>0.9318</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB5" s="1">
         <v>0.9317</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="1">
         <v>0.9309</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD5" s="1">
         <v>0.9354</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5" s="1">
         <v>0.9341</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5" s="1">
         <v>0.9315</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AG5" s="1">
         <v>0.931</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH5" s="1">
         <v>0.9337</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI5" s="1">
         <v>0.9318</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AJ5" s="1">
         <v>0.9354</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AK5" s="1">
         <v>0.9349</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AL5" s="1">
         <v>0.9326</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AM5" s="1">
         <v>0.9337</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AN5" s="1">
         <v>0.9343</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AO5" s="1">
         <v>0.9343</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AP5" s="1">
         <v>0.9331</v>
       </c>
-      <c r="AQ5" s="4">
+      <c r="AQ5" s="1">
         <v>0.9334</v>
       </c>
-      <c r="AR5" s="4">
+      <c r="AR5" s="1">
         <v>0.9369</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="AS5" s="1">
         <v>0.9351</v>
       </c>
-      <c r="AT5" s="4">
+      <c r="AT5" s="1">
         <v>0.9327</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AU5" s="1">
         <v>0.9351</v>
       </c>
-      <c r="AV5" s="4">
+      <c r="AV5" s="1">
         <v>0.9377</v>
       </c>
-      <c r="AW5" s="4">
+      <c r="AW5" s="1">
         <v>0.9359</v>
       </c>
-      <c r="AX5" s="4">
+      <c r="AX5" s="1">
         <v>0.9252</v>
       </c>
-      <c r="AY5" s="4">
+      <c r="AY5" s="1">
         <v>0.936</v>
       </c>
     </row>
@@ -20601,154 +20593,154 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>0.890166666666666</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>0.9373</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>0.949461666666666</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>0.957413333333333</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0.962416666666666</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>0.965908333333333</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>0.969228333333333</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <v>0.971611666666666</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <v>0.973346666666666</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>0.97525</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>0.97615</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="1">
         <v>0.977738333333333</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="1">
         <v>0.978676666666666</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="1">
         <v>0.979346666666666</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="1">
         <v>0.980185</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="1">
         <v>0.980925</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="1">
         <v>0.981656666666666</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="1">
         <v>0.982031666666666</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="1">
         <v>0.982836666666666</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="1">
         <v>0.983275</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="1">
         <v>0.98354</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="1">
         <v>0.984136666666666</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="1">
         <v>0.984308333333333</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="1">
         <v>0.984733333333333</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="1">
         <v>0.985136666666666</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="1">
         <v>0.985445</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB6" s="1">
         <v>0.98586</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC6" s="1">
         <v>0.986211666666666</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD6" s="1">
         <v>0.986205</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AE6" s="1">
         <v>0.986523333333333</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF6" s="1">
         <v>0.986935</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG6" s="1">
         <v>0.987226666666666</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH6" s="1">
         <v>0.98735</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AI6" s="1">
         <v>0.987425</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AJ6" s="1">
         <v>0.987956666666666</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AK6" s="1">
         <v>0.987691666666666</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AL6" s="1">
         <v>0.98811</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AM6" s="1">
         <v>0.988068333333333</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AN6" s="1">
         <v>0.988126666666666</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AO6" s="1">
         <v>0.98868</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AP6" s="1">
         <v>0.988725</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AQ6" s="1">
         <v>0.988781666666666</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AR6" s="1">
         <v>0.989183333333333</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AS6" s="1">
         <v>0.989108333333333</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AT6" s="1">
         <v>0.9892</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="AU6" s="1">
         <v>0.989451666666666</v>
       </c>
-      <c r="AV6" s="4">
+      <c r="AV6" s="1">
         <v>0.98958</v>
       </c>
-      <c r="AW6" s="4">
+      <c r="AW6" s="1">
         <v>0.98966</v>
       </c>
-      <c r="AX6" s="4">
+      <c r="AX6" s="1">
         <v>0.989668333333333</v>
       </c>
-      <c r="AY6" s="4">
+      <c r="AY6" s="1">
         <v>0.989671666666666</v>
       </c>
     </row>
@@ -20756,329 +20748,329 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>0.9244</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>0.9305</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>0.9309</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>0.9367</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0.9368</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>0.9382</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>0.9381</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>0.9389</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>0.939</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>0.9393</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>0.9398</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="1">
         <v>0.9405</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="1">
         <v>0.9397</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="1">
         <v>0.9421</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="1">
         <v>0.9375</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="1">
         <v>0.9394</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="1">
         <v>0.9404</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="1">
         <v>0.9413</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="1">
         <v>0.9406</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="1">
         <v>0.9402</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="1">
         <v>0.9408</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="1">
         <v>0.9399</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="1">
         <v>0.9394</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="1">
         <v>0.9404</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="1">
         <v>0.9406</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="1">
         <v>0.9383</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7" s="1">
         <v>0.9397</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="1">
         <v>0.94</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="1">
         <v>0.94</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AE7" s="1">
         <v>0.9405</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AF7" s="1">
         <v>0.9397</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AG7" s="1">
         <v>0.9409</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AH7" s="1">
         <v>0.9404</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AI7" s="1">
         <v>0.9411</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AJ7" s="1">
         <v>0.9396</v>
       </c>
-      <c r="AK7" s="4">
+      <c r="AK7" s="1">
         <v>0.939</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AL7" s="1">
         <v>0.9395</v>
       </c>
-      <c r="AM7" s="4">
+      <c r="AM7" s="1">
         <v>0.9407</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AN7" s="1">
         <v>0.9406</v>
       </c>
-      <c r="AO7" s="4">
+      <c r="AO7" s="1">
         <v>0.9417</v>
       </c>
-      <c r="AP7" s="4">
+      <c r="AP7" s="1">
         <v>0.9402</v>
       </c>
-      <c r="AQ7" s="4">
+      <c r="AQ7" s="1">
         <v>0.9403</v>
       </c>
-      <c r="AR7" s="4">
+      <c r="AR7" s="1">
         <v>0.9407</v>
       </c>
-      <c r="AS7" s="4">
+      <c r="AS7" s="1">
         <v>0.9392</v>
       </c>
-      <c r="AT7" s="4">
+      <c r="AT7" s="1">
         <v>0.9407</v>
       </c>
-      <c r="AU7" s="4">
+      <c r="AU7" s="1">
         <v>0.9398</v>
       </c>
-      <c r="AV7" s="4">
+      <c r="AV7" s="1">
         <v>0.9401</v>
       </c>
-      <c r="AW7" s="4">
+      <c r="AW7" s="1">
         <v>0.9385</v>
       </c>
-      <c r="AX7" s="4">
+      <c r="AX7" s="1">
         <v>0.9392</v>
       </c>
-      <c r="AY7" s="4">
+      <c r="AY7" s="1">
         <v>0.9397</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -21100,161 +21092,161 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="51" width="5.625" style="4" customWidth="1"/>
+    <col min="2" max="51" width="5.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
       <c r="A1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="1">
         <v>0.822983333365122</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="1">
         <v>0.888183333365122</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="1">
         <v>0.903333333301544</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="1">
         <v>0.913233333301544</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="1">
         <v>0.919683333365122</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="1">
         <v>0.924883333365122</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="1">
         <v>0.928483333365122</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="1">
         <v>0.933016666634877</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="1">
         <v>0.935100000031789</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="1">
         <v>0.938066666666666</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="1">
         <v>0.93975</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="1">
         <v>0.94325</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="1">
         <v>0.945133333333333</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="1">
         <v>0.947216666666666</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="1">
         <v>0.948583333333333</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="1">
         <v>0.949833333333333</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="1">
         <v>0.951283333301544</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="1">
         <v>0.953366666634877</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="1">
         <v>0.955000000031789</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="1">
         <v>0.956133333333333</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="1">
         <v>0.958633333333333</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="1">
         <v>0.95949999996821</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1" s="1">
         <v>0.95984999996821</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="1">
         <v>0.961783333301544</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1" s="1">
         <v>0.962816666634877</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1" s="1">
         <v>0.965083333301544</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="1">
         <v>0.965166666698455</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1" s="1">
         <v>0.965883333333333</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1" s="1">
         <v>0.967016666666666</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1" s="1">
         <v>0.967783333333333</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="1">
         <v>0.968366666634877</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1" s="1">
         <v>0.968600000031789</v>
       </c>
-      <c r="AH1" s="4">
+      <c r="AH1" s="1">
         <v>0.970333333301544</v>
       </c>
-      <c r="AI1" s="4">
+      <c r="AI1" s="1">
         <v>0.970083333365122</v>
       </c>
-      <c r="AJ1" s="4">
+      <c r="AJ1" s="1">
         <v>0.971983333333333</v>
       </c>
-      <c r="AK1" s="4">
+      <c r="AK1" s="1">
         <v>0.97215</v>
       </c>
-      <c r="AL1" s="4">
+      <c r="AL1" s="1">
         <v>0.97264999996821</v>
       </c>
-      <c r="AM1" s="4">
+      <c r="AM1" s="1">
         <v>0.974783333301544</v>
       </c>
-      <c r="AN1" s="4">
+      <c r="AN1" s="1">
         <v>0.973983333333333</v>
       </c>
-      <c r="AO1" s="4">
+      <c r="AO1" s="1">
         <v>0.974716666634877</v>
       </c>
-      <c r="AP1" s="4">
+      <c r="AP1" s="1">
         <v>0.976333333301544</v>
       </c>
-      <c r="AQ1" s="4">
+      <c r="AQ1" s="1">
         <v>0.97639999996821</v>
       </c>
-      <c r="AR1" s="4">
+      <c r="AR1" s="1">
         <v>0.97615</v>
       </c>
-      <c r="AS1" s="4">
+      <c r="AS1" s="1">
         <v>0.977116666634877</v>
       </c>
-      <c r="AT1" s="4">
+      <c r="AT1" s="1">
         <v>0.977116666698455</v>
       </c>
-      <c r="AU1" s="4">
+      <c r="AU1" s="1">
         <v>0.977900000031789</v>
       </c>
-      <c r="AV1" s="4">
+      <c r="AV1" s="1">
         <v>0.9788</v>
       </c>
-      <c r="AW1" s="4">
+      <c r="AW1" s="1">
         <v>0.979583333301544</v>
       </c>
-      <c r="AX1" s="4">
+      <c r="AX1" s="1">
         <v>0.9791</v>
       </c>
-      <c r="AY1" s="4">
+      <c r="AY1" s="1">
         <v>0.98094999996821</v>
       </c>
     </row>
@@ -21262,699 +21254,699 @@
       <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>0.8617</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>0.8887</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>0.9032</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>0.9174</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0.9192</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>0.9178</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="1">
         <v>0.9185</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="1">
         <v>0.8979</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>0.9271</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="1">
         <v>0.9298</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="1">
         <v>0.9306</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="1">
         <v>0.9263</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="1">
         <v>0.9297</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="1">
         <v>0.9333</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="1">
         <v>0.9321</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="1">
         <v>0.9364</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="1">
         <v>0.9345</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="1">
         <v>0.9321</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="1">
         <v>0.9357</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="1">
         <v>0.9273</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="1">
         <v>0.934</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="1">
         <v>0.9374</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="1">
         <v>0.9369</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="1">
         <v>0.9395</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="1">
         <v>0.9366</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="1">
         <v>0.9373</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="1">
         <v>0.9351</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="1">
         <v>0.9315</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="1">
         <v>0.9351</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2" s="1">
         <v>0.9355</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="1">
         <v>0.9391</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="1">
         <v>0.9237</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="1">
         <v>0.936</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="1">
         <v>0.9391</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AJ2" s="1">
         <v>0.9389</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AK2" s="1">
         <v>0.9381</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AL2" s="1">
         <v>0.9392</v>
       </c>
-      <c r="AM2" s="4">
+      <c r="AM2" s="1">
         <v>0.9399</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AN2" s="1">
         <v>0.9395</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AO2" s="1">
         <v>0.9397</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AP2" s="1">
         <v>0.9408</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AQ2" s="1">
         <v>0.9407</v>
       </c>
-      <c r="AR2" s="4">
+      <c r="AR2" s="1">
         <v>0.9396</v>
       </c>
-      <c r="AS2" s="4">
+      <c r="AS2" s="1">
         <v>0.94</v>
       </c>
-      <c r="AT2" s="4">
+      <c r="AT2" s="1">
         <v>0.9402</v>
       </c>
-      <c r="AU2" s="4">
+      <c r="AU2" s="1">
         <v>0.9379</v>
       </c>
-      <c r="AV2" s="4">
+      <c r="AV2" s="1">
         <v>0.9383</v>
       </c>
-      <c r="AW2" s="4">
+      <c r="AW2" s="1">
         <v>0.9354</v>
       </c>
-      <c r="AX2" s="4">
+      <c r="AX2" s="1">
         <v>0.9426</v>
       </c>
-      <c r="AY2" s="4">
+      <c r="AY2" s="1">
         <v>0.9391</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="1">
         <v>0.89</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="1">
         <v>0.9</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="1">
         <v>0.89</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>0.98</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <v>0.99</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="4">
+      <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="1">
         <v>0.91</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="1">
         <v>0.92</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="1">
         <v>0.91</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="1">
         <v>0.93</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="1">
         <v>0.95</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="1">
         <v>0.94</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="4">
+      <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="1">
         <v>0.92</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="1">
         <v>0.91</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="1">
         <v>0.91</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="30" spans="3:7">
-      <c r="C30" s="4">
+      <c r="C30" s="1">
         <v>5</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="1">
         <v>0.99</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="1">
         <v>0.98</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="1">
         <v>0.99</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="4">
+      <c r="C31" s="1">
         <v>6</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="1">
         <v>0.83</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="1">
         <v>0.82</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="1">
         <v>0.82</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="32" spans="3:7">
-      <c r="C32" s="4">
+      <c r="C32" s="1">
         <v>7</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="1">
         <v>0.96</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="1">
         <v>0.99</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="1">
         <v>0.97</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="4">
+      <c r="C33" s="1">
         <v>8</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="1">
         <v>0.99</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="1">
         <v>0.99</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="1">
         <v>0.99</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="4">
+      <c r="C34" s="1">
         <v>9</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="1">
         <v>0.98</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="1">
         <v>0.96</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="1">
         <v>0.97</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="3:7">
-      <c r="C62" s="4">
+      <c r="C62" s="1">
         <v>0</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="1">
         <v>0.92</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="1">
         <v>0.88</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="1">
         <v>0.9</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="63" spans="3:7">
-      <c r="C63" s="4">
+      <c r="C63" s="1">
         <v>1</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="1">
         <v>1</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="1">
         <v>0.99</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="1">
         <v>1</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="64" spans="3:7">
-      <c r="C64" s="4">
+      <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="1">
         <v>0.93</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="1">
         <v>0.91</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="1">
         <v>0.92</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="65" spans="3:7">
-      <c r="C65" s="4">
+      <c r="C65" s="1">
         <v>3</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="1">
         <v>0.95</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="1">
         <v>0.95</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="1">
         <v>0.95</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="4">
+      <c r="C66" s="1">
         <v>4</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="1">
         <v>0.92</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="1">
         <v>0.93</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="1">
         <v>0.93</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="67" spans="3:7">
-      <c r="C67" s="4">
+      <c r="C67" s="1">
         <v>5</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="1">
         <v>0.98</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="1">
         <v>1</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="1">
         <v>0.99</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="68" spans="3:7">
-      <c r="C68" s="4">
+      <c r="C68" s="1">
         <v>6</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="1">
         <v>0.83</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="1">
         <v>0.86</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="1">
         <v>0.84</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="69" spans="3:7">
-      <c r="C69" s="4">
+      <c r="C69" s="1">
         <v>7</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="1">
         <v>0.97</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="1">
         <v>0.98</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="1">
         <v>0.97</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="70" spans="3:7">
-      <c r="C70" s="4">
+      <c r="C70" s="1">
         <v>8</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="1">
         <v>0.99</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="1">
         <v>1</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="1">
         <v>0.99</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="71" spans="3:7">
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <v>9</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="1">
         <v>0.99</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="1">
         <v>0.96</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="1">
         <v>0.98</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -23294,7 +23286,7 @@
   <sheetPr/>
   <dimension ref="A11:AY305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
       <selection activeCell="T333" sqref="T333"/>
     </sheetView>
   </sheetViews>
@@ -23312,774 +23304,774 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="1" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="1" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="1" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="1" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="1" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="1" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="1" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="1" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="1" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="1" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="1" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="1" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="1" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="170" spans="2:2">
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="1" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="1" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="1" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="1" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -24702,7 +24694,7 @@
       </c>
     </row>
     <row r="256" spans="1:51">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B256" s="1">
@@ -24857,7 +24849,7 @@
       </c>
     </row>
     <row r="257" spans="1:51">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B257" s="1">
@@ -25012,7 +25004,7 @@
       </c>
     </row>
     <row r="258" spans="1:51">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B258" s="1">
@@ -25167,7 +25159,7 @@
       </c>
     </row>
     <row r="259" spans="1:51">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B259" s="1">
@@ -25322,7 +25314,7 @@
       </c>
     </row>
     <row r="260" spans="1:51">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B260" s="1">
@@ -25477,7 +25469,7 @@
       </c>
     </row>
     <row r="261" spans="1:51">
-      <c r="A261" s="4" t="s">
+      <c r="A261" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B261" s="1">
@@ -25632,7 +25624,7 @@
       </c>
     </row>
     <row r="262" spans="1:51">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B262" s="1">
@@ -25787,7 +25779,7 @@
       </c>
     </row>
     <row r="263" spans="1:51">
-      <c r="A263" s="4" t="s">
+      <c r="A263" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B263" s="1">
@@ -25942,7 +25934,7 @@
       </c>
     </row>
     <row r="264" spans="1:51">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B264" s="1">
@@ -26410,7 +26402,7 @@
       <c r="A296" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B296" s="4">
+      <c r="B296" s="1">
         <v>0.502596356322368</v>
       </c>
       <c r="C296" s="1">
@@ -26562,10 +26554,10 @@
       </c>
     </row>
     <row r="297" spans="1:51">
-      <c r="A297" s="4" t="s">
+      <c r="A297" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B297" s="4">
+      <c r="B297" s="1">
         <v>0.334376435875892</v>
       </c>
       <c r="C297" s="1">
@@ -26717,10 +26709,10 @@
       </c>
     </row>
     <row r="298" spans="1:51">
-      <c r="A298" s="4" t="s">
+      <c r="A298" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B298" s="4">
+      <c r="B298" s="1">
         <v>0.500502558946609</v>
       </c>
       <c r="C298" s="1">
@@ -26872,10 +26864,10 @@
       </c>
     </row>
     <row r="299" spans="1:51">
-      <c r="A299" s="4" t="s">
+      <c r="A299" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B299" s="4">
+      <c r="B299" s="1">
         <v>0.339187388867139</v>
       </c>
       <c r="C299" s="1">
@@ -27027,10 +27019,10 @@
       </c>
     </row>
     <row r="300" spans="1:51">
-      <c r="A300" s="4" t="s">
+      <c r="A300" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B300" s="4">
+      <c r="B300" s="1">
         <v>0.503795140186945</v>
       </c>
       <c r="C300" s="1">
@@ -27182,10 +27174,10 @@
       </c>
     </row>
     <row r="301" spans="1:51">
-      <c r="A301" s="4" t="s">
+      <c r="A301" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B301" s="4">
+      <c r="B301" s="1">
         <v>0.358156571239233</v>
       </c>
       <c r="C301" s="1">
@@ -27337,10 +27329,10 @@
       </c>
     </row>
     <row r="302" spans="1:51">
-      <c r="A302" s="4" t="s">
+      <c r="A302" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B302" s="4">
+      <c r="B302" s="1">
         <v>0.503329820434252</v>
       </c>
       <c r="C302" s="1">
@@ -27492,10 +27484,10 @@
       </c>
     </row>
     <row r="303" spans="1:51">
-      <c r="A303" s="4" t="s">
+      <c r="A303" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B303" s="4">
+      <c r="B303" s="1">
         <v>0.329001552760601</v>
       </c>
       <c r="C303" s="1">
@@ -27647,10 +27639,10 @@
       </c>
     </row>
     <row r="304" spans="1:51">
-      <c r="A304" s="4" t="s">
+      <c r="A304" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B304" s="4">
+      <c r="B304" s="1">
         <v>0.501220333601037</v>
       </c>
       <c r="C304" s="1">
@@ -27802,10 +27794,10 @@
       </c>
     </row>
     <row r="305" spans="1:51">
-      <c r="A305" s="4" t="s">
+      <c r="A305" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B305" s="4">
+      <c r="B305" s="1">
         <v>0.315558073818683</v>
       </c>
       <c r="C305" s="1">

--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -1090,9 +1090,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1139,14 +1139,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,23 +1176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1184,6 +1186,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,9 +1213,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1219,50 +1259,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1274,11 +1275,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1291,7 +1291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,7 +1303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,13 +1321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,7 +1339,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,73 +1375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,13 +1399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,13 +1411,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,6 +1485,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1503,23 +1512,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1539,22 +1544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1578,7 +1578,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1593,7 +1593,7 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1605,130 +1605,130 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16491,15 +16491,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>307</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>20955</xdr:colOff>
       <xdr:row>336</xdr:row>
-      <xdr:rowOff>137795</xdr:rowOff>
+      <xdr:rowOff>128270</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16507,7 +16507,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="631825" y="52705000"/>
+        <a:off x="622300" y="52695475"/>
         <a:ext cx="8999855" cy="5039995"/>
       </xdr:xfrm>
       <a:graphic>
@@ -23287,7 +23287,7 @@
   <dimension ref="A11:AY305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="T333" sqref="T333"/>
+      <selection activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24270" windowHeight="12465" activeTab="7"/>
+    <workbookView windowWidth="24270" windowHeight="12465" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SphereFace" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="K=8" sheetId="6" r:id="rId6"/>
     <sheet name="Embedding" sheetId="7" r:id="rId7"/>
     <sheet name="Optimizers" sheetId="8" r:id="rId8"/>
+    <sheet name="Kernel" sheetId="9" r:id="rId9"/>
+    <sheet name="Kernels" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="624">
   <si>
     <t>acc-m=2</t>
   </si>
@@ -1107,6 +1109,792 @@
   </si>
   <si>
     <t>val_loss_adamax</t>
+  </si>
+  <si>
+    <t>Nadam</t>
+  </si>
+  <si>
+    <t>Epoch 00050: val_acc did not improve from 0.93930</t>
+  </si>
+  <si>
+    <t>[0.8383166648757955, 0.8939999997615814, 0.9068666675686836, 0.9145833344260852, 0.9184666688243548, 0.9215333357453346, 0.9259166679779689, 0.9273000015815099, 0.9313666676481565, 0.9337666696310043, 0.9368000025550525, 0.9374666685859362, 0.9400000010927518, 0.9417000022530556, 0.9440166682004929, 0.9437166677912077, 0.9469833353161812, 0.9475166669487953, 0.9474166685342789, 0.9489333346486092, 0.9513666680455208, 0.9512500019868215, 0.9541666701436042, 0.9533166690667471, 0.9540000013510386, 0.9565000031391779, 0.956633335351944, 0.9556166695555052, 0.9574000023802122, 0.958100003004074, 0.9593333360552788, 0.9592833372950554, 0.960233337978522, 0.9611333376169204, 0.9619166702032089, 0.9630666720867157, 0.9640166713794073, 0.9625833389163018, 0.962633338868618, 0.964133339325587, 0.9640000037352244, 0.9669333406289419, 0.9670000046491622, 0.9684833411375682, 0.9683000073830287, 0.9669333385427793, 0.9692666737238566, 0.9690000077088674, 0.9694166739781698, 0.9706666734814644]</t>
+  </si>
+  <si>
+    <t>[0.8940000003576278, 0.8925999993085861, 0.9143000018596649, 0.9144000041484833, 0.9168000018596649, 0.925100001692772, 0.9270000004768372, 0.9242000049352646, 0.9306000012159348, 0.9248000013828278, 0.9291000026464462, 0.9277000010013581, 0.9312000006437302, 0.9337999993562698, 0.9298000019788742, 0.9312000000476837, 0.9327999991178513, 0.9351000028848648, 0.9358000004291535, 0.9330000001192092, 0.9361999994516372, 0.9340000021457672, 0.9382000011205673, 0.9357000005245208, 0.931200003027916, 0.9369000017642974, 0.9368000012636185, 0.9338000011444092, 0.9354000020027161, 0.9393000012636185, 0.9360000044107437, 0.9388000035285949, 0.9347000026702881, 0.9374000036716461, 0.937399999499321, 0.9359000009298325, 0.9361000019311905, 0.9379000008106232, 0.9375000041723252, 0.9372000020742416, 0.9366999989748002, 0.9371000021696091, 0.9368000024557114, 0.9387000036239624, 0.9381000024080276, 0.9386000013351441, 0.9381000012159347, 0.9386000019311905, 0.9364000022411346, 0.9393000012636185]</t>
+  </si>
+  <si>
+    <t>[0.45520332410931585, 0.29707511151830357, 0.2595616654679179, 0.24086761607478063, 0.22658489466955264, 0.21592785724749167, 0.20494608311603466, 0.19975675464918216, 0.19006203845143319, 0.18291517498592536, 0.175583114605397, 0.173189714482675, 0.16541813424477975, 0.1588404109949867, 0.15477763672048847, 0.1519471750408411, 0.14752005472158392, 0.14554772445311148, 0.14143945748607317, 0.13979705582372845, 0.13550602129350106, 0.1323831610319515, 0.12409792405863602, 0.12650840648449957, 0.12448201824910939, 0.11887946956790983, 0.11704000874732931, 0.11767948766549428, 0.11411573120082417, 0.11392362615093589, 0.11096332095252971, 0.10931575201141337, 0.10764153528337678, 0.10473142830965419, 0.10264166521529357, 0.10128521824876467, 0.09769325284908215, 0.10003263654497763, 0.09862699629428485, 0.0974611491182198, 0.09495730290810267, 0.08849403952558835, 0.0878603008016944, 0.08469729354139417, 0.0854352793066452, 0.08800645486451686, 0.08373375400900841, 0.08341736900775383, 0.08142419948553045, 0.07938782343640924]</t>
+  </si>
+  <si>
+    <t>[0.29604779720306396, 0.2883060128986836, 0.23616620652377607, 0.22969223603606223, 0.23113792806863784, 0.20950488142669202, 0.2074075474590063, 0.20961107224225997, 0.19895976964384318, 0.20952238872647286, 0.21244061540812254, 0.20892408512532712, 0.19791526697576045, 0.1984239699691534, 0.20428650371730328, 0.2055531420558691, 0.19941924136132003, 0.1988998657464981, 0.19016744535416363, 0.1963492925837636, 0.20167314194142819, 0.2040137684904039, 0.1874131522513926, 0.21283954072743655, 0.2114087636768818, 0.2001467040553689, 0.20191265624016524, 0.2028732857853174, 0.19702775329351424, 0.20015122475102542, 0.2033670112863183, 0.19345993794500826, 0.20551152985543011, 0.20926165964454413, 0.21247988436371087, 0.2169749817252159, 0.20529007574543356, 0.20726796541363002, 0.2094631258584559, 0.20135873157531023, 0.2144178389571607, 0.21489819686859846, 0.21087400250136853, 0.21170231364667416, 0.2176597994565964, 0.21719004403799771, 0.22391236612573265, 0.21938793879002333, 0.21290988989174367, 0.23018006682395936]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.91      0.91      0.91      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.95      0.94      0.94      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.87      0.95      0.91      1000</t>
+  </si>
+  <si>
+    <t>[[880   1  18  10   2   0  85   0   4   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 994   2   2   0   0   2   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 11   1 912   5  46   0  25   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  7   4  10 942  17   0  20   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  16  14 947   0  23   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 987   0   9   0   4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 59   1  45  22  71   0 799   0   3   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   1   0 985   0  14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   1   2   1   4   1   1   0 988   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   1   0   0   6   0  34   0 959]]</t>
+  </si>
+  <si>
+    <t>K=1</t>
+  </si>
+  <si>
+    <t>Epoch 00050: val_acc did not improve from 0.91980</t>
+  </si>
+  <si>
+    <t>0.7732999988707403, 0.8462666639685631, 0.862866666217645, 0.8726666658123334, 0.8799000002940496, 0.883649999499321, 0.8875500021378199, 0.8925000004967054, 0.8955000003178915, 0.8980000017086665, 0.8999000010887782, 0.9011833342909813, 0.9026500016450882, 0.905683334271113, 0.9083333351214726, 0.9070666685700417, 0.9104333344101906, 0.9118666677673658, 0.9135833353797594, 0.9142999991774559, 0.9154666691025098, 0.9173166688283284, 0.9193500017126401, 0.9194500011205673, 0.921800001959006, 0.9209166691700618, 0.9228166677554448, 0.9226166672507922, 0.9256833352645238, 0.9250000019868215, 0.926266667842865, 0.9271000018715858, 0.9262500032782555, 0.9270666688680649, 0.9293000027537346, 0.9299666686852773, 0.9311333334445954, 0.9318833348155021, 0.9313333363334337, 0.9333833353718122, 0.9340333346525828, 0.9346000008781751, 0.9357666683197021, 0.9350166687369347, 0.9355500000715256, 0.9376333352923393, 0.9370333357652029, 0.9392333356539408, 0.9391666698455811, 0.9378500026464462</t>
+  </si>
+  <si>
+    <t>0.834499997496605, 0.8697999995946885, 0.8797000014781952, 0.8824000006914139, 0.8924999994039535, 0.89280000269413, 0.8963000023365021, 0.8932999992370605, 0.8991000014543533, 0.9005000007152557, 0.9014999985694885, 0.9031000012159347, 0.9032000005245209, 0.9024000024795532, 0.9055999994277955, 0.9082000064849853, 0.9047000002861023, 0.9020999997854233, 0.9099000012874603, 0.9081000006198883, 0.9081000006198883, 0.9128000038862228, 0.912800001502037, 0.9112999999523163, 0.913800002336502, 0.9093000012636184, 0.9133000022172928, 0.9123000013828277, 0.914500002861023, 0.9132000011205673, 0.9120999991893768, 0.9131000018119813, 0.9135000038146973, 0.9167000019550323, 0.9173000007867813, 0.9116000026464463, 0.9155999988317489, 0.9156000012159348, 0.9148000019788742, 0.9158000010251999, 0.916400002837181, 0.916000002026558, 0.9167000013589859, 0.918800002336502, 0.9168000012636185, 0.9197000014781952, 0.9175000017881394, 0.9195000016689301, 0.9198000001907348, 0.9193000030517579</t>
+  </si>
+  <si>
+    <t>0.6281481916705768, 0.42733652527133625, 0.3782696742812792, 0.3490535014371077, 0.32801351211965085, 0.3168094850331545, 0.30461210377514364, 0.29560417669514816, 0.28437752450505893, 0.27633344298849505, 0.2709906990081072, 0.2651735184714198, 0.2598380907004078, 0.2552956295137604, 0.24634186763316393, 0.24635725596298774, 0.2407170835013191, 0.2356157825763027, 0.23227708814044792, 0.2278172051285704, 0.22490357319513957, 0.22180967348317304, 0.2167069103444616, 0.21525863128403822, 0.2110139097024997, 0.2081022760644555, 0.20778332114219666, 0.2055459235360225, 0.19940786158045132, 0.19981735691428185, 0.19783318711444736, 0.19363646660000086, 0.19217575915157795, 0.19220391252388558, 0.18612859439104795, 0.18445605258767803, 0.18181714399407306, 0.18010246568048993, 0.1808721580977241, 0.17571473225330314, 0.17375927144040665, 0.17101432267576455, 0.17117037553340197, 0.16905550291761756, 0.16870290170113245, 0.1630191176881393, 0.1658932457305491, 0.1616127178631723, 0.15975385800624886, 0.16078291521718105</t>
+  </si>
+  <si>
+    <t>0.44236438304185866, 0.35335141241550444, 0.32999749943614004, 0.3184587703645229, 0.2945388512313366, 0.29244535461068155, 0.27988681837916374, 0.28541971832513807, 0.2797926586866379, 0.265787308216095, 0.26628451064229014, 0.2642580676078796, 0.2637996779382229, 0.2620166811347008, 0.2536369504779577, 0.2584398026019335, 0.2643395261466503, 0.2601258806884289, 0.24988447614014148, 0.25584712021052836, 0.25709244802594183, 0.24846459060907364, 0.2447207210212946, 0.2536668721586466, 0.2490571390092373, 0.2527602756023407, 0.2456916329264641, 0.2457966572791338, 0.24190590515732766, 0.24187365747988224, 0.251102364808321, 0.25273907989263533, 0.24664496012032033, 0.24389532558619975, 0.24229598939418792, 0.24542441479861737, 0.24767281517386436, 0.2521410369127989, 0.25084003433585167, 0.24823008701205254, 0.2557745184004307, 0.25161279119551183, 0.24425113681703806, 0.25582531809806824, 0.24568600222468376, 0.25072033517062664, 0.24873834796249866, 0.25183667585253716, 0.2590003960952163, 0.2479852792620659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.99      0.98      0.99      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.82      0.90      0.86      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.91      0.94      0.93      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.87      0.86      0.86      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.98      0.98      0.98      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.83      0.70      0.76      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.98      0.97      0.97      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.92      0.92      0.92     10000</t>
+  </si>
+  <si>
+    <t>weighted avg       0.92      0.92      0.92     10000</t>
+  </si>
+  <si>
+    <t>899   1  15  18   2   0  59   0   6   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1 983   1   9   1   0   4   0   1   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17   0 896   8  49   0  30   0   0   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13   2  12 941  19   0  12   0   1   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2   1  74  26 856   0  41   0   0   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0   0   0   0   0 983   0  13   0   4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 114   1  88  29  57   0 704   0   7   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0   0   0   0   0   9   0 977   0  14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1   1   4   2   0   1   2   2 987   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1   0   0   0   0   5   0  27   0 967</t>
+  </si>
+  <si>
+    <t>K=3</t>
+  </si>
+  <si>
+    <t>Epoch 00050: val_acc did not improve from 0.94200</t>
+  </si>
+  <si>
+    <t>0.8157166658652325, 0.8807666672269503, 0.8957500010728836, 0.9052500009536744, 0.9120666682720184, 0.9165333349506061, 0.9208833360671997, 0.923433335920175, 0.9284000027179719, 0.930166669289271, 0.9333333337306976, 0.9359166692694029, 0.9379333351055781, 0.9399333359797796, 0.9399500010410945, 0.9422500019272169, 0.9433833354711533, 0.9449166666467984, 0.9469833352168401, 0.948083333671093, 0.9498333329955737, 0.9491166679064432, 0.9522833359241486, 0.9532500013709069, 0.9538000029325485, 0.9543833350141843, 0.9561000031232834, 0.955750002960364, 0.9566333352526029, 0.9586166702707608, 0.9586333364248276, 0.9596666688720386, 0.9613833375771841, 0.9610500046610833, 0.9626333383719127, 0.9625500038266182, 0.9633000048001608, 0.9642166715860366, 0.9642000065247218, 0.9658166718482971, 0.9677000059684118, 0.9674500069022178, 0.9658666714032491, 0.9685833388566971, 0.9684833387533823, 0.9685833416382472, 0.9693666735291481, 0.9694333400328954, 0.9706333400805791, 0.9699166759848594</t>
+  </si>
+  <si>
+    <t>0.8809000015258789, 0.8903999996185302, 0.9030999994277954, 0.9112000030279159, 0.9163000017404557, 0.921400002837181, 0.9264000058174133, 0.9285000026226043, 0.9166000026464463, 0.9269999998807907, 0.9284000015258789, 0.9304000014066696, 0.9297000038623809, 0.9328000009059906, 0.9301000028848648, 0.9332000029087066, 0.9350000011920929, 0.9311000007390976, 0.9340000015497207, 0.9390000015497207, 0.9321000021696091, 0.9359000021219254, 0.9366999995708466, 0.9377000027894974, 0.9338000011444092, 0.9325000017881393, 0.938500000834465, 0.9337000012397766, 0.9348000025749207, 0.9363999992609024, 0.9353000015020371, 0.9419999986886978, 0.9361000019311905, 0.9368000000715255, 0.9376000016927719, 0.9371000009775162, 0.9414000016450882, 0.9398999989032746, 0.9414000004529953, 0.9390000021457672, 0.9404000002145767, 0.9393999981880188, 0.9396999996900558, 0.9406000000238418, 0.9399999982118606, 0.9379000008106232, 0.937700002193451, 0.9376000016927719, 0.9352000015974045, 0.9387000000476837</t>
+  </si>
+  <si>
+    <t>0.5232405479252339, 0.33762790009379384, 0.2924261335283518, 0.2673424768075347, 0.24550634493430457, 0.2327949972699086, 0.21872757773846388, 0.21276142686605454, 0.2000791090664764, 0.1938423533986012, 0.1849355344971021, 0.1784857959424456, 0.17408253819992145, 0.1649701887741685, 0.16419145928074916, 0.15866892833262683, 0.15451053781434892, 0.1493157382433613, 0.14733420041700204, 0.1442950510730346, 0.13839882978548607, 0.13806588750953475, 0.13135413619379202, 0.13021178031961123, 0.12635667021386326, 0.12538318042022487, 0.12029600665904581, 0.1210643848280112, 0.11877555192137758, 0.11467327250478168, 0.11413434001617134, 0.11000269515750309, 0.10589302183749776, 0.1048798007859538, 0.10130063987026612, 0.10120322609320283, 0.09857091907101373, 0.09732166767430803, 0.09611170851625501, 0.09423087927823265, 0.09042091623569529, 0.08888734579241524, 0.09074411760705213, 0.08394638940071066, 0.08573079876756916, 0.08558789070229977, 0.08399122353643179, 0.0831111720468228, 0.08008976016969731, 0.07996431426610798</t>
+  </si>
+  <si>
+    <t>0.324917431473732, 0.30064335331320763, 0.2723405485600233, 0.24954260364174843, 0.23255269758403302, 0.22167913161218167, 0.20565772511065006, 0.20253316171467303, 0.23405215844511987, 0.19840554550290107, 0.20368043795228005, 0.19716649521142243, 0.20150316569954158, 0.19741500176489354, 0.19385137166827918, 0.1889912447333336, 0.18819825388491154, 0.1918995501101017, 0.19747263059020043, 0.18467177409678698, 0.19556526448577644, 0.19009345211088657, 0.18800423927605153, 0.182072915174067, 0.19067641537636518, 0.19287774100899696, 0.18735739789903164, 0.1984693117439747, 0.19571760594844817, 0.19190869625657797, 0.20334835205227136, 0.1882551886513829, 0.20292702242732047, 0.19305715026333928, 0.2082184673845768, 0.19680944085121155, 0.19457103438675405, 0.1949989937990904, 0.19547046149149538, 0.20604479368776082, 0.20033503944054246, 0.20017782155424357, 0.1987231981381774, 0.20277419252321124, 0.2014577680081129, 0.20591076963581145, 0.21010372333228589, 0.21488350693136454, 0.22272424794733525, 0.21459604184143244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.95      0.92      0.94      1000</t>
+  </si>
+  <si>
+    <t>895   0  14   9   3   0  74   0   5   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1 988   0   6   1   0   2   0   2   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13   1 913   3  43   0  27   0   0   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8   1  13 920  29   0  26   0   3   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2   0  17  11 943   0  27   0   0   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0   0   0   0   0 986   0   9   0   5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  82   0  38  15  62   0 799   0   4   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0   0   0   0   0   2   0 981   0  17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2   0   0   0   5   1   0   0 992   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0   0   0   0   0   2   1  27   0 970</t>
+  </si>
+  <si>
+    <t>K=5</t>
+  </si>
+  <si>
+    <t>Learning rate: 0.002</t>
+  </si>
+  <si>
+    <t>Epoch 00050: val_acc did not improve from 0.93870</t>
+  </si>
+  <si>
+    <t>0.8178499998835226, 0.8786500003933907, 0.8936166671911875, 0.9050666678945224, 0.910283334950606, 0.9149333350857098, 0.9198000015815099, 0.9233333362142245, 0.9260000003377596, 0.9273500015338262, 0.9315666681528092, 0.9335000011324882, 0.935666668911775, 0.938383335073789, 0.9396500020225843, 0.9403500019510587, 0.94103333512942, 0.9436333340406418, 0.9438666689395905, 0.9449500015377998, 0.9479000024000803, 0.9474500027298928, 0.9510666688283285, 0.9492333355545998, 0.9519000023603439, 0.9520000014702479, 0.9546166689197222, 0.9545166701078415, 0.9548000031709671, 0.9547500020265579, 0.9571333356698354, 0.9569666694601376, 0.9574166702230772, 0.9591833357016245, 0.9589333365360896, 0.9614000033338864, 0.961383337477843, 0.9606500038504601, 0.9609166710575422, 0.9628833377361298, 0.9650166722138723, 0.9638666712244351, 0.9644333393375079, 0.9656333377957345, 0.9648000046610832, 0.9669833394885063, 0.9649833385149638, 0.9667833398779233, 0.9671833395957947, 0.9677000055710475</t>
+  </si>
+  <si>
+    <t>0.8784000027179718, 0.8910000014305115, 0.9072000026702881, 0.9114000004529953, 0.9154000014066697, 0.9170000022649765, 0.9210000026226044, 0.9199000012874603, 0.9174000006914139, 0.9230000019073487, 0.9287000006437302, 0.928300005197525, 0.92700000166893, 0.9210999995470047, 0.9265000021457672, 0.9320000010728836, 0.9323000049591065, 0.9339000016450882, 0.9351000034809113, 0.9327000015974045, 0.9306000018119812, 0.932700002193451, 0.9350000011920929, 0.934600003361702, 0.9344000017642975, 0.9344000005722046, 0.9332000029087066, 0.9316000026464463, 0.9346000003814697, 0.9357000005245208, 0.9316999989748002, 0.9343000018596649, 0.9366000014543533, 0.933500000834465, 0.9365000015497208, 0.9361000019311905, 0.9379000008106232, 0.9386000019311905, 0.9354999995231629, 0.9361000001430512, 0.9353000026941299, 0.9356000018119812, 0.937600000500679, 0.9354000014066696, 0.9351999998092652, 0.9372000044584274, 0.9387000012397766, 0.9376999986171722, 0.9376000022888183, 0.9378000020980835</t>
+  </si>
+  <si>
+    <t>0.518045073946317, 0.3426233395934105, 0.295413187071681, 0.2670490075275302, 0.25088098622858523, 0.23785398876915376, 0.22400395462910333, 0.21500822458416224, 0.2064238765835762, 0.19896749045699835, 0.19046250253915786, 0.18488107801725467, 0.1781681053650876, 0.17301951421424747, 0.16887880424037577, 0.16359172360350688, 0.16176740039760867, 0.15380087558800976, 0.15460698761666813, 0.1493387533289691, 0.14388552917788425, 0.144945193224897, 0.13700455359493693, 0.13625222532699505, 0.13151582777500154, 0.12962430786962312, 0.12547499142897625, 0.12393730882555247, 0.12199014191826185, 0.12271824355858067, 0.11868393509959181, 0.1150820180401206, 0.1149772815934072, 0.11099260838702321, 0.11018318944610656, 0.10593044147516291, 0.10555177109936874, 0.10521661296021194, 0.10400750025485953, 0.10058531913595894, 0.09763334771618247, 0.0976598452217877, 0.0967892874001215, 0.09356166768198212, 0.0946443275300165, 0.09236358572728932, 0.094304035063833, 0.09071916649118066, 0.08977300145973761, 0.0880462299225231</t>
+  </si>
+  <si>
+    <t>0.32948840245604516, 0.30144456565380096, 0.26342670880258084, 0.2465025072544813, 0.23108384624123574, 0.2332000508904457, 0.21803406454622745, 0.22122984305024146, 0.22256746560335158, 0.20986062981188297, 0.20633478015661239, 0.1988848529011011, 0.20588486943393947, 0.21470698460936546, 0.21117636188864708, 0.20059667892754077, 0.19266675461083652, 0.1884874950349331, 0.19509793918579818, 0.19721660450100897, 0.2043226796388626, 0.19273212995380162, 0.19148055255413055, 0.19125193890184164, 0.1999867583811283, 0.19282821323722601, 0.19617056600749494, 0.20346059028059243, 0.1947893626987934, 0.20294031146913766, 0.210628265440464, 0.201675177346915, 0.2005691120773554, 0.2096542123891413, 0.20458611458539963, 0.20729616448283195, 0.19358647484332323, 0.1995095391944051, 0.20472351294010876, 0.21456646120175718, 0.21670955948531628, 0.21621643668040633, 0.20856332056224347, 0.2171695698797703, 0.2124718853831291, 0.21264788990840316, 0.20210128288716078, 0.21394954793155194, 0.21741237059235574, 0.21269544215872885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.89      0.92      0.91      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.95      0.94      0.95      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.89      0.93      0.91      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.85      0.76      0.80      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.97      0.98      0.98      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.99      0.96      0.98      1000</t>
+  </si>
+  <si>
+    <t>904   0  14   6   3   0  69   0   4   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2 989   0   5   1   0   1   0   2   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  19   1 919   9  31   0  21   0   0   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15   2  10 940  18   0  15   0   0   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1   0  30  12 934   0  23   0   0   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0   0   0   0   0 993   0   4   0   3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 104   0  54  14  66   0 759   0   3   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0   0   0   0   0   7   0 985   0   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3   0   2   1   1   1   1   1 990   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0   0   1   0   0   4   0  30   0 965</t>
+  </si>
+  <si>
+    <t>acc_K=1</t>
+  </si>
+  <si>
+    <t>val_acc_K=1</t>
+  </si>
+  <si>
+    <t>acc_K=3</t>
+  </si>
+  <si>
+    <t>val_acc_K=3</t>
+  </si>
+  <si>
+    <t>acc_K=5</t>
+  </si>
+  <si>
+    <t>val_acc_K=5</t>
+  </si>
+  <si>
+    <t>Kernels=[3,3]</t>
+  </si>
+  <si>
+    <t>Epoch 00050: val_acc did not improve from 0.94270</t>
+  </si>
+  <si>
+    <t>[0.8489666654666265, 0.8995333336790403, 0.91215000162522, 0.9232333358128866, 0.9302833340565364, 0.9360833354791005, 0.9416833349068959, 0.9460166673858961, 0.9518500006198883, 0.954750002125899, 0.9584500031669935, 0.9612666712204615, 0.9643000051379204, 0.9670000058412552, 0.9676500074068706, 0.9704166750113169, 0.9729833414157232, 0.9744333430131277, 0.975816677014033, 0.9772000113129615, 0.9791166775425275, 0.9798666774233182, 0.9808833435177803, 0.9826833443840345, 0.9836166782180468, 0.983533343176047, 0.9846500111619632, 0.9853333431482315, 0.985566676457723, 0.986850009560585, 0.9864833431442579, 0.9863500097393989, 0.9876666764418284, 0.987650009294351, 0.9890000090996425, 0.9886166761318843, 0.9897166749835015, 0.9894000085194906, 0.9901166747013728, 0.9900666752457619, 0.9908500075340271, 0.9907333412766457, 0.9909333406885465, 0.9909166742364566, 0.9913333407044411, 0.9911500077446301, 0.9919000071287155, 0.9916666739185651, 0.9920833405852317, 0.9922500068942706]</t>
+  </si>
+  <si>
+    <t>[0.884899999499321, 0.908100004196167, 0.9133000022172928, 0.921599999666214, 0.9166000032424927, 0.9119000017642975, 0.9301000010967254, 0.9306000024080276, 0.9348000031709671, 0.9345000016689301, 0.9326000016927719, 0.9291000038385391, 0.9359999996423721, 0.9330000025033951, 0.9330000019073487, 0.934899999499321, 0.9293000036478043, 0.9378000009059906, 0.934600002169609, 0.9343000018596649, 0.9388999998569488, 0.9352000004053116, 0.9374000006914138, 0.9384000009298324, 0.9311000037193299, 0.9376000022888183, 0.9368000030517578, 0.9353000003099442, 0.937399999499321, 0.9390000021457672, 0.9398000001907348, 0.9361999976634979, 0.9388000011444092, 0.9390000015497207, 0.9384000033140183, 0.9380000007152557, 0.9393999999761582, 0.94, 0.9381000012159347, 0.9388999998569488, 0.9388000005483628, 0.9401000010967254, 0.9382000035047531, 0.9398000019788743, 0.9378999984264373, 0.9410999989509583, 0.9402000021934509, 0.9426999980211258, 0.9393999963998795, 0.9404000002145767]</t>
+  </si>
+  <si>
+    <t>[0.4215681227048238, 0.27927066389471294, 0.2389953554670016, 0.20985038202255965, 0.1912482263147831, 0.1740106754625837, 0.1587113388814032, 0.1456534229281048, 0.13229879233054817, 0.12406936810662349, 0.11385536399980387, 0.10376115793983141, 0.09731466629697631, 0.09012772711925209, 0.08696507826447487, 0.08090439149023344, 0.07288133342905591, 0.07035370936927696, 0.06561273730825633, 0.06184433382470161, 0.05766660805946837, 0.05565668227073426, 0.052775803542075055, 0.048525774420704694, 0.045779657354578375, 0.046057993030020346, 0.04289851901082632, 0.03999272425464975, 0.040099590268800965, 0.03791133789966504, 0.03663611491482394, 0.03640990359068383, 0.033813029140389216, 0.03328669931118687, 0.030285730208658303, 0.03148972367576789, 0.029739721401322944, 0.028809175670612603, 0.02713689463659345, 0.0276786091500738, 0.025246449248321975, 0.026613963598113816, 0.024895255660424786, 0.024808095794384522, 0.023487564868604142, 0.024061547264476152, 0.022338011216973732, 0.022680415907525456, 0.022496327965539725, 0.019885781853857528]</t>
+  </si>
+  <si>
+    <t>[0.30595198154449466, 0.2510823272913694, 0.23586915031075478, 0.21973232299089432, 0.2263644341379404, 0.2462671484053135, 0.2011201962083578, 0.19550468206405638, 0.19272481244057416, 0.1917726171761751, 0.19800559900701045, 0.20690032687038185, 0.2060650205053389, 0.20936088636517525, 0.2116521710716188, 0.2017583055794239, 0.23090571224689482, 0.21100881446152925, 0.21240013593807816, 0.22447407379746437, 0.2143757212534547, 0.23200617268681525, 0.222047160230577, 0.226897658854723, 0.2516288335621357, 0.24379835346713663, 0.24698628444224596, 0.2556885530054569, 0.24872985721565782, 0.2562615117244422, 0.25916523426771165, 0.2578729717480019, 0.25169383162632586, 0.25312713973224166, 0.25090833658352496, 0.25094237711280587, 0.2686848911456764, 0.25122493896633386, 0.28568845611065624, 0.2682255223765969, 0.2818788059800863, 0.2670243667811155, 0.2775761092081666, 0.25489313097670674, 0.2845692437887192, 0.2743187551293522, 0.2773735308274627, 0.2664615413546562, 0.28793624739162627, 0.2856742196902633]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.90      0.87      0.89      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.94      0.90      0.92      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.94      0.95      0.95      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.80      0.82      0.81      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.98      0.98      0.98      1000</t>
+  </si>
+  <si>
+    <t>[[874   0  13   9   3   1  96   0   4   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2 988   1   5   0   0   2   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 16   1 899   7  38   0  39   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  6   0   5 947  15   0  26   1   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   1  11  12 933   0  43   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 995   0   3   0   2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 70   1  29  21  52   0 824   0   3   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   3   0 977   0  20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   1   0   2   1   1   0   0 993   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   1   4   0  21   0 974]]</t>
+  </si>
+  <si>
+    <t>Kernels=[3,3],Data-Augmented Epochs=50-100</t>
+  </si>
+  <si>
+    <t>Epoch 00050: val_acc did not improve from 0.93720</t>
+  </si>
+  <si>
+    <t>[0.8166666666666667, 0.8503125, 0.86546875, 0.873125, 0.8766666666666667, 0.8834375, 0.8827083333333333, 0.8850520833333333, 0.8896875, 0.8941145833333334, 0.89703125, 0.8958854166666667, 0.8954166666666666, 0.9010416666666666, 0.9009375, 0.9029166666666667, 0.9053125, 0.9030208333333334, 0.90125, 0.9047395833333334, 0.906875, 0.90828125, 0.9083333333333333, 0.9098958333333333, 0.91078125, 0.91140625, 0.91328125, 0.9111458333333333, 0.9146354166666667, 0.91515625, 0.9146875, 0.9138020833333333, 0.919375, 0.9131770833333334, 0.9190625, 0.9182291666666667, 0.9191666666666667, 0.9208333333333333, 0.9177604166666666, 0.9208333333333333, 0.9186979166666667, 0.9205729166666666, 0.91875, 0.9167708333333333, 0.9219791666666667, 0.9204166666666667, 0.92, 0.919375, 0.9186458333333334, 0.9222916666666666]</t>
+  </si>
+  <si>
+    <t>[0.9257, 0.922, 0.9265, 0.9231, 0.9266, 0.9223, 0.9287, 0.9138, 0.9271, 0.924, 0.9206, 0.9299, 0.9278, 0.9266, 0.9261, 0.9317, 0.9303, 0.9188, 0.9338, 0.9312, 0.9322, 0.9186, 0.9308, 0.932, 0.935, 0.9337, 0.9299, 0.9299, 0.9336, 0.9269, 0.9338, 0.9323, 0.9359, 0.9299, 0.9333, 0.9339, 0.9304, 0.9289, 0.9372, 0.9325, 0.9311, 0.9328, 0.9338, 0.9321, 0.9326, 0.936, 0.9328, 0.9363, 0.9316, 0.9303]</t>
+  </si>
+  <si>
+    <t>[0.7146462094411254, 0.4730704922725757, 0.39889889864871897, 0.3737214315061768, 0.35797046944499017, 0.3269066143594682, 0.32455301489060123, 0.3192889065357546, 0.31303442649543284, 0.2969870528082053, 0.2849334569958349, 0.29481765570119023, 0.2843534514028579, 0.2740507652858893, 0.2741735596768558, 0.2656643954664469, 0.262524455357343, 0.2682814114416639, 0.2671353597131868, 0.25983728947117923, 0.256590927708894, 0.2525310952340563, 0.2554060742755731, 0.24363476934221884, 0.25037562729480367, 0.2425780569203198, 0.2405123768063883, 0.2475367657840252, 0.23635391889760893, 0.23188337738936146, 0.23310346756130457, 0.23593316652812063, 0.22668966193993886, 0.23922551518927018, 0.22657617710530759, 0.22972647326377532, 0.22402050450754663, 0.22170449764778216, 0.22671909611672164, 0.21907867623493074, 0.22667893396380048, 0.22144560361281038, 0.22335268324861923, 0.22549762147168317, 0.21534762174511948, 0.22456769533765814, 0.22136946494691073, 0.21772255138494073, 0.22774825981197258, 0.2166024411904315]</t>
+  </si>
+  <si>
+    <t>[0.2909845594001934, 0.2595414985537529, 0.23389217447340488, 0.22269387687444686, 0.2045489037334919, 0.22457675391733647, 0.21048211192786695, 0.2372410337626934, 0.20754036048054694, 0.21297052213549614, 0.22205676904916763, 0.1968731012403965, 0.20610786856114865, 0.20401734060645105, 0.20335473462343215, 0.19651545669436454, 0.19573985784053802, 0.22098862004876138, 0.18969778988361358, 0.19273817508220673, 0.19328439366221428, 0.22796333881914616, 0.20038568153381348, 0.19350996731519698, 0.18927480892539025, 0.18849626789689064, 0.20053652303814887, 0.19337173848450184, 0.18533069088757037, 0.2052902571633458, 0.18498209673464297, 0.19450599494874476, 0.18650900774002074, 0.19224611851871012, 0.18840809735059738, 0.18830136579573153, 0.19320043699741363, 0.20520782862007617, 0.18727980037480593, 0.1937202165275812, 0.19414476320296525, 0.1900216554760933, 0.1940907562971115, 0.19828795743584632, 0.1928161457180977, 0.1868899642854929, 0.19013854139447212, 0.1819889401078224, 0.19273749417066574, 0.19481661665141584]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.92      0.83      0.88      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.94      0.88      0.90      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.92      0.94      0.93      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.92      0.89      0.90      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.73      0.86      0.79      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.97      0.97      0.97      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           8       0.99      1.00      0.99      1000</t>
+  </si>
+  <si>
+    <t>[[833   0  13  14   1   0 134   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1 990   0   6   0   0   1   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 11   1 875   8  32   0  73   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  3   1   5 941  11   0  39   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  15  23 886   0  75   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 984   0   8   0   8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 53   0  25  26  33   0 856   0   7   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   7   0 972   0  21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1   0   1   1   0   0   1   0 996   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   1   0   0   0   4   0  25   0 970]]</t>
+  </si>
+  <si>
+    <t>Kernels=[3,3] Epochs=100-150</t>
+  </si>
+  <si>
+    <t>Epoch 00050: val_acc did not improve from 0.94640</t>
+  </si>
+  <si>
+    <t>[0.9537500009934108, 0.9670833406845728, 0.9741500090559324, 0.9770000103116036, 0.9823000107208888, 0.9838000114758809, 0.9868666768074036, 0.9875333424409231, 0.9892666760087013, 0.9904333416620891, 0.9906000079711278, 0.991950007379055, 0.9917333404223124, 0.9923500068982443, 0.9929166728258133, 0.9933000057935715, 0.994366672039032, 0.9943000052372615, 0.9943000053366026, 0.9945000051458677, 0.9947333383560181, 0.9947000049551328, 0.9950500046213467, 0.9951333378752073, 0.9951833379268646, 0.995616670747598, 0.9957833373546601, 0.9961666702230771, 0.9954833376407624, 0.9963333368301391, 0.9968833363056183, 0.9964000034332275, 0.9969333362579346, 0.9963000035285949, 0.9968000030517579, 0.9968000030517579, 0.9965500032901764, 0.9965166699886322, 0.996833336353302, 0.997000002861023, 0.997000002861023, 0.997183336019516, 0.9967666697502137, 0.9973500025272369, 0.9975833356380462, 0.9975666689872742, 0.9978000019987424, 0.997550002336502, 0.996483336687088, 0.9966333365440369]</t>
+  </si>
+  <si>
+    <t>[0.9419999986886978, 0.9419999974966049, 0.9445999938249589, 0.9463000011444092, 0.943999997973442, 0.9437999981641769, 0.9430999958515167, 0.9463000011444092, 0.9442999988794327, 0.9418999999761581, 0.9452999991178512, 0.9430999994277954, 0.9453000003099441, 0.9443000012636185, 0.9450999987125397, 0.9443999987840652, 0.9431999993324279, 0.9428000003099442, 0.9443000012636185, 0.9429000020027161, 0.9435999983549118, 0.9443000018596649, 0.9432999992370605, 0.9416999977827072, 0.9417999982833862, 0.9451999986171722, 0.9458999991416931, 0.9448999971151352, 0.9426999980211258, 0.9446999990940094, 0.9454999995231629, 0.9463999998569489, 0.944899999499321, 0.9444999998807907, 0.9451999968290329, 0.9445999974012375, 0.9459000015258789, 0.9448000013828277, 0.9414000004529953, 0.9402999973297119, 0.9437000000476837, 0.9437999981641769, 0.941700000166893, 0.9441000014543534, 0.9451999986171722, 0.9441999995708465, 0.944899998307228, 0.943999997973442, 0.945599998831749, 0.9444000017642975]</t>
+  </si>
+  <si>
+    <t>[0.12428220256231726, 0.09304225694698592, 0.07406424484370898, 0.06301333735696972, 0.05137254137933875, 0.04442114140527944, 0.0376202432710367, 0.03560680626037841, 0.03120986730636408, 0.027898209790776795, 0.027525469209067524, 0.02399438183269619, 0.02338299573515542, 0.022230813020335822, 0.021028086006020505, 0.019546349782031028, 0.016243243612892304, 0.016955977948431004, 0.016377799023951714, 0.01545574642366167, 0.015590103376113499, 0.015150632819083208, 0.014294427605927923, 0.014186614687059774, 0.013803761795522103, 0.012169362185522914, 0.011876916873734444, 0.01156745697609343, 0.012453495726028148, 0.011299300369816289, 0.009816339318883063, 0.010340770364249087, 0.009635816826363832, 0.010835188498798137, 0.009727157861598244, 0.0095646772963543, 0.009876135570884799, 0.010174332364488994, 0.009045674403751036, 0.009112851535561883, 0.008484936657963165, 0.008620324600439442, 0.008893899504158375, 0.0075575263168017656, 0.006834103289790316, 0.007692111012747773, 0.006950435111211846, 0.007283361296528407, 0.010360579527793259, 0.009437054726173908]</t>
+  </si>
+  <si>
+    <t>[0.16995351113379, 0.17838652413338424, 0.17796900948509575, 0.18096870688721536, 0.19885774417780339, 0.20671790707856416, 0.21466381773352622, 0.21680223112925887, 0.21331889028660952, 0.23691541843116284, 0.22556031284853817, 0.2419099272415042, 0.23657147449441254, 0.2453060065768659, 0.24822941343300045, 0.24045071601867676, 0.25074492005631327, 0.25791271853260694, 0.2564638870721683, 0.2723528098501265, 0.26197765551507474, 0.2502309959754348, 0.26150288954377177, 0.2716894123516977, 0.2772216692753136, 0.28698843659833073, 0.27692763743922116, 0.2796638672333211, 0.2858296792767942, 0.2834019782021642, 0.28068989925086496, 0.28991446245461705, 0.2889348279964179, 0.29958122404292226, 0.28881889674812555, 0.296140662766993, 0.30211127126589415, 0.29140809329226613, 0.3084819179656915, 0.31825686696916816, 0.30821966476738455, 0.2983220898360014, 0.31990698650479316, 0.3013719721324742, 0.32257529634982346, 0.31186932514887306, 0.3073492948152125, 0.30517343762796373, 0.30867233478464184, 0.30677307412028315]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.89      0.89      0.89      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.92      0.92      0.92      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.90      0.94      0.92      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.84      0.81      0.83      1000</t>
+  </si>
+  <si>
+    <t>[[894   0  24   6   1   1  70   0   4   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 988   1   6   0   0   3   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 14   1 921   6  30   0  28   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  9   0   6 950  17   0  18   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  16  16 938   0  30   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 993   0   5   0   2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 79   0  34  22  53   0 810   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   0   0 988   0  12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  3   0   1   3   1   1   0   1 990   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   3   1  24   0 972]]</t>
+  </si>
+  <si>
+    <t>Kernels=[3,3],Data-Augmented Epochs=150-170</t>
+  </si>
+  <si>
+    <t>Epoch 00020: val_acc did not improve from 0.94080</t>
+  </si>
+  <si>
+    <t>[0.8988020833333333, 0.9083854166666666, 0.9115104166666667, 0.9172916666666666, 0.9141145833333333, 0.919375, 0.9202604166666667, 0.9227604166666666, 0.9205208333333333, 0.9285416666666667, 0.9276041666666667, 0.9267708333333333, 0.9248958333333334, 0.9296354166666667, 0.9288541666666666, 0.9285416666666667, 0.9300520833333333, 0.93015625, 0.92859375, 0.9305208333333334]</t>
+  </si>
+  <si>
+    <t>[0.9351, 0.9371, 0.9397, 0.9376, 0.9408, 0.9395, 0.9326, 0.9373, 0.9382, 0.9384, 0.938, 0.9384, 0.9369, 0.9345, 0.9353, 0.9372, 0.9402, 0.9392, 0.9372, 0.9405]</t>
+  </si>
+  <si>
+    <t>[0.35238674100022765, 0.28629005117497097, 0.26455894988030193, 0.2450426101591438, 0.25226776372330884, 0.22369530828359227, 0.2238060448675727, 0.22420722495454054, 0.22898270066206655, 0.20048176863851647, 0.20027438725810498, 0.20252408735764524, 0.20750806916194658, 0.1970177744453152, 0.20073087100870907, 0.1971750088330979, 0.19097181167143087, 0.19716973653684058, 0.19138498833402992, 0.18639150680663685]</t>
+  </si>
+  <si>
+    <t>[0.26528673433987426, 0.23998529975898564, 0.24285728895571082, 0.2048679401472211, 0.19207160446196794, 0.19861973487772047, 0.22458588439971208, 0.187391279104352, 0.19373305397629736, 0.18815825676620007, 0.1939133373491466, 0.18550894660353662, 0.19626826342344283, 0.19142340710163117, 0.19486477467119695, 0.18519189949184656, 0.18253835448175668, 0.19280634264796973, 0.18133238260149956, 0.18209812499806285]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.93      0.89      0.91      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.93      0.94      0.94      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.81      0.83      0.82      1000</t>
+  </si>
+  <si>
+    <t>[[882   1  13  10   1   0  88   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 987   1   7   1   0   2   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 18   1 893  11  37   0  40   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  4   1   8 943  17   0  26   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  15  16 932   0  36   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 988   0  10   0   2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 75   0  26  20  48   0 826   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   2   0 987   0  11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   0   0   2   0   1   0   0 995   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   3   0  24   1 972]]</t>
+  </si>
+  <si>
+    <t>Kernels=[3,3] Epochs=170-190</t>
+  </si>
+  <si>
+    <t>Learning rate: 0.0018000001</t>
+  </si>
+  <si>
+    <t>Epoch 00020: val_acc did not improve from 0.94680</t>
+  </si>
+  <si>
+    <t>[0.9905833413203557, 0.9951833377281825, 0.9965500032901764, 0.9970333361625672, 0.9973000025749207, 0.9976833355426789, 0.9980000018080075, 0.9981666684150696, 0.9984000015258789, 0.9984000015258789, 0.9985166680812836, 0.998600001335144, 0.9986333346366882, 0.9987333345413208, 0.9988166677951813, 0.9985500013828278, 0.9987500011920929, 0.9985166680812836, 0.9986166679859161, 0.9988666677474975]</t>
+  </si>
+  <si>
+    <t>[0.9458000010251999, 0.9463999998569489, 0.9453999972343445, 0.9426999980211258, 0.9450999963283538, 0.9460000002384186, 0.9467999988794327, 0.9466999977827072, 0.9452999979257584, 0.9444000011682511, 0.9453999984264374, 0.9462000000476837, 0.9449000024795532, 0.9452000015974045, 0.9455999976396561, 0.9447999984025955, 0.9453999996185303, 0.9449000024795532, 0.9451999992132187, 0.9458999997377395]</t>
+  </si>
+  <si>
+    <t>[0.027578018024699606, 0.01572228650057999, 0.011677878724294715, 0.010314080049283803, 0.009043706536564666, 0.007917022843030282, 0.006788043893320719, 0.0062469008964156575, 0.006326108164309213, 0.0056492473657393325, 0.005377170577279078, 0.0050061119543897805, 0.004997276083001149, 0.004554722506121228, 0.0043754242194457525, 0.005413136439916949, 0.004530805304105646, 0.004827309964857704, 0.00484065176522563, 0.004095853441995132]</t>
+  </si>
+  <si>
+    <t>[0.23386008117347956, 0.2461506618373096, 0.26928447738289835, 0.2455883144773543, 0.26061151599511506, 0.27608219760470093, 0.2758771403506398, 0.2858589655766264, 0.28083512615412476, 0.3108122601732612, 0.30993797671049833, 0.30303169205784797, 0.29692896459251644, 0.30666249442845583, 0.3127425230108202, 0.3092127569951117, 0.31187247728463263, 0.3296998582081869, 0.3193770215893164, 0.3196795199997723]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.90      0.90      0.90      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.92      0.93      0.92      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.94      0.96      0.95      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.92      0.93      0.92      1000</t>
+  </si>
+  <si>
+    <t>[[898   1  19   6   0   1  70   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1 990   1   5   0   0   1   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 15   1 928   6  23   0  27   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  4   0   6 959  13   0  18   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  21  17 928   0  34   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 992   0   6   0   2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 80   0  36  21  43   0 815   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   2   0 986   0  12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   0   1   2   1   1   0   0 993   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   5   1  24   0 970]]</t>
+  </si>
+  <si>
+    <t>Kernels=[3,3],Data-Augmented Epochs=190-210</t>
+  </si>
+  <si>
+    <t>Epoch 00020: val_acc did not improve from 0.94160</t>
+  </si>
+  <si>
+    <t>[0.9417708333333333, 0.9434895833333333, 0.94578125, 0.9486979166666667, 0.9477604166666667, 0.9197916666666667, 0.9180208333333333, 0.9203125, 0.92109375, 0.92515625, 0.92546875, 0.9261458333333333, 0.9265625, 0.92546875, 0.9272395833333333, 0.9265625, 0.930625, 0.9278645833333333, 0.9273958333333333, 0.9296354166666667]</t>
+  </si>
+  <si>
+    <t>[0.9381, 0.9365, 0.9389, 0.9397, 0.9409, 0.9397, 0.9403, 0.9354, 0.9376, 0.9374, 0.9368, 0.938, 0.9374, 0.939, 0.938, 0.9416, 0.9405, 0.9376, 0.9385, 0.938]</t>
+  </si>
+  <si>
+    <t>[0.17166355737484992, 0.1609693799338614, 0.15406567773160834, 0.14318186912375191, 0.1515674972239261, 0.24108819590260586, 0.23896817374974488, 0.23178972554082672, 0.23305999751357984, 0.2114868210349232, 0.20754070528472462, 0.20778098933398723, 0.2090486361986647, 0.20817277425900102, 0.2038746476918459, 0.20175084192305803, 0.19241957891422012, 0.20530772076919676, 0.19826590434958538, 0.19180166811992724]</t>
+  </si>
+  <si>
+    <t>[0.2929627823451301, 0.2731290981066646, 0.2641880341477692, 0.24552073411308228, 0.22277164074052125, 0.24355724763106554, 0.21633726795986294, 0.20317769479751588, 0.2105651059359312, 0.19956813855245709, 0.20404286768585445, 0.1974717818133533, 0.19240950027108192, 0.18360830405652523, 0.20460425474122165, 0.18682239602133632, 0.18398921544477342, 0.19892767158523203, 0.18362770525813102, 0.1862200757533312]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.86      0.89      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.89      0.94      0.91      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.79      0.83      0.81      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.99      0.96      0.97      1000</t>
+  </si>
+  <si>
+    <t>[[863   0  13  13   1   0 105   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 989   1   8   0   0   0   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 15   1 883   6  45   0  50   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  3   0   8 940  22   0  27   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  14  13 936   0  36   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 990   0   8   0   2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 63   0  24  22  52   0 835   0   4   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   0   0   2   0   1   1   0 994   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   3   1  32   0 964]]</t>
+  </si>
+  <si>
+    <t>Epoch 00020: val_acc did not improve from 0.94770</t>
+  </si>
+  <si>
+    <t>[0.9919166735808055, 0.9960666704177856, 0.9969500029087066, 0.9981333351135254, 0.9985166680812836, 0.9987333345413208, 0.9988500010967255, 0.9972333359718323, 0.997000002861023, 0.997366669178009, 0.9976500022411346, 0.9974500024318695, 0.9977666687965393, 0.9975000023841858, 0.9978833352526029, 0.9975166690349578, 0.9978166687488556, 0.9978166687488556, 0.9979333353042602, 0.9978166687488556]</t>
+  </si>
+  <si>
+    <t>[0.9446999996900558, 0.9450999993085861, 0.9434999996423721, 0.9472000014781952, 0.9465999990701676, 0.9476000010967255, 0.946900001168251, 0.9476999998092651, 0.9457000029087067, 0.9449000036716462, 0.9473999983072281, 0.9444999992847443, 0.9456000024080277, 0.9435999995470047, 0.9461000019311905, 0.9460000002384186, 0.9456000012159348, 0.9457000029087067, 0.946800001859665, 0.9466000044345856]</t>
+  </si>
+  <si>
+    <t>[0.027185617858388772, 0.014832788923328432, 0.011290300507874539, 0.0082463535075658, 0.0073216464671713765, 0.005973867457263016, 0.005131641873401046, 0.009528788162958032, 0.009912445464312138, 0.009007091937043394, 0.008157833138805776, 0.007764747929759324, 0.007487294004774109, 0.007736325993488814, 0.006898155508073008, 0.007361068950413028, 0.006877579314459581, 0.006808230789004786, 0.0066532211067775885, 0.006768898269037891]</t>
+  </si>
+  <si>
+    <t>[0.2151710193604231, 0.22294240560382605, 0.24894349971786142, 0.22865144465118648, 0.2565808817371726, 0.27472510466352107, 0.2745562684163451, 0.28424419805407525, 0.2610821533296257, 0.3074921568855643, 0.2753823199495673, 0.28193124709650874, 0.28845671941526235, 0.2910079224780202, 0.2836100439075381, 0.2857095701806247, 0.3150929488241673, 0.29239604165777566, 0.29668917149305346, 0.28992425101809205]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.90      0.91      0.90      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.91      0.93      0.92      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.86      0.82      0.84      1000</t>
+  </si>
+  <si>
+    <t>[[905   1  24   6   1   0  58   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 990   1   7   0   0   0   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 15   1 926   6  24   0  28   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  4   0   8 957  15   0  16   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  23  15 933   0  29   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 76   0  35  21  49   0 816   0   3   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   4   1  22   0 973]]</t>
+  </si>
+  <si>
+    <t>[0.9610416666666667, 0.95890625, 0.9636458333333333, 0.96625, 0.9635416666666666, 0.94859375, 0.9458333333333333, 0.9488020833333334, 0.946875, 0.9528645833333333, 0.9527083333333334, 0.9505729166666667, 0.95109375, 0.9521354166666667, 0.9513541666666666, 0.9511979166666666, 0.92875, 0.9285416666666667, 0.9258333333333333, 0.9298958333333334]</t>
+  </si>
+  <si>
+    <t>[0.9396, 0.9388, 0.9395, 0.9413, 0.9413, 0.9388, 0.9405, 0.939, 0.9363, 0.9367, 0.9386, 0.936, 0.9356, 0.9331, 0.9382, 0.9416, 0.9416, 0.9372, 0.9409, 0.9391]</t>
+  </si>
+  <si>
+    <t>[0.1108076074909574, 0.11418624823059266, 0.10336317745095584, 0.09613502739618222, 0.10494705386362814, 0.1449098126150784, 0.1521045743767172, 0.14271133414314438, 0.1538315262661005, 0.1360993909703878, 0.13308054461920013, 0.13899978196869295, 0.13630881831903632, 0.13673095171960692, 0.13603716084578385, 0.1314446442279344, 0.2084616456180811, 0.21164337484942128, 0.20397837611225744, 0.1961974114769449]</t>
+  </si>
+  <si>
+    <t>[0.2868512477840763, 0.28490420438959263, 0.2758970742861275, 0.2669369502575835, 0.2521749402184039, 0.2646153844162822, 0.2751680229000747, 0.2335445734269917, 0.2348614041209221, 0.25136568650081753, 0.23588084020214156, 0.24162795102149248, 0.23625086932964623, 0.22532779638767242, 0.23592739292122425, 0.2354604839477688, 0.21144644282907246, 0.21637964229620993, 0.18974058293551208, 0.1991195777967572]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.93      0.95      0.94      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.79      0.85      0.82      1000</t>
+  </si>
+  <si>
+    <t>[[861   0  14  11   1   0 108   0   5   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 988   1   9   0   0   1   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 14   1 888   8  33   0  56   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  7   1   6 949  14   0  22   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  18  15 925   0  42   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 60   0  25  21  43   0 849   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   2   0 989   0   9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   1   0   4   0   1   1   0 991   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   3   1  33   0 963]]</t>
+  </si>
+  <si>
+    <t>Kernels=[3,3，3，3],Data-Augmented Epochs=1-100</t>
+  </si>
+  <si>
+    <t>Epoch 00100: val_acc did not improve from 0.94260</t>
+  </si>
+  <si>
+    <t>[0.7390104166666667, 0.8138541666666667, 0.8372395833333334, 0.8519270833333333, 0.86046875, 0.8741666666666666, 0.8741666666666666, 0.8794270833333333, 0.88546875, 0.890625, 0.8938541666666666, 0.894375, 0.8972916666666667, 0.8996354166666667, 0.899375, 0.9015104166666666, 0.9052083333333333, 0.9028645833333333, 0.9041666666666667, 0.90546875, 0.9113020833333333, 0.9108854166666667, 0.9110416666666666, 0.9130208333333333, 0.91109375, 0.9174479166666667, 0.9160416666666666, 0.915, 0.9170833333333334, 0.91984375, 0.9189583333333333, 0.9188020833333334, 0.9251041666666666, 0.9180208333333333, 0.9233854166666666, 0.9197916666666667, 0.9205729166666666, 0.9259375, 0.9243229166666667, 0.9239583333333333, 0.9226041666666667, 0.92703125, 0.92546875, 0.92390625, 0.9272395833333333, 0.9240625, 0.9270833333333334, 0.9284375, 0.92703125, 0.92953125, 0.9281770833333334, 0.9263541666666667, 0.9320833333333334, 0.92984375, 0.9288020833333334, 0.9300520833333333, 0.9333854166666666, 0.9308333333333333, 0.9309895833333334, 0.93328125, 0.93359375, 0.9308333333333333, 0.9385416666666667, 0.9353645833333334, 0.9314583333333334, 0.9344791666666666, 0.9340104166666666, 0.93359375, 0.935, 0.9352083333333333, 0.9339583333333333, 0.9335416666666667, 0.936875, 0.9405729166666666, 0.9374479166666667, 0.9383333333333334, 0.9358854166666667, 0.9380729166666667, 0.94015625, 0.9383333333333334, 0.9390104166666666, 0.9380729166666667, 0.9372395833333333, 0.9395833333333333, 0.9379166666666666, 0.9374479166666667, 0.9414583333333333, 0.93875, 0.9429166666666666, 0.9380729166666667, 0.94078125, 0.9422916666666666, 0.939375, 0.9385416666666667, 0.9426041666666667, 0.9434375, 0.9402604166666667, 0.9448958333333334, 0.9397916666666667, 0.94265625]</t>
+  </si>
+  <si>
+    <t>[0.8372, 0.8541, 0.8668, 0.877, 0.8857, 0.8849, 0.9056, 0.8956, 0.9012, 0.9071, 0.9096, 0.9085, 0.9089, 0.9054, 0.9117, 0.9073, 0.9184, 0.9173, 0.9174, 0.9224, 0.8945, 0.9143, 0.9187, 0.9249, 0.9255, 0.9249, 0.9203, 0.9224, 0.9226, 0.9246, 0.9268, 0.9188, 0.9276, 0.9238, 0.9282, 0.9313, 0.9281, 0.931, 0.9303, 0.9279, 0.9312, 0.9302, 0.9324, 0.9313, 0.9276, 0.9298, 0.9298, 0.933, 0.9325, 0.9312, 0.9349, 0.9341, 0.9355, 0.9354, 0.9367, 0.9336, 0.9333, 0.9332, 0.9334, 0.9334, 0.9299, 0.9333, 0.9373, 0.9346, 0.9378, 0.9352, 0.9327, 0.9352, 0.9383, 0.937, 0.9352, 0.9376, 0.9336, 0.9328, 0.9374, 0.9314, 0.9386, 0.9361, 0.9365, 0.9358, 0.9392, 0.9387, 0.9389, 0.9361, 0.937, 0.9399, 0.9426, 0.9406, 0.9379, 0.9401, 0.9349, 0.9396, 0.9403, 0.9378, 0.9349, 0.94, 0.9395, 0.9399, 0.9417, 0.9401]</t>
+  </si>
+  <si>
+    <t>[0.7222987238566081, 0.512033169567585, 0.441319710512956, 0.39753904633224013, 0.3833534882714351, 0.34403040433923404, 0.33800178618480764, 0.32687040901432435, 0.32201679502924285, 0.2980068987607956, 0.2889835145821174, 0.2954936459846795, 0.28113253990809123, 0.2748723451606929, 0.2768306531198323, 0.2665491250654062, 0.2595508328018089, 0.2622880605328828, 0.26569209444026154, 0.2548799000680447, 0.2465432844993969, 0.24844953492283822, 0.2414044563534359, 0.23559521952643991, 0.24368474862227837, 0.2303428576886654, 0.22940906804675856, 0.23374934548512102, 0.22881979114065568, 0.22183387561080356, 0.22433265062669913, 0.2226066242220501, 0.21057331828400494, 0.2272007292198638, 0.21252944065568347, 0.22007544161751866, 0.21641935596552989, 0.20384017388957243, 0.213551404842486, 0.20586424393268923, 0.21244795490366716, 0.20055155414777498, 0.2079224220228692, 0.2084708459613224, 0.19523305124603213, 0.20653575096900265, 0.2008824257304271, 0.19759489946377773, 0.2043744648884361, 0.19233261920511724, 0.19582646787166597, 0.20229918703747293, 0.1878500589542091, 0.18899672919884325, 0.1942718988408645, 0.19126980068472524, 0.18280515739383796, 0.19417991733488937, 0.18917335617356001, 0.18441192550584673, 0.1847436569693188, 0.1905330399144441, 0.17253267546960463, 0.1827577762833486, 0.18572883561253548, 0.17807732021591316, 0.180857242110651, 0.17958999699912964, 0.17589827894543608, 0.17903604540973903, 0.1775398783106357, 0.18265328134099643, 0.17368571108672767, 0.16913385853792232, 0.17549314552297196, 0.17115212604093055, 0.17674307209284354, 0.16876009616457546, 0.16691960317082702, 0.1715775571220244, 0.16639563226141035, 0.17142149064224213, 0.17849850649014115, 0.16630560278271636, 0.16655847111561647, 0.17182617942336947, 0.16392356841204067, 0.16789021029447515, 0.15735343878623098, 0.17089441392260293, 0.16638664073621234, 0.1572653089572365, 0.16613909918814898, 0.16802496451884508, 0.15800260406608382, 0.15834288021394363, 0.15954263511657094, 0.1560980350865672, 0.1637600094017883, 0.1591290731704794]</t>
+  </si>
+  <si>
+    <t>[0.43908530683517455, 0.39939728157520293, 0.3705395557641983, 0.3307580963134766, 0.3051050690770149, 0.3169893595814705, 0.2670114632368088, 0.2924400633096695, 0.27526947642564775, 0.25355178082585333, 0.25544130449295044, 0.25058449425697327, 0.23837244247198106, 0.2652057818353176, 0.24085187849998474, 0.2508607310771942, 0.22813542464971542, 0.2327174132168293, 0.22673588727712632, 0.2132026923418045, 0.2879179257154465, 0.22716846894621848, 0.2275254888445139, 0.20950105420053006, 0.2139925878763199, 0.21214436047673224, 0.22155717020630836, 0.20851139917373657, 0.21213305639624597, 0.2046628998219967, 0.21199067341089248, 0.2252243454784155, 0.2056563644886017, 0.21293754532933235, 0.1980014110058546, 0.18981210124492645, 0.20225047851800917, 0.19448870782852173, 0.20655747804045677, 0.19835601229667663, 0.19334106132388115, 0.19521843063235284, 0.19944403899610041, 0.18851028013527393, 0.20064516719281675, 0.19726281422376632, 0.1974265381515026, 0.1871969898864627, 0.18945549382269383, 0.19630937321782113, 0.18420644650757312, 0.1906962182402611, 0.18574835054278374, 0.18311395194232463, 0.18228357261419295, 0.18788355067670345, 0.19151106915473937, 0.18619732906520367, 0.1887437865436077, 0.18860819689035416, 0.19413589927852154, 0.19477065072655678, 0.18070488763153553, 0.18703138696849347, 0.17609383367300033, 0.18326054824590682, 0.18920268281102182, 0.19108346777558327, 0.17772335895895958, 0.181038558447361, 0.18411352438926698, 0.18132962680161, 0.1862255370259285, 0.1957712726086378, 0.17878429295420648, 0.19503133720606566, 0.17852482068240644, 0.17986994437724352, 0.18560207354426383, 0.18317613625228404, 0.17577492867410183, 0.17363635597229005, 0.17479317907989025, 0.19437987166047097, 0.1860839605629444, 0.1805605829179287, 0.17153657156229019, 0.17675622424632312, 0.18266489379256964, 0.17398220109939574, 0.19367168811708688, 0.17617417969107627, 0.18596432979404925, 0.18103004779219628, 0.1907839958757162, 0.17778725154399871, 0.17793878636807203, 0.17680764037370683, 0.1768514610081911, 0.1759678552314639]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.92      0.96      0.94      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.92      0.90      0.91      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.96      0.99      0.98      1000</t>
+  </si>
+  <si>
+    <t>[[893   0  16  13   0   0  74   0   4   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1 982   0  13   1   0   1   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 20   1 902  11  21   0  45   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  6   1   5 959  11   0  17   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1   0  28  19 898   0  54   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 987   0   8   0   5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 77   0  29  21  40   0 831   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   3   0 986   0  11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   3   0   1   0   0 996   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   1   0   0   0   4   0  28   0 967]]</t>
   </si>
 </sst>
 </file>
@@ -1114,9 +1902,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1162,19 +1950,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1187,7 +1966,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,14 +2003,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,6 +2020,14 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1239,20 +2041,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1269,38 +2072,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1315,7 +2103,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,7 +2175,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,109 +2223,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,13 +2247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,25 +2259,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,11 +2297,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1521,19 +2315,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1549,6 +2332,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1570,39 +2386,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1614,10 +2402,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1626,133 +2414,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12418,6 +13206,1393 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Kernel Train and Val Accurary</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kernel!$A$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acc_K=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Kernel!$B$119:$AY$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.77329999887074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.846266663968563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.862866666217645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.872666665812333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.879900000294049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.883649999499321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.887550002137819</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.892500000496705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.895500000317891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.898000001708666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.899900001088778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.901183334290981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.902650001645088</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.905683334271113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.908333335121472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.907066668570041</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91043333441019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.911866667767365</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.913583335379759</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.914299999177455</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.915466669102509</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.917316668828328</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91935000171264</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.919450001120567</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.921800001959006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.920916669170061</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.922816667755444</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.922616667250792</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.925683335264523</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.925000001986821</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.926266667842865</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.927100001871585</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.926250003278255</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.927066668868064</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.929300002753734</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.929966668685277</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.931133333444595</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.931883334815502</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.931333336333433</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.933383335371812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.934033334652582</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.934600000878175</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.935766668319702</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.935016668736934</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.935550000071525</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.937633335292339</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.937033335765202</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93923333565394</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.939166669845581</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.937850002646446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kernel!$A$120</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_acc_K=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Kernel!$B$120:$AY$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.834499997496605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.869799999594688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.879700001478195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.882400000691413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.892499999403953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89280000269413</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.896300002336502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89329999923706</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.899100001454353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.900500000715255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.901499998569488</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.903100001215934</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90320000052452</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.902400002479553</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.905599999427795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.908200006484985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.904700000286102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.902099999785423</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90990000128746</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.908100000619888</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.908100000619888</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.912800003886222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.912800001502037</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.911299999952316</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.913800002336502</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.909300001263618</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.913300002217292</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.912300001382827</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.914500002861023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.913200001120567</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.912099999189376</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.913100001811981</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.913500003814697</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.916700001955032</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.917300000786781</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.911600002646446</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.915599998831748</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.915600001215934</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.914800001978874</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.915800001025199</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.916400002837181</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.916000002026558</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.916700001358985</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.918800002336502</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.916800001263618</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.919700001478195</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.917500001788139</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.91950000166893</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.919800000190734</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.919300003051757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kernel!$A$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acc_K=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Kernel!$B$121:$AY$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.815716665865232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88076666722695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.895750001072883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.905250000953674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.912066668272018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.916533334950606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.920883336067199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.923433335920175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.928400002717971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.930166669289271</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.933333333730697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.935916669269402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.937933335105578</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.939933335979779</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.939950001041094</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.942250001927216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.943383335471153</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.944916666646798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94698333521684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.948083333671093</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.949833332995573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.949116667906443</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.952283335924148</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.953250001370906</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.953800002932548</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.954383335014184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.956100003123283</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.955750002960364</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.956633335252602</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95861667027076</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.958633336424827</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.959666668872038</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.961383337577184</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.961050004661083</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.962633338371912</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.962550003826618</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.96330000480016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.964216671586036</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.964200006524721</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.965816671848297</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.967700005968411</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.967450006902217</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.965866671403249</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.968583338856697</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.968483338753382</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.968583341638247</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.969366673529148</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.969433340032895</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.970633340080579</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.969916675984859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kernel!$A$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_acc_K=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Kernel!$B$122:$AY$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.880900001525878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89039999961853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.903099999427795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.911200003027915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.916300001740455</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.921400002837181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.926400005817413</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.928500002622604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.916600002646446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92699999988079</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.928400001525878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.930400001406669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92970000386238</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93280000090599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.930100002884864</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.933200002908706</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.935000001192092</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.931100000739097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93400000154972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93900000154972</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.932100002169609</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.935900002121925</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.936699999570846</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.937700002789497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.933800001144409</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.932500001788139</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.938500000834465</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.933700001239776</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93480000257492</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.936399999260902</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.935300001502037</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.941999998688697</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93610000193119</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.936800000071525</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.937600001692771</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.937100000977516</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.941400001645088</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.939899998903274</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.941400000452995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.939000002145767</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.940400000214576</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.939399998188018</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.939699999690055</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.940600000023841</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.93999999821186</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.937900000810623</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.937700002193451</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.937600001692771</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.935200001597404</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.938700000047683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kernel!$A$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acc_K=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Kernel!$B$123:$AY$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.817849999883522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87865000039339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.893616667191187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.905066667894522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.910283334950606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.914933335085709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.919800001581509</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.923333336214224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.926000000337759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.927350001533826</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.931566668152809</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.933500001132488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.935666668911775</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.938383335073789</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.939650002022584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.940350001951058</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94103333512942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.943633334040641</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94386666893959</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.944950001537799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94790000240008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.947450002729892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.951066668828328</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.949233335554599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.951900002360343</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.952000001470247</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.954616668919722</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.954516670107841</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.954800003170967</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.954750002026557</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.957133335669835</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.956966669460137</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.957416670223077</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.959183335701624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.958933336536089</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.961400003333886</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.961383337477843</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.96065000385046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.960916671057542</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.962883337736129</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.965016672213872</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.963866671224435</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.964433339337507</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.965633337795734</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.964800004661083</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.966983339488506</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.964983338514963</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.966783339877923</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.967183339595794</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.967700005571047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kernel!$A$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_acc_K=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Kernel!$B$124:$AY$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.878400002717971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.891000001430511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.907200002670288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.911400000452995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.915400001406669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.917000002264976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.921000002622604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91990000128746</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.917400000691413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.923000001907348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92870000064373</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.928300005197525</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92700000166893</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.921099999547004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.926500002145767</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.932000001072883</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.932300004959106</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.933900001645088</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.935100003480911</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.932700001597404</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.930600001811981</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.932700002193451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.935000001192092</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.934600003361702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.934400001764297</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.934400000572204</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.933200002908706</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.931600002646446</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.934600000381469</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93570000052452</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9316999989748</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.934300001859664</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.936600001454353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.933500000834465</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93650000154972</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.93610000193119</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.937900000810623</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.93860000193119</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.935499999523162</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.936100000143051</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.935300002694129</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.935600001811981</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.937600000500679</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.935400001406669</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.935199999809265</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.937200004458427</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.938700001239776</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.937699998617172</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.937600002288818</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.937800002098083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="333266975"/>
+        <c:axId val="821576161"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="333266975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821576161"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="821576161"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.76"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333266975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.02"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12659,6 +14834,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16310,6 +18525,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -16537,6 +19268,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="841375" y="21913850"/>
+        <a:ext cx="8858250" cy="4095115"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18093,6 +20859,1424 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B334"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>473</v>
+      </c>
+      <c r="B38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>496</v>
+      </c>
+      <c r="B75" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>516</v>
+      </c>
+      <c r="B112" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>535</v>
+      </c>
+      <c r="B150" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>556</v>
+      </c>
+      <c r="B188" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>605</v>
+      </c>
+      <c r="B300" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -23308,10 +27492,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AY277"/>
+  <dimension ref="A1:AY360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270:B277"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A327" sqref="A327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -28565,6 +32749,1589 @@
         <v>0.215560593940317</v>
       </c>
     </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:AY124"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="51" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>406</v>
+      </c>
+      <c r="B39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>423</v>
+      </c>
+      <c r="B78" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:51">
+      <c r="A119" t="s">
+        <v>446</v>
+      </c>
+      <c r="B119">
+        <v>0.77329999887074</v>
+      </c>
+      <c r="C119">
+        <v>0.846266663968563</v>
+      </c>
+      <c r="D119">
+        <v>0.862866666217645</v>
+      </c>
+      <c r="E119">
+        <v>0.872666665812333</v>
+      </c>
+      <c r="F119">
+        <v>0.879900000294049</v>
+      </c>
+      <c r="G119">
+        <v>0.883649999499321</v>
+      </c>
+      <c r="H119">
+        <v>0.887550002137819</v>
+      </c>
+      <c r="I119">
+        <v>0.892500000496705</v>
+      </c>
+      <c r="J119">
+        <v>0.895500000317891</v>
+      </c>
+      <c r="K119">
+        <v>0.898000001708666</v>
+      </c>
+      <c r="L119">
+        <v>0.899900001088778</v>
+      </c>
+      <c r="M119">
+        <v>0.901183334290981</v>
+      </c>
+      <c r="N119">
+        <v>0.902650001645088</v>
+      </c>
+      <c r="O119">
+        <v>0.905683334271113</v>
+      </c>
+      <c r="P119">
+        <v>0.908333335121472</v>
+      </c>
+      <c r="Q119">
+        <v>0.907066668570041</v>
+      </c>
+      <c r="R119">
+        <v>0.91043333441019</v>
+      </c>
+      <c r="S119">
+        <v>0.911866667767365</v>
+      </c>
+      <c r="T119">
+        <v>0.913583335379759</v>
+      </c>
+      <c r="U119">
+        <v>0.914299999177455</v>
+      </c>
+      <c r="V119">
+        <v>0.915466669102509</v>
+      </c>
+      <c r="W119">
+        <v>0.917316668828328</v>
+      </c>
+      <c r="X119">
+        <v>0.91935000171264</v>
+      </c>
+      <c r="Y119">
+        <v>0.919450001120567</v>
+      </c>
+      <c r="Z119">
+        <v>0.921800001959006</v>
+      </c>
+      <c r="AA119">
+        <v>0.920916669170061</v>
+      </c>
+      <c r="AB119">
+        <v>0.922816667755444</v>
+      </c>
+      <c r="AC119">
+        <v>0.922616667250792</v>
+      </c>
+      <c r="AD119">
+        <v>0.925683335264523</v>
+      </c>
+      <c r="AE119">
+        <v>0.925000001986821</v>
+      </c>
+      <c r="AF119">
+        <v>0.926266667842865</v>
+      </c>
+      <c r="AG119">
+        <v>0.927100001871585</v>
+      </c>
+      <c r="AH119">
+        <v>0.926250003278255</v>
+      </c>
+      <c r="AI119">
+        <v>0.927066668868064</v>
+      </c>
+      <c r="AJ119">
+        <v>0.929300002753734</v>
+      </c>
+      <c r="AK119">
+        <v>0.929966668685277</v>
+      </c>
+      <c r="AL119">
+        <v>0.931133333444595</v>
+      </c>
+      <c r="AM119">
+        <v>0.931883334815502</v>
+      </c>
+      <c r="AN119">
+        <v>0.931333336333433</v>
+      </c>
+      <c r="AO119">
+        <v>0.933383335371812</v>
+      </c>
+      <c r="AP119">
+        <v>0.934033334652582</v>
+      </c>
+      <c r="AQ119">
+        <v>0.934600000878175</v>
+      </c>
+      <c r="AR119">
+        <v>0.935766668319702</v>
+      </c>
+      <c r="AS119">
+        <v>0.935016668736934</v>
+      </c>
+      <c r="AT119">
+        <v>0.935550000071525</v>
+      </c>
+      <c r="AU119">
+        <v>0.937633335292339</v>
+      </c>
+      <c r="AV119">
+        <v>0.937033335765202</v>
+      </c>
+      <c r="AW119">
+        <v>0.93923333565394</v>
+      </c>
+      <c r="AX119">
+        <v>0.939166669845581</v>
+      </c>
+      <c r="AY119">
+        <v>0.937850002646446</v>
+      </c>
+    </row>
+    <row r="120" spans="1:51">
+      <c r="A120" t="s">
+        <v>447</v>
+      </c>
+      <c r="B120">
+        <v>0.834499997496605</v>
+      </c>
+      <c r="C120">
+        <v>0.869799999594688</v>
+      </c>
+      <c r="D120">
+        <v>0.879700001478195</v>
+      </c>
+      <c r="E120">
+        <v>0.882400000691413</v>
+      </c>
+      <c r="F120">
+        <v>0.892499999403953</v>
+      </c>
+      <c r="G120">
+        <v>0.89280000269413</v>
+      </c>
+      <c r="H120">
+        <v>0.896300002336502</v>
+      </c>
+      <c r="I120">
+        <v>0.89329999923706</v>
+      </c>
+      <c r="J120">
+        <v>0.899100001454353</v>
+      </c>
+      <c r="K120">
+        <v>0.900500000715255</v>
+      </c>
+      <c r="L120">
+        <v>0.901499998569488</v>
+      </c>
+      <c r="M120">
+        <v>0.903100001215934</v>
+      </c>
+      <c r="N120">
+        <v>0.90320000052452</v>
+      </c>
+      <c r="O120">
+        <v>0.902400002479553</v>
+      </c>
+      <c r="P120">
+        <v>0.905599999427795</v>
+      </c>
+      <c r="Q120">
+        <v>0.908200006484985</v>
+      </c>
+      <c r="R120">
+        <v>0.904700000286102</v>
+      </c>
+      <c r="S120">
+        <v>0.902099999785423</v>
+      </c>
+      <c r="T120">
+        <v>0.90990000128746</v>
+      </c>
+      <c r="U120">
+        <v>0.908100000619888</v>
+      </c>
+      <c r="V120">
+        <v>0.908100000619888</v>
+      </c>
+      <c r="W120">
+        <v>0.912800003886222</v>
+      </c>
+      <c r="X120">
+        <v>0.912800001502037</v>
+      </c>
+      <c r="Y120">
+        <v>0.911299999952316</v>
+      </c>
+      <c r="Z120">
+        <v>0.913800002336502</v>
+      </c>
+      <c r="AA120">
+        <v>0.909300001263618</v>
+      </c>
+      <c r="AB120">
+        <v>0.913300002217292</v>
+      </c>
+      <c r="AC120">
+        <v>0.912300001382827</v>
+      </c>
+      <c r="AD120">
+        <v>0.914500002861023</v>
+      </c>
+      <c r="AE120">
+        <v>0.913200001120567</v>
+      </c>
+      <c r="AF120">
+        <v>0.912099999189376</v>
+      </c>
+      <c r="AG120">
+        <v>0.913100001811981</v>
+      </c>
+      <c r="AH120">
+        <v>0.913500003814697</v>
+      </c>
+      <c r="AI120">
+        <v>0.916700001955032</v>
+      </c>
+      <c r="AJ120">
+        <v>0.917300000786781</v>
+      </c>
+      <c r="AK120">
+        <v>0.911600002646446</v>
+      </c>
+      <c r="AL120">
+        <v>0.915599998831748</v>
+      </c>
+      <c r="AM120">
+        <v>0.915600001215934</v>
+      </c>
+      <c r="AN120">
+        <v>0.914800001978874</v>
+      </c>
+      <c r="AO120">
+        <v>0.915800001025199</v>
+      </c>
+      <c r="AP120">
+        <v>0.916400002837181</v>
+      </c>
+      <c r="AQ120">
+        <v>0.916000002026558</v>
+      </c>
+      <c r="AR120">
+        <v>0.916700001358985</v>
+      </c>
+      <c r="AS120">
+        <v>0.918800002336502</v>
+      </c>
+      <c r="AT120">
+        <v>0.916800001263618</v>
+      </c>
+      <c r="AU120">
+        <v>0.919700001478195</v>
+      </c>
+      <c r="AV120">
+        <v>0.917500001788139</v>
+      </c>
+      <c r="AW120">
+        <v>0.91950000166893</v>
+      </c>
+      <c r="AX120">
+        <v>0.919800000190734</v>
+      </c>
+      <c r="AY120">
+        <v>0.919300003051757</v>
+      </c>
+    </row>
+    <row r="121" spans="1:51">
+      <c r="A121" t="s">
+        <v>448</v>
+      </c>
+      <c r="B121">
+        <v>0.815716665865232</v>
+      </c>
+      <c r="C121">
+        <v>0.88076666722695</v>
+      </c>
+      <c r="D121">
+        <v>0.895750001072883</v>
+      </c>
+      <c r="E121">
+        <v>0.905250000953674</v>
+      </c>
+      <c r="F121">
+        <v>0.912066668272018</v>
+      </c>
+      <c r="G121">
+        <v>0.916533334950606</v>
+      </c>
+      <c r="H121">
+        <v>0.920883336067199</v>
+      </c>
+      <c r="I121">
+        <v>0.923433335920175</v>
+      </c>
+      <c r="J121">
+        <v>0.928400002717971</v>
+      </c>
+      <c r="K121">
+        <v>0.930166669289271</v>
+      </c>
+      <c r="L121">
+        <v>0.933333333730697</v>
+      </c>
+      <c r="M121">
+        <v>0.935916669269402</v>
+      </c>
+      <c r="N121">
+        <v>0.937933335105578</v>
+      </c>
+      <c r="O121">
+        <v>0.939933335979779</v>
+      </c>
+      <c r="P121">
+        <v>0.939950001041094</v>
+      </c>
+      <c r="Q121">
+        <v>0.942250001927216</v>
+      </c>
+      <c r="R121">
+        <v>0.943383335471153</v>
+      </c>
+      <c r="S121">
+        <v>0.944916666646798</v>
+      </c>
+      <c r="T121">
+        <v>0.94698333521684</v>
+      </c>
+      <c r="U121">
+        <v>0.948083333671093</v>
+      </c>
+      <c r="V121">
+        <v>0.949833332995573</v>
+      </c>
+      <c r="W121">
+        <v>0.949116667906443</v>
+      </c>
+      <c r="X121">
+        <v>0.952283335924148</v>
+      </c>
+      <c r="Y121">
+        <v>0.953250001370906</v>
+      </c>
+      <c r="Z121">
+        <v>0.953800002932548</v>
+      </c>
+      <c r="AA121">
+        <v>0.954383335014184</v>
+      </c>
+      <c r="AB121">
+        <v>0.956100003123283</v>
+      </c>
+      <c r="AC121">
+        <v>0.955750002960364</v>
+      </c>
+      <c r="AD121">
+        <v>0.956633335252602</v>
+      </c>
+      <c r="AE121">
+        <v>0.95861667027076</v>
+      </c>
+      <c r="AF121">
+        <v>0.958633336424827</v>
+      </c>
+      <c r="AG121">
+        <v>0.959666668872038</v>
+      </c>
+      <c r="AH121">
+        <v>0.961383337577184</v>
+      </c>
+      <c r="AI121">
+        <v>0.961050004661083</v>
+      </c>
+      <c r="AJ121">
+        <v>0.962633338371912</v>
+      </c>
+      <c r="AK121">
+        <v>0.962550003826618</v>
+      </c>
+      <c r="AL121">
+        <v>0.96330000480016</v>
+      </c>
+      <c r="AM121">
+        <v>0.964216671586036</v>
+      </c>
+      <c r="AN121">
+        <v>0.964200006524721</v>
+      </c>
+      <c r="AO121">
+        <v>0.965816671848297</v>
+      </c>
+      <c r="AP121">
+        <v>0.967700005968411</v>
+      </c>
+      <c r="AQ121">
+        <v>0.967450006902217</v>
+      </c>
+      <c r="AR121">
+        <v>0.965866671403249</v>
+      </c>
+      <c r="AS121">
+        <v>0.968583338856697</v>
+      </c>
+      <c r="AT121">
+        <v>0.968483338753382</v>
+      </c>
+      <c r="AU121">
+        <v>0.968583341638247</v>
+      </c>
+      <c r="AV121">
+        <v>0.969366673529148</v>
+      </c>
+      <c r="AW121">
+        <v>0.969433340032895</v>
+      </c>
+      <c r="AX121">
+        <v>0.970633340080579</v>
+      </c>
+      <c r="AY121">
+        <v>0.969916675984859</v>
+      </c>
+    </row>
+    <row r="122" spans="1:51">
+      <c r="A122" t="s">
+        <v>449</v>
+      </c>
+      <c r="B122">
+        <v>0.880900001525878</v>
+      </c>
+      <c r="C122">
+        <v>0.89039999961853</v>
+      </c>
+      <c r="D122">
+        <v>0.903099999427795</v>
+      </c>
+      <c r="E122">
+        <v>0.911200003027915</v>
+      </c>
+      <c r="F122">
+        <v>0.916300001740455</v>
+      </c>
+      <c r="G122">
+        <v>0.921400002837181</v>
+      </c>
+      <c r="H122">
+        <v>0.926400005817413</v>
+      </c>
+      <c r="I122">
+        <v>0.928500002622604</v>
+      </c>
+      <c r="J122">
+        <v>0.916600002646446</v>
+      </c>
+      <c r="K122">
+        <v>0.92699999988079</v>
+      </c>
+      <c r="L122">
+        <v>0.928400001525878</v>
+      </c>
+      <c r="M122">
+        <v>0.930400001406669</v>
+      </c>
+      <c r="N122">
+        <v>0.92970000386238</v>
+      </c>
+      <c r="O122">
+        <v>0.93280000090599</v>
+      </c>
+      <c r="P122">
+        <v>0.930100002884864</v>
+      </c>
+      <c r="Q122">
+        <v>0.933200002908706</v>
+      </c>
+      <c r="R122">
+        <v>0.935000001192092</v>
+      </c>
+      <c r="S122">
+        <v>0.931100000739097</v>
+      </c>
+      <c r="T122">
+        <v>0.93400000154972</v>
+      </c>
+      <c r="U122">
+        <v>0.93900000154972</v>
+      </c>
+      <c r="V122">
+        <v>0.932100002169609</v>
+      </c>
+      <c r="W122">
+        <v>0.935900002121925</v>
+      </c>
+      <c r="X122">
+        <v>0.936699999570846</v>
+      </c>
+      <c r="Y122">
+        <v>0.937700002789497</v>
+      </c>
+      <c r="Z122">
+        <v>0.933800001144409</v>
+      </c>
+      <c r="AA122">
+        <v>0.932500001788139</v>
+      </c>
+      <c r="AB122">
+        <v>0.938500000834465</v>
+      </c>
+      <c r="AC122">
+        <v>0.933700001239776</v>
+      </c>
+      <c r="AD122">
+        <v>0.93480000257492</v>
+      </c>
+      <c r="AE122">
+        <v>0.936399999260902</v>
+      </c>
+      <c r="AF122">
+        <v>0.935300001502037</v>
+      </c>
+      <c r="AG122">
+        <v>0.941999998688697</v>
+      </c>
+      <c r="AH122">
+        <v>0.93610000193119</v>
+      </c>
+      <c r="AI122">
+        <v>0.936800000071525</v>
+      </c>
+      <c r="AJ122">
+        <v>0.937600001692771</v>
+      </c>
+      <c r="AK122">
+        <v>0.937100000977516</v>
+      </c>
+      <c r="AL122">
+        <v>0.941400001645088</v>
+      </c>
+      <c r="AM122">
+        <v>0.939899998903274</v>
+      </c>
+      <c r="AN122">
+        <v>0.941400000452995</v>
+      </c>
+      <c r="AO122">
+        <v>0.939000002145767</v>
+      </c>
+      <c r="AP122">
+        <v>0.940400000214576</v>
+      </c>
+      <c r="AQ122">
+        <v>0.939399998188018</v>
+      </c>
+      <c r="AR122">
+        <v>0.939699999690055</v>
+      </c>
+      <c r="AS122">
+        <v>0.940600000023841</v>
+      </c>
+      <c r="AT122">
+        <v>0.93999999821186</v>
+      </c>
+      <c r="AU122">
+        <v>0.937900000810623</v>
+      </c>
+      <c r="AV122">
+        <v>0.937700002193451</v>
+      </c>
+      <c r="AW122">
+        <v>0.937600001692771</v>
+      </c>
+      <c r="AX122">
+        <v>0.935200001597404</v>
+      </c>
+      <c r="AY122">
+        <v>0.938700000047683</v>
+      </c>
+    </row>
+    <row r="123" spans="1:51">
+      <c r="A123" t="s">
+        <v>450</v>
+      </c>
+      <c r="B123">
+        <v>0.817849999883522</v>
+      </c>
+      <c r="C123">
+        <v>0.87865000039339</v>
+      </c>
+      <c r="D123">
+        <v>0.893616667191187</v>
+      </c>
+      <c r="E123">
+        <v>0.905066667894522</v>
+      </c>
+      <c r="F123">
+        <v>0.910283334950606</v>
+      </c>
+      <c r="G123">
+        <v>0.914933335085709</v>
+      </c>
+      <c r="H123">
+        <v>0.919800001581509</v>
+      </c>
+      <c r="I123">
+        <v>0.923333336214224</v>
+      </c>
+      <c r="J123">
+        <v>0.926000000337759</v>
+      </c>
+      <c r="K123">
+        <v>0.927350001533826</v>
+      </c>
+      <c r="L123">
+        <v>0.931566668152809</v>
+      </c>
+      <c r="M123">
+        <v>0.933500001132488</v>
+      </c>
+      <c r="N123">
+        <v>0.935666668911775</v>
+      </c>
+      <c r="O123">
+        <v>0.938383335073789</v>
+      </c>
+      <c r="P123">
+        <v>0.939650002022584</v>
+      </c>
+      <c r="Q123">
+        <v>0.940350001951058</v>
+      </c>
+      <c r="R123">
+        <v>0.94103333512942</v>
+      </c>
+      <c r="S123">
+        <v>0.943633334040641</v>
+      </c>
+      <c r="T123">
+        <v>0.94386666893959</v>
+      </c>
+      <c r="U123">
+        <v>0.944950001537799</v>
+      </c>
+      <c r="V123">
+        <v>0.94790000240008</v>
+      </c>
+      <c r="W123">
+        <v>0.947450002729892</v>
+      </c>
+      <c r="X123">
+        <v>0.951066668828328</v>
+      </c>
+      <c r="Y123">
+        <v>0.949233335554599</v>
+      </c>
+      <c r="Z123">
+        <v>0.951900002360343</v>
+      </c>
+      <c r="AA123">
+        <v>0.952000001470247</v>
+      </c>
+      <c r="AB123">
+        <v>0.954616668919722</v>
+      </c>
+      <c r="AC123">
+        <v>0.954516670107841</v>
+      </c>
+      <c r="AD123">
+        <v>0.954800003170967</v>
+      </c>
+      <c r="AE123">
+        <v>0.954750002026557</v>
+      </c>
+      <c r="AF123">
+        <v>0.957133335669835</v>
+      </c>
+      <c r="AG123">
+        <v>0.956966669460137</v>
+      </c>
+      <c r="AH123">
+        <v>0.957416670223077</v>
+      </c>
+      <c r="AI123">
+        <v>0.959183335701624</v>
+      </c>
+      <c r="AJ123">
+        <v>0.958933336536089</v>
+      </c>
+      <c r="AK123">
+        <v>0.961400003333886</v>
+      </c>
+      <c r="AL123">
+        <v>0.961383337477843</v>
+      </c>
+      <c r="AM123">
+        <v>0.96065000385046</v>
+      </c>
+      <c r="AN123">
+        <v>0.960916671057542</v>
+      </c>
+      <c r="AO123">
+        <v>0.962883337736129</v>
+      </c>
+      <c r="AP123">
+        <v>0.965016672213872</v>
+      </c>
+      <c r="AQ123">
+        <v>0.963866671224435</v>
+      </c>
+      <c r="AR123">
+        <v>0.964433339337507</v>
+      </c>
+      <c r="AS123">
+        <v>0.965633337795734</v>
+      </c>
+      <c r="AT123">
+        <v>0.964800004661083</v>
+      </c>
+      <c r="AU123">
+        <v>0.966983339488506</v>
+      </c>
+      <c r="AV123">
+        <v>0.964983338514963</v>
+      </c>
+      <c r="AW123">
+        <v>0.966783339877923</v>
+      </c>
+      <c r="AX123">
+        <v>0.967183339595794</v>
+      </c>
+      <c r="AY123">
+        <v>0.967700005571047</v>
+      </c>
+    </row>
+    <row r="124" spans="1:51">
+      <c r="A124" t="s">
+        <v>451</v>
+      </c>
+      <c r="B124">
+        <v>0.878400002717971</v>
+      </c>
+      <c r="C124">
+        <v>0.891000001430511</v>
+      </c>
+      <c r="D124">
+        <v>0.907200002670288</v>
+      </c>
+      <c r="E124">
+        <v>0.911400000452995</v>
+      </c>
+      <c r="F124">
+        <v>0.915400001406669</v>
+      </c>
+      <c r="G124">
+        <v>0.917000002264976</v>
+      </c>
+      <c r="H124">
+        <v>0.921000002622604</v>
+      </c>
+      <c r="I124">
+        <v>0.91990000128746</v>
+      </c>
+      <c r="J124">
+        <v>0.917400000691413</v>
+      </c>
+      <c r="K124">
+        <v>0.923000001907348</v>
+      </c>
+      <c r="L124">
+        <v>0.92870000064373</v>
+      </c>
+      <c r="M124">
+        <v>0.928300005197525</v>
+      </c>
+      <c r="N124">
+        <v>0.92700000166893</v>
+      </c>
+      <c r="O124">
+        <v>0.921099999547004</v>
+      </c>
+      <c r="P124">
+        <v>0.926500002145767</v>
+      </c>
+      <c r="Q124">
+        <v>0.932000001072883</v>
+      </c>
+      <c r="R124">
+        <v>0.932300004959106</v>
+      </c>
+      <c r="S124">
+        <v>0.933900001645088</v>
+      </c>
+      <c r="T124">
+        <v>0.935100003480911</v>
+      </c>
+      <c r="U124">
+        <v>0.932700001597404</v>
+      </c>
+      <c r="V124">
+        <v>0.930600001811981</v>
+      </c>
+      <c r="W124">
+        <v>0.932700002193451</v>
+      </c>
+      <c r="X124">
+        <v>0.935000001192092</v>
+      </c>
+      <c r="Y124">
+        <v>0.934600003361702</v>
+      </c>
+      <c r="Z124">
+        <v>0.934400001764297</v>
+      </c>
+      <c r="AA124">
+        <v>0.934400000572204</v>
+      </c>
+      <c r="AB124">
+        <v>0.933200002908706</v>
+      </c>
+      <c r="AC124">
+        <v>0.931600002646446</v>
+      </c>
+      <c r="AD124">
+        <v>0.934600000381469</v>
+      </c>
+      <c r="AE124">
+        <v>0.93570000052452</v>
+      </c>
+      <c r="AF124">
+        <v>0.9316999989748</v>
+      </c>
+      <c r="AG124">
+        <v>0.934300001859664</v>
+      </c>
+      <c r="AH124">
+        <v>0.936600001454353</v>
+      </c>
+      <c r="AI124">
+        <v>0.933500000834465</v>
+      </c>
+      <c r="AJ124">
+        <v>0.93650000154972</v>
+      </c>
+      <c r="AK124">
+        <v>0.93610000193119</v>
+      </c>
+      <c r="AL124">
+        <v>0.937900000810623</v>
+      </c>
+      <c r="AM124">
+        <v>0.93860000193119</v>
+      </c>
+      <c r="AN124">
+        <v>0.935499999523162</v>
+      </c>
+      <c r="AO124">
+        <v>0.936100000143051</v>
+      </c>
+      <c r="AP124">
+        <v>0.935300002694129</v>
+      </c>
+      <c r="AQ124">
+        <v>0.935600001811981</v>
+      </c>
+      <c r="AR124">
+        <v>0.937600000500679</v>
+      </c>
+      <c r="AS124">
+        <v>0.935400001406669</v>
+      </c>
+      <c r="AT124">
+        <v>0.935199999809265</v>
+      </c>
+      <c r="AU124">
+        <v>0.937200004458427</v>
+      </c>
+      <c r="AV124">
+        <v>0.938700001239776</v>
+      </c>
+      <c r="AW124">
+        <v>0.937699998617172</v>
+      </c>
+      <c r="AX124">
+        <v>0.937600002288818</v>
+      </c>
+      <c r="AY124">
+        <v>0.937800002098083</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24270" windowHeight="12465" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="24270" windowHeight="12465" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SphereFace" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="643">
   <si>
     <t>acc-m=2</t>
   </si>
@@ -1895,6 +1895,63 @@
   </si>
   <si>
     <t xml:space="preserve"> [  0   1   0   0   0   4   0  28   0 967]]</t>
+  </si>
+  <si>
+    <t>Kernels=[3,3，3，3],Data-Augmented Epochs=100-200</t>
+  </si>
+  <si>
+    <t>Epoch 00100: val_acc did not improve from 0.94750</t>
+  </si>
+  <si>
+    <t>[0.9375520833333333, 0.9394791666666666, 0.9417708333333333, 0.94515625, 0.9413020833333333, 0.9423958333333333, 0.945, 0.9421354166666667, 0.9436458333333333, 0.9478125, 0.9495833333333333, 0.9459375, 0.9459895833333334, 0.9477604166666667, 0.9466145833333334, 0.9490104166666666, 0.95125, 0.9504166666666667, 0.9479166666666666, 0.95140625, 0.9502083333333333, 0.9515104166666667, 0.9513020833333333, 0.954375, 0.9503645833333333, 0.9547916666666667, 0.9546875, 0.95265625, 0.9531770833333333, 0.95640625, 0.9538541666666667, 0.9555208333333334, 0.9588020833333334, 0.9527083333333334, 0.9567708333333333, 0.9565104166666667, 0.9569270833333333, 0.96078125, 0.9545833333333333, 0.9592708333333333, 0.9586979166666667, 0.9602083333333333, 0.95921875, 0.9590625, 0.9608333333333333, 0.9586458333333333, 0.9600520833333334, 0.9609375, 0.9590625, 0.9607291666666666, 0.9609895833333333, 0.9588541666666667, 0.9624479166666666, 0.9619791666666667, 0.9608854166666667, 0.9613020833333333, 0.9639583333333334, 0.9617708333333334, 0.961875, 0.964375, 0.96390625, 0.9627083333333334, 0.9680208333333333, 0.9634895833333333, 0.9622916666666667, 0.9654166666666667, 0.9641666666666666, 0.9661458333333334, 0.96703125, 0.96546875, 0.9633333333333334, 0.963125, 0.9666666666666667, 0.9667708333333334, 0.9641145833333333, 0.96640625, 0.9653645833333333, 0.9675520833333333, 0.96765625, 0.9683854166666667, 0.9683333333333334, 0.968125, 0.9646875, 0.97015625, 0.9688541666666667, 0.9670833333333333, 0.9683333333333334, 0.95359375, 0.95546875, 0.9524479166666666, 0.9535416666666666, 0.9563020833333333, 0.9542708333333333, 0.9528125, 0.9554166666666667, 0.9552083333333333, 0.9555208333333334, 0.9583333333333334, 0.9540625, 0.9550520833333334]</t>
+  </si>
+  <si>
+    <t>[0.9395, 0.9342, 0.9401, 0.9429, 0.9405, 0.9395, 0.9405, 0.9379, 0.939, 0.9372, 0.938, 0.9394, 0.9382, 0.9406, 0.9373, 0.9416, 0.9382, 0.9414, 0.9374, 0.9405, 0.9398, 0.9385, 0.9384, 0.9396, 0.9419, 0.9417, 0.9414, 0.9405, 0.9405, 0.9421, 0.9406, 0.9407, 0.9415, 0.9398, 0.9415, 0.9424, 0.9412, 0.9438, 0.9423, 0.9441, 0.9415, 0.9422, 0.9432, 0.9426, 0.9405, 0.9429, 0.942, 0.9443, 0.9431, 0.9409, 0.943, 0.9425, 0.9429, 0.9436, 0.943, 0.943, 0.9429, 0.9431, 0.9421, 0.9431, 0.9439, 0.9419, 0.943, 0.9438, 0.9447, 0.9443, 0.9419, 0.9449, 0.9454, 0.9458, 0.9429, 0.9443, 0.9451, 0.9434, 0.9441, 0.937, 0.9433, 0.9443, 0.9441, 0.9437, 0.9441, 0.9449, 0.945, 0.944, 0.944, 0.9464, 0.9464, 0.9459, 0.9424, 0.9452, 0.9442, 0.9461, 0.9454, 0.9475, 0.9451, 0.9457, 0.9455, 0.9462, 0.946, 0.9455]</t>
+  </si>
+  <si>
+    <t>[0.17186751001048833, 0.16840073910231393, 0.15748099750528732, 0.15284006526228042, 0.15969240734974544, 0.15365079272227983, 0.14904810534014057, 0.155809486634098, 0.15493718599590162, 0.14652040542724232, 0.14199084656313063, 0.1484465274354443, 0.14429354577014844, 0.14458583898066232, 0.14512280652299522, 0.14081443269426624, 0.13460920876668145, 0.13771607094599556, 0.1424299423210323, 0.13545614339023207, 0.13649504791634778, 0.136129655726254, 0.1341648296623801, 0.12589696805225686, 0.1382686795402939, 0.12679541227485364, 0.1250841958867386, 0.1337891492146688, 0.13074259876894453, 0.12552444847843922, 0.12559197086530427, 0.12289230472524651, 0.1146067290334031, 0.1289098136794443, 0.11944288272565852, 0.12079719595843925, 0.11702312061873575, 0.11068866457790136, 0.12305833115436447, 0.11432187370878334, 0.1181237397591273, 0.11044727802431832, 0.11542556373557697, 0.11454251640553896, 0.10982687660958618, 0.11570547556659827, 0.11150233620079235, 0.11088272194145248, 0.1161426680876563, 0.10766457776150977, 0.10828526148960615, 0.1137081028187337, 0.10486891319005129, 0.1061044396161257, 0.10608405698362428, 0.10678190745878964, 0.10262363217965079, 0.10961951575241984, 0.10900673344770136, 0.09812449778585385, 0.1001686830597464, 0.10336838229404141, 0.09425271110647979, 0.10350041096331551, 0.10408931930782274, 0.09676171517154823, 0.10127433791698422, 0.09653442273614928, 0.09440907092066482, 0.09764777480508201, 0.099778875032207, 0.10347247102065012, 0.09262965891510248, 0.0939637343166396, 0.09881584469539424, 0.09107247429861066, 0.09675364699505735, 0.09216617835103534, 0.08995366935773443, 0.09091690913463632, 0.08896723230330585, 0.09063096310555314, 0.09833318271286165, 0.08962152121899028, 0.0900364404260957, 0.09211539034945114, 0.08977119553290928, 0.1274978553461066, 0.11927631728894388, 0.1291966776526533, 0.13099945488308246, 0.11887414061231538, 0.1289190142407703, 0.12678615350353842, 0.12246698334502677, 0.12264330595886956, 0.12388768079108559, 0.11918238836495827, 0.12610943384662582, 0.12457921483030077]</t>
+  </si>
+  <si>
+    <t>[0.17289251335710287, 0.1884089589715004, 0.18082946875691414, 0.18407069626301528, 0.17424221698641776, 0.17747548475712538, 0.1861217117011547, 0.18847547613680363, 0.1821609263241291, 0.1867556115552783, 0.1878538596853614, 0.18009821782410146, 0.18980250221639872, 0.17493554766476155, 0.1920632991157472, 0.1745166533768177, 0.17933211475610733, 0.17861670794785023, 0.18837621752917766, 0.17924697818160057, 0.18161818116307257, 0.18973412814438342, 0.19405997072160244, 0.18092283548712731, 0.17819672809243203, 0.180708589823544, 0.18174536631405352, 0.18161674957573415, 0.18508558465838432, 0.1815317867666483, 0.18035534994006158, 0.19300949624329805, 0.19021596502810717, 0.1796725947469473, 0.19012435155287385, 0.17481283793002367, 0.18466492704153062, 0.1810391463458538, 0.1823967218309641, 0.17723213653862477, 0.1803560559079051, 0.17921206930279732, 0.18477428505569696, 0.18523685397729278, 0.1844232713907957, 0.1760479266293347, 0.19010500248521567, 0.18359034381769598, 0.18263716259002685, 0.18976862839907407, 0.19054426786676049, 0.18823927782699465, 0.18148697854802012, 0.18577788397856057, 0.1818906948298216, 0.18303903991188855, 0.1927023640923202, 0.18396582028437405, 0.19804028837010265, 0.1845939746260643, 0.18036978217065333, 0.19320086756199598, 0.18864130276888608, 0.18641115898787974, 0.18447321200221778, 0.18661275089308618, 0.1905450399905443, 0.1882857714932412, 0.19399730049297215, 0.19308891190737487, 0.18900647037290036, 0.19291956376060843, 0.18893918077647687, 0.19834468866176902, 0.19236127227768302, 0.20851753500699996, 0.19845212858244776, 0.1925108684286475, 0.1907775826688856, 0.1936610942207277, 0.19187980276308952, 0.19291966947466135, 0.19119083911553025, 0.2052749088525772, 0.19232535112947224, 0.1863735622730106, 0.18759000255838038, 0.18923471193276345, 0.19575934876613318, 0.17834738132953643, 0.19199448459967972, 0.18900419371277094, 0.18177676667049528, 0.17796039339751005, 0.18068570081442595, 0.17557031208947302, 0.17983507434278725, 0.18229897725060581, 0.17756888976469637, 0.17517836911343038]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.89      0.91      0.90      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.93      0.96      0.95      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.93      0.91      0.92      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.85      0.82      0.84      1000</t>
+  </si>
+  <si>
+    <t>[[906   1  16  12   0   0  61   0   4   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 987   0   7   2   0   2   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 20   1 928   8  17   0  26   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  5   1   6 961  14   0  12   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  30  19 911   0  40   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 84   0  32  18  39   0 825   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   2   0 992   0   6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1   0   0   3   0   1   0   0 995   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   4   0  35   1 960]]</t>
   </si>
 </sst>
 </file>
@@ -1902,10 +1959,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1950,90 +2007,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2055,9 +2031,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2066,6 +2041,50 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2080,6 +2099,36 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2088,9 +2137,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2103,13 +2160,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2121,31 +2226,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2163,31 +2250,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2205,43 +2298,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2253,31 +2334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2312,39 +2369,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2365,6 +2389,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2394,6 +2433,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2402,10 +2459,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2414,133 +2471,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8187,7 +8244,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -8377,7 +8434,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -8567,7 +8624,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -8757,7 +8814,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -8947,7 +9004,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -9137,7 +9194,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -9327,7 +9384,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -9519,7 +9576,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -9711,7 +9768,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -9903,7 +9960,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -10095,7 +10152,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
@@ -10287,7 +10344,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
@@ -10740,7 +10797,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -10930,7 +10987,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -11120,7 +11177,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -11310,7 +11367,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -11500,7 +11557,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -11690,7 +11747,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -11880,7 +11937,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -12072,7 +12129,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -12264,7 +12321,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -12456,7 +12513,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -12648,7 +12705,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
@@ -12840,7 +12897,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
@@ -20862,10 +20919,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B334"/>
+  <dimension ref="A2:B372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="F338" sqref="F338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -22268,6 +22325,164 @@
     </row>
     <row r="334" spans="2:2">
       <c r="B334" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>624</v>
+      </c>
+      <c r="B338" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" t="s">
         <v>58</v>
       </c>
     </row>
@@ -27494,8 +27709,8 @@
   <sheetPr/>
   <dimension ref="A1:AY360"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A327" sqref="A327"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="T280" sqref="T280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -32919,8 +33134,8 @@
   <sheetPr/>
   <dimension ref="A2:AY124"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/loss/Loss Test.xlsx
+++ b/loss/Loss Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24270" windowHeight="12465" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="24270" windowHeight="12465" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="SphereFace" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Optimizers" sheetId="8" r:id="rId8"/>
     <sheet name="Kernel" sheetId="9" r:id="rId9"/>
     <sheet name="Kernels" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="717">
   <si>
     <t>acc-m=2</t>
   </si>
@@ -1952,6 +1953,228 @@
   </si>
   <si>
     <t xml:space="preserve"> [  0   0   0   0   0   4   0  35   1 960]]</t>
+  </si>
+  <si>
+    <t>Kernels=[3,3，3，3],Data-Augmented Epochs=200-300</t>
+  </si>
+  <si>
+    <t>Epoch 00100: val_acc did not improve from 0.94710</t>
+  </si>
+  <si>
+    <t>[0.96390625, 0.96296875, 0.9678125, 0.96734375, 0.9682291666666667, 0.9673958333333333, 0.9696354166666666, 0.9666666666666667, 0.9666666666666667, 0.9691666666666666, 0.9689583333333334, 0.9672916666666667, 0.9697395833333333, 0.96828125, 0.9695833333333334, 0.9686458333333333, 0.9723958333333333, 0.9708333333333333, 0.9686979166666667, 0.97125, 0.97015625, 0.9703125, 0.9711979166666667, 0.9735416666666666, 0.9702604166666666, 0.9713020833333333, 0.9710416666666667, 0.96953125, 0.9708854166666666, 0.973125, 0.9720833333333333, 0.9738541666666667, 0.9748958333333333, 0.9703125, 0.9729166666666667, 0.9727604166666667, 0.971875, 0.9755729166666667, 0.9719270833333333, 0.9733854166666667, 0.974375, 0.9758854166666666, 0.9730208333333333, 0.9746875, 0.9756770833333334, 0.9723958333333333, 0.9753645833333333, 0.9764583333333333, 0.9732291666666667, 0.9759895833333333, 0.9763020833333333, 0.97421875, 0.9761458333333334, 0.9781770833333333, 0.9777083333333333, 0.9769791666666666, 0.97765625, 0.9775, 0.9772916666666667, 0.9775, 0.9774479166666666, 0.97625, 0.9782291666666667, 0.9772395833333334, 0.9755208333333333, 0.97765625, 0.97703125, 0.97890625, 0.9783854166666667, 0.9773958333333334, 0.9770833333333333, 0.97734375, 0.9786979166666666, 0.9786458333333333, 0.9766666666666667, 0.9790104166666667, 0.9769270833333333, 0.9777083333333333, 0.9796354166666666, 0.98046875, 0.9807291666666667, 0.9772916666666667, 0.9766666666666667, 0.98015625, 0.9780208333333333, 0.9785416666666666, 0.9790104166666667, 0.9720833333333333, 0.9728125, 0.97015625, 0.9683333333333334, 0.9723958333333333, 0.9702604166666666, 0.9684375, 0.9575, 0.9594270833333334, 0.9597916666666667, 0.9601041666666666, 0.9579166666666666, 0.95875]</t>
+  </si>
+  <si>
+    <t>[0.9443, 0.938, 0.9448, 0.9419, 0.9413, 0.9426, 0.942, 0.9445, 0.9424, 0.9425, 0.9404, 0.9414, 0.9428, 0.9441, 0.9425, 0.9447, 0.9426, 0.9422, 0.9414, 0.9415, 0.9428, 0.94, 0.9434, 0.9427, 0.9427, 0.9455, 0.9423, 0.9434, 0.9439, 0.9436, 0.9426, 0.9429, 0.9421, 0.9419, 0.9417, 0.9426, 0.9431, 0.9439, 0.9427, 0.9443, 0.9436, 0.9425, 0.942, 0.9424, 0.9436, 0.9408, 0.9437, 0.945, 0.9451, 0.9419, 0.9458, 0.9436, 0.944, 0.9452, 0.9443, 0.9461, 0.9452, 0.947, 0.9443, 0.9443, 0.9444, 0.9447, 0.9465, 0.9442, 0.9462, 0.9471, 0.9435, 0.9437, 0.9441, 0.9433, 0.9417, 0.9438, 0.943, 0.945, 0.9452, 0.9381, 0.944, 0.9456, 0.9446, 0.9444, 0.9446, 0.9435, 0.9441, 0.945, 0.9433, 0.9464, 0.9461, 0.9467, 0.9436, 0.9471, 0.9435, 0.9462, 0.9449, 0.9441, 0.9431, 0.9463, 0.9455, 0.9454, 0.9459, 0.9457]</t>
+  </si>
+  <si>
+    <t>[0.09902961150199796, 0.10213964925923695, 0.09110349554529724, 0.09026825818077971, 0.09145850058761425, 0.08947938551117356, 0.08857856996978322, 0.09014273816952482, 0.0922009520799232, 0.08607257102499716, 0.0846451894294781, 0.09195397237238163, 0.08352455192866425, 0.08596564244595356, 0.08332260628735336, 0.08700006931709746, 0.07921812808393346, 0.08512838106990482, 0.08796354794370322, 0.08126886675367131, 0.08299036288847371, 0.08399653520338082, 0.08017469121026806, 0.0728840631225224, 0.08394723625232776, 0.07961421338123424, 0.0791979205608368, 0.08716143196914344, 0.08334423128011016, 0.08053606933429061, 0.07908516203907008, 0.07587833453493659, 0.07246190417771382, 0.0803002476185793, 0.07528461124612174, 0.07809259518437708, 0.07833512787231788, 0.07342885850928724, 0.07758218554838095, 0.07481956400093623, 0.07589489104187426, 0.06851495847494031, 0.07453721528290772, 0.07291993404447566, 0.07146097763596723, 0.07627963148484317, 0.0694102051644586, 0.06806515476084314, 0.07442138577520381, 0.06639019407176723, 0.06827090247844657, 0.07285734107950702, 0.06652016746127629, 0.06429651368487005, 0.06408777870538566, 0.06432820221797253, 0.06509281390094354, 0.0669167072539373, 0.06774020008054019, 0.06482952954781164, 0.0666756370254249, 0.06732728651297899, 0.06291446767029507, 0.0662112233415246, 0.0682064660335891, 0.06146293169663598, 0.06563984922286181, 0.06324680745941198, 0.06145263131436271, 0.06288379511136251, 0.06361152513253425, 0.06726457025157288, 0.05898014243827977, 0.06031178165615226, 0.06316276397439652, 0.05588385101989843, 0.06246673791591699, 0.06323223638978864, 0.058199046632216776, 0.05675538749123613, 0.05594110049394658, 0.06287351526198715, 0.06689696968571904, 0.0595919136160713, 0.06183128544226444, 0.060602653739818685, 0.05980873037459484, 0.07942623716740248, 0.07818892782262993, 0.08406148443037334, 0.0889900543402958, 0.07764298421893424, 0.0846639243788862, 0.08382468997782173, 0.12001046220694359, 0.11616412579858054, 0.11844284998136573, 0.11143984071056669, 0.12000996110456374, 0.11506829034886323]</t>
+  </si>
+  <si>
+    <t>[0.1912101952418685, 0.20327197381407022, 0.20711758451461793, 0.2038975138284266, 0.2007627343222499, 0.20159967587254943, 0.20502636097818613, 0.2025436401091516, 0.19974590414986015, 0.2010040479004383, 0.20384043543823063, 0.21413960457369685, 0.20661663467511535, 0.1915849479150027, 0.20568097232878207, 0.20158789683245124, 0.1948993234835565, 0.22058138488261028, 0.2089261879041791, 0.2025937789812684, 0.2100302128776908, 0.21589650034531951, 0.21202735309004783, 0.20358670886084437, 0.20071051818281413, 0.21277654291242362, 0.20616309091448784, 0.20993077234420926, 0.2166496811239049, 0.20581874188147486, 0.21691209713071585, 0.2146330400288105, 0.22463016150072218, 0.21761049046814443, 0.21857834734730422, 0.20473963053822516, 0.21837268927767872, 0.20361636735349894, 0.22550281065776945, 0.2096271658115089, 0.21334881949909032, 0.2169471930526197, 0.2180227171290666, 0.21664285564813762, 0.23007045588046313, 0.22340222138408572, 0.22730408852593972, 0.21374374240748584, 0.2116861187696457, 0.23094913922138513, 0.218277458903566, 0.2354093176851049, 0.21615530234500765, 0.21366085441391916, 0.21481468271221965, 0.21399250799678265, 0.22519666421860457, 0.21390065318979323, 0.22475086786393075, 0.21802520465366543, 0.2205813466861844, 0.23314147982951253, 0.22108371656425296, 0.21695359020922333, 0.22752348374910653, 0.2245341451732442, 0.22056925677731634, 0.2160214527459815, 0.23273613352626563, 0.22916153783425688, 0.23419948223941028, 0.24027574226316065, 0.22481087711732833, 0.23304460654072465, 0.22932746158614756, 0.24967927194545045, 0.24236893000751733, 0.23755936145037412, 0.22764196208417414, 0.2323909805269912, 0.22590223617255686, 0.23241596457734703, 0.22735766632668675, 0.2372884234370431, 0.22333202500687913, 0.22782499233200215, 0.2210871654966846, 0.22440797049948014, 0.2178864439197816, 0.2118198824223131, 0.2296984410527628, 0.22834124363008887, 0.21611500165127218, 0.21920721690487116, 0.2086392262160778, 0.20537341819554567, 0.2054306702805683, 0.20033094547241925, 0.19973594501465558, 0.1992888734653592]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.88      0.91      0.90      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.91      0.92      0.92      1000</t>
+  </si>
+  <si>
+    <t>[[914   0  15  12   0   0  56   0   3   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 988   1   7   2   0   1   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 20   0 923   9  22   0  26   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  6   1   7 960  13   0  11   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  32  18 913   0  37   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 985   0  12   0   3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 92   0  34  16  34   0 820   0   4   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   1   0 991   0   8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  1   0   1   2   0   1   0   0 995   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   4   0  27   1 968]]</t>
+  </si>
+  <si>
+    <t>Epoch 00019: reducing learning rate</t>
+  </si>
+  <si>
+    <t>Epoch 00020: val_acc did not improve from 0.94980</t>
+  </si>
+  <si>
+    <t>[0.9724000086386998, 0.9756500100096067, 0.9790000099937121, 0.9816166762510935, 0.982250010172526, 0.9833833440144857, 0.9849666774272918, 0.9858833438158036, 0.9866833430528641, 0.9883166753252347, 0.9886833427349726, 0.9895333422223727, 0.989950008491675, 0.9904333412647247, 0.9902833414077759, 0.9916333406170209, 0.9918833407759666, 0.9922333403428396, 0.9932333395878474, 0.9927833399176598]</t>
+  </si>
+  <si>
+    <t>[0.943700001835823, 0.9460000002384186, 0.9456000006198884, 0.9447999972105027, 0.9464000010490418, 0.946499999165535, 0.9481999999284745, 0.9489000010490417, 0.9497999984025955, 0.9461000031232834, 0.9455000007152558, 0.9442999982833862, 0.9495000004768371, 0.9493000000715256, 0.9449000006914139, 0.9477000004053115, 0.9463000047206879, 0.947200002670288, 0.9489000034332276, 0.9469999992847442]</t>
+  </si>
+  <si>
+    <t>[0.07809493566940849, 0.06552127714734525, 0.057218926461258285, 0.051197684410338604, 0.04738606062484905, 0.0452442623100554, 0.04024138810617539, 0.03865504544247718, 0.03588903569849208, 0.03239110002759844, 0.031250277242894905, 0.02869435379068212, 0.027898972822586073, 0.026157606618556505, 0.025609272009072204, 0.02382522331599224, 0.02298229086251619, 0.021584246770265356, 0.01971694559115955, 0.019487468042837765]</t>
+  </si>
+  <si>
+    <t>[0.19897231516428293, 0.20572058411315083, 0.20459232602268457, 0.20555413605645298, 0.2041360436193645, 0.21122589213773607, 0.2024585699662566, 0.20311651799827815, 0.21106436193920672, 0.23089240396395325, 0.23186121454462408, 0.25815696871839466, 0.23234996502287686, 0.24077476743608714, 0.24822119037620724, 0.24676159912720322, 0.24994903428480028, 0.2537352208746597, 0.244863576348871, 0.24700185181573034]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.90      0.89      0.90      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.93      0.92      0.93      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.85      0.85      0.85      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.96      1.00      0.98      1000</t>
+  </si>
+  <si>
+    <t>[[894   1  19  12   0   0  71   0   3   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 991   1   7   0   0   0   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 17   1 922   8  24   0  28   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  6   1  10 954  10   0  17   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  20  20 923   0  37   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 74   0  29  16  32   0 847   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   0   0 997   0   3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   1   0   6   0   1   0   1 991   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   4   0  32   1 963]]</t>
+  </si>
+  <si>
+    <t>Epoch 00030: val_acc did not improve from 0.94940</t>
+  </si>
+  <si>
+    <t>[0.71640625, 0.7875, 0.8151041666666666, 0.83140625, 0.8346354166666666, 0.8503125, 0.8496354166666666, 0.8590104166666667, 0.8664583333333333, 0.8688020833333333, 0.8744791666666667, 0.8730729166666666, 0.8761458333333333, 0.87890625, 0.8823958333333334, 0.8804166666666666, 0.89015625, 0.8845833333333334, 0.8852604166666667, 0.8905208333333333, 0.8903125, 0.8938541666666666, 0.8936979166666666, 0.8994270833333333, 0.8944791666666667, 0.8965625, 0.9013020833333333, 0.8972395833333333, 0.8997395833333334, 0.90515625, 0.9044270833333333, 0.9019270833333334, 0.9091145833333333, 0.9047916666666667, 0.9091666666666667, 0.90375, 0.9046354166666667, 0.9121354166666666, 0.9075, 0.9118229166666667, 0.9095833333333333, 0.91234375, 0.91171875, 0.91046875, 0.9142708333333334, 0.9124479166666667, 0.9138020833333333, 0.9144270833333333, 0.9144791666666666, 0.918125, 0.91390625, 0.9166145833333333, 0.9189583333333333, 0.9166145833333333, 0.9169270833333333, 0.9186979166666667, 0.9197395833333334, 0.9171875, 0.9201041666666666, 0.9196875, 0.9225, 0.9189583333333333, 0.92328125, 0.9219270833333333, 0.9221354166666667, 0.9223958333333333, 0.9229166666666667, 0.92296875, 0.9246875, 0.9240104166666666, 0.9223958333333333, 0.9211458333333333, 0.9244270833333333, 0.92578125, 0.92609375, 0.9275520833333334, 0.92515625, 0.9250520833333333, 0.92484375, 0.92671875, 0.9289583333333333, 0.9263541666666667, 0.9277083333333334, 0.9265625, 0.92921875, 0.9283854166666666, 0.9306770833333333, 0.9333854166666666, 0.9308854166666667, 0.92796875, 0.92875, 0.92984375, 0.9270833333333334, 0.9282291666666667, 0.9298958333333334, 0.933125, 0.9352604166666667, 0.93359375, 0.9322916666666666, 0.9310416666666667, 0.9336979166666667, 0.9361979166666666, 0.9324479166666667, 0.9313020833333333, 0.9340104166666666, 0.9339583333333333, 0.9342708333333334, 0.9375520833333333, 0.9296875, 0.9341145833333333, 0.9338020833333334, 0.9361979166666666, 0.9343229166666667, 0.93765625, 0.9352083333333333, 0.9377083333333334, 0.9338020833333334, 0.9378645833333333, 0.9376041666666667, 0.9373958333333333, 0.938125, 0.9346875, 0.93796875, 0.9377604166666667, 0.9416666666666667, 0.9402604166666667, 0.93828125, 0.9407291666666666, 0.9380208333333333, 0.9414583333333333, 0.938125, 0.9397916666666667, 0.9394270833333334, 0.9416145833333334, 0.9428645833333333, 0.9426041666666667, 0.9373958333333333, 0.9421354166666667, 0.9433333333333334, 0.94109375, 0.9442708333333333, 0.94015625, 0.9417708333333333, 0.94265625, 0.9440104166666666, 0.9441666666666667, 0.9438541666666667, 0.9458854166666667, 0.9426041666666667, 0.9429166666666666, 0.9428125, 0.94546875, 0.9400520833333333, 0.9431770833333334, 0.9449479166666667, 0.9455208333333334, 0.9452604166666667, 0.9484895833333333, 0.9432291666666667, 0.94640625, 0.9447395833333333, 0.9453125, 0.9455729166666667, 0.9469791666666667, 0.9472395833333334, 0.9475520833333333, 0.9472916666666666, 0.94578125, 0.9454166666666667, 0.94875, 0.9461458333333334, 0.9449479166666667, 0.948125, 0.948125, 0.9472916666666666, 0.95015625, 0.9492708333333333, 0.9480208333333333, 0.94953125, 0.9466666666666667, 0.9491145833333333, 0.9508854166666667, 0.9475, 0.9496875, 0.9494791666666667, 0.9488541666666667, 0.9486979166666667, 0.9520833333333333, 0.954375, 0.94875, 0.9510416666666667, 0.9523958333333333, 0.95265625, 0.9502604166666667, 0.9504166666666667, 0.94953125, 0.9521354166666667, 0.9536458333333333, 0.9559895833333333, 0.9511979166666666, 0.9702833410104116, 0.9722333415349325, 0.9725000076492627, 0.9744500089685122, 0.974816676278909, 0.9768833434581756, 0.9770833429694176, 0.9780000097552936, 0.9792500099539757, 0.9797500104705492, 0.9801000104347865, 0.9810500112175942, 0.9825166768829028, 0.9820333450039228, 0.9824500112732252, 0.9837500114242236, 0.9840833442409833, 0.9844833427667617, 0.984450009961923, 0.985666677057743, 0.9858666771650314, 0.9860833430290222, 0.9870333428184191, 0.9870500097672145, 0.9876833427945773, 0.9881833423177401, 0.9882166758179665, 0.9887500096360843, 0.9885833425323168, 0.9898500088850657]</t>
+  </si>
+  <si>
+    <t>[0.8309, 0.8458, 0.8483, 0.867, 0.8817, 0.8735, 0.8774, 0.878, 0.8873, 0.8923, 0.8904, 0.8952, 0.9016, 0.9022, 0.8956, 0.9051, 0.9048, 0.9149, 0.911, 0.9022, 0.9115, 0.9092, 0.9056, 0.9073, 0.9155, 0.9167, 0.8989, 0.9179, 0.9201, 0.9156, 0.9223, 0.9234, 0.9159, 0.9197, 0.9179, 0.9208, 0.9207, 0.9231, 0.923, 0.9229, 0.9242, 0.9287, 0.9254, 0.9227, 0.9232, 0.9267, 0.9227, 0.9262, 0.9277, 0.9272, 0.9232, 0.9244, 0.9294, 0.9247, 0.9297, 0.9304, 0.9239, 0.9237, 0.9308, 0.9131, 0.9207, 0.9269, 0.9294, 0.9308, 0.9326, 0.9284, 0.9295, 0.9271, 0.9305, 0.9297, 0.9285, 0.9301, 0.9294, 0.9286, 0.9319, 0.9342, 0.9308, 0.9322, 0.9277, 0.9316, 0.9334, 0.9308, 0.9322, 0.9355, 0.9299, 0.9299, 0.9355, 0.9351, 0.934, 0.9344, 0.9298, 0.9361, 0.9339, 0.9381, 0.9323, 0.9379, 0.936, 0.9336, 0.937, 0.9314, 0.9387, 0.9375, 0.9371, 0.937, 0.9314, 0.9395, 0.9376, 0.9362, 0.939, 0.9368, 0.9377, 0.9334, 0.936, 0.9354, 0.9363, 0.9321, 0.935, 0.9361, 0.937, 0.9393, 0.9396, 0.9402, 0.9386, 0.9399, 0.939, 0.936, 0.9361, 0.9384, 0.9412, 0.9392, 0.9376, 0.9385, 0.9373, 0.9397, 0.9395, 0.939, 0.9393, 0.9401, 0.9413, 0.9399, 0.9391, 0.9392, 0.9373, 0.9405, 0.9392, 0.9421, 0.94, 0.9423, 0.9397, 0.9407, 0.9396, 0.9406, 0.94, 0.9422, 0.9359, 0.9406, 0.9401, 0.9375, 0.9391, 0.9429, 0.9391, 0.942, 0.9408, 0.9427, 0.9438, 0.9381, 0.9417, 0.9431, 0.94, 0.9376, 0.942, 0.9418, 0.9398, 0.9431, 0.9433, 0.9365, 0.9429, 0.9424, 0.9424, 0.9422, 0.9414, 0.9415, 0.9387, 0.9428, 0.9425, 0.941, 0.9431, 0.9421, 0.9421, 0.9402, 0.9429, 0.9415, 0.943, 0.9423, 0.9429, 0.9426, 0.9435, 0.9445, 0.9403, 0.9429, 0.9459000015258789, 0.9467000025510788, 0.9469000005722046, 0.9476000022888184, 0.9476000028848648, 0.9471000015735627, 0.9470000004768372, 0.9469999992847442, 0.9477000027894974, 0.9470999985933304, 0.9474000006914138, 0.9472000014781952, 0.9472000014781952, 0.9479999989271164, 0.9483000004291534, 0.9484999996423721, 0.9475999999046326, 0.9479999989271164, 0.9484999984502792, 0.949099999666214, 0.9485000002384186, 0.9488999992609024, 0.9489000022411347, 0.9492999994754792, 0.9487000006437302, 0.9493999999761581, 0.948600001335144, 0.9491000014543534, 0.9490000003576279, 0.9492000007629394]</t>
+  </si>
+  <si>
+    <t>[0.7980624628563722, 0.5732869561761618, 0.5102621409048637, 0.459473696872592, 0.44550206328431763, 0.41244158712526163, 0.40367676192273694, 0.38719921924173833, 0.37418184367318946, 0.3602172104890148, 0.3427466289202372, 0.3526146261145671, 0.3340365553771456, 0.3310122536619504, 0.3256135176246365, 0.3220041851326823, 0.30910276744514703, 0.3124920707878967, 0.31785957476745047, 0.29880269470314186, 0.30134385590131085, 0.29164932303130625, 0.2896941442663471, 0.2782190384591619, 0.28796939631924034, 0.283015372933199, 0.2718295352595548, 0.281131777788202, 0.27649123734484116, 0.2622730422144135, 0.263008230086416, 0.26887446533888576, 0.25337184601773816, 0.2656712312375506, 0.25213367673878867, 0.26137010221059126, 0.2594396892624597, 0.24732345233050484, 0.253801338262856, 0.24414825107591848, 0.24822503114740055, 0.24148663331444065, 0.24678843587636948, 0.24455728319784006, 0.2330127324536443, 0.24088344682008028, 0.23816465216999252, 0.23396918686727683, 0.23904222171753645, 0.22723885390286644, 0.23036929302538434, 0.2340256587152059, 0.22320409644395112, 0.22717191722864907, 0.22845711790025233, 0.2203501041047275, 0.21663164402047794, 0.2305820568713049, 0.22308751504868268, 0.22041579388082028, 0.21740554877867302, 0.224909663197274, 0.21027555952469507, 0.21511834462794166, 0.21592628059908747, 0.21185220894714196, 0.21402394756674767, 0.2106279018521309, 0.20836130898290625, 0.2101250459657361, 0.20713447883104286, 0.21566158971749247, 0.20700671352135638, 0.20512102086717884, 0.1995817191619426, 0.20290209501360854, 0.2072783545497805, 0.20022857701716323, 0.2044577544151495, 0.20101502862448495, 0.19463101601228117, 0.20105970527821532, 0.20236261561823388, 0.1983192182953159, 0.19726324513865015, 0.19717770811791221, 0.19667090685417254, 0.18939868150278927, 0.18924288482715687, 0.1962770879485955, 0.19920306344827016, 0.18807935746076207, 0.19783090538966158, 0.19410821672528983, 0.18980882234250507, 0.18831731259357185, 0.18523361170043548, 0.18337270684850712, 0.18703766201001903, 0.18746362927680213, 0.18140929399679104, 0.1763719143376996, 0.1839012666170796, 0.18715025701870522, 0.18676803214165072, 0.18495795251180727, 0.18041842963236074, 0.17554983477884284, 0.18605422124577065, 0.17187766650691627, 0.17872766194244225, 0.17206035636986294, 0.1807524556045731, 0.1738235750142485, 0.17622677702767153, 0.17417491572598617, 0.1810786984767765, 0.1683238482521847, 0.1715575431132068, 0.172814323057731, 0.17215260799818982, 0.17349520226785292, 0.17157696066889913, 0.17061565975037715, 0.16328121550381183, 0.16368063864453386, 0.16678117513346175, 0.16777049560875942, 0.16700916345541675, 0.15856311575975268, 0.17281510115756343, 0.16404025761255372, 0.16358118345650532, 0.16338515866237383, 0.15879008916517098, 0.15521495725493878, 0.1719904502093171, 0.15732758525487345, 0.15373609022547802, 0.1628803197806701, 0.15866205086310706, 0.1620324625292172, 0.15977305883852144, 0.16201396619280178, 0.15528958183713257, 0.15828496070889136, 0.15504471925708155, 0.1512304344261065, 0.15661638582435747, 0.15772682942450048, 0.1594544207987686, 0.14948014098374793, 0.15953197275909284, 0.15538177780341356, 0.1543580199421073, 0.1485674604276816, 0.15244605430712302, 0.1423890858128046, 0.15667327062071612, 0.15010790723996859, 0.14782443017388383, 0.15095549195073546, 0.14943670578300952, 0.14578594449597101, 0.1473243681465586, 0.14311914863996208, 0.14633693799686928, 0.1489048477495089, 0.1485402325820178, 0.1450472573338387, 0.14735586340539159, 0.14984941006017227, 0.14333877285476773, 0.1419627649220638, 0.14387046868214384, 0.14039223194277534, 0.13849713563220575, 0.1404175574091884, 0.13815549179756392, 0.14327208057356378, 0.14008933063130827, 0.13213976951936882, 0.14075439686266084, 0.1408757440932095, 0.1402368390218665, 0.13782457739890863, 0.1372809053848808, 0.12948453200981022, 0.13108370774736008, 0.13969137242995203, 0.13486044109721357, 0.1308914417757963, 0.13185198990317681, 0.1363660743262153, 0.1349856385231639, 0.1353596089112883, 0.13020808066396664, 0.12646834979454677, 0.12395032446210583, 0.1323180588490019, 0.08430261192377657, 0.07896477698038022, 0.07682620331955453, 0.07222280624012152, 0.07092844162446757, 0.06726693544381608, 0.06474966182528684, 0.0623578041465953, 0.05951253723197927, 0.058935582298630225, 0.05710756275802851, 0.05549028205840538, 0.05261756406786541, 0.05253757456007103, 0.05151771712272118, 0.04862929155429204, 0.04734934821414451, 0.04579564939718694, 0.04506392803586399, 0.043496766741542764, 0.04187037422244127, 0.040444952957332136, 0.0388800536422059, 0.03936257208619887, 0.03683175397260736, 0.035823447172685215, 0.03531290500269582, 0.03421562706741194, 0.033808276270671435, 0.032210088831683]</t>
+  </si>
+  <si>
+    <t>[0.46109595122337343, 0.4130505559921265, 0.40739580080509186, 0.3641074873447418, 0.33123882040977476, 0.33903865253925325, 0.3399054125070572, 0.32755936777591704, 0.3061462270498276, 0.29322524580955506, 0.30044076496362687, 0.2825358916342258, 0.2699522460103035, 0.2654409980177879, 0.2849084226250648, 0.26473781204223634, 0.2610219772100449, 0.24456005494594574, 0.24766232409477235, 0.2578911739051342, 0.24387257086038588, 0.24573126151561736, 0.25395608901381495, 0.25531105424761774, 0.2370841850399971, 0.2312718536376953, 0.2724022799789906, 0.22626085701584817, 0.21981141389608383, 0.23116014642715454, 0.2216292777597904, 0.22092441477775573, 0.22944673064947127, 0.22519270692467688, 0.22242431178092956, 0.2175555793464184, 0.21745268639326096, 0.21894179274439812, 0.21598894028365612, 0.2178467217206955, 0.2158499525129795, 0.20240576969385146, 0.2071170546978712, 0.21397324320077896, 0.20851595034599305, 0.2053824421465397, 0.21435907309055327, 0.20416123825907706, 0.19933905426859855, 0.2008077456176281, 0.20980171098709108, 0.2085988397538662, 0.19697077485322953, 0.20820113865733147, 0.2031587023794651, 0.19588049806058408, 0.20440017288923262, 0.20725379256010057, 0.19652505741119386, 0.23399444377422332, 0.22220282806754113, 0.19725322332382203, 0.20240924161374568, 0.19431679698228835, 0.1896896155267954, 0.1979529653504491, 0.191760312384367, 0.20879611619710922, 0.19517532642781735, 0.19687390304803848, 0.19837977140545845, 0.19694756326079368, 0.19400000564157963, 0.20182132535576822, 0.1921379371404648, 0.18544973039329052, 0.1918583935201168, 0.1894430877417326, 0.19837311118245124, 0.18802945569455623, 0.1809512082248926, 0.1905322158575058, 0.1901116448879242, 0.18155152532756327, 0.19510667986869812, 0.19435600750744342, 0.18222857016921043, 0.18318673934042454, 0.18526114669442176, 0.18654427119791508, 0.192901740321517, 0.17957159943282605, 0.18619515496492386, 0.1804074141919613, 0.19148518316149712, 0.18825267457515002, 0.18495854174047707, 0.1882894051551819, 0.18410412182211877, 0.19116081395745277, 0.18206410318166016, 0.17921069635897874, 0.18155171084403993, 0.18096754348129035, 0.1946821122944355, 0.1797356892645359, 0.1825544521972537, 0.18480067546218634, 0.18090745514780282, 0.18576050117760898, 0.18059133308529854, 0.19168633720576764, 0.179882748067379, 0.18180648506581784, 0.18627567511796952, 0.1927727095723152, 0.1882767247542739, 0.18020622617602347, 0.17802011374235152, 0.17506546684503554, 0.17677370491623878, 0.17402609418034554, 0.17230062066316604, 0.17323044140785931, 0.17540918435752392, 0.18463163189738988, 0.1846553731843829, 0.17363361090868712, 0.17370797469615937, 0.17657726125717163, 0.184344108453393, 0.17620534810423852, 0.17867039119899272, 0.17642829487025738, 0.17834054351300002, 0.17703444465324283, 0.18121438900828363, 0.17692357535362244, 0.17111349113583565, 0.1779392721414566, 0.17567334297299386, 0.17801272053122522, 0.1808309265717864, 0.17504232549965382, 0.17963593212515117, 0.16993189149498938, 0.17714200494289398, 0.17097763021737336, 0.1779274659693241, 0.1772398188561201, 0.17602712540328502, 0.17460526424050332, 0.17651402894854545, 0.1702963317260146, 0.1828539238244295, 0.17451882218718529, 0.17734716473072767, 0.1832939462631941, 0.18009030127450823, 0.16777029217779638, 0.1783080400183797, 0.16923849485367537, 0.1730609612941742, 0.17110516682714225, 0.17302893336862327, 0.18337039331197738, 0.1728052709579468, 0.1679168055653572, 0.17021757783591748, 0.1828727089487016, 0.17505549317747354, 0.17327881766557693, 0.17749301888868213, 0.17233823777884244, 0.16847225021123885, 0.1945359502285719, 0.1705422477044165, 0.17404883389398457, 0.17073372474759818, 0.17123877122402192, 0.17783589039556683, 0.17456135391965508, 0.1827186021476984, 0.16728094910979271, 0.16831962976753712, 0.17375168973356486, 0.17282098636627197, 0.17424758517295122, 0.16896690592318772, 0.17115901069939138, 0.16799114912450314, 0.17632261845469474, 0.16907911030203104, 0.17337996068894862, 0.1754277674101293, 0.17341335491389037, 0.16866740073412656, 0.17002505318075417, 0.1776786483116448, 0.17175405125617982, 0.16025233030319214, 0.16052079755812884, 0.16218519650399685, 0.1608607095107436, 0.16217379685491323, 0.16394039809703828, 0.1647488220408559, 0.16453318506479264, 0.16646668318659066, 0.1693666507676244, 0.16597695207223295, 0.17100328575819732, 0.1682792717218399, 0.1694564649835229, 0.16895031556487083, 0.17160814272239805, 0.17338360898196697, 0.17299345027655363, 0.17408696293830872, 0.1742277756333351, 0.17529248267412187, 0.17555524550378324, 0.1777886775881052, 0.1791016786918044, 0.17865344015881418, 0.18224554875865578, 0.18092155437916518, 0.18288013819605112, 0.18534705033525825, 0.18398951217532158]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.90      0.90      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.93      0.93      0.93      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.95      0.95      0.95      1000</t>
+  </si>
+  <si>
+    <t>[[900   1  17   7   1   0  70   0   4   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0 991   0   6   1   0   1   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 14   1 926   5  24   0  30   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  8   1   8 949  17   0  16   0   1   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0  20  13 935   0  32   0   0   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0 993   0   6   0   1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 67   0  24  15  44   0 848   0   2   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   3   0 988   0   9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2   2   0   1   0   0   1   0 994   0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  0   0   0   0   0   4   1  27   0 968]]</t>
+  </si>
+  <si>
+    <t>Kernels3,3,K=1,Droprate=0.5</t>
+  </si>
+  <si>
+    <t>Learning rate: 0.00069735694</t>
+  </si>
+  <si>
+    <t>Epoch 00200: val_acc did not improve from 0.94920</t>
+  </si>
+  <si>
+    <t>0.8008333320294817, 0.8699166659514109, 0.8875833328564962, 0.8993333340684573, 0.9072833347320557, 0.9124000028769175, 0.9158333358168602, 0.9189000026384989, 0.9230500017603238, 0.924466668466727, 0.9279500030477842, 0.9305500027537346, 0.9304833349585533, 0.932550000846386, 0.9337000009417534, 0.9367666668693224, 0.9382000015179316, 0.9390333350499471, 0.939700002570947, 0.9410000028212865, 0.9430500009655952, 0.9432000015179316, 0.9428000012040139, 0.9445000012715657, 0.9444500022133191, 0.9459333344300588, 0.9480333351095518, 0.9477333360910416, 0.9495500015219053, 0.9504833359519641, 0.9489666683475176, 0.9507833343744277, 0.9524833355347315, 0.9520333354671796, 0.9533333352208138, 0.9534000020225842, 0.9540166682998339, 0.9543500010172526, 0.9552666690945625, 0.956300002237161, 0.9560500034689903, 0.9574000043670337, 0.9575500028332075, 0.9579000026981036, 0.9577000029881795, 0.9584333361188571, 0.9600833372275035, 0.9600666709740957, 0.9603333380818367, 0.959050002793471, 0.9611333385109901, 0.961366671025753, 0.9626833381255467, 0.9618500047922134, 0.9609833387533824, 0.9629833378394445, 0.9628666722774506, 0.9628000034888585, 0.9648333399494489, 0.9661000051101049, 0.9645500065883, 0.9642666704456011, 0.9653166725238165, 0.9645000045498212, 0.9656500054399172, 0.9654500049352646, 0.9646500047047933, 0.9660333398977915, 0.9658666715025902, 0.9664833386739095, 0.9678666731715202, 0.9672833400964737, 0.9685000063975652, 0.9678000055750211, 0.9678166743119557, 0.9685833397507667, 0.9686500071485837, 0.9689833396673202, 0.969883342285951, 0.969866674542427, 0.9693500074744225, 0.9702333402633667, 0.9700333418448767, 0.9702333387732506, 0.9705833411216735, 0.9697166739900906, 0.9701666740576426, 0.9701833407084147, 0.9718000080188115, 0.9719333412249883, 0.9722500093777975, 0.973250008324782, 0.9723500083883604, 0.9724333415428797, 0.9729500083128612, 0.9733500092228253, 0.9736333419879277, 0.9747500086824099, 0.9740666764974594, 0.974800009727478, 0.9738333413004875, 0.973500008781751, 0.9739333422978719, 0.9745666752258937, 0.9740333431959152, 0.9738166757424672, 0.9752333419521649, 0.9753000100453695, 0.9746666759252548, 0.9743500085671742, 0.9758166767160098, 0.9750833437840144, 0.9760500096281369, 0.9756333438555399, 0.9761666759848595, 0.9760666765769322, 0.976850010752678, 0.976966676513354, 0.9769333430131276, 0.9769166767597198, 0.9765500103433927, 0.9771666784087817, 0.9764666772882143, 0.9769833441575368, 0.9764666765928268, 0.977933344145616, 0.9773333433270455, 0.9778333433469136, 0.9778833434979121, 0.9777666771411896, 0.9775333448251089, 0.9779333436489105, 0.9773166770736377, 0.9784000097711881, 0.9787166770299276, 0.9790666765968005, 0.9786166770259539, 0.9791666766007742, 0.9791833432515462, 0.9800333434343338, 0.9788000099857648, 0.9793000110983848, 0.9803500106930733, 0.9798166773716609, 0.9801166770855586, 0.9796833441654841, 0.9803166785836219, 0.980216676791509, 0.9799000112215678, 0.9796666778127352, 0.9796833430727323, 0.98075001090765, 0.9801666776339213, 0.9797333441178004, 0.9812833440303802, 0.9805500109990438, 0.9805666780471802, 0.9800500111778577, 0.9817500109473865, 0.9805833442012469, 0.9810333438714345, 0.9821166772643725, 0.9818333438038827, 0.981116677224636, 0.9821833430727323, 0.9813666774829228, 0.981900010506312, 0.9814666776855787, 0.9818166771531105, 0.9808166758219401, 0.9815166768431663, 0.9813166780273119, 0.9814000102877617, 0.9825166779756546, 0.982133344511191, 0.9823166768749555, 0.9819333440065384, 0.9824333434303602, 0.9829666782418887, 0.982133344511191, 0.9835666773716608, 0.9820666768153509, 0.9837666773796081, 0.9821000108122826, 0.9841166771451633, 0.9823666764299075, 0.9828666773438454, 0.9826166772842407, 0.9834833441178004, 0.982616676390171, 0.9819000118970871, 0.9830333440502484, 0.9823333447178205, 0.9830833434065183, 0.9833833444118499, 0.9831666774551073, 0.9836333442727725, 0.9834666767716408, 0.9827666770418485, 0.9831166769067446</t>
+  </si>
+  <si>
+    <t>0.8622999984025955, 0.8855000030994415, 0.8985000002384186, 0.9115000021457672, 0.9120000034570694, 0.9119000029563904, 0.9185000020265579, 0.9231000012159347, 0.9226000040769577, 0.925600004196167, 0.9249000030755997, 0.9316000014543533, 0.9238000035285949, 0.9331000006198883, 0.9328000044822693, 0.9316000026464463, 0.9385000026226044, 0.9313999998569489, 0.933700001835823, 0.9354000008106231, 0.9333999997377396, 0.9392000013589858, 0.9313000023365021, 0.9384000027179717, 0.9346000003814697, 0.9388000011444092, 0.9373000007867813, 0.9406000006198884, 0.9371999990940094, 0.9393999999761582, 0.9382000011205673, 0.9381000006198883, 0.933700001835823, 0.9406000006198884, 0.94, 0.9388000005483628, 0.9385000020265579, 0.940100000500679, 0.9401999998092652, 0.9422999995946885, 0.9416999989748001, 0.9415000009536744, 0.94299999833107, 0.9419000005722046, 0.9436000007390976, 0.9410000020265579, 0.9439000004529953, 0.9443000030517578, 0.9433000040054321, 0.9450000017881394, 0.9431000030040741, 0.9418999963998794, 0.9423000031709671, 0.9427000015974045, 0.945, 0.9430000001192093, 0.9423999983072281, 0.9432999986410141, 0.9432000005245209, 0.9457000011205673, 0.9428000009059906, 0.9428000009059906, 0.9423000037670135, 0.9429999995231628, 0.9445000010728836, 0.9400000017881394, 0.9444999986886978, 0.9441000008583069, 0.9444999992847443, 0.9436000007390976, 0.941599999666214, 0.945100000500679, 0.9437000000476837, 0.9467000007629395, 0.945599998831749, 0.9441999989748001, 0.9435999989509583, 0.9460000014305114, 0.9446000009775162, 0.9454000008106231, 0.9426000016927719, 0.9431999999284745, 0.9448000019788743, 0.9434000021219253, 0.9456000006198884, 0.9448999989032746, 0.9440999996662139, 0.945100000500679, 0.9457999992370606, 0.9457999980449676, 0.9463999998569489, 0.9467000007629395, 0.9453000020980835, 0.946000000834465, 0.9465000009536744, 0.9463000017404556, 0.9445999974012375, 0.9469000005722046, 0.9464000010490418, 0.9450999987125397, 0.9462000006437301, 0.9437999999523163, 0.9471000027656555, 0.946100001335144, 0.9436999988555909, 0.946700000166893, 0.9437999999523163, 0.9461999988555908, 0.9447000020742417, 0.9454999995231629, 0.9470000016689301, 0.9458999973535538, 0.9445999985933304, 0.946000000834465, 0.9461000007390976, 0.9474000024795532, 0.9454000008106231, 0.9435000020265579, 0.9457999992370606, 0.9469999992847442, 0.9471000009775161, 0.9454000014066696, 0.9468000036478043, 0.944300000667572, 0.943600001335144, 0.9431999969482422, 0.9465000009536744, 0.9458999991416931, 0.9465000003576278, 0.9453999990224838, 0.9481000006198883, 0.9464000010490418, 0.9458999997377395, 0.9462000024318695, 0.9470000028610229, 0.9464000016450882, 0.9468999999761581, 0.9453999984264374, 0.946599999666214, 0.9479999995231628, 0.9467000007629395, 0.9454000037908554, 0.9480000007152557, 0.9468999987840653, 0.9456000000238418, 0.9467999988794327, 0.9469999998807908, 0.9474000012874604, 0.9481000000238419, 0.9468999993801117, 0.9464000022411346, 0.9475000005960464, 0.9464000010490418, 0.9450000023841858, 0.9469999986886978, 0.9462000006437301, 0.9457000023126603, 0.9465000003576278, 0.9476000016927719, 0.9459999996423721, 0.9466000014543533, 0.9466000002622604, 0.9474000006914138, 0.9449000006914139, 0.9475999993085861, 0.9456999999284744, 0.9473000019788742, 0.9480000001192093, 0.9468999999761581, 0.9464000004529953, 0.946599999666214, 0.9466999989748001, 0.9474000006914138, 0.9473999989032745, 0.9474999988079071, 0.9475999999046326, 0.946499999165535, 0.9476000010967255, 0.9487999993562698, 0.9455000007152558, 0.9482000005245209, 0.9488000023365021, 0.9467000025510788, 0.9474000006914138, 0.9475999993085861, 0.9486999994516373, 0.9460999989509582, 0.9482999974489212, 0.9458999991416931, 0.9473000013828278, 0.9492000025510788, 0.9486000001430511, 0.9477999985218049, 0.9461000007390976, 0.9474000018835068, 0.9454000002145767, 0.9475999999046326, 0.9473000007867813, 0.9481000006198883, 0.9472999989986419</t>
+  </si>
+  <si>
+    <t>0.5708920416484277, 0.3650929759939512, 0.31479394336541494, 0.27995665236065786, 0.2619462138538559, 0.24537285891671975, 0.23408311245342095, 0.2211027903109789, 0.21348510270317395, 0.2071074173351129, 0.19938036469121775, 0.19189683741579452, 0.1888665703808268, 0.18558429246147473, 0.18084898808350167, 0.17386504547049603, 0.17114679208025335, 0.16550787604724368, 0.16657057513172427, 0.1606359844468534, 0.15656929389263194, 0.15497650738805532, 0.15579696390156944, 0.15238427026197315, 0.1488595415279269, 0.1465620251589765, 0.1417790216393769, 0.14250288919856152, 0.14030621342981855, 0.13526143099802235, 0.1379502228461206, 0.13354086563612025, 0.13094421794017155, 0.130307193522652, 0.12641662169868748, 0.1257167024879406, 0.1271992144236962, 0.12244886004986863, 0.12259805147536099, 0.11998168378137052, 0.11882988169478874, 0.11559506506659091, 0.11363455972634257, 0.11272343309906621, 0.11319430410241087, 0.11255063621948162, 0.10872582774919769, 0.10767800224324067, 0.10684550360466043, 0.1091536994682004, 0.10497391227011879, 0.105020718385155, 0.1030925710250934, 0.10287365747305253, 0.10309549849790832, 0.09934694476115206, 0.10014795455150306, 0.10136215081127982, 0.09604198996132861, 0.09301628504258891, 0.09611010574580481, 0.09769553034566343, 0.0940906122745946, 0.09582067507629594, 0.09320161442893247, 0.09351764805770169, 0.09509893452127774, 0.09220751753387352, 0.09240003865988304, 0.09030800978497912, 0.08865268416702747, 0.088783008394142, 0.08538736104654769, 0.08650723259119938, 0.0867981759319082, 0.0839581378409639, 0.08496741000252465, 0.08361135795557251, 0.08237394901613394, 0.08184840236480037, 0.08415932336977372, 0.08158046121088167, 0.08219968128794183, 0.08040544629407426, 0.07923955436175069, 0.07870616561577966, 0.07863105181138963, 0.07933354393579066, 0.07837288831205418, 0.07522874891137084, 0.07615420770831406, 0.07382377316088726, 0.07530132411203037, 0.07491730259886632, 0.07282241297575334, 0.07306088003485153, 0.07135526804253459, 0.06978456067852676, 0.06980375610524789, 0.06927676140485953, 0.07086570877426614, 0.06940472875256092, 0.07033832944153498, 0.06924180996604264, 0.0704728961456567, 0.07010070588284482, 0.06734869717465093, 0.06725380937180793, 0.06956783431116492, 0.06979602190821121, 0.06636719459745412, 0.06769095149512093, 0.06402296755385274, 0.06573465005805094, 0.06495878116693347, 0.06463327525493999, 0.06393373736180365, 0.06289748550315077, 0.0626431121925513, 0.062256627498815456, 0.06312516025733203, 0.06266895598809545, 0.06307278376227865, 0.061797856201883404, 0.06393871933377038, 0.059791532782061646, 0.05917738398343014, 0.06133345738053322, 0.06018353760475293, 0.06185235294358184, 0.059288403803948314, 0.060019382542232054, 0.05964244323161741, 0.05830721084261313, 0.058497743872770416, 0.0581678574392572, 0.057633234368792426, 0.05741514226809765, 0.058118552478651206, 0.05494952286360785, 0.057116985244986915, 0.05685643544731041, 0.05529965976563593, 0.05545532174097995, 0.054707032644655554, 0.053781363078548264, 0.05317267988420402, 0.05332465862156823, 0.05560780259082094, 0.05466018692124635, 0.05612020128173754, 0.0514376928525356, 0.05358278776635416, 0.05505121744897527, 0.051887716091005134, 0.053499822235510995, 0.05226450155411536, 0.05416415719858681, 0.050052074905252084, 0.05305943934712559, 0.05231957481514352, 0.04941098907613196, 0.05083544227527455, 0.05124493895098567, 0.049892311862204226, 0.05036534528558453, 0.048697187865230564, 0.04973413112728546, 0.04887585377631088, 0.05138708908809349, 0.049289901053222514, 0.050604482834848266, 0.05003593251710602, 0.048025349448435006, 0.049156878523062913, 0.04819929394327725, 0.04816136936812351, 0.0469744628436941, 0.046224002838522814, 0.049074371732616175, 0.04629242510767653, 0.04916895381097371, 0.04581940333164918, 0.04830759561426627, 0.04528674349188805, 0.04731105118097427, 0.045739555411273614, 0.0482738329974624, 0.04602301501125718, 0.04730229051356825, 0.04830905329824115, 0.04606532107689418, 0.047335634992147484, 0.04632951731250311, 0.0458456235503157, 0.045703750225366095, 0.04442410712130368, 0.045482981671812014, 0.04625788862312523, 0.04590348917680482</t>
+  </si>
+  <si>
+    <t>0.3689844807982445, 0.31512961685657503, 0.27014935575425625, 0.24551060184836387, 0.23705801360309123, 0.23804662510752678, 0.21994961120188236, 0.2095479141920805, 0.21255864471197128, 0.2005232134461403, 0.20035221323370933, 0.19033987920731307, 0.20213060155510904, 0.18942492954432966, 0.18998623687773944, 0.18963302992284298, 0.1766702091693878, 0.18954420022666454, 0.194032880961895, 0.18462684761732817, 0.18153071496635675, 0.17692849196493626, 0.19618028663098813, 0.1748146964982152, 0.18511803030967713, 0.18063196709379553, 0.1807341668754816, 0.17126281701028348, 0.18353602062910795, 0.1751125167682767, 0.1856301063671708, 0.18217062313109636, 0.19353045497089624, 0.1763892998546362, 0.18142164923250675, 0.18009964544326068, 0.18687896881252528, 0.17392906606197356, 0.17593245044350625, 0.171298962906003, 0.1742719741165638, 0.17184357393532992, 0.1708850234374404, 0.1765676148608327, 0.17260522361844777, 0.1740801638737321, 0.1707897749915719, 0.17562945622950793, 0.1832756766676903, 0.17119865749031304, 0.1793230613321066, 0.18431293580681085, 0.17462503783404826, 0.1830067379027605, 0.17350998397916556, 0.18365552753210068, 0.17945974331349135, 0.17090105064213276, 0.177965722233057, 0.17637180030345917, 0.1795671636797488, 0.18859179753810168, 0.18133505200967193, 0.18368988739326597, 0.18073048075661063, 0.18246197946369647, 0.1769289191812277, 0.18134910825639963, 0.1766696273162961, 0.18322686672210695, 0.18583488654345273, 0.18172208053991198, 0.18304487174376846, 0.19189377093687654, 0.17793599635362625, 0.18354172417894005, 0.1846084975078702, 0.18033089458942414, 0.1887791172042489, 0.17998207259923218, 0.1909613397717476, 0.192341534383595, 0.18536489855498076, 0.18435333106666804, 0.1802393858321011, 0.18060714371502398, 0.1864468514919281, 0.19240679625421764, 0.1901722084544599, 0.19329337392002344, 0.18982370652258396, 0.17861939447000622, 0.19567197458818555, 0.18717269284650684, 0.1871656751818955, 0.18674286199733614, 0.19855670496821404, 0.1834228997863829, 0.19325164780020715, 0.19568074913695455, 0.18793622130528093, 0.19574079770594835, 0.19235577654093505, 0.20670350616797806, 0.19122324543073774, 0.1902413409948349, 0.19453073212876915, 0.2041798296198249, 0.20269516943022609, 0.1869177942723036, 0.1897949088551104, 0.18980877531692386, 0.19234850645065307, 0.20107499171048404, 0.18948620662093163, 0.1895739552564919, 0.18827598990872502, 0.20962335737422108, 0.19129053380340338, 0.1988079419732094, 0.19241427399218083, 0.19173361871391534, 0.19866681782528758, 0.19946365281008183, 0.20738060103729367, 0.20485452992841602, 0.18877833120524884, 0.1973867753893137, 0.1907142653875053, 0.19590865707024932, 0.19913494048640132, 0.19118632789701223, 0.20045832220464946, 0.19413845531642437, 0.19205247161909939, 0.20466025395318865, 0.1948105340451002, 0.19515449272468685, 0.20610744576901197, 0.19839943828061224, 0.19704003803431988, 0.1990953508578241, 0.1939883774705231, 0.2061338824033737, 0.20346477011218667, 0.19881634097546338, 0.19871925573796034, 0.20143371690064668, 0.19552876926958562, 0.20320624575018884, 0.19640674941241743, 0.2018633399438113, 0.2021488751564175, 0.21575843095779418, 0.2063781017996371, 0.21201229270547628, 0.19965075835585594, 0.20254926363006234, 0.2037967249751091, 0.21181604066863657, 0.2013579056970775, 0.20442070127464831, 0.20406578126363456, 0.2103131224028766, 0.20160625455901027, 0.2086736940778792, 0.19989402851089835, 0.20471156688407063, 0.1996004682779312, 0.208837737031281, 0.20621575893834232, 0.20681440049782396, 0.1974320698902011, 0.1992445608228445, 0.2063509653508663, 0.20193008221685887, 0.2102396527118981, 0.20591812083497643, 0.20247157864272594, 0.2149303520657122, 0.20206088533625008, 0.20516420574858785, 0.21333088651299476, 0.20498090795241297, 0.2047583521157503, 0.19755948979407548, 0.20915926603600382, 0.20730039272457362, 0.21500292633660137, 0.20560564599931241, 0.20253260558471084, 0.20873064793646334, 0.20849166074767708, 0.21200764151290058, 0.20825217060744763, 0.21877777054905892, 0.20989946698769926, 0.20239941140636802, 0.20645756924524902, 0.2095189486257732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.89      0.90      1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       1.00      0.99      0.99      1000</t>
+  </si>
+  <si>
+    <t>889   0  14   7   2   0  86   0   2   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0 989   0   7   1   0   1   0   2   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13   1 913   4  29   0  40   0   0   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4   1   6 951  15   0  22   0   1   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0   0  11  16 936   0  37   0   0   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0   0   0   0   0 993   0   5   0   2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  65   0  16  23  41   0 851   0   4   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0   0   0   0   0   2   0 987   0  11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2   0   1   2   1   1   1   1 991   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0   0   0   0   0   1   1  25   0 973</t>
   </si>
 </sst>
 </file>
@@ -1960,9 +2183,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2007,6 +2230,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2017,32 +2254,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2060,31 +2274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2092,37 +2284,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2137,7 +2306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2150,6 +2319,60 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2160,73 +2383,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2244,7 +2419,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2256,7 +2473,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2268,7 +2539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2280,67 +2563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2364,21 +2587,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2409,6 +2617,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2425,29 +2657,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2459,10 +2682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2471,133 +2694,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -20919,10 +21142,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B372"/>
+  <dimension ref="A2:B492"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="F338" sqref="F338"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="B458" sqref="B458:B492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -22483,6 +22706,664 @@
     </row>
     <row r="372" spans="2:2">
       <c r="B372" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>643</v>
+      </c>
+      <c r="B375" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2">
+      <c r="B391" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2">
+      <c r="B400" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2">
+      <c r="B402" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2">
+      <c r="B413" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2">
+      <c r="B417" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2">
+      <c r="B418" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2">
+      <c r="B425" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2">
+      <c r="B426" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2">
+      <c r="B427" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2">
+      <c r="B428" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2">
+      <c r="B429" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2">
+      <c r="B430" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2">
+      <c r="B431" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2">
+      <c r="B432" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2">
+      <c r="B433" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2">
+      <c r="B436" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2">
+      <c r="B441" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2">
+      <c r="B459" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2">
+      <c r="B460" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2">
+      <c r="B463" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2">
+      <c r="B466" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2">
+      <c r="B468" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2">
+      <c r="B471" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2">
+      <c r="B472" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2">
+      <c r="B473" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2">
+      <c r="B474" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2">
+      <c r="B476" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2">
+      <c r="B477" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2">
+      <c r="B478" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2">
+      <c r="B480" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2">
+      <c r="B481" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2">
+      <c r="B482" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2">
+      <c r="B483" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2">
+      <c r="B484" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2">
+      <c r="B485" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2">
+      <c r="B486" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2">
+      <c r="B487" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2">
+      <c r="B488" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2">
+      <c r="B489" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2">
+      <c r="B490" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2">
+      <c r="B492" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -27709,7 +28590,7 @@
   <sheetPr/>
   <dimension ref="A1:AY360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+    <sheetView topLeftCell="A259" workbookViewId="0">
       <selection activeCell="T280" sqref="T280"/>
     </sheetView>
   </sheetViews>
